--- a/Docs/06 Testing/测试课题.xlsx
+++ b/Docs/06 Testing/测试课题.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">记录!$A$3:$H$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'课题记录 '!$A$3:$Q$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'课题记录 '!$A$3:$Q$153</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'课题记录  (2)'!$A$3:$H$51</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="258">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1125,9 +1125,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>未处理</t>
-  </si>
-  <si>
     <t>现在使用CS方式，快捷键不受浏览器限制</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1153,10 +1150,6 @@
   </si>
   <si>
     <t>标准时间制作管理系统测试课题记录表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1164,19 +1157,507 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>是否新增功能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>多语言版本作为新课题</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>问题见4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-机种</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增以及编辑界面，字段顺序修改为：部门-&gt;机种系列-&gt;机种名-&gt;型号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或变更</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-部品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加搜索条件:是否通用、备注
+导入修改为部品-机种 关系表导入，无部件则插入部件并新增与机种的关系(导入已改，导出还没有)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-生产阶段</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加搜索条件：沿用阶段、备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>新增、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>更</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-报表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加搜索条件：备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-报表组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表搜索条件无效，添加备注搜索</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-治工具</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-工位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加是否通用，备注搜索条件
+导入修改为 治工具-机种 关系表导入，无治工具则插入治工具并新增与机种的关系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加备注搜索
+导入修改为 工位-机种 关系表导入，无工位则插入工位并新增与机种的关系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-机种系列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加备注搜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加备注搜索
+添加导入功能
+按部门区分</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出未完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入未完成
+按部门区分未完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名修改为：手顺及指标值组合
+完整显示整表
+选中序号列时可以复制和粘贴整行
+增加频率栏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制粘贴未完成
+增加频率栏未完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-关键词</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-手顺组合</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-常用指标组合</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单修改为：常用指标值组合
+ 添加导入功能
+ 按部门区分
+ 增加频率栏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加导入功能未完成
+按部门区分未完成
+ 增加频率栏未完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入大小标题，只保存了第一次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表录入界面点击返回时要提示是否已经保存，弹出窗口保存或不保存。点击保存则进行并返回分析表列表，不保存则直接返回列表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表右边的remark分成两个，分别是remark1和remark2，remark1填写为数值，需前端计算，公式为ROUNDUP(remark1/0.36*6,-1)，后端只存值(当 M、X、I 有值的时做此操作)；  remark2存储原来的remark，原有remark不能输入</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入0加小数点不变红</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>频度修改为普通值的时候，回车会返回上一行或者跳到第一行,应跳到下一行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool行应只能输入CSMRTFL+数字 ，默认为*0，最后一个A 栏初始值为：0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表开头的A、B、G栏自动补:0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表中间（ABPA tool ABP）网格线颜色太浅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>见课题10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿用修改为复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>更</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>治工具，部品，关键字若联想的第一个结果为所需要的，按下TAB可以选择填充，光标移动到下一格</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放视频界面 不需要当前视频时，提供关闭视频功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频播放界面需要显示当前播放视频的名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单行复制 多行复制 可以复制某几列功能未实现</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>见课题29</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现撤销功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用手顺组合插入的只能插入第一行，需指针在哪则插入到哪里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷保存快捷键ctrl+s 以及自动保存功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后的A和频度栏 支持公式计算，简单的加减乘除，即输入公式，离开编辑后，自动将公式替换</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workMethod列在输入ABP等字母时不做跳转，只在后面的指标值使用字母快捷跳转</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击dele删除一行，删除光标不见了，需要重新使用鼠标点击分析表才能继续删除，需实现点击删除，光标仍在当前行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表列表提供删除功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表选择一部分数据，可以批量删除</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表可以批量生成报表，批量复制</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表 key 查询的时候不区分大小</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表在菜单栏提供树形结构：控制中心 -&gt; 部门 -&gt;  LST/ST -&gt; 机种系列 -&gt; 机种</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>见课题4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+"-" 删除一行</t>
+  </si>
+  <si>
+    <t>见课题20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+"+" 增加一行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>整行复制excel中的数据不能粘贴到系统中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用方向键不能移动到No列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回有时出问题，不能返回</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入界面播放的视频要完整显示，不能被分析表遮挡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>治工具，部件联想出的结果，换行问题，以及遮挡问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workMethod第一个就输入[]，没有进行默认联想部件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>频率漏填需要标红</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号修改为座机号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表录入模块</t>
+  </si>
+  <si>
+    <t>分析表录入模块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表录入模块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表录入模块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分编辑、详情页面较长，前端右上角或者左上角添加一个返回 按钮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索返回结果时，按照最匹配的顺序排列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录账户密码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>见课题5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统无刷新功能，F5或者在界面添加一个刷新按钮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统首页修改为：展示菜单模块、背景图，点击某个模块之后，界面修改为导航栏+页面内容，类似于磁铁图，显示导航栏的几大块功能，点击某个模块后跳转到相对应模块的首个页面，例如点击masterData磁铁图跳转到机种系列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>见课题3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言版本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>左边的菜单栏需明亮一点，对比明显，字体变大，粗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面，左上角的图标改成小时钟，most去掉   登录界面图(图里的文字变粗 变大)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统中间的标题（标准时间分析管理系统）美化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统右上角  姓名-部门，第二行显示时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像可切换</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门下拉框修改为树状显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增的数据排序在第一</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门删除编号，部门类型，部门级别</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员删除性别，列表界面删除高级查询，增加导出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员信息显示中心</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据隔离</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>总部改为ESL</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别未删除
+导出未完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表录入模块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中</t>
+  </si>
+  <si>
+    <t>处理中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未执行修改语句</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1675,13 +2156,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,7 +2342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2271,7 +2752,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2358,81 +2839,78 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="11" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="25" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="11" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="25" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2445,6 +2923,102 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2460,6 +3034,12 @@
     <xf numFmtId="58" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2472,56 +3052,11 @@
     <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="23" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6396,11 +6931,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42"/>
+      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6425,7 +6960,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
       <c r="A1" s="120" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
@@ -6483,7 +7018,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="116" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H3" s="117" t="s">
         <v>7</v>
@@ -6513,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="135" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="113" customFormat="1" ht="101.4" customHeight="1">
@@ -6542,12 +7077,14 @@
       </c>
       <c r="J4" s="123"/>
       <c r="K4" s="129"/>
-      <c r="L4" s="130"/>
+      <c r="L4" s="142" t="s">
+        <v>127</v>
+      </c>
       <c r="M4" s="131"/>
       <c r="N4" s="132"/>
       <c r="O4" s="123"/>
       <c r="P4" s="133" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="139"/>
     </row>
@@ -6589,77 +7126,77 @@
       <c r="Q5" s="139"/>
     </row>
     <row r="6" spans="1:17" s="113" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A6" s="166">
+      <c r="A6" s="175">
         <v>3</v>
       </c>
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="169" t="s">
+      <c r="D6" s="178"/>
+      <c r="E6" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="169" t="s">
+      <c r="F6" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="170">
+      <c r="G6" s="180">
         <v>43801</v>
       </c>
-      <c r="H6" s="171"/>
-      <c r="I6" s="166" t="s">
+      <c r="H6" s="181"/>
+      <c r="I6" s="175" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="166"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="173" t="s">
-        <v>136</v>
-      </c>
-      <c r="M6" s="174"/>
-      <c r="N6" s="175"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="177" t="s">
-        <v>147</v>
+      <c r="J6" s="175"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M6" s="183"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="189" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="113" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A7" s="166">
+      <c r="A7" s="175">
         <v>4</v>
       </c>
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="168"/>
-      <c r="E7" s="169" t="s">
+      <c r="D7" s="178"/>
+      <c r="E7" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="169" t="s">
+      <c r="F7" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="170">
+      <c r="G7" s="180">
         <v>43801</v>
       </c>
-      <c r="H7" s="171"/>
-      <c r="I7" s="166" t="s">
+      <c r="H7" s="181"/>
+      <c r="I7" s="175" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="166"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="173" t="s">
-        <v>136</v>
-      </c>
-      <c r="M7" s="174"/>
-      <c r="N7" s="175"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="177" t="s">
-        <v>147</v>
+      <c r="J7" s="175"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M7" s="183"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="189" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="113" customFormat="1" ht="58.5" customHeight="1">
@@ -6732,7 +7269,9 @@
       <c r="N9" s="132"/>
       <c r="O9" s="123"/>
       <c r="P9" s="133"/>
-      <c r="Q9" s="139"/>
+      <c r="Q9" s="139" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="10" spans="1:17" s="65" customFormat="1" ht="58.5" customHeight="1">
       <c r="A10" s="123">
@@ -6767,7 +7306,7 @@
       <c r="N10" s="151"/>
       <c r="O10" s="152"/>
       <c r="P10" s="153"/>
-      <c r="Q10" s="154"/>
+      <c r="Q10" s="139"/>
     </row>
     <row r="11" spans="1:17" s="65" customFormat="1" ht="58.5" customHeight="1">
       <c r="A11" s="123">
@@ -6805,45 +7344,45 @@
       <c r="Q11" s="154"/>
     </row>
     <row r="12" spans="1:17" s="65" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A12" s="185">
+      <c r="A12" s="171">
         <v>9</v>
       </c>
-      <c r="B12" s="195" t="s">
+      <c r="B12" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="196" t="s">
+      <c r="C12" s="195" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="197"/>
-      <c r="E12" s="186" t="s">
+      <c r="D12" s="196"/>
+      <c r="E12" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="198" t="s">
+      <c r="F12" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="199">
+      <c r="G12" s="198">
         <v>43808</v>
       </c>
-      <c r="H12" s="187"/>
-      <c r="I12" s="185" t="s">
+      <c r="H12" s="173"/>
+      <c r="I12" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="200"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="202"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="203"/>
-      <c r="O12" s="204"/>
-      <c r="P12" s="205" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q12" s="206"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="200"/>
+      <c r="L12" s="201"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="203"/>
+      <c r="P12" s="204" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q12" s="205"/>
     </row>
     <row r="13" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A13" s="155">
         <v>10</v>
       </c>
-      <c r="B13" s="189" t="s">
+      <c r="B13" s="187" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="156" t="s">
@@ -6867,18 +7406,22 @@
       </c>
       <c r="J13" s="155"/>
       <c r="K13" s="161"/>
-      <c r="L13" s="162"/>
+      <c r="L13" s="162" t="s">
+        <v>250</v>
+      </c>
       <c r="M13" s="163"/>
       <c r="N13" s="164"/>
       <c r="O13" s="155"/>
       <c r="P13" s="165"/>
-      <c r="Q13" s="192"/>
+      <c r="Q13" s="191" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="14" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A14" s="155">
         <v>11</v>
       </c>
-      <c r="B14" s="189" t="s">
+      <c r="B14" s="187" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="156" t="s">
@@ -6900,24 +7443,26 @@
       </c>
       <c r="J14" s="155"/>
       <c r="K14" s="161"/>
-      <c r="L14" s="162"/>
+      <c r="L14" s="162" t="s">
+        <v>250</v>
+      </c>
       <c r="M14" s="163"/>
       <c r="N14" s="164"/>
       <c r="O14" s="155"/>
       <c r="P14" s="165"/>
-      <c r="Q14" s="192"/>
+      <c r="Q14" s="191"/>
     </row>
     <row r="15" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A15" s="123">
         <v>12</v>
       </c>
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="179"/>
+      <c r="D15" s="167"/>
       <c r="E15" s="126" t="s">
         <v>20</v>
       </c>
@@ -6927,7 +7472,7 @@
       <c r="G15" s="127">
         <v>43803</v>
       </c>
-      <c r="H15" s="180" t="s">
+      <c r="H15" s="168" t="s">
         <v>116</v>
       </c>
       <c r="I15" s="123" t="s">
@@ -6950,13 +7495,13 @@
       <c r="A16" s="123">
         <v>13</v>
       </c>
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="179"/>
+      <c r="D16" s="167"/>
       <c r="E16" s="126" t="s">
         <v>20</v>
       </c>
@@ -6966,7 +7511,7 @@
       <c r="G16" s="127">
         <v>43803</v>
       </c>
-      <c r="H16" s="180" t="s">
+      <c r="H16" s="168" t="s">
         <v>117</v>
       </c>
       <c r="I16" s="123" t="s">
@@ -6989,13 +7534,13 @@
       <c r="A17" s="123">
         <v>14</v>
       </c>
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="179"/>
+      <c r="D17" s="167"/>
       <c r="E17" s="126" t="s">
         <v>20</v>
       </c>
@@ -7005,7 +7550,7 @@
       <c r="G17" s="127">
         <v>43803</v>
       </c>
-      <c r="H17" s="180"/>
+      <c r="H17" s="168"/>
       <c r="I17" s="123" t="s">
         <v>16</v>
       </c>
@@ -7026,13 +7571,13 @@
       <c r="A18" s="123">
         <v>15</v>
       </c>
-      <c r="B18" s="178" t="s">
+      <c r="B18" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="179"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="126" t="s">
         <v>20</v>
       </c>
@@ -7042,7 +7587,7 @@
       <c r="G18" s="127">
         <v>43805</v>
       </c>
-      <c r="H18" s="180"/>
+      <c r="H18" s="168"/>
       <c r="I18" s="123" t="s">
         <v>16</v>
       </c>
@@ -7055,7 +7600,7 @@
       <c r="N18" s="132"/>
       <c r="O18" s="123"/>
       <c r="P18" s="133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q18" s="139"/>
     </row>
@@ -7063,13 +7608,13 @@
       <c r="A19" s="123">
         <v>16</v>
       </c>
-      <c r="B19" s="178" t="s">
+      <c r="B19" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="181"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="126" t="s">
         <v>20</v>
       </c>
@@ -7079,7 +7624,7 @@
       <c r="G19" s="127">
         <v>43802</v>
       </c>
-      <c r="H19" s="180"/>
+      <c r="H19" s="168"/>
       <c r="I19" s="123" t="s">
         <v>16</v>
       </c>
@@ -7092,7 +7637,7 @@
       <c r="N19" s="132"/>
       <c r="O19" s="123"/>
       <c r="P19" s="133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="139"/>
     </row>
@@ -7100,13 +7645,13 @@
       <c r="A20" s="123">
         <v>17</v>
       </c>
-      <c r="B20" s="178" t="s">
+      <c r="B20" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="179"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="126" t="s">
         <v>20</v>
       </c>
@@ -7116,7 +7661,7 @@
       <c r="G20" s="127">
         <v>43803</v>
       </c>
-      <c r="H20" s="190" t="s">
+      <c r="H20" s="188" t="s">
         <v>48</v>
       </c>
       <c r="I20" s="123" t="s">
@@ -7134,53 +7679,55 @@
       <c r="Q20" s="139"/>
     </row>
     <row r="21" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A21" s="166">
+      <c r="A21" s="175">
         <v>18</v>
       </c>
-      <c r="B21" s="183" t="s">
+      <c r="B21" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C21" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="168"/>
-      <c r="E21" s="169" t="s">
+      <c r="D21" s="178"/>
+      <c r="E21" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="169" t="s">
+      <c r="F21" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="170">
+      <c r="G21" s="180">
         <v>43803</v>
       </c>
-      <c r="H21" s="171" t="s">
+      <c r="H21" s="181" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="166" t="s">
+      <c r="I21" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="166"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="174"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="166"/>
-      <c r="P21" s="176"/>
-      <c r="Q21" s="184" t="s">
-        <v>147</v>
+      <c r="J21" s="175"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M21" s="183"/>
+      <c r="N21" s="184"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="185"/>
+      <c r="Q21" s="186" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A22" s="123">
         <v>19</v>
       </c>
-      <c r="B22" s="178" t="s">
+      <c r="B22" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="179"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="126" t="s">
         <v>20</v>
       </c>
@@ -7190,7 +7737,7 @@
       <c r="G22" s="127">
         <v>43803</v>
       </c>
-      <c r="H22" s="180"/>
+      <c r="H22" s="168"/>
       <c r="I22" s="123" t="s">
         <v>16</v>
       </c>
@@ -7209,13 +7756,13 @@
       <c r="A23" s="123">
         <v>20</v>
       </c>
-      <c r="B23" s="178" t="s">
+      <c r="B23" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="179"/>
+      <c r="D23" s="167"/>
       <c r="E23" s="126" t="s">
         <v>20</v>
       </c>
@@ -7225,7 +7772,7 @@
       <c r="G23" s="127">
         <v>43803</v>
       </c>
-      <c r="H23" s="180" t="s">
+      <c r="H23" s="168" t="s">
         <v>115</v>
       </c>
       <c r="I23" s="123" t="s">
@@ -7240,95 +7787,99 @@
       <c r="N23" s="132"/>
       <c r="O23" s="123"/>
       <c r="P23" s="133" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="182" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="Q23" s="170" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="113" customFormat="1" ht="54" customHeight="1">
-      <c r="A24" s="166">
+      <c r="A24" s="175">
         <v>21</v>
       </c>
-      <c r="B24" s="183" t="s">
+      <c r="B24" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="167" t="s">
+      <c r="C24" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="169" t="s">
+      <c r="D24" s="178"/>
+      <c r="E24" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="169" t="s">
+      <c r="F24" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="170">
+      <c r="G24" s="180">
         <v>43804</v>
       </c>
-      <c r="H24" s="171" t="s">
+      <c r="H24" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="I24" s="166" t="s">
+      <c r="I24" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="166"/>
-      <c r="K24" s="172"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="166"/>
-      <c r="P24" s="176"/>
-      <c r="Q24" s="177" t="s">
-        <v>147</v>
+      <c r="J24" s="175"/>
+      <c r="K24" s="182"/>
+      <c r="L24" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M24" s="183"/>
+      <c r="N24" s="184"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="185"/>
+      <c r="Q24" s="189" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A25" s="166">
+      <c r="A25" s="175">
         <v>22</v>
       </c>
-      <c r="B25" s="183" t="s">
+      <c r="B25" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="167" t="s">
+      <c r="C25" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="168"/>
-      <c r="E25" s="169" t="s">
+      <c r="D25" s="178"/>
+      <c r="E25" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="169" t="s">
+      <c r="F25" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="170">
+      <c r="G25" s="180">
         <v>43804</v>
       </c>
-      <c r="H25" s="171"/>
-      <c r="I25" s="166" t="s">
+      <c r="H25" s="181"/>
+      <c r="I25" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="166"/>
-      <c r="K25" s="172"/>
-      <c r="L25" s="173"/>
-      <c r="M25" s="174"/>
-      <c r="N25" s="175"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="176"/>
-      <c r="Q25" s="177" t="s">
-        <v>147</v>
+      <c r="J25" s="175"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M25" s="183"/>
+      <c r="N25" s="184"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="185"/>
+      <c r="Q25" s="189" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="113" customFormat="1" ht="63" customHeight="1">
       <c r="A26" s="123">
         <v>23</v>
       </c>
-      <c r="B26" s="178" t="s">
+      <c r="B26" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="179"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="126" t="s">
         <v>20</v>
       </c>
@@ -7338,7 +7889,7 @@
       <c r="G26" s="127">
         <v>43804</v>
       </c>
-      <c r="H26" s="180" t="s">
+      <c r="H26" s="168" t="s">
         <v>89</v>
       </c>
       <c r="I26" s="123" t="s">
@@ -7359,13 +7910,13 @@
       <c r="A27" s="123">
         <v>24</v>
       </c>
-      <c r="B27" s="178" t="s">
+      <c r="B27" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="179"/>
+      <c r="D27" s="167"/>
       <c r="E27" s="126" t="s">
         <v>20</v>
       </c>
@@ -7375,7 +7926,7 @@
       <c r="G27" s="127">
         <v>43804</v>
       </c>
-      <c r="H27" s="190" t="s">
+      <c r="H27" s="188" t="s">
         <v>92</v>
       </c>
       <c r="I27" s="123" t="s">
@@ -7396,13 +7947,13 @@
       <c r="A28" s="123">
         <v>25</v>
       </c>
-      <c r="B28" s="178" t="s">
+      <c r="B28" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="179"/>
+      <c r="D28" s="167"/>
       <c r="E28" s="126" t="s">
         <v>20</v>
       </c>
@@ -7412,7 +7963,7 @@
       <c r="G28" s="127">
         <v>43804</v>
       </c>
-      <c r="H28" s="180"/>
+      <c r="H28" s="168"/>
       <c r="I28" s="123" t="s">
         <v>16</v>
       </c>
@@ -7431,13 +7982,13 @@
       <c r="A29" s="123">
         <v>26</v>
       </c>
-      <c r="B29" s="178" t="s">
+      <c r="B29" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="191" t="s">
+      <c r="C29" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="179"/>
+      <c r="D29" s="167"/>
       <c r="E29" s="126" t="s">
         <v>20</v>
       </c>
@@ -7447,7 +7998,7 @@
       <c r="G29" s="127">
         <v>43804</v>
       </c>
-      <c r="H29" s="180" t="s">
+      <c r="H29" s="168" t="s">
         <v>60</v>
       </c>
       <c r="I29" s="123" t="s">
@@ -7468,13 +8019,13 @@
       <c r="A30" s="123">
         <v>27</v>
       </c>
-      <c r="B30" s="178" t="s">
+      <c r="B30" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="179"/>
+      <c r="D30" s="167"/>
       <c r="E30" s="126" t="s">
         <v>20</v>
       </c>
@@ -7484,7 +8035,7 @@
       <c r="G30" s="127">
         <v>43804</v>
       </c>
-      <c r="H30" s="190" t="s">
+      <c r="H30" s="188" t="s">
         <v>105</v>
       </c>
       <c r="I30" s="123" t="s">
@@ -7505,7 +8056,7 @@
       <c r="A31" s="123">
         <v>28</v>
       </c>
-      <c r="B31" s="178" t="s">
+      <c r="B31" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="140" t="s">
@@ -7521,7 +8072,7 @@
       <c r="G31" s="127">
         <v>43804</v>
       </c>
-      <c r="H31" s="180" t="s">
+      <c r="H31" s="168" t="s">
         <v>106</v>
       </c>
       <c r="I31" s="123" t="s">
@@ -7538,50 +8089,52 @@
       <c r="P31" s="133" t="s">
         <v>132</v>
       </c>
-      <c r="Q31" s="182"/>
+      <c r="Q31" s="170"/>
     </row>
     <row r="32" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A32" s="166">
+      <c r="A32" s="175">
         <v>29</v>
       </c>
-      <c r="B32" s="183" t="s">
+      <c r="B32" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="167" t="s">
+      <c r="C32" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="168"/>
-      <c r="E32" s="169" t="s">
+      <c r="D32" s="178"/>
+      <c r="E32" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="169" t="s">
+      <c r="F32" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="170">
+      <c r="G32" s="180">
         <v>43802</v>
       </c>
-      <c r="H32" s="171" t="s">
+      <c r="H32" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="166" t="s">
+      <c r="I32" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="166"/>
-      <c r="K32" s="172"/>
-      <c r="L32" s="173"/>
-      <c r="M32" s="174"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="166"/>
-      <c r="P32" s="176"/>
-      <c r="Q32" s="184" t="s">
-        <v>147</v>
+      <c r="J32" s="175"/>
+      <c r="K32" s="182"/>
+      <c r="L32" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M32" s="183"/>
+      <c r="N32" s="184"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="185"/>
+      <c r="Q32" s="186" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A33" s="123">
         <v>30</v>
       </c>
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="140" t="s">
@@ -7597,7 +8150,7 @@
       <c r="G33" s="127">
         <v>43805</v>
       </c>
-      <c r="H33" s="180" t="s">
+      <c r="H33" s="168" t="s">
         <v>111</v>
       </c>
       <c r="I33" s="123" t="s">
@@ -7612,7 +8165,7 @@
       <c r="N33" s="132"/>
       <c r="O33" s="123"/>
       <c r="P33" s="133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q33" s="139"/>
     </row>
@@ -7620,7 +8173,7 @@
       <c r="A34" s="123">
         <v>31</v>
       </c>
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="140" t="s">
@@ -7636,7 +8189,7 @@
       <c r="G34" s="127">
         <v>43805</v>
       </c>
-      <c r="H34" s="180" t="s">
+      <c r="H34" s="168" t="s">
         <v>113</v>
       </c>
       <c r="I34" s="123" t="s">
@@ -7651,7 +8204,7 @@
       <c r="N34" s="132"/>
       <c r="O34" s="123"/>
       <c r="P34" s="133" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="139"/>
     </row>
@@ -7659,7 +8212,7 @@
       <c r="A35" s="123">
         <v>32</v>
       </c>
-      <c r="B35" s="178" t="s">
+      <c r="B35" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="144" t="s">
@@ -7681,53 +8234,55 @@
       </c>
       <c r="J35" s="149"/>
       <c r="K35" s="150"/>
-      <c r="L35" s="193" t="s">
+      <c r="L35" s="192" t="s">
         <v>127</v>
       </c>
       <c r="M35" s="131"/>
       <c r="N35" s="151"/>
       <c r="O35" s="152"/>
       <c r="P35" s="153"/>
-      <c r="Q35" s="194"/>
+      <c r="Q35" s="193"/>
     </row>
     <row r="36" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
       <c r="A36" s="155">
         <v>33</v>
       </c>
-      <c r="B36" s="189" t="s">
+      <c r="B36" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="207" t="s">
+      <c r="C36" s="206" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="208"/>
+      <c r="D36" s="207"/>
       <c r="E36" s="158" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="209">
+      <c r="G36" s="208">
         <v>43808</v>
       </c>
-      <c r="H36" s="210"/>
+      <c r="H36" s="209"/>
       <c r="I36" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="211"/>
-      <c r="K36" s="212"/>
-      <c r="L36" s="162"/>
+      <c r="J36" s="210"/>
+      <c r="K36" s="211"/>
+      <c r="L36" s="162" t="s">
+        <v>250</v>
+      </c>
       <c r="M36" s="163"/>
-      <c r="N36" s="213"/>
-      <c r="O36" s="214"/>
-      <c r="P36" s="215"/>
-      <c r="Q36" s="216"/>
+      <c r="N36" s="212"/>
+      <c r="O36" s="213"/>
+      <c r="P36" s="214"/>
+      <c r="Q36" s="215"/>
     </row>
     <row r="37" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
       <c r="A37" s="123">
         <v>34</v>
       </c>
-      <c r="B37" s="178" t="s">
+      <c r="B37" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="144" t="s">
@@ -7743,7 +8298,7 @@
       <c r="G37" s="147">
         <v>43808</v>
       </c>
-      <c r="H37" s="217"/>
+      <c r="H37" s="216"/>
       <c r="I37" s="123" t="s">
         <v>16</v>
       </c>
@@ -7756,15 +8311,15 @@
       <c r="N37" s="151"/>
       <c r="O37" s="152"/>
       <c r="P37" s="153" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q37" s="194"/>
+        <v>140</v>
+      </c>
+      <c r="Q37" s="193"/>
     </row>
     <row r="38" spans="1:17" s="65" customFormat="1" ht="62.25" customHeight="1">
       <c r="A38" s="123">
         <v>35</v>
       </c>
-      <c r="B38" s="178" t="s">
+      <c r="B38" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="144" t="s">
@@ -7793,13 +8348,13 @@
       <c r="N38" s="151"/>
       <c r="O38" s="152"/>
       <c r="P38" s="153"/>
-      <c r="Q38" s="194"/>
+      <c r="Q38" s="193"/>
     </row>
     <row r="39" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
       <c r="A39" s="123">
         <v>36</v>
       </c>
-      <c r="B39" s="178" t="s">
+      <c r="B39" s="166" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="144" t="s">
@@ -7828,19 +8383,19 @@
       <c r="N39" s="151"/>
       <c r="O39" s="152"/>
       <c r="P39" s="153"/>
-      <c r="Q39" s="194"/>
+      <c r="Q39" s="193"/>
     </row>
     <row r="40" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A40" s="123">
         <v>37</v>
       </c>
-      <c r="B40" s="178" t="s">
+      <c r="B40" s="166" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="179"/>
+      <c r="D40" s="167"/>
       <c r="E40" s="126" t="s">
         <v>20</v>
       </c>
@@ -7850,7 +8405,7 @@
       <c r="G40" s="127">
         <v>43802</v>
       </c>
-      <c r="H40" s="180"/>
+      <c r="H40" s="168"/>
       <c r="I40" s="123" t="s">
         <v>16</v>
       </c>
@@ -7869,13 +8424,13 @@
       <c r="A41" s="123">
         <v>38</v>
       </c>
-      <c r="B41" s="178" t="s">
+      <c r="B41" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="218" t="s">
+      <c r="C41" s="217" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="179"/>
+      <c r="D41" s="167"/>
       <c r="E41" s="126" t="s">
         <v>20</v>
       </c>
@@ -7885,7 +8440,7 @@
       <c r="G41" s="127">
         <v>43803</v>
       </c>
-      <c r="H41" s="180"/>
+      <c r="H41" s="168"/>
       <c r="I41" s="123" t="s">
         <v>16</v>
       </c>
@@ -7904,13 +8459,13 @@
       <c r="A42" s="123">
         <v>39</v>
       </c>
-      <c r="B42" s="178" t="s">
+      <c r="B42" s="166" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="179"/>
+      <c r="D42" s="167"/>
       <c r="E42" s="126" t="s">
         <v>20</v>
       </c>
@@ -7920,7 +8475,7 @@
       <c r="G42" s="127">
         <v>43803</v>
       </c>
-      <c r="H42" s="180"/>
+      <c r="H42" s="168"/>
       <c r="I42" s="123" t="s">
         <v>16</v>
       </c>
@@ -7939,7 +8494,7 @@
       <c r="A43" s="123">
         <v>40</v>
       </c>
-      <c r="B43" s="178" t="s">
+      <c r="B43" s="166" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="140" t="s">
@@ -7955,13 +8510,13 @@
       <c r="G43" s="127">
         <v>43804</v>
       </c>
-      <c r="H43" s="180" t="s">
+      <c r="H43" s="168" t="s">
         <v>107</v>
       </c>
       <c r="I43" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="219"/>
+      <c r="J43" s="218"/>
       <c r="K43" s="127"/>
       <c r="L43" s="142" t="s">
         <v>127</v>
@@ -7976,13 +8531,13 @@
       <c r="A44" s="123">
         <v>41</v>
       </c>
-      <c r="B44" s="178" t="s">
+      <c r="B44" s="166" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="179"/>
+      <c r="D44" s="167"/>
       <c r="E44" s="126" t="s">
         <v>20</v>
       </c>
@@ -7992,13 +8547,13 @@
       <c r="G44" s="127">
         <v>43804</v>
       </c>
-      <c r="H44" s="180" t="s">
+      <c r="H44" s="168" t="s">
         <v>68</v>
       </c>
       <c r="I44" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="219"/>
+      <c r="J44" s="218"/>
       <c r="K44" s="129"/>
       <c r="L44" s="130" t="s">
         <v>127</v>
@@ -8006,91 +8561,2738 @@
       <c r="M44" s="131"/>
       <c r="N44" s="132"/>
       <c r="O44" s="123"/>
-      <c r="P44" s="220"/>
-      <c r="Q44" s="182"/>
+      <c r="P44" s="219"/>
+      <c r="Q44" s="170"/>
     </row>
     <row r="45" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A45" s="112">
+      <c r="A45" s="123">
         <v>42</v>
       </c>
-      <c r="B45" s="104"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9" t="s">
+      <c r="B45" s="143" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="144" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="145"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="149"/>
+      <c r="K45" s="150"/>
+      <c r="L45" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M45" s="131"/>
+      <c r="N45" s="151"/>
+      <c r="O45" s="152"/>
+      <c r="P45" s="153"/>
+      <c r="Q45" s="154"/>
+    </row>
+    <row r="46" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A46" s="123">
+        <v>43</v>
+      </c>
+      <c r="B46" s="143" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="144" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="145"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="149"/>
+      <c r="K46" s="150"/>
+      <c r="L46" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M46" s="131"/>
+      <c r="N46" s="151"/>
+      <c r="O46" s="152"/>
+      <c r="P46" s="153"/>
+      <c r="Q46" s="154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A47" s="123">
+        <v>44</v>
+      </c>
+      <c r="B47" s="143" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="144" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="145"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="149"/>
+      <c r="K47" s="150"/>
+      <c r="L47" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M47" s="131"/>
+      <c r="N47" s="151"/>
+      <c r="O47" s="152"/>
+      <c r="P47" s="153"/>
+      <c r="Q47" s="154" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A48" s="123">
+        <v>45</v>
+      </c>
+      <c r="B48" s="143" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="144" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="145"/>
+      <c r="E48" s="146"/>
+      <c r="F48" s="146"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="149"/>
+      <c r="K48" s="150"/>
+      <c r="L48" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M48" s="131"/>
+      <c r="N48" s="151"/>
+      <c r="O48" s="152"/>
+      <c r="P48" s="153"/>
+      <c r="Q48" s="154" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A49" s="123">
+        <v>46</v>
+      </c>
+      <c r="B49" s="143" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="145"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="146"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="148"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="149"/>
+      <c r="K49" s="150"/>
+      <c r="L49" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M49" s="131"/>
+      <c r="N49" s="151"/>
+      <c r="O49" s="152"/>
+      <c r="P49" s="153"/>
+      <c r="Q49" s="154" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A50" s="155">
+        <v>47</v>
+      </c>
+      <c r="B50" s="220" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="206" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="207"/>
+      <c r="E50" s="221"/>
+      <c r="F50" s="221"/>
+      <c r="G50" s="208"/>
+      <c r="H50" s="209"/>
+      <c r="I50" s="213"/>
+      <c r="J50" s="210"/>
+      <c r="K50" s="211"/>
+      <c r="L50" s="162" t="s">
+        <v>250</v>
+      </c>
+      <c r="M50" s="163"/>
+      <c r="N50" s="212"/>
+      <c r="O50" s="213"/>
+      <c r="P50" s="214" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q50" s="223" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A51" s="155">
+        <v>48</v>
+      </c>
+      <c r="B51" s="220" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="206" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="207"/>
+      <c r="E51" s="221"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="208"/>
+      <c r="H51" s="209"/>
+      <c r="I51" s="213"/>
+      <c r="J51" s="210"/>
+      <c r="K51" s="211"/>
+      <c r="L51" s="162" t="s">
+        <v>250</v>
+      </c>
+      <c r="M51" s="163"/>
+      <c r="N51" s="212"/>
+      <c r="O51" s="213"/>
+      <c r="P51" s="214" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q51" s="223" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A52" s="123">
+        <v>49</v>
+      </c>
+      <c r="B52" s="143" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="144" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="145"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="148"/>
+      <c r="I52" s="152"/>
+      <c r="J52" s="149"/>
+      <c r="K52" s="150"/>
+      <c r="L52" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M52" s="131"/>
+      <c r="N52" s="151"/>
+      <c r="O52" s="152"/>
+      <c r="P52" s="153"/>
+      <c r="Q52" s="154" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A53" s="155">
+        <v>50</v>
+      </c>
+      <c r="B53" s="220" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="206" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="207"/>
+      <c r="E53" s="221"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="208"/>
+      <c r="H53" s="209"/>
+      <c r="I53" s="213"/>
+      <c r="J53" s="210"/>
+      <c r="K53" s="211"/>
+      <c r="L53" s="162" t="s">
+        <v>250</v>
+      </c>
+      <c r="M53" s="163"/>
+      <c r="N53" s="212"/>
+      <c r="O53" s="213"/>
+      <c r="P53" s="214" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q53" s="223" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="17" customFormat="1" ht="75.599999999999994" customHeight="1">
+      <c r="A54" s="155">
+        <v>51</v>
+      </c>
+      <c r="B54" s="220" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="206" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="207"/>
+      <c r="E54" s="221"/>
+      <c r="F54" s="221"/>
+      <c r="G54" s="208"/>
+      <c r="H54" s="209"/>
+      <c r="I54" s="213"/>
+      <c r="J54" s="210"/>
+      <c r="K54" s="211"/>
+      <c r="L54" s="162" t="s">
+        <v>250</v>
+      </c>
+      <c r="M54" s="163"/>
+      <c r="N54" s="212"/>
+      <c r="O54" s="213"/>
+      <c r="P54" s="214" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q54" s="223"/>
+    </row>
+    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A55" s="155">
+        <v>52</v>
+      </c>
+      <c r="B55" s="220" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="206" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="207"/>
+      <c r="E55" s="221"/>
+      <c r="F55" s="221"/>
+      <c r="G55" s="208"/>
+      <c r="H55" s="209"/>
+      <c r="I55" s="213"/>
+      <c r="J55" s="210"/>
+      <c r="K55" s="211"/>
+      <c r="L55" s="162" t="s">
+        <v>250</v>
+      </c>
+      <c r="M55" s="163"/>
+      <c r="N55" s="212"/>
+      <c r="O55" s="213"/>
+      <c r="P55" s="214" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q55" s="223" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A56" s="155">
+        <v>53</v>
+      </c>
+      <c r="B56" s="220" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" s="206" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="207"/>
+      <c r="E56" s="221"/>
+      <c r="F56" s="221"/>
+      <c r="G56" s="208"/>
+      <c r="H56" s="209"/>
+      <c r="I56" s="213"/>
+      <c r="J56" s="210"/>
+      <c r="K56" s="211"/>
+      <c r="L56" s="162" t="s">
+        <v>250</v>
+      </c>
+      <c r="M56" s="163"/>
+      <c r="N56" s="212"/>
+      <c r="O56" s="213"/>
+      <c r="P56" s="214"/>
+      <c r="Q56" s="223"/>
+    </row>
+    <row r="57" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A57" s="155">
+        <v>54</v>
+      </c>
+      <c r="B57" s="220" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="206" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="207"/>
+      <c r="E57" s="221"/>
+      <c r="F57" s="221"/>
+      <c r="G57" s="208"/>
+      <c r="H57" s="209"/>
+      <c r="I57" s="213"/>
+      <c r="J57" s="210"/>
+      <c r="K57" s="211"/>
+      <c r="L57" s="162" t="s">
+        <v>250</v>
+      </c>
+      <c r="M57" s="163"/>
+      <c r="N57" s="212"/>
+      <c r="O57" s="213"/>
+      <c r="P57" s="214"/>
+      <c r="Q57" s="223"/>
+    </row>
+    <row r="58" spans="1:17" s="17" customFormat="1" ht="100.8">
+      <c r="A58" s="155">
+        <v>55</v>
+      </c>
+      <c r="B58" s="220" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="207"/>
+      <c r="E58" s="221"/>
+      <c r="F58" s="221"/>
+      <c r="G58" s="208"/>
+      <c r="H58" s="209"/>
+      <c r="I58" s="213"/>
+      <c r="J58" s="210"/>
+      <c r="K58" s="211"/>
+      <c r="L58" s="162" t="s">
+        <v>250</v>
+      </c>
+      <c r="M58" s="163"/>
+      <c r="N58" s="212"/>
+      <c r="O58" s="213"/>
+      <c r="P58" s="214"/>
+      <c r="Q58" s="223"/>
+    </row>
+    <row r="59" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A59" s="155">
+        <v>56</v>
+      </c>
+      <c r="B59" s="220" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="206" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="207"/>
+      <c r="E59" s="221"/>
+      <c r="F59" s="221"/>
+      <c r="G59" s="208"/>
+      <c r="H59" s="209"/>
+      <c r="I59" s="213"/>
+      <c r="J59" s="210"/>
+      <c r="K59" s="211"/>
+      <c r="L59" s="162" t="s">
+        <v>250</v>
+      </c>
+      <c r="M59" s="163"/>
+      <c r="N59" s="212"/>
+      <c r="O59" s="213"/>
+      <c r="P59" s="214"/>
+      <c r="Q59" s="223"/>
+    </row>
+    <row r="60" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A60" s="155">
+        <v>57</v>
+      </c>
+      <c r="B60" s="220" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="206" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="207"/>
+      <c r="E60" s="221"/>
+      <c r="F60" s="221"/>
+      <c r="G60" s="208"/>
+      <c r="H60" s="209"/>
+      <c r="I60" s="213"/>
+      <c r="J60" s="210"/>
+      <c r="K60" s="211"/>
+      <c r="L60" s="162" t="s">
+        <v>250</v>
+      </c>
+      <c r="M60" s="163"/>
+      <c r="N60" s="212"/>
+      <c r="O60" s="213"/>
+      <c r="P60" s="214"/>
+      <c r="Q60" s="223"/>
+    </row>
+    <row r="61" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A61" s="123">
+        <v>58</v>
+      </c>
+      <c r="B61" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" s="144" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="145"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="146"/>
+      <c r="G61" s="147"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="152"/>
+      <c r="J61" s="149"/>
+      <c r="K61" s="150"/>
+      <c r="L61" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M61" s="131"/>
+      <c r="N61" s="151"/>
+      <c r="O61" s="152"/>
+      <c r="P61" s="153"/>
+      <c r="Q61" s="154"/>
+    </row>
+    <row r="62" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A62" s="123">
+        <v>59</v>
+      </c>
+      <c r="B62" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="144" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="145"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="147"/>
+      <c r="H62" s="148"/>
+      <c r="I62" s="152"/>
+      <c r="J62" s="149"/>
+      <c r="K62" s="150"/>
+      <c r="L62" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M62" s="131"/>
+      <c r="N62" s="151"/>
+      <c r="O62" s="152"/>
+      <c r="P62" s="153"/>
+      <c r="Q62" s="154"/>
+    </row>
+    <row r="63" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A63" s="171">
+        <v>60</v>
+      </c>
+      <c r="B63" s="194" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="195" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="196"/>
+      <c r="E63" s="197"/>
+      <c r="F63" s="197"/>
+      <c r="G63" s="198"/>
+      <c r="H63" s="224"/>
+      <c r="I63" s="203"/>
+      <c r="J63" s="199"/>
+      <c r="K63" s="200"/>
+      <c r="L63" s="201"/>
+      <c r="M63" s="174"/>
+      <c r="N63" s="202"/>
+      <c r="O63" s="203"/>
+      <c r="P63" s="204" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q63" s="225"/>
+    </row>
+    <row r="64" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A64" s="123">
+        <v>61</v>
+      </c>
+      <c r="B64" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" s="145"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="146"/>
+      <c r="G64" s="147"/>
+      <c r="H64" s="148"/>
+      <c r="I64" s="152"/>
+      <c r="J64" s="149"/>
+      <c r="K64" s="150"/>
+      <c r="L64" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M64" s="131"/>
+      <c r="N64" s="151"/>
+      <c r="O64" s="152"/>
+      <c r="P64" s="153"/>
+      <c r="Q64" s="154" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A65" s="123">
+        <v>62</v>
+      </c>
+      <c r="B65" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="145"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="146"/>
+      <c r="G65" s="147"/>
+      <c r="H65" s="148"/>
+      <c r="I65" s="152"/>
+      <c r="J65" s="149"/>
+      <c r="K65" s="150"/>
+      <c r="L65" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M65" s="131"/>
+      <c r="N65" s="151"/>
+      <c r="O65" s="152"/>
+      <c r="P65" s="153"/>
+      <c r="Q65" s="154"/>
+    </row>
+    <row r="66" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A66" s="123">
+        <v>63</v>
+      </c>
+      <c r="B66" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="145"/>
+      <c r="E66" s="146"/>
+      <c r="F66" s="146"/>
+      <c r="G66" s="147"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="152"/>
+      <c r="J66" s="149"/>
+      <c r="K66" s="150"/>
+      <c r="L66" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M66" s="131"/>
+      <c r="N66" s="151"/>
+      <c r="O66" s="152"/>
+      <c r="P66" s="153"/>
+      <c r="Q66" s="154"/>
+    </row>
+    <row r="67" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A67" s="123">
+        <v>64</v>
+      </c>
+      <c r="B67" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="144" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="145"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="146"/>
+      <c r="G67" s="147"/>
+      <c r="H67" s="148"/>
+      <c r="I67" s="152"/>
+      <c r="J67" s="149"/>
+      <c r="K67" s="150"/>
+      <c r="L67" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M67" s="131"/>
+      <c r="N67" s="151"/>
+      <c r="O67" s="152"/>
+      <c r="P67" s="153"/>
+      <c r="Q67" s="154"/>
+    </row>
+    <row r="68" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A68" s="171">
+        <v>65</v>
+      </c>
+      <c r="B68" s="194" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="195" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="196"/>
+      <c r="E68" s="197"/>
+      <c r="F68" s="197"/>
+      <c r="G68" s="198"/>
+      <c r="H68" s="224"/>
+      <c r="I68" s="203"/>
+      <c r="J68" s="199"/>
+      <c r="K68" s="200"/>
+      <c r="L68" s="201"/>
+      <c r="M68" s="174"/>
+      <c r="N68" s="202"/>
+      <c r="O68" s="203"/>
+      <c r="P68" s="204" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q68" s="225"/>
+    </row>
+    <row r="69" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A69" s="175">
+        <v>66</v>
+      </c>
+      <c r="B69" s="226" t="s">
+        <v>218</v>
+      </c>
+      <c r="C69" s="227" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" s="228"/>
+      <c r="E69" s="229"/>
+      <c r="F69" s="229"/>
+      <c r="G69" s="230"/>
+      <c r="H69" s="231"/>
+      <c r="I69" s="232"/>
+      <c r="J69" s="233"/>
+      <c r="K69" s="234"/>
+      <c r="L69" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M69" s="183"/>
+      <c r="N69" s="236"/>
+      <c r="O69" s="232"/>
+      <c r="P69" s="237"/>
+      <c r="Q69" s="238" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A70" s="155">
+        <v>67</v>
+      </c>
+      <c r="B70" s="220" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" s="206" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" s="207"/>
+      <c r="E70" s="221"/>
+      <c r="F70" s="221"/>
+      <c r="G70" s="208"/>
+      <c r="H70" s="209"/>
+      <c r="I70" s="213"/>
+      <c r="J70" s="210"/>
+      <c r="K70" s="211"/>
+      <c r="L70" s="222" t="s">
+        <v>251</v>
+      </c>
+      <c r="M70" s="163"/>
+      <c r="N70" s="212"/>
+      <c r="O70" s="213"/>
+      <c r="P70" s="214"/>
+      <c r="Q70" s="223"/>
+    </row>
+    <row r="71" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A71" s="123">
+        <v>68</v>
+      </c>
+      <c r="B71" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="144" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="145"/>
+      <c r="E71" s="146"/>
+      <c r="F71" s="146"/>
+      <c r="G71" s="147"/>
+      <c r="H71" s="148"/>
+      <c r="I71" s="152"/>
+      <c r="J71" s="149"/>
+      <c r="K71" s="150"/>
+      <c r="L71" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M71" s="131"/>
+      <c r="N71" s="151"/>
+      <c r="O71" s="152"/>
+      <c r="P71" s="153"/>
+      <c r="Q71" s="154"/>
+    </row>
+    <row r="72" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A72" s="175">
+        <v>69</v>
+      </c>
+      <c r="B72" s="226" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="227" t="s">
+        <v>197</v>
+      </c>
+      <c r="D72" s="228"/>
+      <c r="E72" s="229"/>
+      <c r="F72" s="229"/>
+      <c r="G72" s="230"/>
+      <c r="H72" s="231"/>
+      <c r="I72" s="232"/>
+      <c r="J72" s="233"/>
+      <c r="K72" s="234"/>
+      <c r="L72" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M72" s="183"/>
+      <c r="N72" s="236"/>
+      <c r="O72" s="232"/>
+      <c r="P72" s="237"/>
+      <c r="Q72" s="238" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A73" s="123">
+        <v>70</v>
+      </c>
+      <c r="B73" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="144" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" s="145"/>
+      <c r="E73" s="146"/>
+      <c r="F73" s="146"/>
+      <c r="G73" s="147"/>
+      <c r="H73" s="148"/>
+      <c r="I73" s="152"/>
+      <c r="J73" s="149"/>
+      <c r="K73" s="150"/>
+      <c r="L73" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M73" s="131"/>
+      <c r="N73" s="151"/>
+      <c r="O73" s="152"/>
+      <c r="P73" s="153"/>
+      <c r="Q73" s="154"/>
+    </row>
+    <row r="74" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A74" s="123">
+        <v>71</v>
+      </c>
+      <c r="B74" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="144" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" s="145"/>
+      <c r="E74" s="146"/>
+      <c r="F74" s="146"/>
+      <c r="G74" s="147"/>
+      <c r="H74" s="148"/>
+      <c r="I74" s="152"/>
+      <c r="J74" s="149"/>
+      <c r="K74" s="150"/>
+      <c r="L74" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M74" s="131"/>
+      <c r="N74" s="151"/>
+      <c r="O74" s="152"/>
+      <c r="P74" s="153"/>
+      <c r="Q74" s="154"/>
+    </row>
+    <row r="75" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A75" s="155">
+        <v>72</v>
+      </c>
+      <c r="B75" s="220" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" s="206" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" s="207"/>
+      <c r="E75" s="221"/>
+      <c r="F75" s="221"/>
+      <c r="G75" s="208"/>
+      <c r="H75" s="209"/>
+      <c r="I75" s="213"/>
+      <c r="J75" s="210"/>
+      <c r="K75" s="211"/>
+      <c r="L75" s="222" t="s">
+        <v>250</v>
+      </c>
+      <c r="M75" s="163"/>
+      <c r="N75" s="212"/>
+      <c r="O75" s="213"/>
+      <c r="P75" s="214"/>
+      <c r="Q75" s="223" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A76" s="155">
+        <v>73</v>
+      </c>
+      <c r="B76" s="220" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="206" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" s="207"/>
+      <c r="E76" s="221"/>
+      <c r="F76" s="221"/>
+      <c r="G76" s="208"/>
+      <c r="H76" s="209"/>
+      <c r="I76" s="213"/>
+      <c r="J76" s="210"/>
+      <c r="K76" s="211"/>
+      <c r="L76" s="222" t="s">
+        <v>250</v>
+      </c>
+      <c r="M76" s="163"/>
+      <c r="N76" s="212"/>
+      <c r="O76" s="213"/>
+      <c r="P76" s="214"/>
+      <c r="Q76" s="223" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A77" s="155">
+        <v>74</v>
+      </c>
+      <c r="B77" s="220" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" s="206" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" s="207"/>
+      <c r="E77" s="221"/>
+      <c r="F77" s="221"/>
+      <c r="G77" s="208"/>
+      <c r="H77" s="209"/>
+      <c r="I77" s="213"/>
+      <c r="J77" s="210"/>
+      <c r="K77" s="211"/>
+      <c r="L77" s="222" t="s">
+        <v>250</v>
+      </c>
+      <c r="M77" s="163"/>
+      <c r="N77" s="212"/>
+      <c r="O77" s="213"/>
+      <c r="P77" s="214"/>
+      <c r="Q77" s="223" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A78" s="155">
+        <v>75</v>
+      </c>
+      <c r="B78" s="220" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" s="206" t="s">
+        <v>204</v>
+      </c>
+      <c r="D78" s="207"/>
+      <c r="E78" s="221"/>
+      <c r="F78" s="221"/>
+      <c r="G78" s="208"/>
+      <c r="H78" s="209"/>
+      <c r="I78" s="213"/>
+      <c r="J78" s="210"/>
+      <c r="K78" s="211"/>
+      <c r="L78" s="222" t="s">
+        <v>250</v>
+      </c>
+      <c r="M78" s="163"/>
+      <c r="N78" s="212"/>
+      <c r="O78" s="213"/>
+      <c r="P78" s="214"/>
+      <c r="Q78" s="223"/>
+    </row>
+    <row r="79" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A79" s="171">
+        <v>76</v>
+      </c>
+      <c r="B79" s="194" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="195" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" s="196"/>
+      <c r="E79" s="197"/>
+      <c r="F79" s="197"/>
+      <c r="G79" s="198"/>
+      <c r="H79" s="224"/>
+      <c r="I79" s="203"/>
+      <c r="J79" s="199"/>
+      <c r="K79" s="200"/>
+      <c r="L79" s="201"/>
+      <c r="M79" s="174"/>
+      <c r="N79" s="202"/>
+      <c r="O79" s="203"/>
+      <c r="P79" s="204" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q79" s="225"/>
+    </row>
+    <row r="80" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A80" s="171">
+        <v>77</v>
+      </c>
+      <c r="B80" s="194" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="195" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" s="196"/>
+      <c r="E80" s="197"/>
+      <c r="F80" s="197"/>
+      <c r="G80" s="198"/>
+      <c r="H80" s="224"/>
+      <c r="I80" s="203"/>
+      <c r="J80" s="199"/>
+      <c r="K80" s="200"/>
+      <c r="L80" s="201"/>
+      <c r="M80" s="174"/>
+      <c r="N80" s="202"/>
+      <c r="O80" s="203"/>
+      <c r="P80" s="204" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q80" s="225"/>
+    </row>
+    <row r="81" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A81" s="123">
+        <v>78</v>
+      </c>
+      <c r="B81" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81" s="144" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="145"/>
+      <c r="E81" s="146"/>
+      <c r="F81" s="146"/>
+      <c r="G81" s="147"/>
+      <c r="H81" s="148"/>
+      <c r="I81" s="152"/>
+      <c r="J81" s="149"/>
+      <c r="K81" s="150"/>
+      <c r="L81" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M81" s="131"/>
+      <c r="N81" s="151"/>
+      <c r="O81" s="152"/>
+      <c r="P81" s="153"/>
+      <c r="Q81" s="154"/>
+    </row>
+    <row r="82" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A82" s="175">
+        <v>79</v>
+      </c>
+      <c r="B82" s="226" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="227" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" s="228"/>
+      <c r="E82" s="229"/>
+      <c r="F82" s="229"/>
+      <c r="G82" s="230"/>
+      <c r="H82" s="231"/>
+      <c r="I82" s="232"/>
+      <c r="J82" s="233"/>
+      <c r="K82" s="234"/>
+      <c r="L82" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M82" s="183"/>
+      <c r="N82" s="236"/>
+      <c r="O82" s="232"/>
+      <c r="P82" s="237"/>
+      <c r="Q82" s="238" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A83" s="155">
+        <v>80</v>
+      </c>
+      <c r="B83" s="220" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="206" t="s">
+        <v>211</v>
+      </c>
+      <c r="D83" s="207"/>
+      <c r="E83" s="221"/>
+      <c r="F83" s="221"/>
+      <c r="G83" s="208"/>
+      <c r="H83" s="209"/>
+      <c r="I83" s="213"/>
+      <c r="J83" s="210"/>
+      <c r="K83" s="211"/>
+      <c r="L83" s="222" t="s">
+        <v>250</v>
+      </c>
+      <c r="M83" s="163"/>
+      <c r="N83" s="212"/>
+      <c r="O83" s="213"/>
+      <c r="P83" s="214"/>
+      <c r="Q83" s="223"/>
+    </row>
+    <row r="84" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A84" s="155">
+        <v>81</v>
+      </c>
+      <c r="B84" s="220" t="s">
+        <v>218</v>
+      </c>
+      <c r="C84" s="206" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" s="207"/>
+      <c r="E84" s="221"/>
+      <c r="F84" s="221"/>
+      <c r="G84" s="208"/>
+      <c r="H84" s="209"/>
+      <c r="I84" s="213"/>
+      <c r="J84" s="210"/>
+      <c r="K84" s="211"/>
+      <c r="L84" s="222" t="s">
+        <v>250</v>
+      </c>
+      <c r="M84" s="163"/>
+      <c r="N84" s="212"/>
+      <c r="O84" s="213"/>
+      <c r="P84" s="214"/>
+      <c r="Q84" s="223"/>
+    </row>
+    <row r="85" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A85" s="175">
+        <v>82</v>
+      </c>
+      <c r="B85" s="226" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="227" t="s">
+        <v>213</v>
+      </c>
+      <c r="D85" s="228"/>
+      <c r="E85" s="229"/>
+      <c r="F85" s="229"/>
+      <c r="G85" s="230"/>
+      <c r="H85" s="231"/>
+      <c r="I85" s="232"/>
+      <c r="J85" s="233"/>
+      <c r="K85" s="234"/>
+      <c r="L85" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M85" s="183"/>
+      <c r="N85" s="236"/>
+      <c r="O85" s="232"/>
+      <c r="P85" s="237"/>
+      <c r="Q85" s="238" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A86" s="155">
+        <v>83</v>
+      </c>
+      <c r="B86" s="220" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="206" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" s="207"/>
+      <c r="E86" s="221"/>
+      <c r="F86" s="221"/>
+      <c r="G86" s="208"/>
+      <c r="H86" s="209"/>
+      <c r="I86" s="213"/>
+      <c r="J86" s="210"/>
+      <c r="K86" s="211"/>
+      <c r="L86" s="222" t="s">
+        <v>250</v>
+      </c>
+      <c r="M86" s="163"/>
+      <c r="N86" s="212"/>
+      <c r="O86" s="213"/>
+      <c r="P86" s="214"/>
+      <c r="Q86" s="223"/>
+    </row>
+    <row r="87" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A87" s="123">
+        <v>84</v>
+      </c>
+      <c r="B87" s="143" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" s="144" t="s">
+        <v>215</v>
+      </c>
+      <c r="D87" s="145"/>
+      <c r="E87" s="146"/>
+      <c r="F87" s="146"/>
+      <c r="G87" s="147"/>
+      <c r="H87" s="148"/>
+      <c r="I87" s="152"/>
+      <c r="J87" s="149"/>
+      <c r="K87" s="150"/>
+      <c r="L87" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M87" s="131"/>
+      <c r="N87" s="151"/>
+      <c r="O87" s="152"/>
+      <c r="P87" s="153"/>
+      <c r="Q87" s="154"/>
+    </row>
+    <row r="88" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A88" s="155">
+        <v>85</v>
+      </c>
+      <c r="B88" s="220" t="s">
+        <v>219</v>
+      </c>
+      <c r="C88" s="206" t="s">
+        <v>216</v>
+      </c>
+      <c r="D88" s="207"/>
+      <c r="E88" s="221"/>
+      <c r="F88" s="221"/>
+      <c r="G88" s="208"/>
+      <c r="H88" s="209"/>
+      <c r="I88" s="213"/>
+      <c r="J88" s="210"/>
+      <c r="K88" s="211"/>
+      <c r="L88" s="222" t="s">
+        <v>250</v>
+      </c>
+      <c r="M88" s="163"/>
+      <c r="N88" s="212"/>
+      <c r="O88" s="213"/>
+      <c r="P88" s="214"/>
+      <c r="Q88" s="223" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A89" s="155">
+        <v>86</v>
+      </c>
+      <c r="B89" s="220" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" s="206" t="s">
+        <v>217</v>
+      </c>
+      <c r="D89" s="207"/>
+      <c r="E89" s="221"/>
+      <c r="F89" s="221"/>
+      <c r="G89" s="208"/>
+      <c r="H89" s="209"/>
+      <c r="I89" s="213"/>
+      <c r="J89" s="210"/>
+      <c r="K89" s="211"/>
+      <c r="L89" s="222" t="s">
+        <v>250</v>
+      </c>
+      <c r="M89" s="163"/>
+      <c r="N89" s="212"/>
+      <c r="O89" s="213"/>
+      <c r="P89" s="214"/>
+      <c r="Q89" s="223"/>
+    </row>
+    <row r="90" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A90" s="123">
+        <v>87</v>
+      </c>
+      <c r="B90" s="143" t="s">
+        <v>245</v>
+      </c>
+      <c r="C90" s="144" t="s">
+        <v>222</v>
+      </c>
+      <c r="D90" s="145"/>
+      <c r="E90" s="146"/>
+      <c r="F90" s="146"/>
+      <c r="G90" s="147"/>
+      <c r="H90" s="148"/>
+      <c r="I90" s="152"/>
+      <c r="J90" s="149"/>
+      <c r="K90" s="150"/>
+      <c r="L90" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M90" s="131"/>
+      <c r="N90" s="151"/>
+      <c r="O90" s="152"/>
+      <c r="P90" s="153"/>
+      <c r="Q90" s="154"/>
+    </row>
+    <row r="91" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A91" s="155">
+        <v>88</v>
+      </c>
+      <c r="B91" s="220" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" s="206" t="s">
+        <v>224</v>
+      </c>
+      <c r="D91" s="207"/>
+      <c r="E91" s="221"/>
+      <c r="F91" s="221"/>
+      <c r="G91" s="208"/>
+      <c r="H91" s="209"/>
+      <c r="I91" s="213"/>
+      <c r="J91" s="210"/>
+      <c r="K91" s="211"/>
+      <c r="L91" s="222" t="s">
+        <v>256</v>
+      </c>
+      <c r="M91" s="163"/>
+      <c r="N91" s="212"/>
+      <c r="O91" s="213"/>
+      <c r="P91" s="214"/>
+      <c r="Q91" s="223"/>
+    </row>
+    <row r="92" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A92" s="171">
+        <v>89</v>
+      </c>
+      <c r="B92" s="194" t="s">
+        <v>248</v>
+      </c>
+      <c r="C92" s="195" t="s">
+        <v>225</v>
+      </c>
+      <c r="D92" s="196"/>
+      <c r="E92" s="197"/>
+      <c r="F92" s="197"/>
+      <c r="G92" s="198"/>
+      <c r="H92" s="224"/>
+      <c r="I92" s="203"/>
+      <c r="J92" s="199"/>
+      <c r="K92" s="200"/>
+      <c r="L92" s="201"/>
+      <c r="M92" s="174"/>
+      <c r="N92" s="202"/>
+      <c r="O92" s="203"/>
+      <c r="P92" s="204" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q92" s="225"/>
+    </row>
+    <row r="93" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A93" s="175">
+        <v>90</v>
+      </c>
+      <c r="B93" s="226" t="s">
+        <v>245</v>
+      </c>
+      <c r="C93" s="227" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" s="228"/>
+      <c r="E93" s="229"/>
+      <c r="F93" s="229"/>
+      <c r="G93" s="230"/>
+      <c r="H93" s="231"/>
+      <c r="I93" s="232"/>
+      <c r="J93" s="233"/>
+      <c r="K93" s="234"/>
+      <c r="L93" s="235" t="s">
+        <v>255</v>
+      </c>
+      <c r="M93" s="183"/>
+      <c r="N93" s="236"/>
+      <c r="O93" s="232"/>
+      <c r="P93" s="237" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q93" s="238" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="17" customFormat="1" ht="86.4">
+      <c r="A94" s="171">
+        <v>91</v>
+      </c>
+      <c r="B94" s="194" t="s">
+        <v>245</v>
+      </c>
+      <c r="C94" s="195" t="s">
+        <v>229</v>
+      </c>
+      <c r="D94" s="196"/>
+      <c r="E94" s="197"/>
+      <c r="F94" s="197"/>
+      <c r="G94" s="198"/>
+      <c r="H94" s="224"/>
+      <c r="I94" s="203"/>
+      <c r="J94" s="199"/>
+      <c r="K94" s="200"/>
+      <c r="L94" s="201"/>
+      <c r="M94" s="174"/>
+      <c r="N94" s="202"/>
+      <c r="O94" s="203"/>
+      <c r="P94" s="204" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q94" s="225"/>
+    </row>
+    <row r="95" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A95" s="175">
+        <v>92</v>
+      </c>
+      <c r="B95" s="226" t="s">
+        <v>248</v>
+      </c>
+      <c r="C95" s="227" t="s">
+        <v>231</v>
+      </c>
+      <c r="D95" s="228"/>
+      <c r="E95" s="229"/>
+      <c r="F95" s="229"/>
+      <c r="G95" s="230"/>
+      <c r="H95" s="231"/>
+      <c r="I95" s="232"/>
+      <c r="J95" s="233"/>
+      <c r="K95" s="234"/>
+      <c r="L95" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M95" s="183"/>
+      <c r="N95" s="236"/>
+      <c r="O95" s="232"/>
+      <c r="P95" s="237"/>
+      <c r="Q95" s="238" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A96" s="123">
+        <v>93</v>
+      </c>
+      <c r="B96" s="143" t="s">
+        <v>247</v>
+      </c>
+      <c r="C96" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="145"/>
+      <c r="E96" s="146"/>
+      <c r="F96" s="146"/>
+      <c r="G96" s="147"/>
+      <c r="H96" s="148"/>
+      <c r="I96" s="152"/>
+      <c r="J96" s="149"/>
+      <c r="K96" s="150"/>
+      <c r="L96" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M96" s="131"/>
+      <c r="N96" s="151"/>
+      <c r="O96" s="152"/>
+      <c r="P96" s="153"/>
+      <c r="Q96" s="154"/>
+    </row>
+    <row r="97" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A97" s="175">
+        <v>94</v>
+      </c>
+      <c r="B97" s="226" t="s">
+        <v>246</v>
+      </c>
+      <c r="C97" s="227" t="s">
+        <v>233</v>
+      </c>
+      <c r="D97" s="228"/>
+      <c r="E97" s="229"/>
+      <c r="F97" s="229"/>
+      <c r="G97" s="230"/>
+      <c r="H97" s="231"/>
+      <c r="I97" s="232"/>
+      <c r="J97" s="233"/>
+      <c r="K97" s="234"/>
+      <c r="L97" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M97" s="183"/>
+      <c r="N97" s="236"/>
+      <c r="O97" s="232"/>
+      <c r="P97" s="237"/>
+      <c r="Q97" s="238"/>
+    </row>
+    <row r="98" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A98" s="175">
+        <v>95</v>
+      </c>
+      <c r="B98" s="226" t="s">
+        <v>245</v>
+      </c>
+      <c r="C98" s="227" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" s="228"/>
+      <c r="E98" s="229"/>
+      <c r="F98" s="229"/>
+      <c r="G98" s="230"/>
+      <c r="H98" s="231"/>
+      <c r="I98" s="232"/>
+      <c r="J98" s="233"/>
+      <c r="K98" s="234"/>
+      <c r="L98" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M98" s="183"/>
+      <c r="N98" s="236"/>
+      <c r="O98" s="232"/>
+      <c r="P98" s="237"/>
+      <c r="Q98" s="238"/>
+    </row>
+    <row r="99" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A99" s="175">
+        <v>96</v>
+      </c>
+      <c r="B99" s="226" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" s="227" t="s">
+        <v>235</v>
+      </c>
+      <c r="D99" s="228"/>
+      <c r="E99" s="229"/>
+      <c r="F99" s="229"/>
+      <c r="G99" s="230"/>
+      <c r="H99" s="231"/>
+      <c r="I99" s="232"/>
+      <c r="J99" s="233"/>
+      <c r="K99" s="234"/>
+      <c r="L99" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M99" s="183"/>
+      <c r="N99" s="236"/>
+      <c r="O99" s="232"/>
+      <c r="P99" s="237"/>
+      <c r="Q99" s="238" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A100" s="175">
+        <v>97</v>
+      </c>
+      <c r="B100" s="226" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="227" t="s">
+        <v>236</v>
+      </c>
+      <c r="D100" s="228"/>
+      <c r="E100" s="229"/>
+      <c r="F100" s="229"/>
+      <c r="G100" s="230"/>
+      <c r="H100" s="231"/>
+      <c r="I100" s="232"/>
+      <c r="J100" s="233"/>
+      <c r="K100" s="234"/>
+      <c r="L100" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M100" s="183"/>
+      <c r="N100" s="236"/>
+      <c r="O100" s="232"/>
+      <c r="P100" s="237"/>
+      <c r="Q100" s="238" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A101" s="123">
+        <v>98</v>
+      </c>
+      <c r="B101" s="143" t="s">
+        <v>248</v>
+      </c>
+      <c r="C101" s="144" t="s">
+        <v>237</v>
+      </c>
+      <c r="D101" s="145"/>
+      <c r="E101" s="146"/>
+      <c r="F101" s="146"/>
+      <c r="G101" s="147"/>
+      <c r="H101" s="148"/>
+      <c r="I101" s="152"/>
+      <c r="J101" s="149"/>
+      <c r="K101" s="150"/>
+      <c r="L101" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M101" s="131"/>
+      <c r="N101" s="151"/>
+      <c r="O101" s="152"/>
+      <c r="P101" s="153"/>
+      <c r="Q101" s="154"/>
+    </row>
+    <row r="102" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A102" s="123">
+        <v>99</v>
+      </c>
+      <c r="B102" s="143" t="s">
+        <v>245</v>
+      </c>
+      <c r="C102" s="144" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102" s="145"/>
+      <c r="E102" s="146"/>
+      <c r="F102" s="146"/>
+      <c r="G102" s="147"/>
+      <c r="H102" s="148"/>
+      <c r="I102" s="152"/>
+      <c r="J102" s="149"/>
+      <c r="K102" s="150"/>
+      <c r="L102" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M102" s="131"/>
+      <c r="N102" s="151"/>
+      <c r="O102" s="152"/>
+      <c r="P102" s="153"/>
+      <c r="Q102" s="154"/>
+    </row>
+    <row r="103" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A103" s="155">
+        <v>100</v>
+      </c>
+      <c r="B103" s="220" t="s">
+        <v>245</v>
+      </c>
+      <c r="C103" s="206" t="s">
+        <v>243</v>
+      </c>
+      <c r="D103" s="207"/>
+      <c r="E103" s="221"/>
+      <c r="F103" s="221"/>
+      <c r="G103" s="208"/>
+      <c r="H103" s="209"/>
+      <c r="I103" s="213"/>
+      <c r="J103" s="210"/>
+      <c r="K103" s="211"/>
+      <c r="L103" s="222" t="s">
+        <v>253</v>
+      </c>
+      <c r="M103" s="163"/>
+      <c r="N103" s="212"/>
+      <c r="O103" s="213"/>
+      <c r="P103" s="214" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q103" s="223"/>
+    </row>
+    <row r="104" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A104" s="123">
+        <v>101</v>
+      </c>
+      <c r="B104" s="143" t="s">
+        <v>245</v>
+      </c>
+      <c r="C104" s="144" t="s">
+        <v>239</v>
+      </c>
+      <c r="D104" s="145"/>
+      <c r="E104" s="146"/>
+      <c r="F104" s="146"/>
+      <c r="G104" s="147"/>
+      <c r="H104" s="148"/>
+      <c r="I104" s="152"/>
+      <c r="J104" s="149"/>
+      <c r="K104" s="150"/>
+      <c r="L104" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="M104" s="131"/>
+      <c r="N104" s="151"/>
+      <c r="O104" s="152"/>
+      <c r="P104" s="153"/>
+      <c r="Q104" s="154"/>
+    </row>
+    <row r="105" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A105" s="155">
+        <v>102</v>
+      </c>
+      <c r="B105" s="220" t="s">
+        <v>245</v>
+      </c>
+      <c r="C105" s="206" t="s">
+        <v>240</v>
+      </c>
+      <c r="D105" s="207"/>
+      <c r="E105" s="221"/>
+      <c r="F105" s="221"/>
+      <c r="G105" s="208"/>
+      <c r="H105" s="209"/>
+      <c r="I105" s="213"/>
+      <c r="J105" s="210"/>
+      <c r="K105" s="211"/>
+      <c r="L105" s="222" t="s">
+        <v>251</v>
+      </c>
+      <c r="M105" s="163"/>
+      <c r="N105" s="212"/>
+      <c r="O105" s="213"/>
+      <c r="P105" s="214" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q105" s="223" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A106" s="155">
+        <v>103</v>
+      </c>
+      <c r="B106" s="220" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" s="206" t="s">
+        <v>241</v>
+      </c>
+      <c r="D106" s="207"/>
+      <c r="E106" s="221"/>
+      <c r="F106" s="221"/>
+      <c r="G106" s="208"/>
+      <c r="H106" s="209"/>
+      <c r="I106" s="213"/>
+      <c r="J106" s="210"/>
+      <c r="K106" s="211"/>
+      <c r="L106" s="222" t="s">
+        <v>251</v>
+      </c>
+      <c r="M106" s="163"/>
+      <c r="N106" s="212"/>
+      <c r="O106" s="213"/>
+      <c r="P106" s="214"/>
+      <c r="Q106" s="223"/>
+    </row>
+    <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A107" s="155">
+        <v>104</v>
+      </c>
+      <c r="B107" s="220" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" s="206" t="s">
+        <v>242</v>
+      </c>
+      <c r="D107" s="207"/>
+      <c r="E107" s="221"/>
+      <c r="F107" s="221"/>
+      <c r="G107" s="208"/>
+      <c r="H107" s="209"/>
+      <c r="I107" s="213"/>
+      <c r="J107" s="210"/>
+      <c r="K107" s="211"/>
+      <c r="L107" s="222" t="s">
+        <v>251</v>
+      </c>
+      <c r="M107" s="163"/>
+      <c r="N107" s="212"/>
+      <c r="O107" s="213"/>
+      <c r="P107" s="214"/>
+      <c r="Q107" s="223"/>
+    </row>
+    <row r="108" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A108" s="112">
+        <v>105</v>
+      </c>
+      <c r="B108" s="39"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="109"/>
+      <c r="F108" s="109"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="62"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="72"/>
+      <c r="L108" s="73"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="63"/>
+      <c r="O108" s="64"/>
+      <c r="P108" s="34"/>
+      <c r="Q108" s="136"/>
+    </row>
+    <row r="109" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A109" s="112">
+        <v>106</v>
+      </c>
+      <c r="B109" s="39"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="109"/>
+      <c r="F109" s="109"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="61"/>
+      <c r="I109" s="62"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="72"/>
+      <c r="L109" s="73"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="63"/>
+      <c r="O109" s="64"/>
+      <c r="P109" s="34"/>
+      <c r="Q109" s="136"/>
+    </row>
+    <row r="110" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A110" s="112">
+        <v>107</v>
+      </c>
+      <c r="B110" s="39"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="109"/>
+      <c r="F110" s="109"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="62"/>
+      <c r="J110" s="33"/>
+      <c r="K110" s="72"/>
+      <c r="L110" s="73"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="63"/>
+      <c r="O110" s="64"/>
+      <c r="P110" s="34"/>
+      <c r="Q110" s="136"/>
+    </row>
+    <row r="111" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A111" s="112">
+        <v>108</v>
+      </c>
+      <c r="B111" s="39"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="71"/>
+      <c r="E111" s="109"/>
+      <c r="F111" s="109"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="61"/>
+      <c r="I111" s="62"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="72"/>
+      <c r="L111" s="73"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="63"/>
+      <c r="O111" s="64"/>
+      <c r="P111" s="34"/>
+      <c r="Q111" s="136"/>
+    </row>
+    <row r="112" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A112" s="112">
+        <v>109</v>
+      </c>
+      <c r="B112" s="39"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="71"/>
+      <c r="E112" s="109"/>
+      <c r="F112" s="109"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="62"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="72"/>
+      <c r="L112" s="73"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="63"/>
+      <c r="O112" s="64"/>
+      <c r="P112" s="34"/>
+      <c r="Q112" s="136"/>
+    </row>
+    <row r="113" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A113" s="112">
+        <v>110</v>
+      </c>
+      <c r="B113" s="39"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="71"/>
+      <c r="E113" s="109"/>
+      <c r="F113" s="109"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="61"/>
+      <c r="I113" s="62"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="72"/>
+      <c r="L113" s="73"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="63"/>
+      <c r="O113" s="64"/>
+      <c r="P113" s="34"/>
+      <c r="Q113" s="136"/>
+    </row>
+    <row r="114" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A114" s="112">
+        <v>111</v>
+      </c>
+      <c r="B114" s="39"/>
+      <c r="C114" s="46"/>
+      <c r="D114" s="71"/>
+      <c r="E114" s="109"/>
+      <c r="F114" s="109"/>
+      <c r="G114" s="60"/>
+      <c r="H114" s="61"/>
+      <c r="I114" s="62"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="72"/>
+      <c r="L114" s="73"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="63"/>
+      <c r="O114" s="64"/>
+      <c r="P114" s="34"/>
+      <c r="Q114" s="136"/>
+    </row>
+    <row r="115" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A115" s="112">
+        <v>112</v>
+      </c>
+      <c r="B115" s="39"/>
+      <c r="C115" s="46"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="109"/>
+      <c r="F115" s="109"/>
+      <c r="G115" s="60"/>
+      <c r="H115" s="61"/>
+      <c r="I115" s="62"/>
+      <c r="J115" s="33"/>
+      <c r="K115" s="72"/>
+      <c r="L115" s="73"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="63"/>
+      <c r="O115" s="64"/>
+      <c r="P115" s="34"/>
+      <c r="Q115" s="136"/>
+    </row>
+    <row r="116" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A116" s="112">
+        <v>113</v>
+      </c>
+      <c r="B116" s="39"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="71"/>
+      <c r="E116" s="109"/>
+      <c r="F116" s="109"/>
+      <c r="G116" s="60"/>
+      <c r="H116" s="61"/>
+      <c r="I116" s="62"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="72"/>
+      <c r="L116" s="73"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="63"/>
+      <c r="O116" s="64"/>
+      <c r="P116" s="34"/>
+      <c r="Q116" s="136"/>
+    </row>
+    <row r="117" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A117" s="112">
+        <v>114</v>
+      </c>
+      <c r="B117" s="39"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="71"/>
+      <c r="E117" s="109"/>
+      <c r="F117" s="109"/>
+      <c r="G117" s="60"/>
+      <c r="H117" s="61"/>
+      <c r="I117" s="62"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="72"/>
+      <c r="L117" s="73"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="63"/>
+      <c r="O117" s="64"/>
+      <c r="P117" s="34"/>
+      <c r="Q117" s="136"/>
+    </row>
+    <row r="118" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A118" s="112">
+        <v>115</v>
+      </c>
+      <c r="B118" s="39"/>
+      <c r="C118" s="46"/>
+      <c r="D118" s="71"/>
+      <c r="E118" s="109"/>
+      <c r="F118" s="109"/>
+      <c r="G118" s="60"/>
+      <c r="H118" s="61"/>
+      <c r="I118" s="62"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="72"/>
+      <c r="L118" s="73"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="63"/>
+      <c r="O118" s="64"/>
+      <c r="P118" s="34"/>
+      <c r="Q118" s="136"/>
+    </row>
+    <row r="119" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A119" s="112">
+        <v>116</v>
+      </c>
+      <c r="B119" s="39"/>
+      <c r="C119" s="46"/>
+      <c r="D119" s="71"/>
+      <c r="E119" s="109"/>
+      <c r="F119" s="109"/>
+      <c r="G119" s="60"/>
+      <c r="H119" s="61"/>
+      <c r="I119" s="62"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="72"/>
+      <c r="L119" s="73"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="63"/>
+      <c r="O119" s="64"/>
+      <c r="P119" s="34"/>
+      <c r="Q119" s="136"/>
+    </row>
+    <row r="120" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A120" s="112">
+        <v>117</v>
+      </c>
+      <c r="B120" s="39"/>
+      <c r="C120" s="46"/>
+      <c r="D120" s="71"/>
+      <c r="E120" s="109"/>
+      <c r="F120" s="109"/>
+      <c r="G120" s="60"/>
+      <c r="H120" s="61"/>
+      <c r="I120" s="62"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="72"/>
+      <c r="L120" s="73"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="63"/>
+      <c r="O120" s="64"/>
+      <c r="P120" s="34"/>
+      <c r="Q120" s="136"/>
+    </row>
+    <row r="121" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A121" s="112">
+        <v>118</v>
+      </c>
+      <c r="B121" s="39"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="71"/>
+      <c r="E121" s="109"/>
+      <c r="F121" s="109"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="61"/>
+      <c r="I121" s="62"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="72"/>
+      <c r="L121" s="73"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="63"/>
+      <c r="O121" s="64"/>
+      <c r="P121" s="34"/>
+      <c r="Q121" s="136"/>
+    </row>
+    <row r="122" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A122" s="112">
+        <v>119</v>
+      </c>
+      <c r="B122" s="39"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="109"/>
+      <c r="F122" s="109"/>
+      <c r="G122" s="60"/>
+      <c r="H122" s="61"/>
+      <c r="I122" s="62"/>
+      <c r="J122" s="33"/>
+      <c r="K122" s="72"/>
+      <c r="L122" s="73"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="63"/>
+      <c r="O122" s="64"/>
+      <c r="P122" s="34"/>
+      <c r="Q122" s="136"/>
+    </row>
+    <row r="123" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A123" s="112">
+        <v>120</v>
+      </c>
+      <c r="B123" s="39"/>
+      <c r="C123" s="46"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="109"/>
+      <c r="F123" s="109"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="62"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="72"/>
+      <c r="L123" s="73"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="63"/>
+      <c r="O123" s="64"/>
+      <c r="P123" s="34"/>
+      <c r="Q123" s="136"/>
+    </row>
+    <row r="124" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A124" s="112">
+        <v>121</v>
+      </c>
+      <c r="B124" s="39"/>
+      <c r="C124" s="46"/>
+      <c r="D124" s="71"/>
+      <c r="E124" s="109"/>
+      <c r="F124" s="109"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="61"/>
+      <c r="I124" s="62"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="72"/>
+      <c r="L124" s="73"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="63"/>
+      <c r="O124" s="64"/>
+      <c r="P124" s="34"/>
+      <c r="Q124" s="136"/>
+    </row>
+    <row r="125" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A125" s="112">
+        <v>122</v>
+      </c>
+      <c r="B125" s="39"/>
+      <c r="C125" s="46"/>
+      <c r="D125" s="71"/>
+      <c r="E125" s="109"/>
+      <c r="F125" s="109"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="61"/>
+      <c r="I125" s="62"/>
+      <c r="J125" s="33"/>
+      <c r="K125" s="72"/>
+      <c r="L125" s="73"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="63"/>
+      <c r="O125" s="64"/>
+      <c r="P125" s="34"/>
+      <c r="Q125" s="136"/>
+    </row>
+    <row r="126" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A126" s="112">
+        <v>123</v>
+      </c>
+      <c r="B126" s="39"/>
+      <c r="C126" s="46"/>
+      <c r="D126" s="71"/>
+      <c r="E126" s="109"/>
+      <c r="F126" s="109"/>
+      <c r="G126" s="60"/>
+      <c r="H126" s="61"/>
+      <c r="I126" s="62"/>
+      <c r="J126" s="33"/>
+      <c r="K126" s="72"/>
+      <c r="L126" s="73"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="63"/>
+      <c r="O126" s="64"/>
+      <c r="P126" s="34"/>
+      <c r="Q126" s="136"/>
+    </row>
+    <row r="127" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A127" s="112">
+        <v>124</v>
+      </c>
+      <c r="B127" s="39"/>
+      <c r="C127" s="46"/>
+      <c r="D127" s="71"/>
+      <c r="E127" s="109"/>
+      <c r="F127" s="109"/>
+      <c r="G127" s="60"/>
+      <c r="H127" s="61"/>
+      <c r="I127" s="62"/>
+      <c r="J127" s="33"/>
+      <c r="K127" s="72"/>
+      <c r="L127" s="73"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="63"/>
+      <c r="O127" s="64"/>
+      <c r="P127" s="34"/>
+      <c r="Q127" s="136"/>
+    </row>
+    <row r="128" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A128" s="112">
+        <v>125</v>
+      </c>
+      <c r="B128" s="39"/>
+      <c r="C128" s="46"/>
+      <c r="D128" s="71"/>
+      <c r="E128" s="109"/>
+      <c r="F128" s="109"/>
+      <c r="G128" s="60"/>
+      <c r="H128" s="61"/>
+      <c r="I128" s="62"/>
+      <c r="J128" s="33"/>
+      <c r="K128" s="72"/>
+      <c r="L128" s="73"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="63"/>
+      <c r="O128" s="64"/>
+      <c r="P128" s="34"/>
+      <c r="Q128" s="136"/>
+    </row>
+    <row r="129" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A129" s="112">
+        <v>126</v>
+      </c>
+      <c r="B129" s="39"/>
+      <c r="C129" s="46"/>
+      <c r="D129" s="71"/>
+      <c r="E129" s="109"/>
+      <c r="F129" s="109"/>
+      <c r="G129" s="60"/>
+      <c r="H129" s="61"/>
+      <c r="I129" s="62"/>
+      <c r="J129" s="33"/>
+      <c r="K129" s="72"/>
+      <c r="L129" s="73"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="63"/>
+      <c r="O129" s="64"/>
+      <c r="P129" s="34"/>
+      <c r="Q129" s="136"/>
+    </row>
+    <row r="130" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A130" s="112">
+        <v>127</v>
+      </c>
+      <c r="B130" s="39"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="71"/>
+      <c r="E130" s="109"/>
+      <c r="F130" s="109"/>
+      <c r="G130" s="60"/>
+      <c r="H130" s="61"/>
+      <c r="I130" s="62"/>
+      <c r="J130" s="33"/>
+      <c r="K130" s="72"/>
+      <c r="L130" s="73"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="63"/>
+      <c r="O130" s="64"/>
+      <c r="P130" s="34"/>
+      <c r="Q130" s="136"/>
+    </row>
+    <row r="131" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A131" s="112">
+        <v>128</v>
+      </c>
+      <c r="B131" s="39"/>
+      <c r="C131" s="46"/>
+      <c r="D131" s="71"/>
+      <c r="E131" s="109"/>
+      <c r="F131" s="109"/>
+      <c r="G131" s="60"/>
+      <c r="H131" s="61"/>
+      <c r="I131" s="62"/>
+      <c r="J131" s="33"/>
+      <c r="K131" s="72"/>
+      <c r="L131" s="73"/>
+      <c r="M131" s="10"/>
+      <c r="N131" s="63"/>
+      <c r="O131" s="64"/>
+      <c r="P131" s="34"/>
+      <c r="Q131" s="136"/>
+    </row>
+    <row r="132" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A132" s="112">
+        <v>129</v>
+      </c>
+      <c r="B132" s="39"/>
+      <c r="C132" s="46"/>
+      <c r="D132" s="71"/>
+      <c r="E132" s="109"/>
+      <c r="F132" s="109"/>
+      <c r="G132" s="60"/>
+      <c r="H132" s="61"/>
+      <c r="I132" s="62"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="72"/>
+      <c r="L132" s="73"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="63"/>
+      <c r="O132" s="64"/>
+      <c r="P132" s="34"/>
+      <c r="Q132" s="136"/>
+    </row>
+    <row r="133" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A133" s="112">
+        <v>130</v>
+      </c>
+      <c r="B133" s="39"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="71"/>
+      <c r="E133" s="109"/>
+      <c r="F133" s="109"/>
+      <c r="G133" s="60"/>
+      <c r="H133" s="61"/>
+      <c r="I133" s="62"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="72"/>
+      <c r="L133" s="73"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="63"/>
+      <c r="O133" s="64"/>
+      <c r="P133" s="34"/>
+      <c r="Q133" s="136"/>
+    </row>
+    <row r="134" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A134" s="112">
+        <v>131</v>
+      </c>
+      <c r="B134" s="39"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="71"/>
+      <c r="E134" s="109"/>
+      <c r="F134" s="109"/>
+      <c r="G134" s="60"/>
+      <c r="H134" s="61"/>
+      <c r="I134" s="62"/>
+      <c r="J134" s="33"/>
+      <c r="K134" s="72"/>
+      <c r="L134" s="73"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="63"/>
+      <c r="O134" s="64"/>
+      <c r="P134" s="34"/>
+      <c r="Q134" s="136"/>
+    </row>
+    <row r="135" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A135" s="112">
+        <v>132</v>
+      </c>
+      <c r="B135" s="39"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="71"/>
+      <c r="E135" s="109"/>
+      <c r="F135" s="109"/>
+      <c r="G135" s="60"/>
+      <c r="H135" s="61"/>
+      <c r="I135" s="62"/>
+      <c r="J135" s="33"/>
+      <c r="K135" s="72"/>
+      <c r="L135" s="73"/>
+      <c r="M135" s="10"/>
+      <c r="N135" s="63"/>
+      <c r="O135" s="64"/>
+      <c r="P135" s="34"/>
+      <c r="Q135" s="136"/>
+    </row>
+    <row r="136" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A136" s="112">
+        <v>133</v>
+      </c>
+      <c r="B136" s="39"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="71"/>
+      <c r="E136" s="109"/>
+      <c r="F136" s="109"/>
+      <c r="G136" s="60"/>
+      <c r="H136" s="61"/>
+      <c r="I136" s="62"/>
+      <c r="J136" s="33"/>
+      <c r="K136" s="72"/>
+      <c r="L136" s="73"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="63"/>
+      <c r="O136" s="64"/>
+      <c r="P136" s="34"/>
+      <c r="Q136" s="136"/>
+    </row>
+    <row r="137" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A137" s="112">
+        <v>134</v>
+      </c>
+      <c r="B137" s="39"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="71"/>
+      <c r="E137" s="109"/>
+      <c r="F137" s="109"/>
+      <c r="G137" s="60"/>
+      <c r="H137" s="61"/>
+      <c r="I137" s="62"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="72"/>
+      <c r="L137" s="73"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="63"/>
+      <c r="O137" s="64"/>
+      <c r="P137" s="34"/>
+      <c r="Q137" s="136"/>
+    </row>
+    <row r="138" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A138" s="112">
+        <v>135</v>
+      </c>
+      <c r="B138" s="39"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="71"/>
+      <c r="E138" s="109"/>
+      <c r="F138" s="109"/>
+      <c r="G138" s="60"/>
+      <c r="H138" s="61"/>
+      <c r="I138" s="62"/>
+      <c r="J138" s="33"/>
+      <c r="K138" s="72"/>
+      <c r="L138" s="73"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="63"/>
+      <c r="O138" s="64"/>
+      <c r="P138" s="34"/>
+      <c r="Q138" s="136"/>
+    </row>
+    <row r="139" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A139" s="112">
+        <v>136</v>
+      </c>
+      <c r="B139" s="39"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="71"/>
+      <c r="E139" s="109"/>
+      <c r="F139" s="109"/>
+      <c r="G139" s="60"/>
+      <c r="H139" s="61"/>
+      <c r="I139" s="62"/>
+      <c r="J139" s="33"/>
+      <c r="K139" s="72"/>
+      <c r="L139" s="73"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="63"/>
+      <c r="O139" s="64"/>
+      <c r="P139" s="34"/>
+      <c r="Q139" s="136"/>
+    </row>
+    <row r="140" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A140" s="112">
+        <v>137</v>
+      </c>
+      <c r="B140" s="39"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="71"/>
+      <c r="E140" s="109"/>
+      <c r="F140" s="109"/>
+      <c r="G140" s="60"/>
+      <c r="H140" s="61"/>
+      <c r="I140" s="62"/>
+      <c r="J140" s="33"/>
+      <c r="K140" s="72"/>
+      <c r="L140" s="73"/>
+      <c r="M140" s="10"/>
+      <c r="N140" s="63"/>
+      <c r="O140" s="64"/>
+      <c r="P140" s="34"/>
+      <c r="Q140" s="136"/>
+    </row>
+    <row r="141" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A141" s="112">
+        <v>138</v>
+      </c>
+      <c r="B141" s="39"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="71"/>
+      <c r="E141" s="109"/>
+      <c r="F141" s="109"/>
+      <c r="G141" s="60"/>
+      <c r="H141" s="61"/>
+      <c r="I141" s="62"/>
+      <c r="J141" s="33"/>
+      <c r="K141" s="72"/>
+      <c r="L141" s="73"/>
+      <c r="M141" s="10"/>
+      <c r="N141" s="63"/>
+      <c r="O141" s="64"/>
+      <c r="P141" s="34"/>
+      <c r="Q141" s="136"/>
+    </row>
+    <row r="142" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A142" s="112">
+        <v>139</v>
+      </c>
+      <c r="B142" s="39"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="71"/>
+      <c r="E142" s="109"/>
+      <c r="F142" s="109"/>
+      <c r="G142" s="60"/>
+      <c r="H142" s="61"/>
+      <c r="I142" s="62"/>
+      <c r="J142" s="33"/>
+      <c r="K142" s="72"/>
+      <c r="L142" s="73"/>
+      <c r="M142" s="10"/>
+      <c r="N142" s="63"/>
+      <c r="O142" s="64"/>
+      <c r="P142" s="34"/>
+      <c r="Q142" s="136"/>
+    </row>
+    <row r="143" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A143" s="112">
+        <v>140</v>
+      </c>
+      <c r="B143" s="39"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="71"/>
+      <c r="E143" s="109"/>
+      <c r="F143" s="109"/>
+      <c r="G143" s="60"/>
+      <c r="H143" s="61"/>
+      <c r="I143" s="62"/>
+      <c r="J143" s="33"/>
+      <c r="K143" s="72"/>
+      <c r="L143" s="73"/>
+      <c r="M143" s="10"/>
+      <c r="N143" s="63"/>
+      <c r="O143" s="64"/>
+      <c r="P143" s="34"/>
+      <c r="Q143" s="136"/>
+    </row>
+    <row r="144" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A144" s="112">
+        <v>141</v>
+      </c>
+      <c r="B144" s="39"/>
+      <c r="C144" s="46"/>
+      <c r="D144" s="71"/>
+      <c r="E144" s="109"/>
+      <c r="F144" s="109"/>
+      <c r="G144" s="60"/>
+      <c r="H144" s="61"/>
+      <c r="I144" s="62"/>
+      <c r="J144" s="33"/>
+      <c r="K144" s="72"/>
+      <c r="L144" s="73"/>
+      <c r="M144" s="10"/>
+      <c r="N144" s="63"/>
+      <c r="O144" s="64"/>
+      <c r="P144" s="34"/>
+      <c r="Q144" s="136"/>
+    </row>
+    <row r="145" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A145" s="112">
+        <v>142</v>
+      </c>
+      <c r="B145" s="39"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="71"/>
+      <c r="E145" s="109"/>
+      <c r="F145" s="109"/>
+      <c r="G145" s="60"/>
+      <c r="H145" s="61"/>
+      <c r="I145" s="62"/>
+      <c r="J145" s="33"/>
+      <c r="K145" s="72"/>
+      <c r="L145" s="73"/>
+      <c r="M145" s="10"/>
+      <c r="N145" s="63"/>
+      <c r="O145" s="64"/>
+      <c r="P145" s="34"/>
+      <c r="Q145" s="136"/>
+    </row>
+    <row r="146" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A146" s="112">
+        <v>143</v>
+      </c>
+      <c r="B146" s="39"/>
+      <c r="C146" s="46"/>
+      <c r="D146" s="71"/>
+      <c r="E146" s="109"/>
+      <c r="F146" s="109"/>
+      <c r="G146" s="60"/>
+      <c r="H146" s="61"/>
+      <c r="I146" s="62"/>
+      <c r="J146" s="33"/>
+      <c r="K146" s="72"/>
+      <c r="L146" s="73"/>
+      <c r="M146" s="10"/>
+      <c r="N146" s="63"/>
+      <c r="O146" s="64"/>
+      <c r="P146" s="34"/>
+      <c r="Q146" s="136"/>
+    </row>
+    <row r="147" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A147" s="112">
         <v>144</v>
       </c>
-      <c r="M45" s="10"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="136"/>
-    </row>
-    <row r="46" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A46" s="112">
-        <v>43</v>
-      </c>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="136"/>
-    </row>
-    <row r="47" spans="1:17" s="17" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A47" s="112">
-        <v>44</v>
-      </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="90"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="137"/>
-    </row>
-    <row r="48" spans="1:17" ht="34.5" customHeight="1">
-      <c r="Q48" s="138"/>
-    </row>
+      <c r="B147" s="39"/>
+      <c r="C147" s="46"/>
+      <c r="D147" s="71"/>
+      <c r="E147" s="109"/>
+      <c r="F147" s="109"/>
+      <c r="G147" s="60"/>
+      <c r="H147" s="61"/>
+      <c r="I147" s="62"/>
+      <c r="J147" s="33"/>
+      <c r="K147" s="72"/>
+      <c r="L147" s="73"/>
+      <c r="M147" s="10"/>
+      <c r="N147" s="63"/>
+      <c r="O147" s="64"/>
+      <c r="P147" s="34"/>
+      <c r="Q147" s="136"/>
+    </row>
+    <row r="148" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A148" s="112">
+        <v>145</v>
+      </c>
+      <c r="B148" s="39"/>
+      <c r="C148" s="46"/>
+      <c r="D148" s="71"/>
+      <c r="E148" s="109"/>
+      <c r="F148" s="109"/>
+      <c r="G148" s="60"/>
+      <c r="H148" s="61"/>
+      <c r="I148" s="62"/>
+      <c r="J148" s="33"/>
+      <c r="K148" s="72"/>
+      <c r="L148" s="73"/>
+      <c r="M148" s="10"/>
+      <c r="N148" s="63"/>
+      <c r="O148" s="64"/>
+      <c r="P148" s="34"/>
+      <c r="Q148" s="136"/>
+    </row>
+    <row r="149" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A149" s="112">
+        <v>146</v>
+      </c>
+      <c r="B149" s="39"/>
+      <c r="C149" s="46"/>
+      <c r="D149" s="71"/>
+      <c r="E149" s="109"/>
+      <c r="F149" s="109"/>
+      <c r="G149" s="60"/>
+      <c r="H149" s="61"/>
+      <c r="I149" s="62"/>
+      <c r="J149" s="33"/>
+      <c r="K149" s="72"/>
+      <c r="L149" s="73"/>
+      <c r="M149" s="10"/>
+      <c r="N149" s="63"/>
+      <c r="O149" s="64"/>
+      <c r="P149" s="34"/>
+      <c r="Q149" s="136"/>
+    </row>
+    <row r="150" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A150" s="112">
+        <v>147</v>
+      </c>
+      <c r="B150" s="39"/>
+      <c r="C150" s="46"/>
+      <c r="D150" s="71"/>
+      <c r="E150" s="109"/>
+      <c r="F150" s="109"/>
+      <c r="G150" s="60"/>
+      <c r="H150" s="61"/>
+      <c r="I150" s="62"/>
+      <c r="J150" s="33"/>
+      <c r="K150" s="72"/>
+      <c r="L150" s="73"/>
+      <c r="M150" s="10"/>
+      <c r="N150" s="63"/>
+      <c r="O150" s="64"/>
+      <c r="P150" s="34"/>
+      <c r="Q150" s="136"/>
+    </row>
+    <row r="151" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A151" s="112">
+        <v>148</v>
+      </c>
+      <c r="B151" s="39"/>
+      <c r="C151" s="46"/>
+      <c r="D151" s="71"/>
+      <c r="E151" s="109"/>
+      <c r="F151" s="109"/>
+      <c r="G151" s="60"/>
+      <c r="H151" s="61"/>
+      <c r="I151" s="62"/>
+      <c r="J151" s="33"/>
+      <c r="K151" s="72"/>
+      <c r="L151" s="73"/>
+      <c r="M151" s="10"/>
+      <c r="N151" s="63"/>
+      <c r="O151" s="64"/>
+      <c r="P151" s="34"/>
+      <c r="Q151" s="136"/>
+    </row>
+    <row r="152" spans="1:17" s="17" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A152" s="112">
+        <v>149</v>
+      </c>
+      <c r="B152" s="39"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="71"/>
+      <c r="E152" s="109"/>
+      <c r="F152" s="109"/>
+      <c r="G152" s="60"/>
+      <c r="H152" s="47"/>
+      <c r="I152" s="62"/>
+      <c r="J152" s="33"/>
+      <c r="K152" s="72"/>
+      <c r="L152" s="73"/>
+      <c r="M152" s="10"/>
+      <c r="N152" s="63"/>
+      <c r="O152" s="64"/>
+      <c r="P152" s="34"/>
+      <c r="Q152" s="137"/>
+    </row>
+    <row r="153" spans="1:17" ht="34.5" customHeight="1">
+      <c r="A153" s="112">
+        <v>150</v>
+      </c>
+      <c r="Q153" s="138"/>
+    </row>
+    <row r="233" ht="13.8" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A3:Q48"/>
+  <autoFilter ref="A3:Q153"/>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L47 L4:L44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L152 L50:L51 L33:L44 L22:L23 L26:L31 L53:L60 L4:L5 L8:L20">
       <formula1>"已处理,未处理"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I152">
       <formula1>"优先,高,适中,缓"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O152">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Docs/06 Testing/测试课题.xlsx
+++ b/Docs/06 Testing/测试课题.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">记录!$A$3:$H$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'课题记录 '!$A$3:$Q$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'课题记录 '!$A$3:$Q$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'课题记录  (2)'!$A$3:$H$51</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="284">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1327,10 +1327,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>录入大小标题，只保存了第一次</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>分析表录入界面点击返回时要提示是否已经保存，弹出窗口保存或不保存。点击保存则进行并返回分析表列表，不保存则直接返回列表</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1542,10 +1538,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>待定</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>系统首页修改为：展示菜单模块、背景图，点击某个模块之后，界面修改为导航栏+页面内容，类似于磁铁图，显示导航栏的几大块功能，点击某个模块后跳转到相对应模块的首个页面，例如点击masterData磁铁图跳转到机种系列</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1658,6 +1650,134 @@
   </si>
   <si>
     <t>变更</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果不理想，还需继续优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面的“EPSON”标记好像压扁了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改颜色，线条未调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+I打开的输入内容总是默认第一次的数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表Ctrl+F 的查找功能无</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标值栏输入参数值后，按“Backpace”键并不删除数据，而是变成“0”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表可多人同时打开并编辑，后打开的人员并未收到只读的提醒。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表中希望添加分析表名称展示在题头醍目位置，以方便用户知晓目前编辑修改的内容；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>（但仅限删除用户自己添加的分析表）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表中间（ABPA tool ABP）网格线颜色太浅不易区分，容易混淆视觉；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表中（ABGABPMXIA)栏目，用户输完数值后，光标能否自动跳转到下一格中；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表中ABPMXI栏中无法输入数据内容；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data 查看无：作成人、作成时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>更</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示创建的还是修改的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>见课题10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何确认输完了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool默认值导致</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增功能处理确定</t>
+  </si>
+  <si>
+    <t>新增功能处理确定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增功能处理确定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要确认组件是否支持</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需确认功能是否合适，因为会破坏路由</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需明确如何变更</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2701,6 +2821,354 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="11" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="25" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="25" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="11" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="25" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2709,354 +3177,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="11" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="25" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="23" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="25" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="11" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="25" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="23" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="23" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="23" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3103,7 +3223,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C98B2B81-BA32-4394-B169-793F8C3E02A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98B2B81-BA32-4394-B169-793F8C3E02A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3147,7 +3267,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBA739EC-426E-488C-8EB4-E9BFFCDD8554}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA739EC-426E-488C-8EB4-E9BFFCDD8554}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3191,7 +3311,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67E59D5F-3A3D-4CC8-BC62-636223D083FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E59D5F-3A3D-4CC8-BC62-636223D083FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3240,7 +3360,7 @@
         <xdr:cNvPr id="14" name="组合 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED3142A9-7F63-479C-9720-07589AB2CE7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3142A9-7F63-479C-9720-07589AB2CE7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3379,7 @@
           <xdr:cNvPr id="15" name="图片 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F21A3D8-CA0F-48DB-846B-4577426E88DB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F21A3D8-CA0F-48DB-846B-4577426E88DB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3287,7 +3407,7 @@
           <xdr:cNvPr id="16" name="矩形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8A8C184-1A17-4247-BB9C-68650D799358}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A8C184-1A17-4247-BB9C-68650D799358}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3354,7 +3474,7 @@
         <xdr:cNvPr id="7" name="组合 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C52A969-B543-4095-8357-9B29AA726D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C52A969-B543-4095-8357-9B29AA726D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3373,7 +3493,7 @@
           <xdr:cNvPr id="27" name="图片 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6AEFA32-3788-40F7-BEBA-24C5E9F08CB5}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6AEFA32-3788-40F7-BEBA-24C5E9F08CB5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3401,7 +3521,7 @@
           <xdr:cNvPr id="28" name="矩形 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D0E3554-6CC3-43CF-A6C2-99B0412D27C6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0E3554-6CC3-43CF-A6C2-99B0412D27C6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3468,7 +3588,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82AF9E09-0798-485C-907F-F44410CAF4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AF9E09-0798-485C-907F-F44410CAF4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,7 +3607,7 @@
           <xdr:cNvPr id="36" name="图片 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07457ED1-E75B-4492-AB11-171F75C37693}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07457ED1-E75B-4492-AB11-171F75C37693}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3515,7 +3635,7 @@
           <xdr:cNvPr id="37" name="矩形 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD4A936E-B663-4FEF-9170-AF86328014E3}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD4A936E-B663-4FEF-9170-AF86328014E3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3582,7 +3702,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71CE1696-FFAC-4D0D-9BC6-623C84080B11}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CE1696-FFAC-4D0D-9BC6-623C84080B11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3625,7 +3745,7 @@
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5922A382-D927-4B52-BEEB-C2668363FB35}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5922A382-D927-4B52-BEEB-C2668363FB35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3668,7 +3788,7 @@
         <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD02A9C6-4197-440B-8FC2-A69BD1CF140A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD02A9C6-4197-440B-8FC2-A69BD1CF140A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3706,7 +3826,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3447B6E4-297B-4626-BEB1-4BD2E742BFB8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3447B6E4-297B-4626-BEB1-4BD2E742BFB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3750,7 +3870,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21CD05AE-AB07-4A92-90DD-14CF4D5829B5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CD05AE-AB07-4A92-90DD-14CF4D5829B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3794,7 +3914,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23342E00-592E-4AA7-9123-4D5229A234A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23342E00-592E-4AA7-9123-4D5229A234A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3833,7 +3953,7 @@
         <xdr:cNvPr id="57" name="图片 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1D352DE-53BF-42B9-B05C-32668E7F7DB2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D352DE-53BF-42B9-B05C-32668E7F7DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3877,7 +3997,7 @@
         <xdr:cNvPr id="21" name="组合 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCAA580D-E6A2-4774-A96E-7EBCE998DBC4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAA580D-E6A2-4774-A96E-7EBCE998DBC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3896,7 +4016,7 @@
           <xdr:cNvPr id="47" name="图片 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D75A2515-EDE2-40EE-B593-56435BAF7270}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D75A2515-EDE2-40EE-B593-56435BAF7270}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3924,7 +4044,7 @@
           <xdr:cNvPr id="20" name="直接箭头连接符 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F879196-4649-4521-9EDE-9B226B334913}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F879196-4649-4521-9EDE-9B226B334913}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3990,7 +4110,7 @@
         <xdr:cNvPr id="49" name="图片 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4C498E5-4FAD-466F-A44A-3D204083602A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C498E5-4FAD-466F-A44A-3D204083602A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4034,7 +4154,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02ACE7F6-6C9F-49AB-B04A-8A2CA1B80091}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02ACE7F6-6C9F-49AB-B04A-8A2CA1B80091}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4073,7 +4193,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5B4F15F-D156-49C7-88C9-0C0546D8FF38}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B4F15F-D156-49C7-88C9-0C0546D8FF38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4112,7 +4232,7 @@
         <xdr:cNvPr id="64" name="图片 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B72EDCD-D450-4A03-BD8A-6526BF3EF390}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B72EDCD-D450-4A03-BD8A-6526BF3EF390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4156,7 +4276,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{265A18AF-7FD9-4852-A807-4A9065120A0A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265A18AF-7FD9-4852-A807-4A9065120A0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4200,7 +4320,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9C4C4A-8486-4FAD-A7B8-1DC65A159E7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9C4C4A-8486-4FAD-A7B8-1DC65A159E7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4243,7 +4363,7 @@
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A319DFA-C470-418C-AEC3-79A8CCAE0C02}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A319DFA-C470-418C-AEC3-79A8CCAE0C02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4287,7 +4407,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CD369F4-FF89-4A08-B457-FAB4D314ABD5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD369F4-FF89-4A08-B457-FAB4D314ABD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4336,7 +4456,7 @@
         <xdr:cNvPr id="48" name="组合 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{341AE850-04E9-477D-A62F-04CD01B91391}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{341AE850-04E9-477D-A62F-04CD01B91391}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4344,8 +4464,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5543915" y="1891704"/>
-          <a:ext cx="1108027" cy="531008"/>
+          <a:off x="4997180" y="1899324"/>
+          <a:ext cx="1077547" cy="531008"/>
           <a:chOff x="3367089" y="216694"/>
           <a:chExt cx="2185987" cy="1307308"/>
         </a:xfrm>
@@ -4355,7 +4475,7 @@
           <xdr:cNvPr id="49" name="图片 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A2E542D-8C7E-4687-A04E-F6B5557A2B1A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2E542D-8C7E-4687-A04E-F6B5557A2B1A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4383,7 +4503,7 @@
           <xdr:cNvPr id="50" name="矩形 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49691DBF-D511-43BA-BEBC-B0DE9F1F4916}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49691DBF-D511-43BA-BEBC-B0DE9F1F4916}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4450,7 +4570,7 @@
         <xdr:cNvPr id="51" name="组合 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{290CB9EB-3A3B-42D5-8733-3A633D0F79A8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{290CB9EB-3A3B-42D5-8733-3A633D0F79A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4458,7 +4578,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5566327" y="2540934"/>
+          <a:off x="5019592" y="2542839"/>
           <a:ext cx="963705" cy="582706"/>
           <a:chOff x="1781735" y="18131118"/>
           <a:chExt cx="13009524" cy="7314286"/>
@@ -4469,7 +4589,7 @@
           <xdr:cNvPr id="52" name="图片 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70569E23-3B69-472A-9545-B41F435C1BFF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70569E23-3B69-472A-9545-B41F435C1BFF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4498,7 +4618,7 @@
           <xdr:cNvPr id="53" name="矩形 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5764DAE7-E5B7-45AE-B17F-30A55A5054E8}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5764DAE7-E5B7-45AE-B17F-30A55A5054E8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4565,7 +4685,7 @@
         <xdr:cNvPr id="54" name="组合 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4FB6AF2-1632-4DC0-94AC-CD8BD1D6FF85}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FB6AF2-1632-4DC0-94AC-CD8BD1D6FF85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4573,8 +4693,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5510298" y="6439461"/>
-          <a:ext cx="1230470" cy="724461"/>
+          <a:off x="4963563" y="6422316"/>
+          <a:ext cx="1108550" cy="718746"/>
           <a:chOff x="7961155" y="8149478"/>
           <a:chExt cx="10931964" cy="6149227"/>
         </a:xfrm>
@@ -4584,7 +4704,7 @@
           <xdr:cNvPr id="55" name="图片 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{424FB97B-35FF-45DD-A58E-97C4AE5986DF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424FB97B-35FF-45DD-A58E-97C4AE5986DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4613,7 +4733,7 @@
           <xdr:cNvPr id="56" name="矩形 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34B711DC-CE0D-4A87-8208-531B71A2A00E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B711DC-CE0D-4A87-8208-531B71A2A00E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4687,7 +4807,7 @@
         <xdr:cNvPr id="57" name="图片 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A0E44A3-5FB7-45DC-8076-928A591E1064}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0E44A3-5FB7-45DC-8076-928A591E1064}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4735,7 +4855,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CA40D1F-E98D-4779-B5DE-75CD1D518257}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA40D1F-E98D-4779-B5DE-75CD1D518257}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4779,7 +4899,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{133DA2AF-CF85-4D35-A997-D6C79DC256CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133DA2AF-CF85-4D35-A997-D6C79DC256CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4823,7 +4943,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF5B035E-628C-415E-B319-34B092DDAE08}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5B035E-628C-415E-B319-34B092DDAE08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4872,7 +4992,7 @@
         <xdr:cNvPr id="5" name="组合 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FB9EB5F-B847-42D8-BBF5-052ADCAE8843}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB9EB5F-B847-42D8-BBF5-052ADCAE8843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4891,7 +5011,7 @@
           <xdr:cNvPr id="6" name="图片 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD71EF5F-5D64-41DF-A7F2-141005249294}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD71EF5F-5D64-41DF-A7F2-141005249294}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4919,7 +5039,7 @@
           <xdr:cNvPr id="7" name="矩形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75A4392B-E92B-4FC9-AC7D-371C5CB67A68}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A4392B-E92B-4FC9-AC7D-371C5CB67A68}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4986,7 +5106,7 @@
         <xdr:cNvPr id="8" name="组合 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1510FA4D-5D40-451D-904C-905ED5CBFC47}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1510FA4D-5D40-451D-904C-905ED5CBFC47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5005,7 +5125,7 @@
           <xdr:cNvPr id="9" name="图片 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C5C40D5-1862-4CBB-B6E6-707F77D56720}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5C40D5-1862-4CBB-B6E6-707F77D56720}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5033,7 +5153,7 @@
           <xdr:cNvPr id="10" name="矩形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B433086-303A-422F-8D3D-B19E2223A5E1}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B433086-303A-422F-8D3D-B19E2223A5E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5100,7 +5220,7 @@
         <xdr:cNvPr id="11" name="组合 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73C96F5D-A571-4F92-808B-8054033C1C68}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C96F5D-A571-4F92-808B-8054033C1C68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5119,7 +5239,7 @@
           <xdr:cNvPr id="12" name="图片 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{423F377D-F999-4903-8C47-B49A9E1BBB3F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423F377D-F999-4903-8C47-B49A9E1BBB3F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5148,7 +5268,7 @@
           <xdr:cNvPr id="13" name="矩形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DABC0045-0D37-4A0E-B990-65A433DF712A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABC0045-0D37-4A0E-B990-65A433DF712A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5215,7 +5335,7 @@
         <xdr:cNvPr id="14" name="组合 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{695A3A22-8B01-4B94-AF82-D09D9BACA91A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695A3A22-8B01-4B94-AF82-D09D9BACA91A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5234,7 +5354,7 @@
           <xdr:cNvPr id="15" name="图片 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B969C19A-37AF-4171-B52B-1822D75F97BA}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B969C19A-37AF-4171-B52B-1822D75F97BA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5262,7 +5382,7 @@
           <xdr:cNvPr id="16" name="矩形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{410C8424-D8D3-4E10-8379-A832596C88C4}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410C8424-D8D3-4E10-8379-A832596C88C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5329,7 +5449,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98B9C950-5851-4D2A-9571-45E922882540}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B9C950-5851-4D2A-9571-45E922882540}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5348,7 +5468,7 @@
           <xdr:cNvPr id="18" name="图片 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ED41D7D-F68A-4AC2-A1B0-07C11A05D254}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED41D7D-F68A-4AC2-A1B0-07C11A05D254}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5376,7 +5496,7 @@
           <xdr:cNvPr id="19" name="矩形 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DBBD272-C3EA-40B8-A221-2689DD5C211A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBBD272-C3EA-40B8-A221-2689DD5C211A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5443,7 +5563,7 @@
         <xdr:cNvPr id="20" name="组合 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0263C938-2310-4948-8135-8890B8AFE85C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0263C938-2310-4948-8135-8890B8AFE85C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5462,7 +5582,7 @@
           <xdr:cNvPr id="21" name="图片 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFD97B7C-70BD-4117-B3DA-F86F086B4EC3}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD97B7C-70BD-4117-B3DA-F86F086B4EC3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5490,7 +5610,7 @@
           <xdr:cNvPr id="22" name="矩形 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7FD535A-41D0-4995-BEF3-47E84293312B}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FD535A-41D0-4995-BEF3-47E84293312B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5557,7 +5677,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5D959CF-DCB6-43F2-BD17-E00A70826190}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D959CF-DCB6-43F2-BD17-E00A70826190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5600,7 +5720,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D48FC70-CC73-4FFA-93EF-910DB168505F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D48FC70-CC73-4FFA-93EF-910DB168505F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5643,7 +5763,7 @@
         <xdr:cNvPr id="25" name="组合 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01A4520C-878D-41DA-ACC8-C753AB4EEC8A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A4520C-878D-41DA-ACC8-C753AB4EEC8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5662,7 +5782,7 @@
           <xdr:cNvPr id="26" name="图片 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{539EBE1B-E593-4CF1-8E00-732DB21C57C7}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539EBE1B-E593-4CF1-8E00-732DB21C57C7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5691,7 +5811,7 @@
           <xdr:cNvPr id="27" name="矩形 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E704DA5-79FB-4DCE-82CD-C7128EF5045D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E704DA5-79FB-4DCE-82CD-C7128EF5045D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5758,7 +5878,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F60F9300-474C-4B97-8CFA-FA6A232996BC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60F9300-474C-4B97-8CFA-FA6A232996BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5801,7 +5921,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{041F02E7-301A-4535-8E92-FCE7759A0E5B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041F02E7-301A-4535-8E92-FCE7759A0E5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5844,7 +5964,7 @@
         <xdr:cNvPr id="30" name="组合 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4081C441-A16E-47A6-91AB-CE7259525E3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4081C441-A16E-47A6-91AB-CE7259525E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5863,7 +5983,7 @@
           <xdr:cNvPr id="31" name="图片 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50922B92-5CDB-4001-81FE-970A069D1776}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50922B92-5CDB-4001-81FE-970A069D1776}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5892,7 +6012,7 @@
           <xdr:cNvPr id="32" name="矩形 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4D45F2F-BE07-4DD2-85CD-D54AAECFCF4A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D45F2F-BE07-4DD2-85CD-D54AAECFCF4A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5966,7 +6086,7 @@
         <xdr:cNvPr id="33" name="组合 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{276B5F4B-7CC1-4301-8950-5FD9EA8CAF37}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276B5F4B-7CC1-4301-8950-5FD9EA8CAF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5985,7 +6105,7 @@
           <xdr:cNvPr id="34" name="图片 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6B8C32B-6E2A-4807-A1D7-6F444FC24D6E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B8C32B-6E2A-4807-A1D7-6F444FC24D6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6013,7 +6133,7 @@
           <xdr:cNvPr id="35" name="矩形 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23D2AE0D-123E-42DC-ABED-86AA7E367A25}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D2AE0D-123E-42DC-ABED-86AA7E367A25}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6087,7 +6207,7 @@
         <xdr:cNvPr id="36" name="图片 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAD693BB-8FF5-4C75-9399-B6802382149F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD693BB-8FF5-4C75-9399-B6802382149F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6130,7 +6250,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3E1CE8D-148A-4110-B326-60CF5214D964}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E1CE8D-148A-4110-B326-60CF5214D964}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6173,7 +6293,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAD76119-757D-4D4D-9EF0-428B965CA83D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD76119-757D-4D4D-9EF0-428B965CA83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6211,7 +6331,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45F58B90-C3E8-4CBD-923D-36B5F3F410CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F58B90-C3E8-4CBD-923D-36B5F3F410CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6255,7 +6375,7 @@
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B687413-23BF-4281-9D42-6D9D81EC9986}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B687413-23BF-4281-9D42-6D9D81EC9986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6299,7 +6419,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99954A59-2E00-4CDA-A0DC-610C9B6FF2C8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99954A59-2E00-4CDA-A0DC-610C9B6FF2C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6338,7 +6458,7 @@
         <xdr:cNvPr id="42" name="图片 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4DD4F50-D468-4FED-989B-6D6A38F1285C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DD4F50-D468-4FED-989B-6D6A38F1285C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6382,7 +6502,7 @@
         <xdr:cNvPr id="43" name="组合 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D60B776-8290-4A05-8D0B-E49A20D889D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D60B776-8290-4A05-8D0B-E49A20D889D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6401,7 +6521,7 @@
           <xdr:cNvPr id="44" name="图片 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57538BB3-6956-4C33-8DD0-A16EEBE15ECC}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57538BB3-6956-4C33-8DD0-A16EEBE15ECC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6429,7 +6549,7 @@
           <xdr:cNvPr id="45" name="直接箭头连接符 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B46ADCBE-FF68-4902-9EB2-648E3FE62B5C}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46ADCBE-FF68-4902-9EB2-648E3FE62B5C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6495,7 +6615,7 @@
         <xdr:cNvPr id="46" name="图片 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6366B4A9-4196-44F0-8E96-85299FE69047}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6366B4A9-4196-44F0-8E96-85299FE69047}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6539,7 +6659,7 @@
         <xdr:cNvPr id="47" name="图片 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3029897-09D5-4E82-88FE-30DA2683D8E4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3029897-09D5-4E82-88FE-30DA2683D8E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6923,7 +7043,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6931,11 +7051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q233"/>
+  <dimension ref="A1:Q232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6959,25 +7079,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="236" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="134"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="131"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="48"/>
@@ -7047,3478 +7167,3630 @@
       <c r="P3" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="135" t="s">
+      <c r="Q3" s="132" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="113" customFormat="1" ht="101.4" customHeight="1">
-      <c r="A4" s="123">
+      <c r="A4" s="120">
         <v>1</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="126" t="s">
+      <c r="D4" s="122"/>
+      <c r="E4" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="126" t="s">
+      <c r="F4" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="127">
+      <c r="G4" s="124">
         <v>43801</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="123" t="s">
+      <c r="H4" s="125"/>
+      <c r="I4" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="123"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="142" t="s">
+      <c r="J4" s="120"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="133" t="s">
+      <c r="M4" s="128"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="Q4" s="139"/>
+      <c r="Q4" s="136"/>
     </row>
     <row r="5" spans="1:17" s="113" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A5" s="123">
+      <c r="A5" s="120">
         <v>2</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="126" t="s">
+      <c r="D5" s="122"/>
+      <c r="E5" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="127">
+      <c r="G5" s="124">
         <v>43801</v>
       </c>
-      <c r="H5" s="128" t="s">
+      <c r="H5" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="123"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="130" t="s">
+      <c r="J5" s="120"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="M5" s="131"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="139"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="130" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q5" s="136"/>
     </row>
     <row r="6" spans="1:17" s="113" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A6" s="175">
+      <c r="A6" s="172">
         <v>3</v>
       </c>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="178"/>
-      <c r="E6" s="179" t="s">
+      <c r="D6" s="175"/>
+      <c r="E6" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="179" t="s">
+      <c r="F6" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="180">
+      <c r="G6" s="177">
         <v>43801</v>
       </c>
-      <c r="H6" s="181"/>
-      <c r="I6" s="175" t="s">
+      <c r="H6" s="178"/>
+      <c r="I6" s="172" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="175"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="235" t="s">
+      <c r="J6" s="172"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M6" s="180"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="182" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q6" s="186" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="113" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A7" s="172">
+        <v>4</v>
+      </c>
+      <c r="B7" s="172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="174" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="175"/>
+      <c r="E7" s="176" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="176" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="177">
+        <v>43801</v>
+      </c>
+      <c r="H7" s="178"/>
+      <c r="I7" s="172" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="172"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" s="180"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="182" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q7" s="186" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="113" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A8" s="120">
+        <v>5</v>
+      </c>
+      <c r="B8" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="121" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="122"/>
+      <c r="E8" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="124">
+        <v>43804</v>
+      </c>
+      <c r="H8" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="120"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="128"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="136"/>
+    </row>
+    <row r="9" spans="1:17" s="113" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A9" s="120">
+        <v>6</v>
+      </c>
+      <c r="B9" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="137" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="138"/>
+      <c r="E9" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="124">
+        <v>43804</v>
+      </c>
+      <c r="H9" s="137"/>
+      <c r="I9" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="120"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="128"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="136" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="65" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A10" s="120">
+        <v>7</v>
+      </c>
+      <c r="B10" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="141" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="142"/>
+      <c r="E10" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="143" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="144">
+        <v>43808</v>
+      </c>
+      <c r="H10" s="145"/>
+      <c r="I10" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="146"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="128"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="149"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="136"/>
+    </row>
+    <row r="11" spans="1:17" s="65" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A11" s="120">
+        <v>8</v>
+      </c>
+      <c r="B11" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="141" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="142"/>
+      <c r="E11" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="143" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="144">
+        <v>43808</v>
+      </c>
+      <c r="H11" s="145"/>
+      <c r="I11" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="146"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="128"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="151"/>
+    </row>
+    <row r="12" spans="1:17" s="65" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A12" s="168">
+        <v>9</v>
+      </c>
+      <c r="B12" s="191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="192" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="193"/>
+      <c r="E12" s="169" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="194" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="195">
+        <v>43808</v>
+      </c>
+      <c r="H12" s="170"/>
+      <c r="I12" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="196"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="199"/>
+      <c r="O12" s="200"/>
+      <c r="P12" s="201" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q12" s="202"/>
+    </row>
+    <row r="13" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A13" s="152">
+        <v>10</v>
+      </c>
+      <c r="B13" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="153" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="154"/>
+      <c r="E13" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="155" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="156">
+        <v>43802</v>
+      </c>
+      <c r="H13" s="157" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="152"/>
+      <c r="K13" s="158">
+        <v>43833</v>
+      </c>
+      <c r="L13" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="M13" s="160"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="162" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q13" s="188" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A14" s="152">
+        <v>11</v>
+      </c>
+      <c r="B14" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="154"/>
+      <c r="E14" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="155" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="156">
+        <v>43802</v>
+      </c>
+      <c r="H14" s="157"/>
+      <c r="I14" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="152"/>
+      <c r="K14" s="158">
+        <v>43833</v>
+      </c>
+      <c r="L14" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="M14" s="160"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="188"/>
+    </row>
+    <row r="15" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A15" s="120">
+        <v>12</v>
+      </c>
+      <c r="B15" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="164"/>
+      <c r="E15" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="124">
+        <v>43803</v>
+      </c>
+      <c r="H15" s="165" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="120"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="128"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q15" s="136"/>
+    </row>
+    <row r="16" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A16" s="120">
+        <v>13</v>
+      </c>
+      <c r="B16" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="164"/>
+      <c r="E16" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="124">
+        <v>43803</v>
+      </c>
+      <c r="H16" s="165" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="120"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="128"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="130" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q16" s="136"/>
+    </row>
+    <row r="17" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A17" s="120">
+        <v>14</v>
+      </c>
+      <c r="B17" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="164"/>
+      <c r="E17" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="124">
+        <v>43803</v>
+      </c>
+      <c r="H17" s="165"/>
+      <c r="I17" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="120"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" s="128"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q17" s="136"/>
+    </row>
+    <row r="18" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A18" s="120">
+        <v>15</v>
+      </c>
+      <c r="B18" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="164"/>
+      <c r="E18" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="124">
+        <v>43805</v>
+      </c>
+      <c r="H18" s="165"/>
+      <c r="I18" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="120"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" s="128"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18" s="136"/>
+    </row>
+    <row r="19" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A19" s="120">
+        <v>16</v>
+      </c>
+      <c r="B19" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="166"/>
+      <c r="E19" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="124">
+        <v>43802</v>
+      </c>
+      <c r="H19" s="165"/>
+      <c r="I19" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="120"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" s="128"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="136"/>
+    </row>
+    <row r="20" spans="1:17" s="113" customFormat="1" ht="69" customHeight="1">
+      <c r="A20" s="120">
+        <v>17</v>
+      </c>
+      <c r="B20" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="164"/>
+      <c r="E20" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="124">
+        <v>43803</v>
+      </c>
+      <c r="H20" s="185" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="120"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" s="128"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="136"/>
+    </row>
+    <row r="21" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A21" s="172">
+        <v>18</v>
+      </c>
+      <c r="B21" s="173" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="174" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="175"/>
+      <c r="E21" s="176" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="176" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="177">
+        <v>43803</v>
+      </c>
+      <c r="H21" s="178" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="172" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="172"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M21" s="180"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="172"/>
+      <c r="P21" s="182" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q21" s="183" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A22" s="120">
+        <v>19</v>
+      </c>
+      <c r="B22" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="164"/>
+      <c r="E22" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="124">
+        <v>43803</v>
+      </c>
+      <c r="H22" s="165"/>
+      <c r="I22" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="120"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M22" s="128"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="136"/>
+    </row>
+    <row r="23" spans="1:17" s="113" customFormat="1" ht="84" customHeight="1">
+      <c r="A23" s="120">
+        <v>20</v>
+      </c>
+      <c r="B23" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="121" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="164"/>
+      <c r="E23" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="124">
+        <v>43803</v>
+      </c>
+      <c r="H23" s="165" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="120"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" s="128"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="167" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="113" customFormat="1" ht="54" customHeight="1">
+      <c r="A24" s="172">
+        <v>21</v>
+      </c>
+      <c r="B24" s="173" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="174" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="175"/>
+      <c r="E24" s="176" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="176" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="177">
+        <v>43804</v>
+      </c>
+      <c r="H24" s="178" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="172" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="172"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M24" s="180"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="172"/>
+      <c r="P24" s="182" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q24" s="186" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A25" s="172">
+        <v>22</v>
+      </c>
+      <c r="B25" s="173" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="174" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="175"/>
+      <c r="E25" s="176" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="176" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="177">
+        <v>43804</v>
+      </c>
+      <c r="H25" s="178"/>
+      <c r="I25" s="172" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="172"/>
+      <c r="K25" s="179"/>
+      <c r="L25" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M25" s="180"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="172"/>
+      <c r="P25" s="182" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q25" s="186" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="113" customFormat="1" ht="63" customHeight="1">
+      <c r="A26" s="120">
+        <v>23</v>
+      </c>
+      <c r="B26" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="164"/>
+      <c r="E26" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="124">
+        <v>43804</v>
+      </c>
+      <c r="H26" s="165" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="120"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M26" s="128"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="136"/>
+    </row>
+    <row r="27" spans="1:17" s="113" customFormat="1" ht="84.75" customHeight="1">
+      <c r="A27" s="120">
+        <v>24</v>
+      </c>
+      <c r="B27" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="164"/>
+      <c r="E27" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="124">
+        <v>43804</v>
+      </c>
+      <c r="H27" s="185" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="120"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M27" s="128"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="136"/>
+    </row>
+    <row r="28" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A28" s="120">
+        <v>25</v>
+      </c>
+      <c r="B28" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="164"/>
+      <c r="E28" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="124">
+        <v>43804</v>
+      </c>
+      <c r="H28" s="165"/>
+      <c r="I28" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="120"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M28" s="128"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="136"/>
+    </row>
+    <row r="29" spans="1:17" s="113" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A29" s="120">
+        <v>26</v>
+      </c>
+      <c r="B29" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="187" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="164"/>
+      <c r="E29" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="124">
+        <v>43804</v>
+      </c>
+      <c r="H29" s="165" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="120"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M29" s="128"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="136"/>
+    </row>
+    <row r="30" spans="1:17" s="113" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A30" s="120">
+        <v>27</v>
+      </c>
+      <c r="B30" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="121" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="164"/>
+      <c r="E30" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="124">
+        <v>43804</v>
+      </c>
+      <c r="H30" s="185" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="120"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M30" s="128"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="136"/>
+    </row>
+    <row r="31" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A31" s="120">
+        <v>28</v>
+      </c>
+      <c r="B31" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="138"/>
+      <c r="E31" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="124">
+        <v>43804</v>
+      </c>
+      <c r="H31" s="165" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="120"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="M31" s="128"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q31" s="167"/>
+    </row>
+    <row r="32" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A32" s="172">
+        <v>29</v>
+      </c>
+      <c r="B32" s="173" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="174" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="175"/>
+      <c r="E32" s="176" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="176" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="177">
+        <v>43802</v>
+      </c>
+      <c r="H32" s="178" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="172" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="172"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" s="180"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="172"/>
+      <c r="P32" s="182" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q32" s="183" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A33" s="120">
+        <v>30</v>
+      </c>
+      <c r="B33" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="138"/>
+      <c r="E33" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="124">
+        <v>43805</v>
+      </c>
+      <c r="H33" s="165" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="120"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M33" s="128"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="130" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q33" s="136"/>
+    </row>
+    <row r="34" spans="1:17" s="113" customFormat="1" ht="61.2" customHeight="1">
+      <c r="A34" s="120">
+        <v>31</v>
+      </c>
+      <c r="B34" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="137" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="138"/>
+      <c r="E34" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="124">
+        <v>43805</v>
+      </c>
+      <c r="H34" s="165" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="120"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M34" s="128"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q34" s="136"/>
+    </row>
+    <row r="35" spans="1:17" s="65" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A35" s="120">
+        <v>32</v>
+      </c>
+      <c r="B35" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="141" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="142"/>
+      <c r="E35" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="143" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="144">
+        <v>43808</v>
+      </c>
+      <c r="H35" s="141"/>
+      <c r="I35" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="146"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="189" t="s">
+        <v>127</v>
+      </c>
+      <c r="M35" s="128"/>
+      <c r="N35" s="148"/>
+      <c r="O35" s="149"/>
+      <c r="P35" s="150"/>
+      <c r="Q35" s="190"/>
+    </row>
+    <row r="36" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A36" s="152">
+        <v>33</v>
+      </c>
+      <c r="B36" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="203" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="204"/>
+      <c r="E36" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="155" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="205">
+        <v>43808</v>
+      </c>
+      <c r="H36" s="206"/>
+      <c r="I36" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="207"/>
+      <c r="K36" s="208">
+        <v>43833</v>
+      </c>
+      <c r="L36" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="M36" s="160"/>
+      <c r="N36" s="209"/>
+      <c r="O36" s="210"/>
+      <c r="P36" s="211"/>
+      <c r="Q36" s="212"/>
+    </row>
+    <row r="37" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A37" s="120">
+        <v>34</v>
+      </c>
+      <c r="B37" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="141" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="142"/>
+      <c r="E37" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="144">
+        <v>43808</v>
+      </c>
+      <c r="H37" s="213"/>
+      <c r="I37" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="146"/>
+      <c r="K37" s="147"/>
+      <c r="L37" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M37" s="128"/>
+      <c r="N37" s="148"/>
+      <c r="O37" s="149"/>
+      <c r="P37" s="150" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q37" s="190"/>
+    </row>
+    <row r="38" spans="1:17" s="65" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A38" s="120">
+        <v>35</v>
+      </c>
+      <c r="B38" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="141" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="142"/>
+      <c r="E38" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="143" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="144">
+        <v>43808</v>
+      </c>
+      <c r="H38" s="145"/>
+      <c r="I38" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="146"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M38" s="128"/>
+      <c r="N38" s="148"/>
+      <c r="O38" s="149"/>
+      <c r="P38" s="150"/>
+      <c r="Q38" s="190"/>
+    </row>
+    <row r="39" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A39" s="120">
+        <v>36</v>
+      </c>
+      <c r="B39" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="141" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="142"/>
+      <c r="E39" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="143" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="144">
+        <v>43808</v>
+      </c>
+      <c r="H39" s="145"/>
+      <c r="I39" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="146"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M39" s="128"/>
+      <c r="N39" s="148"/>
+      <c r="O39" s="149"/>
+      <c r="P39" s="150"/>
+      <c r="Q39" s="190"/>
+    </row>
+    <row r="40" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A40" s="120">
+        <v>37</v>
+      </c>
+      <c r="B40" s="163" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="164"/>
+      <c r="E40" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="124">
+        <v>43802</v>
+      </c>
+      <c r="H40" s="165"/>
+      <c r="I40" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="120"/>
+      <c r="K40" s="126"/>
+      <c r="L40" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M40" s="128"/>
+      <c r="N40" s="129"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="130"/>
+      <c r="Q40" s="136"/>
+    </row>
+    <row r="41" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A41" s="120">
+        <v>38</v>
+      </c>
+      <c r="B41" s="163" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="214" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="164"/>
+      <c r="E41" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="124">
+        <v>43803</v>
+      </c>
+      <c r="H41" s="165"/>
+      <c r="I41" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="120"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="M41" s="128"/>
+      <c r="N41" s="129"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="130"/>
+      <c r="Q41" s="136"/>
+    </row>
+    <row r="42" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A42" s="120">
+        <v>39</v>
+      </c>
+      <c r="B42" s="163" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="164"/>
+      <c r="E42" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="124">
+        <v>43803</v>
+      </c>
+      <c r="H42" s="165"/>
+      <c r="I42" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="120"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M42" s="128"/>
+      <c r="N42" s="129"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="130"/>
+      <c r="Q42" s="136"/>
+    </row>
+    <row r="43" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A43" s="120">
+        <v>40</v>
+      </c>
+      <c r="B43" s="163" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="138"/>
+      <c r="E43" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="124">
+        <v>43804</v>
+      </c>
+      <c r="H43" s="165" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="215"/>
+      <c r="K43" s="124"/>
+      <c r="L43" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="M43" s="128"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="120"/>
+      <c r="P43" s="130"/>
+      <c r="Q43" s="136"/>
+    </row>
+    <row r="44" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A44" s="120">
+        <v>41</v>
+      </c>
+      <c r="B44" s="163" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="164"/>
+      <c r="E44" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="124">
+        <v>43804</v>
+      </c>
+      <c r="H44" s="165" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="215"/>
+      <c r="K44" s="126"/>
+      <c r="L44" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M44" s="128"/>
+      <c r="N44" s="129"/>
+      <c r="O44" s="120"/>
+      <c r="P44" s="216"/>
+      <c r="Q44" s="167"/>
+    </row>
+    <row r="45" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A45" s="120">
+        <v>42</v>
+      </c>
+      <c r="B45" s="140" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="141" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="142"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="146"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M45" s="128"/>
+      <c r="N45" s="148"/>
+      <c r="O45" s="149"/>
+      <c r="P45" s="150"/>
+      <c r="Q45" s="151"/>
+    </row>
+    <row r="46" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A46" s="120">
+        <v>43</v>
+      </c>
+      <c r="B46" s="140" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="142"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="149"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M46" s="128"/>
+      <c r="N46" s="148"/>
+      <c r="O46" s="149"/>
+      <c r="P46" s="150"/>
+      <c r="Q46" s="151" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A47" s="120">
+        <v>44</v>
+      </c>
+      <c r="B47" s="140" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="141" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="142"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="143"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="149"/>
+      <c r="J47" s="146"/>
+      <c r="K47" s="147"/>
+      <c r="L47" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M47" s="128"/>
+      <c r="N47" s="148"/>
+      <c r="O47" s="149"/>
+      <c r="P47" s="150"/>
+      <c r="Q47" s="151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A48" s="120">
+        <v>45</v>
+      </c>
+      <c r="B48" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="141" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="142"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="143"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="149"/>
+      <c r="J48" s="146"/>
+      <c r="K48" s="147"/>
+      <c r="L48" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M48" s="128"/>
+      <c r="N48" s="148"/>
+      <c r="O48" s="149"/>
+      <c r="P48" s="150"/>
+      <c r="Q48" s="151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A49" s="120">
+        <v>46</v>
+      </c>
+      <c r="B49" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="142"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="143"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="149"/>
+      <c r="J49" s="146"/>
+      <c r="K49" s="147"/>
+      <c r="L49" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M49" s="128"/>
+      <c r="N49" s="148"/>
+      <c r="O49" s="149"/>
+      <c r="P49" s="150"/>
+      <c r="Q49" s="151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A50" s="152">
+        <v>47</v>
+      </c>
+      <c r="B50" s="217" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="203" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="204"/>
+      <c r="E50" s="218"/>
+      <c r="F50" s="218"/>
+      <c r="G50" s="205"/>
+      <c r="H50" s="206"/>
+      <c r="I50" s="210"/>
+      <c r="J50" s="207"/>
+      <c r="K50" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L50" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="M50" s="160"/>
+      <c r="N50" s="209"/>
+      <c r="O50" s="210"/>
+      <c r="P50" s="211" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q50" s="220" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A51" s="152">
+        <v>48</v>
+      </c>
+      <c r="B51" s="217" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="203" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="204"/>
+      <c r="E51" s="218"/>
+      <c r="F51" s="218"/>
+      <c r="G51" s="205"/>
+      <c r="H51" s="206"/>
+      <c r="I51" s="210"/>
+      <c r="J51" s="207"/>
+      <c r="K51" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L51" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="M51" s="160"/>
+      <c r="N51" s="209"/>
+      <c r="O51" s="210"/>
+      <c r="P51" s="211" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q51" s="220" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A52" s="120">
+        <v>49</v>
+      </c>
+      <c r="B52" s="140" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="141" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="142"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="143"/>
+      <c r="G52" s="144"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="149"/>
+      <c r="J52" s="146"/>
+      <c r="K52" s="147"/>
+      <c r="L52" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M52" s="128"/>
+      <c r="N52" s="148"/>
+      <c r="O52" s="149"/>
+      <c r="P52" s="150"/>
+      <c r="Q52" s="151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A53" s="152">
+        <v>50</v>
+      </c>
+      <c r="B53" s="217" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="203" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="204"/>
+      <c r="E53" s="218"/>
+      <c r="F53" s="218"/>
+      <c r="G53" s="205"/>
+      <c r="H53" s="206"/>
+      <c r="I53" s="210"/>
+      <c r="J53" s="207"/>
+      <c r="K53" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L53" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="M53" s="160"/>
+      <c r="N53" s="209"/>
+      <c r="O53" s="210"/>
+      <c r="P53" s="211" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q53" s="220" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="17" customFormat="1" ht="75.599999999999994" customHeight="1">
+      <c r="A54" s="152">
+        <v>51</v>
+      </c>
+      <c r="B54" s="217" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="203" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="204"/>
+      <c r="E54" s="218"/>
+      <c r="F54" s="218"/>
+      <c r="G54" s="205"/>
+      <c r="H54" s="206"/>
+      <c r="I54" s="210"/>
+      <c r="J54" s="207"/>
+      <c r="K54" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L54" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="M54" s="160"/>
+      <c r="N54" s="209"/>
+      <c r="O54" s="210"/>
+      <c r="P54" s="211" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q54" s="220"/>
+    </row>
+    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A55" s="152">
+        <v>52</v>
+      </c>
+      <c r="B55" s="217" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="203" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="204"/>
+      <c r="E55" s="218"/>
+      <c r="F55" s="218"/>
+      <c r="G55" s="205"/>
+      <c r="H55" s="206"/>
+      <c r="I55" s="210"/>
+      <c r="J55" s="207"/>
+      <c r="K55" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L55" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="M55" s="160"/>
+      <c r="N55" s="209"/>
+      <c r="O55" s="210"/>
+      <c r="P55" s="211" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q55" s="220" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A56" s="152">
+        <v>53</v>
+      </c>
+      <c r="B56" s="217" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="203" t="s">
+        <v>259</v>
+      </c>
+      <c r="D56" s="204"/>
+      <c r="E56" s="218"/>
+      <c r="F56" s="218"/>
+      <c r="G56" s="205"/>
+      <c r="H56" s="206"/>
+      <c r="I56" s="210"/>
+      <c r="J56" s="207"/>
+      <c r="K56" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L56" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="M56" s="160"/>
+      <c r="N56" s="209"/>
+      <c r="O56" s="210"/>
+      <c r="P56" s="211"/>
+      <c r="Q56" s="220"/>
+    </row>
+    <row r="57" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A57" s="152">
+        <v>54</v>
+      </c>
+      <c r="B57" s="217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" s="203" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="204"/>
+      <c r="E57" s="218"/>
+      <c r="F57" s="218"/>
+      <c r="G57" s="205"/>
+      <c r="H57" s="206"/>
+      <c r="I57" s="210"/>
+      <c r="J57" s="207"/>
+      <c r="K57" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L57" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="M57" s="160"/>
+      <c r="N57" s="209"/>
+      <c r="O57" s="210"/>
+      <c r="P57" s="211"/>
+      <c r="Q57" s="220"/>
+    </row>
+    <row r="58" spans="1:17" s="17" customFormat="1" ht="100.8">
+      <c r="A58" s="152">
+        <v>55</v>
+      </c>
+      <c r="B58" s="217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" s="203" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" s="204"/>
+      <c r="E58" s="218"/>
+      <c r="F58" s="218"/>
+      <c r="G58" s="205"/>
+      <c r="H58" s="206"/>
+      <c r="I58" s="210"/>
+      <c r="J58" s="207"/>
+      <c r="K58" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L58" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="M58" s="160"/>
+      <c r="N58" s="209"/>
+      <c r="O58" s="210"/>
+      <c r="P58" s="211"/>
+      <c r="Q58" s="220"/>
+    </row>
+    <row r="59" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A59" s="152">
+        <v>56</v>
+      </c>
+      <c r="B59" s="217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="203" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="204"/>
+      <c r="E59" s="218"/>
+      <c r="F59" s="218"/>
+      <c r="G59" s="205"/>
+      <c r="H59" s="206"/>
+      <c r="I59" s="210"/>
+      <c r="J59" s="207"/>
+      <c r="K59" s="208">
+        <v>43833</v>
+      </c>
+      <c r="L59" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="M59" s="160"/>
+      <c r="N59" s="209"/>
+      <c r="O59" s="210"/>
+      <c r="P59" s="211"/>
+      <c r="Q59" s="220"/>
+    </row>
+    <row r="60" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A60" s="152">
+        <v>57</v>
+      </c>
+      <c r="B60" s="217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="203" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="204"/>
+      <c r="E60" s="218"/>
+      <c r="F60" s="218"/>
+      <c r="G60" s="205"/>
+      <c r="H60" s="206"/>
+      <c r="I60" s="210"/>
+      <c r="J60" s="207"/>
+      <c r="K60" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L60" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="M60" s="160"/>
+      <c r="N60" s="209"/>
+      <c r="O60" s="210"/>
+      <c r="P60" s="211"/>
+      <c r="Q60" s="220"/>
+    </row>
+    <row r="61" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A61" s="120">
+        <v>58</v>
+      </c>
+      <c r="B61" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="142"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="144"/>
+      <c r="H61" s="145"/>
+      <c r="I61" s="149"/>
+      <c r="J61" s="146"/>
+      <c r="K61" s="147"/>
+      <c r="L61" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M61" s="128"/>
+      <c r="N61" s="148"/>
+      <c r="O61" s="149"/>
+      <c r="P61" s="150"/>
+      <c r="Q61" s="151"/>
+    </row>
+    <row r="62" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A62" s="120">
+        <v>59</v>
+      </c>
+      <c r="B62" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" s="141" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="142"/>
+      <c r="E62" s="143"/>
+      <c r="F62" s="143"/>
+      <c r="G62" s="144"/>
+      <c r="H62" s="145"/>
+      <c r="I62" s="149"/>
+      <c r="J62" s="146"/>
+      <c r="K62" s="147"/>
+      <c r="L62" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M62" s="128"/>
+      <c r="N62" s="148"/>
+      <c r="O62" s="149"/>
+      <c r="P62" s="150"/>
+      <c r="Q62" s="151"/>
+    </row>
+    <row r="63" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A63" s="168">
+        <v>60</v>
+      </c>
+      <c r="B63" s="191" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="192" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="193"/>
+      <c r="E63" s="194"/>
+      <c r="F63" s="194"/>
+      <c r="G63" s="195"/>
+      <c r="H63" s="221"/>
+      <c r="I63" s="200"/>
+      <c r="J63" s="196"/>
+      <c r="K63" s="197"/>
+      <c r="L63" s="198"/>
+      <c r="M63" s="171"/>
+      <c r="N63" s="199"/>
+      <c r="O63" s="200"/>
+      <c r="P63" s="201" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q63" s="222"/>
+    </row>
+    <row r="64" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A64" s="120">
+        <v>61</v>
+      </c>
+      <c r="B64" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" s="141" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="142"/>
+      <c r="E64" s="143"/>
+      <c r="F64" s="143"/>
+      <c r="G64" s="144"/>
+      <c r="H64" s="145"/>
+      <c r="I64" s="149"/>
+      <c r="J64" s="146"/>
+      <c r="K64" s="147"/>
+      <c r="L64" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M64" s="128"/>
+      <c r="N64" s="148"/>
+      <c r="O64" s="149"/>
+      <c r="P64" s="150"/>
+      <c r="Q64" s="151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A65" s="120">
+        <v>62</v>
+      </c>
+      <c r="B65" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="C65" s="141" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="142"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="143"/>
+      <c r="G65" s="144"/>
+      <c r="H65" s="145"/>
+      <c r="I65" s="149"/>
+      <c r="J65" s="146"/>
+      <c r="K65" s="147"/>
+      <c r="L65" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M65" s="128"/>
+      <c r="N65" s="148"/>
+      <c r="O65" s="149"/>
+      <c r="P65" s="150"/>
+      <c r="Q65" s="151"/>
+    </row>
+    <row r="66" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A66" s="120">
+        <v>63</v>
+      </c>
+      <c r="B66" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" s="141" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="142"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="143"/>
+      <c r="G66" s="144"/>
+      <c r="H66" s="145"/>
+      <c r="I66" s="149"/>
+      <c r="J66" s="146"/>
+      <c r="K66" s="147"/>
+      <c r="L66" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M66" s="128"/>
+      <c r="N66" s="148"/>
+      <c r="O66" s="149"/>
+      <c r="P66" s="150"/>
+      <c r="Q66" s="151"/>
+    </row>
+    <row r="67" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A67" s="120">
+        <v>64</v>
+      </c>
+      <c r="B67" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="142"/>
+      <c r="E67" s="143"/>
+      <c r="F67" s="143"/>
+      <c r="G67" s="144"/>
+      <c r="H67" s="145"/>
+      <c r="I67" s="149"/>
+      <c r="J67" s="146"/>
+      <c r="K67" s="147"/>
+      <c r="L67" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M67" s="128"/>
+      <c r="N67" s="148"/>
+      <c r="O67" s="149"/>
+      <c r="P67" s="150"/>
+      <c r="Q67" s="151"/>
+    </row>
+    <row r="68" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A68" s="168">
+        <v>65</v>
+      </c>
+      <c r="B68" s="191" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="192" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" s="193"/>
+      <c r="E68" s="194"/>
+      <c r="F68" s="194"/>
+      <c r="G68" s="195"/>
+      <c r="H68" s="221"/>
+      <c r="I68" s="200"/>
+      <c r="J68" s="196"/>
+      <c r="K68" s="197"/>
+      <c r="L68" s="198"/>
+      <c r="M68" s="171"/>
+      <c r="N68" s="199"/>
+      <c r="O68" s="200"/>
+      <c r="P68" s="201" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q68" s="222"/>
+    </row>
+    <row r="69" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A69" s="172">
+        <v>66</v>
+      </c>
+      <c r="B69" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="224" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="225"/>
+      <c r="E69" s="226"/>
+      <c r="F69" s="226"/>
+      <c r="G69" s="227"/>
+      <c r="H69" s="228"/>
+      <c r="I69" s="229"/>
+      <c r="J69" s="230"/>
+      <c r="K69" s="231"/>
+      <c r="L69" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M69" s="180"/>
+      <c r="N69" s="233"/>
+      <c r="O69" s="229"/>
+      <c r="P69" s="234" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q69" s="235" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A70" s="152">
+        <v>67</v>
+      </c>
+      <c r="B70" s="217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" s="203" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="204"/>
+      <c r="E70" s="218"/>
+      <c r="F70" s="218"/>
+      <c r="G70" s="205"/>
+      <c r="H70" s="206"/>
+      <c r="I70" s="210"/>
+      <c r="J70" s="207"/>
+      <c r="K70" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L70" s="219" t="s">
+        <v>249</v>
+      </c>
+      <c r="M70" s="160"/>
+      <c r="N70" s="209"/>
+      <c r="O70" s="210"/>
+      <c r="P70" s="211"/>
+      <c r="Q70" s="220"/>
+    </row>
+    <row r="71" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A71" s="120">
+        <v>68</v>
+      </c>
+      <c r="B71" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="141" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" s="142"/>
+      <c r="E71" s="143"/>
+      <c r="F71" s="143"/>
+      <c r="G71" s="144"/>
+      <c r="H71" s="145"/>
+      <c r="I71" s="149"/>
+      <c r="J71" s="146"/>
+      <c r="K71" s="147"/>
+      <c r="L71" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M71" s="128"/>
+      <c r="N71" s="148"/>
+      <c r="O71" s="149"/>
+      <c r="P71" s="150"/>
+      <c r="Q71" s="151"/>
+    </row>
+    <row r="72" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A72" s="172">
+        <v>69</v>
+      </c>
+      <c r="B72" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="224" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" s="225"/>
+      <c r="E72" s="226"/>
+      <c r="F72" s="226"/>
+      <c r="G72" s="227"/>
+      <c r="H72" s="228"/>
+      <c r="I72" s="229"/>
+      <c r="J72" s="230"/>
+      <c r="K72" s="231"/>
+      <c r="L72" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M72" s="180"/>
+      <c r="N72" s="233"/>
+      <c r="O72" s="229"/>
+      <c r="P72" s="234" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q72" s="235" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A73" s="120">
+        <v>70</v>
+      </c>
+      <c r="B73" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="141" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" s="142"/>
+      <c r="E73" s="143"/>
+      <c r="F73" s="143"/>
+      <c r="G73" s="144"/>
+      <c r="H73" s="145"/>
+      <c r="I73" s="149"/>
+      <c r="J73" s="146"/>
+      <c r="K73" s="147"/>
+      <c r="L73" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M73" s="128"/>
+      <c r="N73" s="148"/>
+      <c r="O73" s="149"/>
+      <c r="P73" s="150"/>
+      <c r="Q73" s="151"/>
+    </row>
+    <row r="74" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A74" s="120">
+        <v>71</v>
+      </c>
+      <c r="B74" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="141" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="142"/>
+      <c r="E74" s="143"/>
+      <c r="F74" s="143"/>
+      <c r="G74" s="144"/>
+      <c r="H74" s="145"/>
+      <c r="I74" s="149"/>
+      <c r="J74" s="146"/>
+      <c r="K74" s="147"/>
+      <c r="L74" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M74" s="128"/>
+      <c r="N74" s="148"/>
+      <c r="O74" s="149"/>
+      <c r="P74" s="150"/>
+      <c r="Q74" s="151"/>
+    </row>
+    <row r="75" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A75" s="152">
+        <v>72</v>
+      </c>
+      <c r="B75" s="217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="203" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="204"/>
+      <c r="E75" s="218"/>
+      <c r="F75" s="218"/>
+      <c r="G75" s="205"/>
+      <c r="H75" s="206"/>
+      <c r="I75" s="210"/>
+      <c r="J75" s="207"/>
+      <c r="K75" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L75" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="M75" s="160"/>
+      <c r="N75" s="209"/>
+      <c r="O75" s="210"/>
+      <c r="P75" s="211" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q75" s="220" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A76" s="152">
+        <v>73</v>
+      </c>
+      <c r="B76" s="217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="203" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" s="204"/>
+      <c r="E76" s="218"/>
+      <c r="F76" s="218"/>
+      <c r="G76" s="205"/>
+      <c r="H76" s="206"/>
+      <c r="I76" s="210"/>
+      <c r="J76" s="207"/>
+      <c r="K76" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L76" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="M76" s="160"/>
+      <c r="N76" s="209"/>
+      <c r="O76" s="210"/>
+      <c r="P76" s="211"/>
+      <c r="Q76" s="220" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A77" s="152">
+        <v>74</v>
+      </c>
+      <c r="B77" s="217" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" s="203" t="s">
+        <v>202</v>
+      </c>
+      <c r="D77" s="204"/>
+      <c r="E77" s="218"/>
+      <c r="F77" s="218"/>
+      <c r="G77" s="205"/>
+      <c r="H77" s="206"/>
+      <c r="I77" s="210"/>
+      <c r="J77" s="207"/>
+      <c r="K77" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L77" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="M77" s="160"/>
+      <c r="N77" s="209"/>
+      <c r="O77" s="210"/>
+      <c r="P77" s="211"/>
+      <c r="Q77" s="220" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A78" s="152">
+        <v>75</v>
+      </c>
+      <c r="B78" s="217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" s="203" t="s">
+        <v>203</v>
+      </c>
+      <c r="D78" s="204"/>
+      <c r="E78" s="218"/>
+      <c r="F78" s="218"/>
+      <c r="G78" s="205"/>
+      <c r="H78" s="206"/>
+      <c r="I78" s="210"/>
+      <c r="J78" s="207"/>
+      <c r="K78" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L78" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="M78" s="160"/>
+      <c r="N78" s="209"/>
+      <c r="O78" s="210"/>
+      <c r="P78" s="211"/>
+      <c r="Q78" s="220"/>
+    </row>
+    <row r="79" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A79" s="168">
+        <v>76</v>
+      </c>
+      <c r="B79" s="191" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="192" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" s="193"/>
+      <c r="E79" s="194"/>
+      <c r="F79" s="194"/>
+      <c r="G79" s="195"/>
+      <c r="H79" s="221"/>
+      <c r="I79" s="200"/>
+      <c r="J79" s="196"/>
+      <c r="K79" s="197"/>
+      <c r="L79" s="198"/>
+      <c r="M79" s="171"/>
+      <c r="N79" s="199"/>
+      <c r="O79" s="200"/>
+      <c r="P79" s="201" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q79" s="222"/>
+    </row>
+    <row r="80" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A80" s="168">
+        <v>77</v>
+      </c>
+      <c r="B80" s="191" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" s="192" t="s">
+        <v>208</v>
+      </c>
+      <c r="D80" s="193"/>
+      <c r="E80" s="194"/>
+      <c r="F80" s="194"/>
+      <c r="G80" s="195"/>
+      <c r="H80" s="221"/>
+      <c r="I80" s="200"/>
+      <c r="J80" s="196"/>
+      <c r="K80" s="197"/>
+      <c r="L80" s="198"/>
+      <c r="M80" s="171"/>
+      <c r="N80" s="199"/>
+      <c r="O80" s="200"/>
+      <c r="P80" s="201" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q80" s="222"/>
+    </row>
+    <row r="81" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A81" s="120">
+        <v>78</v>
+      </c>
+      <c r="B81" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" s="141" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" s="142"/>
+      <c r="E81" s="143"/>
+      <c r="F81" s="143"/>
+      <c r="G81" s="144"/>
+      <c r="H81" s="145"/>
+      <c r="I81" s="149"/>
+      <c r="J81" s="146"/>
+      <c r="K81" s="147"/>
+      <c r="L81" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M81" s="128"/>
+      <c r="N81" s="148"/>
+      <c r="O81" s="149"/>
+      <c r="P81" s="150"/>
+      <c r="Q81" s="151"/>
+    </row>
+    <row r="82" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A82" s="172">
+        <v>79</v>
+      </c>
+      <c r="B82" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="224" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="225"/>
+      <c r="E82" s="226"/>
+      <c r="F82" s="226"/>
+      <c r="G82" s="227"/>
+      <c r="H82" s="228"/>
+      <c r="I82" s="229"/>
+      <c r="J82" s="230"/>
+      <c r="K82" s="231"/>
+      <c r="L82" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M82" s="180"/>
+      <c r="N82" s="233"/>
+      <c r="O82" s="229"/>
+      <c r="P82" s="234" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q82" s="235" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A83" s="172">
+        <v>80</v>
+      </c>
+      <c r="B83" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" s="224" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" s="225"/>
+      <c r="E83" s="226"/>
+      <c r="F83" s="226"/>
+      <c r="G83" s="227"/>
+      <c r="H83" s="228"/>
+      <c r="I83" s="229"/>
+      <c r="J83" s="230"/>
+      <c r="K83" s="231"/>
+      <c r="L83" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M83" s="180"/>
+      <c r="N83" s="233"/>
+      <c r="O83" s="229"/>
+      <c r="P83" s="234" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q83" s="235"/>
+    </row>
+    <row r="84" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A84" s="152">
+        <v>81</v>
+      </c>
+      <c r="B84" s="217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" s="203" t="s">
+        <v>211</v>
+      </c>
+      <c r="D84" s="204"/>
+      <c r="E84" s="218"/>
+      <c r="F84" s="218"/>
+      <c r="G84" s="205"/>
+      <c r="H84" s="206"/>
+      <c r="I84" s="210"/>
+      <c r="J84" s="207"/>
+      <c r="K84" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L84" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="M84" s="160"/>
+      <c r="N84" s="209"/>
+      <c r="O84" s="210"/>
+      <c r="P84" s="211"/>
+      <c r="Q84" s="220"/>
+    </row>
+    <row r="85" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A85" s="172">
+        <v>82</v>
+      </c>
+      <c r="B85" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85" s="224" t="s">
+        <v>212</v>
+      </c>
+      <c r="D85" s="225"/>
+      <c r="E85" s="226"/>
+      <c r="F85" s="226"/>
+      <c r="G85" s="227"/>
+      <c r="H85" s="228"/>
+      <c r="I85" s="229"/>
+      <c r="J85" s="230"/>
+      <c r="K85" s="231"/>
+      <c r="L85" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M85" s="180"/>
+      <c r="N85" s="233"/>
+      <c r="O85" s="229"/>
+      <c r="P85" s="234" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q85" s="235" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A86" s="152">
+        <v>83</v>
+      </c>
+      <c r="B86" s="217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" s="203" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" s="204"/>
+      <c r="E86" s="218"/>
+      <c r="F86" s="218"/>
+      <c r="G86" s="205"/>
+      <c r="H86" s="206"/>
+      <c r="I86" s="210"/>
+      <c r="J86" s="207"/>
+      <c r="K86" s="208">
+        <v>43833</v>
+      </c>
+      <c r="L86" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="M86" s="160"/>
+      <c r="N86" s="209"/>
+      <c r="O86" s="210"/>
+      <c r="P86" s="211"/>
+      <c r="Q86" s="220"/>
+    </row>
+    <row r="87" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A87" s="120">
+        <v>84</v>
+      </c>
+      <c r="B87" s="140" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" s="141" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" s="142"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="143"/>
+      <c r="G87" s="144"/>
+      <c r="H87" s="145"/>
+      <c r="I87" s="149"/>
+      <c r="J87" s="146"/>
+      <c r="K87" s="147"/>
+      <c r="L87" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M87" s="128"/>
+      <c r="N87" s="148"/>
+      <c r="O87" s="149"/>
+      <c r="P87" s="150"/>
+      <c r="Q87" s="151"/>
+    </row>
+    <row r="88" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A88" s="152">
+        <v>85</v>
+      </c>
+      <c r="B88" s="217" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" s="203" t="s">
+        <v>215</v>
+      </c>
+      <c r="D88" s="204"/>
+      <c r="E88" s="218"/>
+      <c r="F88" s="218"/>
+      <c r="G88" s="205"/>
+      <c r="H88" s="206"/>
+      <c r="I88" s="210"/>
+      <c r="J88" s="207"/>
+      <c r="K88" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L88" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="M88" s="160"/>
+      <c r="N88" s="209"/>
+      <c r="O88" s="210"/>
+      <c r="P88" s="211"/>
+      <c r="Q88" s="220" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A89" s="152">
+        <v>86</v>
+      </c>
+      <c r="B89" s="217" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" s="203" t="s">
+        <v>216</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="218"/>
+      <c r="F89" s="218"/>
+      <c r="G89" s="205"/>
+      <c r="H89" s="206"/>
+      <c r="I89" s="210"/>
+      <c r="J89" s="207"/>
+      <c r="K89" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L89" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="M89" s="160"/>
+      <c r="N89" s="209"/>
+      <c r="O89" s="210"/>
+      <c r="P89" s="211"/>
+      <c r="Q89" s="220"/>
+    </row>
+    <row r="90" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A90" s="120">
+        <v>87</v>
+      </c>
+      <c r="B90" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" s="141" t="s">
+        <v>221</v>
+      </c>
+      <c r="D90" s="142"/>
+      <c r="E90" s="143"/>
+      <c r="F90" s="143"/>
+      <c r="G90" s="144"/>
+      <c r="H90" s="145"/>
+      <c r="I90" s="149"/>
+      <c r="J90" s="146"/>
+      <c r="K90" s="147"/>
+      <c r="L90" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M90" s="128"/>
+      <c r="N90" s="148"/>
+      <c r="O90" s="149"/>
+      <c r="P90" s="150"/>
+      <c r="Q90" s="151"/>
+    </row>
+    <row r="91" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A91" s="152">
+        <v>88</v>
+      </c>
+      <c r="B91" s="217" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" s="203" t="s">
+        <v>223</v>
+      </c>
+      <c r="D91" s="204"/>
+      <c r="E91" s="218"/>
+      <c r="F91" s="218"/>
+      <c r="G91" s="205"/>
+      <c r="H91" s="206"/>
+      <c r="I91" s="210"/>
+      <c r="J91" s="207"/>
+      <c r="K91" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L91" s="219" t="s">
         <v>254</v>
       </c>
-      <c r="M6" s="183"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="175"/>
-      <c r="P6" s="185"/>
-      <c r="Q6" s="189" t="s">
+      <c r="M91" s="160"/>
+      <c r="N91" s="209"/>
+      <c r="O91" s="210"/>
+      <c r="P91" s="211"/>
+      <c r="Q91" s="220"/>
+    </row>
+    <row r="92" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A92" s="168">
+        <v>89</v>
+      </c>
+      <c r="B92" s="191" t="s">
+        <v>246</v>
+      </c>
+      <c r="C92" s="192" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" s="193"/>
+      <c r="E92" s="194"/>
+      <c r="F92" s="194"/>
+      <c r="G92" s="195"/>
+      <c r="H92" s="221"/>
+      <c r="I92" s="200"/>
+      <c r="J92" s="196"/>
+      <c r="K92" s="197"/>
+      <c r="L92" s="198"/>
+      <c r="M92" s="171"/>
+      <c r="N92" s="199"/>
+      <c r="O92" s="200"/>
+      <c r="P92" s="201" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q92" s="222"/>
+    </row>
+    <row r="93" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A93" s="172">
+        <v>90</v>
+      </c>
+      <c r="B93" s="223" t="s">
+        <v>243</v>
+      </c>
+      <c r="C93" s="224" t="s">
+        <v>226</v>
+      </c>
+      <c r="D93" s="225"/>
+      <c r="E93" s="226"/>
+      <c r="F93" s="226"/>
+      <c r="G93" s="227"/>
+      <c r="H93" s="228"/>
+      <c r="I93" s="229"/>
+      <c r="J93" s="230"/>
+      <c r="K93" s="231"/>
+      <c r="L93" s="232" t="s">
+        <v>253</v>
+      </c>
+      <c r="M93" s="180"/>
+      <c r="N93" s="233"/>
+      <c r="O93" s="229"/>
+      <c r="P93" s="234" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q93" s="235" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="17" customFormat="1" ht="86.4">
+      <c r="A94" s="168">
+        <v>91</v>
+      </c>
+      <c r="B94" s="191" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94" s="192" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" s="193"/>
+      <c r="E94" s="194"/>
+      <c r="F94" s="194"/>
+      <c r="G94" s="195"/>
+      <c r="H94" s="221"/>
+      <c r="I94" s="200"/>
+      <c r="J94" s="196"/>
+      <c r="K94" s="197"/>
+      <c r="L94" s="198"/>
+      <c r="M94" s="171"/>
+      <c r="N94" s="199"/>
+      <c r="O94" s="200"/>
+      <c r="P94" s="201" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q94" s="222"/>
+    </row>
+    <row r="95" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A95" s="172">
+        <v>92</v>
+      </c>
+      <c r="B95" s="223" t="s">
+        <v>246</v>
+      </c>
+      <c r="C95" s="224" t="s">
+        <v>229</v>
+      </c>
+      <c r="D95" s="225"/>
+      <c r="E95" s="226"/>
+      <c r="F95" s="226"/>
+      <c r="G95" s="227"/>
+      <c r="H95" s="228"/>
+      <c r="I95" s="229"/>
+      <c r="J95" s="230"/>
+      <c r="K95" s="231"/>
+      <c r="L95" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M95" s="180"/>
+      <c r="N95" s="233"/>
+      <c r="O95" s="229"/>
+      <c r="P95" s="234" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q95" s="235" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A96" s="120">
+        <v>93</v>
+      </c>
+      <c r="B96" s="140" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" s="141" t="s">
+        <v>230</v>
+      </c>
+      <c r="D96" s="142"/>
+      <c r="E96" s="143"/>
+      <c r="F96" s="143"/>
+      <c r="G96" s="144"/>
+      <c r="H96" s="145"/>
+      <c r="I96" s="149"/>
+      <c r="J96" s="146"/>
+      <c r="K96" s="147"/>
+      <c r="L96" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M96" s="128"/>
+      <c r="N96" s="148"/>
+      <c r="O96" s="149"/>
+      <c r="P96" s="150"/>
+      <c r="Q96" s="151"/>
+    </row>
+    <row r="97" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A97" s="172">
+        <v>94</v>
+      </c>
+      <c r="B97" s="223" t="s">
+        <v>244</v>
+      </c>
+      <c r="C97" s="224" t="s">
+        <v>231</v>
+      </c>
+      <c r="D97" s="225"/>
+      <c r="E97" s="226"/>
+      <c r="F97" s="226"/>
+      <c r="G97" s="227"/>
+      <c r="H97" s="228"/>
+      <c r="I97" s="229"/>
+      <c r="J97" s="230"/>
+      <c r="K97" s="231"/>
+      <c r="L97" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M97" s="180"/>
+      <c r="N97" s="233"/>
+      <c r="O97" s="229"/>
+      <c r="P97" s="234" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q97" s="235"/>
+    </row>
+    <row r="98" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A98" s="172">
+        <v>95</v>
+      </c>
+      <c r="B98" s="223" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" s="224" t="s">
+        <v>232</v>
+      </c>
+      <c r="D98" s="225"/>
+      <c r="E98" s="226"/>
+      <c r="F98" s="226"/>
+      <c r="G98" s="227"/>
+      <c r="H98" s="228"/>
+      <c r="I98" s="229"/>
+      <c r="J98" s="230"/>
+      <c r="K98" s="231"/>
+      <c r="L98" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M98" s="180"/>
+      <c r="N98" s="233"/>
+      <c r="O98" s="229"/>
+      <c r="P98" s="234" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q98" s="235"/>
+    </row>
+    <row r="99" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A99" s="172">
+        <v>96</v>
+      </c>
+      <c r="B99" s="223" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99" s="224" t="s">
+        <v>233</v>
+      </c>
+      <c r="D99" s="225"/>
+      <c r="E99" s="226"/>
+      <c r="F99" s="226"/>
+      <c r="G99" s="227"/>
+      <c r="H99" s="228"/>
+      <c r="I99" s="229"/>
+      <c r="J99" s="230"/>
+      <c r="K99" s="231"/>
+      <c r="L99" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M99" s="180"/>
+      <c r="N99" s="233"/>
+      <c r="O99" s="229"/>
+      <c r="P99" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q99" s="235" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A100" s="172">
+        <v>97</v>
+      </c>
+      <c r="B100" s="223" t="s">
+        <v>243</v>
+      </c>
+      <c r="C100" s="224" t="s">
+        <v>234</v>
+      </c>
+      <c r="D100" s="225"/>
+      <c r="E100" s="226"/>
+      <c r="F100" s="226"/>
+      <c r="G100" s="227"/>
+      <c r="H100" s="228"/>
+      <c r="I100" s="229"/>
+      <c r="J100" s="230"/>
+      <c r="K100" s="231"/>
+      <c r="L100" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="M100" s="180"/>
+      <c r="N100" s="233"/>
+      <c r="O100" s="229"/>
+      <c r="P100" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q100" s="235" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="113" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A7" s="175">
-        <v>4</v>
-      </c>
-      <c r="B7" s="175" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="177" t="s">
+    <row r="101" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A101" s="120">
+        <v>98</v>
+      </c>
+      <c r="B101" s="140" t="s">
+        <v>246</v>
+      </c>
+      <c r="C101" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="D101" s="142"/>
+      <c r="E101" s="143"/>
+      <c r="F101" s="143"/>
+      <c r="G101" s="144"/>
+      <c r="H101" s="145"/>
+      <c r="I101" s="149"/>
+      <c r="J101" s="146"/>
+      <c r="K101" s="147"/>
+      <c r="L101" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M101" s="128"/>
+      <c r="N101" s="148"/>
+      <c r="O101" s="149"/>
+      <c r="P101" s="150"/>
+      <c r="Q101" s="151"/>
+    </row>
+    <row r="102" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A102" s="120">
+        <v>99</v>
+      </c>
+      <c r="B102" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="C102" s="141" t="s">
+        <v>236</v>
+      </c>
+      <c r="D102" s="142"/>
+      <c r="E102" s="143"/>
+      <c r="F102" s="143"/>
+      <c r="G102" s="144"/>
+      <c r="H102" s="145"/>
+      <c r="I102" s="149"/>
+      <c r="J102" s="146"/>
+      <c r="K102" s="147"/>
+      <c r="L102" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M102" s="128"/>
+      <c r="N102" s="148"/>
+      <c r="O102" s="149"/>
+      <c r="P102" s="150"/>
+      <c r="Q102" s="151"/>
+    </row>
+    <row r="103" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A103" s="152">
         <v>100</v>
       </c>
-      <c r="D7" s="178"/>
-      <c r="E7" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="180">
-        <v>43801</v>
-      </c>
-      <c r="H7" s="181"/>
-      <c r="I7" s="175" t="s">
+      <c r="B103" s="217" t="s">
+        <v>243</v>
+      </c>
+      <c r="C103" s="203" t="s">
+        <v>241</v>
+      </c>
+      <c r="D103" s="204"/>
+      <c r="E103" s="218"/>
+      <c r="F103" s="218"/>
+      <c r="G103" s="205"/>
+      <c r="H103" s="206"/>
+      <c r="I103" s="210"/>
+      <c r="J103" s="207"/>
+      <c r="K103" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L103" s="219" t="s">
+        <v>251</v>
+      </c>
+      <c r="M103" s="160"/>
+      <c r="N103" s="209"/>
+      <c r="O103" s="210"/>
+      <c r="P103" s="211" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q103" s="220"/>
+    </row>
+    <row r="104" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A104" s="120">
         <v>101</v>
       </c>
-      <c r="J7" s="175"/>
-      <c r="K7" s="182"/>
-      <c r="L7" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="M7" s="183"/>
-      <c r="N7" s="184"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="185"/>
-      <c r="Q7" s="189" t="s">
+      <c r="B104" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="C104" s="141" t="s">
+        <v>237</v>
+      </c>
+      <c r="D104" s="142"/>
+      <c r="E104" s="143"/>
+      <c r="F104" s="143"/>
+      <c r="G104" s="144"/>
+      <c r="H104" s="145"/>
+      <c r="I104" s="149"/>
+      <c r="J104" s="146"/>
+      <c r="K104" s="147"/>
+      <c r="L104" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M104" s="128"/>
+      <c r="N104" s="148"/>
+      <c r="O104" s="149"/>
+      <c r="P104" s="150"/>
+      <c r="Q104" s="151"/>
+    </row>
+    <row r="105" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A105" s="152">
+        <v>102</v>
+      </c>
+      <c r="B105" s="217" t="s">
+        <v>243</v>
+      </c>
+      <c r="C105" s="203" t="s">
+        <v>238</v>
+      </c>
+      <c r="D105" s="204"/>
+      <c r="E105" s="218"/>
+      <c r="F105" s="218"/>
+      <c r="G105" s="205"/>
+      <c r="H105" s="206"/>
+      <c r="I105" s="210"/>
+      <c r="J105" s="207"/>
+      <c r="K105" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L105" s="219" t="s">
+        <v>249</v>
+      </c>
+      <c r="M105" s="160"/>
+      <c r="N105" s="209"/>
+      <c r="O105" s="210"/>
+      <c r="P105" s="211" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q105" s="220" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="113" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A8" s="123">
-        <v>5</v>
-      </c>
-      <c r="B8" s="123" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="126" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="127">
-        <v>43804</v>
-      </c>
-      <c r="H8" s="128" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="123"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M8" s="131"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="139"/>
-    </row>
-    <row r="9" spans="1:17" s="113" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A9" s="123">
-        <v>6</v>
-      </c>
-      <c r="B9" s="123" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="140" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="127">
-        <v>43804</v>
-      </c>
-      <c r="H9" s="140"/>
-      <c r="I9" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="123"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="M9" s="131"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="65" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A10" s="123">
-        <v>7</v>
-      </c>
-      <c r="B10" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="144" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="145"/>
-      <c r="E10" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="147">
-        <v>43808</v>
-      </c>
-      <c r="H10" s="148"/>
-      <c r="I10" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="149"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M10" s="131"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="139"/>
-    </row>
-    <row r="11" spans="1:17" s="65" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A11" s="123">
-        <v>8</v>
-      </c>
-      <c r="B11" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="144" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="145"/>
-      <c r="E11" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="147">
-        <v>43808</v>
-      </c>
-      <c r="H11" s="148"/>
-      <c r="I11" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="149"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" s="131"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="154"/>
-    </row>
-    <row r="12" spans="1:17" s="65" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A12" s="171">
-        <v>9</v>
-      </c>
-      <c r="B12" s="194" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="195" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="196"/>
-      <c r="E12" s="172" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="197" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="198">
-        <v>43808</v>
-      </c>
-      <c r="H12" s="173"/>
-      <c r="I12" s="171" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="199"/>
-      <c r="K12" s="200"/>
-      <c r="L12" s="201"/>
-      <c r="M12" s="174"/>
-      <c r="N12" s="202"/>
-      <c r="O12" s="203"/>
-      <c r="P12" s="204" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q12" s="205"/>
-    </row>
-    <row r="13" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A13" s="155">
-        <v>10</v>
-      </c>
-      <c r="B13" s="187" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="156" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="157"/>
-      <c r="E13" s="158" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="159">
-        <v>43802</v>
-      </c>
-      <c r="H13" s="160" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="155" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="155"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="M13" s="163"/>
-      <c r="N13" s="164"/>
-      <c r="O13" s="155"/>
-      <c r="P13" s="165"/>
-      <c r="Q13" s="191" t="s">
+    <row r="106" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A106" s="152">
+        <v>103</v>
+      </c>
+      <c r="B106" s="217" t="s">
+        <v>246</v>
+      </c>
+      <c r="C106" s="203" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106" s="204"/>
+      <c r="E106" s="218"/>
+      <c r="F106" s="218"/>
+      <c r="G106" s="205"/>
+      <c r="H106" s="206"/>
+      <c r="I106" s="210"/>
+      <c r="J106" s="207"/>
+      <c r="K106" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L106" s="219" t="s">
+        <v>249</v>
+      </c>
+      <c r="M106" s="160"/>
+      <c r="N106" s="209"/>
+      <c r="O106" s="210"/>
+      <c r="P106" s="211"/>
+      <c r="Q106" s="220"/>
+    </row>
+    <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A107" s="152">
+        <v>104</v>
+      </c>
+      <c r="B107" s="217" t="s">
+        <v>244</v>
+      </c>
+      <c r="C107" s="203" t="s">
+        <v>240</v>
+      </c>
+      <c r="D107" s="204"/>
+      <c r="E107" s="218"/>
+      <c r="F107" s="218"/>
+      <c r="G107" s="205"/>
+      <c r="H107" s="206"/>
+      <c r="I107" s="210"/>
+      <c r="J107" s="207"/>
+      <c r="K107" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L107" s="219" t="s">
+        <v>249</v>
+      </c>
+      <c r="M107" s="160"/>
+      <c r="N107" s="209"/>
+      <c r="O107" s="210"/>
+      <c r="P107" s="211"/>
+      <c r="Q107" s="220"/>
+    </row>
+    <row r="108" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A108" s="152">
+        <v>105</v>
+      </c>
+      <c r="B108" s="217" t="s">
+        <v>244</v>
+      </c>
+      <c r="C108" s="203" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A14" s="155">
-        <v>11</v>
-      </c>
-      <c r="B14" s="187" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="156" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="157"/>
-      <c r="E14" s="158" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="159">
-        <v>43802</v>
-      </c>
-      <c r="H14" s="160"/>
-      <c r="I14" s="155" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="155"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="M14" s="163"/>
-      <c r="N14" s="164"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="165"/>
-      <c r="Q14" s="191"/>
-    </row>
-    <row r="15" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A15" s="123">
-        <v>12</v>
-      </c>
-      <c r="B15" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="124" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="167"/>
-      <c r="E15" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="126" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="127">
-        <v>43803</v>
-      </c>
-      <c r="H15" s="168" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="123"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M15" s="131"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="133" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q15" s="139"/>
-    </row>
-    <row r="16" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A16" s="123">
-        <v>13</v>
-      </c>
-      <c r="B16" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="124" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="126" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="127">
-        <v>43803</v>
-      </c>
-      <c r="H16" s="168" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="123"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M16" s="131"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="133" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q16" s="139"/>
-    </row>
-    <row r="17" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A17" s="123">
-        <v>14</v>
-      </c>
-      <c r="B17" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="167"/>
-      <c r="E17" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="127">
-        <v>43803</v>
-      </c>
-      <c r="H17" s="168"/>
-      <c r="I17" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="123"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M17" s="131"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="133" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q17" s="139"/>
-    </row>
-    <row r="18" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A18" s="123">
-        <v>15</v>
-      </c>
-      <c r="B18" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="124" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="167"/>
-      <c r="E18" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="126" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="127">
-        <v>43805</v>
-      </c>
-      <c r="H18" s="168"/>
-      <c r="I18" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="123"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M18" s="131"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="133" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q18" s="139"/>
-    </row>
-    <row r="19" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A19" s="123">
-        <v>16</v>
-      </c>
-      <c r="B19" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="169"/>
-      <c r="E19" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="127">
-        <v>43802</v>
-      </c>
-      <c r="H19" s="168"/>
-      <c r="I19" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="123"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M19" s="131"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="133" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="139"/>
-    </row>
-    <row r="20" spans="1:17" s="113" customFormat="1" ht="69" customHeight="1">
-      <c r="A20" s="123">
-        <v>17</v>
-      </c>
-      <c r="B20" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="124" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="167"/>
-      <c r="E20" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="127">
-        <v>43803</v>
-      </c>
-      <c r="H20" s="188" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="123"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M20" s="131"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="139"/>
-    </row>
-    <row r="21" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A21" s="175">
-        <v>18</v>
-      </c>
-      <c r="B21" s="176" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="179" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="180">
-        <v>43803</v>
-      </c>
-      <c r="H21" s="181" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="175" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="175"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="M21" s="183"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="185"/>
-      <c r="Q21" s="186" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A22" s="123">
-        <v>19</v>
-      </c>
-      <c r="B22" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="167"/>
-      <c r="E22" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="127">
-        <v>43803</v>
-      </c>
-      <c r="H22" s="168"/>
-      <c r="I22" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="123"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M22" s="131"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="139"/>
-    </row>
-    <row r="23" spans="1:17" s="113" customFormat="1" ht="84" customHeight="1">
-      <c r="A23" s="123">
-        <v>20</v>
-      </c>
-      <c r="B23" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="124" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="167"/>
-      <c r="E23" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="127">
-        <v>43803</v>
-      </c>
-      <c r="H23" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="123"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M23" s="131"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="170" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="113" customFormat="1" ht="54" customHeight="1">
-      <c r="A24" s="175">
-        <v>21</v>
-      </c>
-      <c r="B24" s="176" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="177" t="s">
+      <c r="D108" s="204"/>
+      <c r="E108" s="218"/>
+      <c r="F108" s="218"/>
+      <c r="G108" s="205"/>
+      <c r="H108" s="206"/>
+      <c r="I108" s="210"/>
+      <c r="J108" s="207"/>
+      <c r="K108" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L108" s="219" t="s">
+        <v>249</v>
+      </c>
+      <c r="M108" s="160"/>
+      <c r="N108" s="209"/>
+      <c r="O108" s="210"/>
+      <c r="P108" s="211"/>
+      <c r="Q108" s="220"/>
+    </row>
+    <row r="109" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A109" s="172">
+        <v>106</v>
+      </c>
+      <c r="B109" s="223"/>
+      <c r="C109" s="224" t="s">
+        <v>260</v>
+      </c>
+      <c r="D109" s="225"/>
+      <c r="E109" s="226"/>
+      <c r="F109" s="226"/>
+      <c r="G109" s="227"/>
+      <c r="H109" s="228"/>
+      <c r="I109" s="229"/>
+      <c r="J109" s="230"/>
+      <c r="K109" s="231"/>
+      <c r="L109" s="232" t="s">
+        <v>269</v>
+      </c>
+      <c r="M109" s="180"/>
+      <c r="N109" s="233"/>
+      <c r="O109" s="229"/>
+      <c r="P109" s="234" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q109" s="235" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A110" s="152">
+        <v>107</v>
+      </c>
+      <c r="B110" s="217"/>
+      <c r="C110" s="203" t="s">
+        <v>261</v>
+      </c>
+      <c r="D110" s="204"/>
+      <c r="E110" s="218"/>
+      <c r="F110" s="218"/>
+      <c r="G110" s="205"/>
+      <c r="H110" s="206"/>
+      <c r="I110" s="210"/>
+      <c r="J110" s="207"/>
+      <c r="K110" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L110" s="219" t="s">
+        <v>249</v>
+      </c>
+      <c r="M110" s="160"/>
+      <c r="N110" s="209"/>
+      <c r="O110" s="210"/>
+      <c r="P110" s="211"/>
+      <c r="Q110" s="220"/>
+    </row>
+    <row r="111" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A111" s="152">
+        <v>108</v>
+      </c>
+      <c r="B111" s="217"/>
+      <c r="C111" s="203" t="s">
+        <v>262</v>
+      </c>
+      <c r="D111" s="204"/>
+      <c r="E111" s="218"/>
+      <c r="F111" s="218"/>
+      <c r="G111" s="205"/>
+      <c r="H111" s="206"/>
+      <c r="I111" s="210"/>
+      <c r="J111" s="207"/>
+      <c r="K111" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L111" s="219" t="s">
+        <v>249</v>
+      </c>
+      <c r="M111" s="160"/>
+      <c r="N111" s="209"/>
+      <c r="O111" s="210"/>
+      <c r="P111" s="211"/>
+      <c r="Q111" s="220"/>
+    </row>
+    <row r="112" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A112" s="152">
         <v>110</v>
       </c>
-      <c r="D24" s="178"/>
-      <c r="E24" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="179" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="180">
-        <v>43804</v>
-      </c>
-      <c r="H24" s="181" t="s">
+      <c r="B112" s="217"/>
+      <c r="C112" s="203" t="s">
+        <v>263</v>
+      </c>
+      <c r="D112" s="204"/>
+      <c r="E112" s="218"/>
+      <c r="F112" s="218"/>
+      <c r="G112" s="205"/>
+      <c r="H112" s="206"/>
+      <c r="I112" s="210"/>
+      <c r="J112" s="207"/>
+      <c r="K112" s="208">
+        <v>43828</v>
+      </c>
+      <c r="L112" s="219" t="s">
+        <v>249</v>
+      </c>
+      <c r="M112" s="160"/>
+      <c r="N112" s="209"/>
+      <c r="O112" s="210"/>
+      <c r="P112" s="211"/>
+      <c r="Q112" s="220" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A113" s="168">
+        <v>111</v>
+      </c>
+      <c r="B113" s="191"/>
+      <c r="C113" s="192" t="s">
+        <v>265</v>
+      </c>
+      <c r="D113" s="193"/>
+      <c r="E113" s="194"/>
+      <c r="F113" s="194"/>
+      <c r="G113" s="195"/>
+      <c r="H113" s="221"/>
+      <c r="I113" s="200"/>
+      <c r="J113" s="196"/>
+      <c r="K113" s="197"/>
+      <c r="L113" s="198"/>
+      <c r="M113" s="171"/>
+      <c r="N113" s="199"/>
+      <c r="O113" s="200"/>
+      <c r="P113" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q113" s="222"/>
+    </row>
+    <row r="114" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A114" s="172">
+        <v>112</v>
+      </c>
+      <c r="B114" s="223"/>
+      <c r="C114" s="224" t="s">
+        <v>266</v>
+      </c>
+      <c r="D114" s="225"/>
+      <c r="E114" s="226"/>
+      <c r="F114" s="226"/>
+      <c r="G114" s="227"/>
+      <c r="H114" s="228"/>
+      <c r="I114" s="229"/>
+      <c r="J114" s="230"/>
+      <c r="K114" s="231"/>
+      <c r="L114" s="232" t="s">
+        <v>269</v>
+      </c>
+      <c r="M114" s="180"/>
+      <c r="N114" s="233"/>
+      <c r="O114" s="229"/>
+      <c r="P114" s="234" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q114" s="235"/>
+    </row>
+    <row r="115" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A115" s="120">
+        <v>113</v>
+      </c>
+      <c r="B115" s="140"/>
+      <c r="C115" s="141" t="s">
+        <v>267</v>
+      </c>
+      <c r="D115" s="142"/>
+      <c r="E115" s="143"/>
+      <c r="F115" s="143"/>
+      <c r="G115" s="144"/>
+      <c r="H115" s="145"/>
+      <c r="I115" s="149"/>
+      <c r="J115" s="146"/>
+      <c r="K115" s="147"/>
+      <c r="L115" s="189" t="s">
+        <v>270</v>
+      </c>
+      <c r="M115" s="128"/>
+      <c r="N115" s="148"/>
+      <c r="O115" s="149"/>
+      <c r="P115" s="150" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q115" s="151"/>
+    </row>
+    <row r="116" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A116" s="172">
         <v>114</v>
       </c>
-      <c r="I24" s="175" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="175"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="M24" s="183"/>
-      <c r="N24" s="184"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="185"/>
-      <c r="Q24" s="189" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A25" s="175">
-        <v>22</v>
-      </c>
-      <c r="B25" s="176" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="177" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="179" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="180">
-        <v>43804</v>
-      </c>
-      <c r="H25" s="181"/>
-      <c r="I25" s="175" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="175"/>
-      <c r="K25" s="182"/>
-      <c r="L25" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="M25" s="183"/>
-      <c r="N25" s="184"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="185"/>
-      <c r="Q25" s="189" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="113" customFormat="1" ht="63" customHeight="1">
-      <c r="A26" s="123">
-        <v>23</v>
-      </c>
-      <c r="B26" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="124" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="167"/>
-      <c r="E26" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="127">
-        <v>43804</v>
-      </c>
-      <c r="H26" s="168" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="123"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M26" s="131"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="139"/>
-    </row>
-    <row r="27" spans="1:17" s="113" customFormat="1" ht="84.75" customHeight="1">
-      <c r="A27" s="123">
-        <v>24</v>
-      </c>
-      <c r="B27" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="124" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="167"/>
-      <c r="E27" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="127">
-        <v>43804</v>
-      </c>
-      <c r="H27" s="188" t="s">
-        <v>92</v>
-      </c>
-      <c r="I27" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="123"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M27" s="131"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="139"/>
-    </row>
-    <row r="28" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A28" s="123">
-        <v>25</v>
-      </c>
-      <c r="B28" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="124" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="167"/>
-      <c r="E28" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="127">
-        <v>43804</v>
-      </c>
-      <c r="H28" s="168"/>
-      <c r="I28" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="123"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M28" s="131"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="139"/>
-    </row>
-    <row r="29" spans="1:17" s="113" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A29" s="123">
-        <v>26</v>
-      </c>
-      <c r="B29" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="190" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="167"/>
-      <c r="E29" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="127">
-        <v>43804</v>
-      </c>
-      <c r="H29" s="168" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="123"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M29" s="131"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="139"/>
-    </row>
-    <row r="30" spans="1:17" s="113" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A30" s="123">
-        <v>27</v>
-      </c>
-      <c r="B30" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="167"/>
-      <c r="E30" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="127">
-        <v>43804</v>
-      </c>
-      <c r="H30" s="188" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="123"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M30" s="131"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="133"/>
-      <c r="Q30" s="139"/>
-    </row>
-    <row r="31" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A31" s="123">
-        <v>28</v>
-      </c>
-      <c r="B31" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="140" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="141"/>
-      <c r="E31" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="127">
-        <v>43804</v>
-      </c>
-      <c r="H31" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="I31" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="123"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="M31" s="131"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="133" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q31" s="170"/>
-    </row>
-    <row r="32" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A32" s="175">
-        <v>29</v>
-      </c>
-      <c r="B32" s="176" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="177" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="178"/>
-      <c r="E32" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="179" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="180">
-        <v>43802</v>
-      </c>
-      <c r="H32" s="181" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" s="175" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="175"/>
-      <c r="K32" s="182"/>
-      <c r="L32" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="M32" s="183"/>
-      <c r="N32" s="184"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="185"/>
-      <c r="Q32" s="186" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A33" s="123">
-        <v>30</v>
-      </c>
-      <c r="B33" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="140" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="141"/>
-      <c r="E33" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="127">
-        <v>43805</v>
-      </c>
-      <c r="H33" s="168" t="s">
-        <v>111</v>
-      </c>
-      <c r="I33" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="123"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M33" s="131"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q33" s="139"/>
-    </row>
-    <row r="34" spans="1:17" s="113" customFormat="1" ht="61.2" customHeight="1">
-      <c r="A34" s="123">
-        <v>31</v>
-      </c>
-      <c r="B34" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="140" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="141"/>
-      <c r="E34" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="127">
-        <v>43805</v>
-      </c>
-      <c r="H34" s="168" t="s">
-        <v>113</v>
-      </c>
-      <c r="I34" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="123"/>
-      <c r="K34" s="129"/>
-      <c r="L34" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M34" s="131"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="133" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q34" s="139"/>
-    </row>
-    <row r="35" spans="1:17" s="65" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A35" s="123">
-        <v>32</v>
-      </c>
-      <c r="B35" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="144" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="145"/>
-      <c r="E35" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="147">
-        <v>43808</v>
-      </c>
-      <c r="H35" s="144"/>
-      <c r="I35" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="149"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="192" t="s">
-        <v>127</v>
-      </c>
-      <c r="M35" s="131"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="152"/>
-      <c r="P35" s="153"/>
-      <c r="Q35" s="193"/>
-    </row>
-    <row r="36" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A36" s="155">
-        <v>33</v>
-      </c>
-      <c r="B36" s="187" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="206" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="207"/>
-      <c r="E36" s="158" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="158" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="208">
-        <v>43808</v>
-      </c>
-      <c r="H36" s="209"/>
-      <c r="I36" s="155" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="210"/>
-      <c r="K36" s="211"/>
-      <c r="L36" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="M36" s="163"/>
-      <c r="N36" s="212"/>
-      <c r="O36" s="213"/>
-      <c r="P36" s="214"/>
-      <c r="Q36" s="215"/>
-    </row>
-    <row r="37" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A37" s="123">
-        <v>34</v>
-      </c>
-      <c r="B37" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="144" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="147">
-        <v>43808</v>
-      </c>
-      <c r="H37" s="216"/>
-      <c r="I37" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="149"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M37" s="131"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="152"/>
-      <c r="P37" s="153" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q37" s="193"/>
-    </row>
-    <row r="38" spans="1:17" s="65" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A38" s="123">
-        <v>35</v>
-      </c>
-      <c r="B38" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="144" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="146" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="147">
-        <v>43808</v>
-      </c>
-      <c r="H38" s="148"/>
-      <c r="I38" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="149"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M38" s="131"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="152"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="193"/>
-    </row>
-    <row r="39" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A39" s="123">
-        <v>36</v>
-      </c>
-      <c r="B39" s="166" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" s="145"/>
-      <c r="E39" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="146" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="147">
-        <v>43808</v>
-      </c>
-      <c r="H39" s="148"/>
-      <c r="I39" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="149"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M39" s="131"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="152"/>
-      <c r="P39" s="153"/>
-      <c r="Q39" s="193"/>
-    </row>
-    <row r="40" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A40" s="123">
-        <v>37</v>
-      </c>
-      <c r="B40" s="166" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="124" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="167"/>
-      <c r="E40" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="127">
-        <v>43802</v>
-      </c>
-      <c r="H40" s="168"/>
-      <c r="I40" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="123"/>
-      <c r="K40" s="129"/>
-      <c r="L40" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M40" s="131"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="123"/>
-      <c r="P40" s="133"/>
-      <c r="Q40" s="139"/>
-    </row>
-    <row r="41" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A41" s="123">
-        <v>38</v>
-      </c>
-      <c r="B41" s="166" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="217" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="167"/>
-      <c r="E41" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="127">
-        <v>43803</v>
-      </c>
-      <c r="H41" s="168"/>
-      <c r="I41" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="123"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="M41" s="131"/>
-      <c r="N41" s="132"/>
-      <c r="O41" s="123"/>
-      <c r="P41" s="133"/>
-      <c r="Q41" s="139"/>
-    </row>
-    <row r="42" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A42" s="123">
-        <v>39</v>
-      </c>
-      <c r="B42" s="166" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="124" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="167"/>
-      <c r="E42" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="127">
-        <v>43803</v>
-      </c>
-      <c r="H42" s="168"/>
-      <c r="I42" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="123"/>
-      <c r="K42" s="129"/>
-      <c r="L42" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M42" s="131"/>
-      <c r="N42" s="132"/>
-      <c r="O42" s="123"/>
-      <c r="P42" s="133"/>
-      <c r="Q42" s="139"/>
-    </row>
-    <row r="43" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A43" s="123">
-        <v>40</v>
-      </c>
-      <c r="B43" s="166" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="140" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="141"/>
-      <c r="E43" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="127">
-        <v>43804</v>
-      </c>
-      <c r="H43" s="168" t="s">
-        <v>107</v>
-      </c>
-      <c r="I43" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="218"/>
-      <c r="K43" s="127"/>
-      <c r="L43" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="M43" s="131"/>
-      <c r="N43" s="132"/>
-      <c r="O43" s="123"/>
-      <c r="P43" s="133"/>
-      <c r="Q43" s="139"/>
-    </row>
-    <row r="44" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A44" s="123">
-        <v>41</v>
-      </c>
-      <c r="B44" s="166" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="124" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="167"/>
-      <c r="E44" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="127">
-        <v>43804</v>
-      </c>
-      <c r="H44" s="168" t="s">
-        <v>68</v>
-      </c>
-      <c r="I44" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="218"/>
-      <c r="K44" s="129"/>
-      <c r="L44" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="M44" s="131"/>
-      <c r="N44" s="132"/>
-      <c r="O44" s="123"/>
-      <c r="P44" s="219"/>
-      <c r="Q44" s="170"/>
-    </row>
-    <row r="45" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A45" s="123">
-        <v>42</v>
-      </c>
-      <c r="B45" s="143" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="144" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" s="145"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="152"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="150"/>
-      <c r="L45" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M45" s="131"/>
-      <c r="N45" s="151"/>
-      <c r="O45" s="152"/>
-      <c r="P45" s="153"/>
-      <c r="Q45" s="154"/>
-    </row>
-    <row r="46" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A46" s="123">
-        <v>43</v>
-      </c>
-      <c r="B46" s="143" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" s="144" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" s="145"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="146"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="152"/>
-      <c r="J46" s="149"/>
-      <c r="K46" s="150"/>
-      <c r="L46" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M46" s="131"/>
-      <c r="N46" s="151"/>
-      <c r="O46" s="152"/>
-      <c r="P46" s="153"/>
-      <c r="Q46" s="154" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A47" s="123">
-        <v>44</v>
-      </c>
-      <c r="B47" s="143" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="144" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" s="145"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="149"/>
-      <c r="K47" s="150"/>
-      <c r="L47" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M47" s="131"/>
-      <c r="N47" s="151"/>
-      <c r="O47" s="152"/>
-      <c r="P47" s="153"/>
-      <c r="Q47" s="154" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A48" s="123">
-        <v>45</v>
-      </c>
-      <c r="B48" s="143" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="144" t="s">
-        <v>159</v>
-      </c>
-      <c r="D48" s="145"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="149"/>
-      <c r="K48" s="150"/>
-      <c r="L48" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M48" s="131"/>
-      <c r="N48" s="151"/>
-      <c r="O48" s="152"/>
-      <c r="P48" s="153"/>
-      <c r="Q48" s="154" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A49" s="123">
-        <v>46</v>
-      </c>
-      <c r="B49" s="143" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="144" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="145"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="148"/>
-      <c r="I49" s="152"/>
-      <c r="J49" s="149"/>
-      <c r="K49" s="150"/>
-      <c r="L49" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M49" s="131"/>
-      <c r="N49" s="151"/>
-      <c r="O49" s="152"/>
-      <c r="P49" s="153"/>
-      <c r="Q49" s="154" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A50" s="155">
-        <v>47</v>
-      </c>
-      <c r="B50" s="220" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="206" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="207"/>
-      <c r="E50" s="221"/>
-      <c r="F50" s="221"/>
-      <c r="G50" s="208"/>
-      <c r="H50" s="209"/>
-      <c r="I50" s="213"/>
-      <c r="J50" s="210"/>
-      <c r="K50" s="211"/>
-      <c r="L50" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="M50" s="163"/>
-      <c r="N50" s="212"/>
-      <c r="O50" s="213"/>
-      <c r="P50" s="214" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q50" s="223" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A51" s="155">
-        <v>48</v>
-      </c>
-      <c r="B51" s="220" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" s="206" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="207"/>
-      <c r="E51" s="221"/>
-      <c r="F51" s="221"/>
-      <c r="G51" s="208"/>
-      <c r="H51" s="209"/>
-      <c r="I51" s="213"/>
-      <c r="J51" s="210"/>
-      <c r="K51" s="211"/>
-      <c r="L51" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="M51" s="163"/>
-      <c r="N51" s="212"/>
-      <c r="O51" s="213"/>
-      <c r="P51" s="214" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q51" s="223" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A52" s="123">
-        <v>49</v>
-      </c>
-      <c r="B52" s="143" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52" s="144" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52" s="145"/>
-      <c r="E52" s="146"/>
-      <c r="F52" s="146"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="148"/>
-      <c r="I52" s="152"/>
-      <c r="J52" s="149"/>
-      <c r="K52" s="150"/>
-      <c r="L52" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M52" s="131"/>
-      <c r="N52" s="151"/>
-      <c r="O52" s="152"/>
-      <c r="P52" s="153"/>
-      <c r="Q52" s="154" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A53" s="155">
-        <v>50</v>
-      </c>
-      <c r="B53" s="220" t="s">
-        <v>173</v>
-      </c>
-      <c r="C53" s="206" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="207"/>
-      <c r="E53" s="221"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="208"/>
-      <c r="H53" s="209"/>
-      <c r="I53" s="213"/>
-      <c r="J53" s="210"/>
-      <c r="K53" s="211"/>
-      <c r="L53" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="M53" s="163"/>
-      <c r="N53" s="212"/>
-      <c r="O53" s="213"/>
-      <c r="P53" s="214" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q53" s="223" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" s="17" customFormat="1" ht="75.599999999999994" customHeight="1">
-      <c r="A54" s="155">
-        <v>51</v>
-      </c>
-      <c r="B54" s="220" t="s">
-        <v>174</v>
-      </c>
-      <c r="C54" s="206" t="s">
-        <v>171</v>
-      </c>
-      <c r="D54" s="207"/>
-      <c r="E54" s="221"/>
-      <c r="F54" s="221"/>
-      <c r="G54" s="208"/>
-      <c r="H54" s="209"/>
-      <c r="I54" s="213"/>
-      <c r="J54" s="210"/>
-      <c r="K54" s="211"/>
-      <c r="L54" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="M54" s="163"/>
-      <c r="N54" s="212"/>
-      <c r="O54" s="213"/>
-      <c r="P54" s="214" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q54" s="223"/>
-    </row>
-    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A55" s="155">
-        <v>52</v>
-      </c>
-      <c r="B55" s="220" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="206" t="s">
-        <v>176</v>
-      </c>
-      <c r="D55" s="207"/>
-      <c r="E55" s="221"/>
-      <c r="F55" s="221"/>
-      <c r="G55" s="208"/>
-      <c r="H55" s="209"/>
-      <c r="I55" s="213"/>
-      <c r="J55" s="210"/>
-      <c r="K55" s="211"/>
-      <c r="L55" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="M55" s="163"/>
-      <c r="N55" s="212"/>
-      <c r="O55" s="213"/>
-      <c r="P55" s="214" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q55" s="223" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A56" s="155">
-        <v>53</v>
-      </c>
-      <c r="B56" s="220" t="s">
-        <v>221</v>
-      </c>
-      <c r="C56" s="206" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="207"/>
-      <c r="E56" s="221"/>
-      <c r="F56" s="221"/>
-      <c r="G56" s="208"/>
-      <c r="H56" s="209"/>
-      <c r="I56" s="213"/>
-      <c r="J56" s="210"/>
-      <c r="K56" s="211"/>
-      <c r="L56" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="M56" s="163"/>
-      <c r="N56" s="212"/>
-      <c r="O56" s="213"/>
-      <c r="P56" s="214"/>
-      <c r="Q56" s="223"/>
-    </row>
-    <row r="57" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A57" s="155">
-        <v>54</v>
-      </c>
-      <c r="B57" s="220" t="s">
-        <v>218</v>
-      </c>
-      <c r="C57" s="206" t="s">
-        <v>179</v>
-      </c>
-      <c r="D57" s="207"/>
-      <c r="E57" s="221"/>
-      <c r="F57" s="221"/>
-      <c r="G57" s="208"/>
-      <c r="H57" s="209"/>
-      <c r="I57" s="213"/>
-      <c r="J57" s="210"/>
-      <c r="K57" s="211"/>
-      <c r="L57" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="M57" s="163"/>
-      <c r="N57" s="212"/>
-      <c r="O57" s="213"/>
-      <c r="P57" s="214"/>
-      <c r="Q57" s="223"/>
-    </row>
-    <row r="58" spans="1:17" s="17" customFormat="1" ht="100.8">
-      <c r="A58" s="155">
-        <v>55</v>
-      </c>
-      <c r="B58" s="220" t="s">
-        <v>218</v>
-      </c>
-      <c r="C58" s="206" t="s">
-        <v>180</v>
-      </c>
-      <c r="D58" s="207"/>
-      <c r="E58" s="221"/>
-      <c r="F58" s="221"/>
-      <c r="G58" s="208"/>
-      <c r="H58" s="209"/>
-      <c r="I58" s="213"/>
-      <c r="J58" s="210"/>
-      <c r="K58" s="211"/>
-      <c r="L58" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="M58" s="163"/>
-      <c r="N58" s="212"/>
-      <c r="O58" s="213"/>
-      <c r="P58" s="214"/>
-      <c r="Q58" s="223"/>
-    </row>
-    <row r="59" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A59" s="155">
-        <v>56</v>
-      </c>
-      <c r="B59" s="220" t="s">
-        <v>218</v>
-      </c>
-      <c r="C59" s="206" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="207"/>
-      <c r="E59" s="221"/>
-      <c r="F59" s="221"/>
-      <c r="G59" s="208"/>
-      <c r="H59" s="209"/>
-      <c r="I59" s="213"/>
-      <c r="J59" s="210"/>
-      <c r="K59" s="211"/>
-      <c r="L59" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="M59" s="163"/>
-      <c r="N59" s="212"/>
-      <c r="O59" s="213"/>
-      <c r="P59" s="214"/>
-      <c r="Q59" s="223"/>
-    </row>
-    <row r="60" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A60" s="155">
-        <v>57</v>
-      </c>
-      <c r="B60" s="220" t="s">
-        <v>218</v>
-      </c>
-      <c r="C60" s="206" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="207"/>
-      <c r="E60" s="221"/>
-      <c r="F60" s="221"/>
-      <c r="G60" s="208"/>
-      <c r="H60" s="209"/>
-      <c r="I60" s="213"/>
-      <c r="J60" s="210"/>
-      <c r="K60" s="211"/>
-      <c r="L60" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="M60" s="163"/>
-      <c r="N60" s="212"/>
-      <c r="O60" s="213"/>
-      <c r="P60" s="214"/>
-      <c r="Q60" s="223"/>
-    </row>
-    <row r="61" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A61" s="123">
-        <v>58</v>
-      </c>
-      <c r="B61" s="143" t="s">
-        <v>218</v>
-      </c>
-      <c r="C61" s="144" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="145"/>
-      <c r="E61" s="146"/>
-      <c r="F61" s="146"/>
-      <c r="G61" s="147"/>
-      <c r="H61" s="148"/>
-      <c r="I61" s="152"/>
-      <c r="J61" s="149"/>
-      <c r="K61" s="150"/>
-      <c r="L61" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M61" s="131"/>
-      <c r="N61" s="151"/>
-      <c r="O61" s="152"/>
-      <c r="P61" s="153"/>
-      <c r="Q61" s="154"/>
-    </row>
-    <row r="62" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A62" s="123">
-        <v>59</v>
-      </c>
-      <c r="B62" s="143" t="s">
-        <v>218</v>
-      </c>
-      <c r="C62" s="144" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" s="145"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="146"/>
-      <c r="G62" s="147"/>
-      <c r="H62" s="148"/>
-      <c r="I62" s="152"/>
-      <c r="J62" s="149"/>
-      <c r="K62" s="150"/>
-      <c r="L62" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M62" s="131"/>
-      <c r="N62" s="151"/>
-      <c r="O62" s="152"/>
-      <c r="P62" s="153"/>
-      <c r="Q62" s="154"/>
-    </row>
-    <row r="63" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A63" s="171">
-        <v>60</v>
-      </c>
-      <c r="B63" s="194" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" s="195" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="196"/>
-      <c r="E63" s="197"/>
-      <c r="F63" s="197"/>
-      <c r="G63" s="198"/>
-      <c r="H63" s="224"/>
-      <c r="I63" s="203"/>
-      <c r="J63" s="199"/>
-      <c r="K63" s="200"/>
-      <c r="L63" s="201"/>
-      <c r="M63" s="174"/>
-      <c r="N63" s="202"/>
-      <c r="O63" s="203"/>
-      <c r="P63" s="204" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q63" s="225"/>
-    </row>
-    <row r="64" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A64" s="123">
-        <v>61</v>
-      </c>
-      <c r="B64" s="143" t="s">
-        <v>218</v>
-      </c>
-      <c r="C64" s="144" t="s">
-        <v>187</v>
-      </c>
-      <c r="D64" s="145"/>
-      <c r="E64" s="146"/>
-      <c r="F64" s="146"/>
-      <c r="G64" s="147"/>
-      <c r="H64" s="148"/>
-      <c r="I64" s="152"/>
-      <c r="J64" s="149"/>
-      <c r="K64" s="150"/>
-      <c r="L64" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M64" s="131"/>
-      <c r="N64" s="151"/>
-      <c r="O64" s="152"/>
-      <c r="P64" s="153"/>
-      <c r="Q64" s="154" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A65" s="123">
-        <v>62</v>
-      </c>
-      <c r="B65" s="143" t="s">
-        <v>218</v>
-      </c>
-      <c r="C65" s="144" t="s">
-        <v>189</v>
-      </c>
-      <c r="D65" s="145"/>
-      <c r="E65" s="146"/>
-      <c r="F65" s="146"/>
-      <c r="G65" s="147"/>
-      <c r="H65" s="148"/>
-      <c r="I65" s="152"/>
-      <c r="J65" s="149"/>
-      <c r="K65" s="150"/>
-      <c r="L65" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M65" s="131"/>
-      <c r="N65" s="151"/>
-      <c r="O65" s="152"/>
-      <c r="P65" s="153"/>
-      <c r="Q65" s="154"/>
-    </row>
-    <row r="66" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A66" s="123">
-        <v>63</v>
-      </c>
-      <c r="B66" s="143" t="s">
-        <v>218</v>
-      </c>
-      <c r="C66" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="D66" s="145"/>
-      <c r="E66" s="146"/>
-      <c r="F66" s="146"/>
-      <c r="G66" s="147"/>
-      <c r="H66" s="148"/>
-      <c r="I66" s="152"/>
-      <c r="J66" s="149"/>
-      <c r="K66" s="150"/>
-      <c r="L66" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M66" s="131"/>
-      <c r="N66" s="151"/>
-      <c r="O66" s="152"/>
-      <c r="P66" s="153"/>
-      <c r="Q66" s="154"/>
-    </row>
-    <row r="67" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A67" s="123">
-        <v>64</v>
-      </c>
-      <c r="B67" s="143" t="s">
-        <v>218</v>
-      </c>
-      <c r="C67" s="144" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" s="145"/>
-      <c r="E67" s="146"/>
-      <c r="F67" s="146"/>
-      <c r="G67" s="147"/>
-      <c r="H67" s="148"/>
-      <c r="I67" s="152"/>
-      <c r="J67" s="149"/>
-      <c r="K67" s="150"/>
-      <c r="L67" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M67" s="131"/>
-      <c r="N67" s="151"/>
-      <c r="O67" s="152"/>
-      <c r="P67" s="153"/>
-      <c r="Q67" s="154"/>
-    </row>
-    <row r="68" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A68" s="171">
-        <v>65</v>
-      </c>
-      <c r="B68" s="194" t="s">
-        <v>218</v>
-      </c>
-      <c r="C68" s="195" t="s">
-        <v>192</v>
-      </c>
-      <c r="D68" s="196"/>
-      <c r="E68" s="197"/>
-      <c r="F68" s="197"/>
-      <c r="G68" s="198"/>
-      <c r="H68" s="224"/>
-      <c r="I68" s="203"/>
-      <c r="J68" s="199"/>
-      <c r="K68" s="200"/>
-      <c r="L68" s="201"/>
-      <c r="M68" s="174"/>
-      <c r="N68" s="202"/>
-      <c r="O68" s="203"/>
-      <c r="P68" s="204" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q68" s="225"/>
-    </row>
-    <row r="69" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A69" s="175">
-        <v>66</v>
-      </c>
-      <c r="B69" s="226" t="s">
-        <v>218</v>
-      </c>
-      <c r="C69" s="227" t="s">
-        <v>194</v>
-      </c>
-      <c r="D69" s="228"/>
-      <c r="E69" s="229"/>
-      <c r="F69" s="229"/>
-      <c r="G69" s="230"/>
-      <c r="H69" s="231"/>
-      <c r="I69" s="232"/>
-      <c r="J69" s="233"/>
-      <c r="K69" s="234"/>
-      <c r="L69" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="M69" s="183"/>
-      <c r="N69" s="236"/>
-      <c r="O69" s="232"/>
-      <c r="P69" s="237"/>
-      <c r="Q69" s="238" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A70" s="155">
-        <v>67</v>
-      </c>
-      <c r="B70" s="220" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70" s="206" t="s">
-        <v>195</v>
-      </c>
-      <c r="D70" s="207"/>
-      <c r="E70" s="221"/>
-      <c r="F70" s="221"/>
-      <c r="G70" s="208"/>
-      <c r="H70" s="209"/>
-      <c r="I70" s="213"/>
-      <c r="J70" s="210"/>
-      <c r="K70" s="211"/>
-      <c r="L70" s="222" t="s">
-        <v>251</v>
-      </c>
-      <c r="M70" s="163"/>
-      <c r="N70" s="212"/>
-      <c r="O70" s="213"/>
-      <c r="P70" s="214"/>
-      <c r="Q70" s="223"/>
-    </row>
-    <row r="71" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A71" s="123">
-        <v>68</v>
-      </c>
-      <c r="B71" s="143" t="s">
-        <v>218</v>
-      </c>
-      <c r="C71" s="144" t="s">
-        <v>196</v>
-      </c>
-      <c r="D71" s="145"/>
-      <c r="E71" s="146"/>
-      <c r="F71" s="146"/>
-      <c r="G71" s="147"/>
-      <c r="H71" s="148"/>
-      <c r="I71" s="152"/>
-      <c r="J71" s="149"/>
-      <c r="K71" s="150"/>
-      <c r="L71" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M71" s="131"/>
-      <c r="N71" s="151"/>
-      <c r="O71" s="152"/>
-      <c r="P71" s="153"/>
-      <c r="Q71" s="154"/>
-    </row>
-    <row r="72" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A72" s="175">
-        <v>69</v>
-      </c>
-      <c r="B72" s="226" t="s">
-        <v>218</v>
-      </c>
-      <c r="C72" s="227" t="s">
-        <v>197</v>
-      </c>
-      <c r="D72" s="228"/>
-      <c r="E72" s="229"/>
-      <c r="F72" s="229"/>
-      <c r="G72" s="230"/>
-      <c r="H72" s="231"/>
-      <c r="I72" s="232"/>
-      <c r="J72" s="233"/>
-      <c r="K72" s="234"/>
-      <c r="L72" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="M72" s="183"/>
-      <c r="N72" s="236"/>
-      <c r="O72" s="232"/>
-      <c r="P72" s="237"/>
-      <c r="Q72" s="238" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A73" s="123">
-        <v>70</v>
-      </c>
-      <c r="B73" s="143" t="s">
-        <v>218</v>
-      </c>
-      <c r="C73" s="144" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="145"/>
-      <c r="E73" s="146"/>
-      <c r="F73" s="146"/>
-      <c r="G73" s="147"/>
-      <c r="H73" s="148"/>
-      <c r="I73" s="152"/>
-      <c r="J73" s="149"/>
-      <c r="K73" s="150"/>
-      <c r="L73" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M73" s="131"/>
-      <c r="N73" s="151"/>
-      <c r="O73" s="152"/>
-      <c r="P73" s="153"/>
-      <c r="Q73" s="154"/>
-    </row>
-    <row r="74" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A74" s="123">
-        <v>71</v>
-      </c>
-      <c r="B74" s="143" t="s">
-        <v>218</v>
-      </c>
-      <c r="C74" s="144" t="s">
-        <v>199</v>
-      </c>
-      <c r="D74" s="145"/>
-      <c r="E74" s="146"/>
-      <c r="F74" s="146"/>
-      <c r="G74" s="147"/>
-      <c r="H74" s="148"/>
-      <c r="I74" s="152"/>
-      <c r="J74" s="149"/>
-      <c r="K74" s="150"/>
-      <c r="L74" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M74" s="131"/>
-      <c r="N74" s="151"/>
-      <c r="O74" s="152"/>
-      <c r="P74" s="153"/>
-      <c r="Q74" s="154"/>
-    </row>
-    <row r="75" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A75" s="155">
-        <v>72</v>
-      </c>
-      <c r="B75" s="220" t="s">
-        <v>218</v>
-      </c>
-      <c r="C75" s="206" t="s">
-        <v>200</v>
-      </c>
-      <c r="D75" s="207"/>
-      <c r="E75" s="221"/>
-      <c r="F75" s="221"/>
-      <c r="G75" s="208"/>
-      <c r="H75" s="209"/>
-      <c r="I75" s="213"/>
-      <c r="J75" s="210"/>
-      <c r="K75" s="211"/>
-      <c r="L75" s="222" t="s">
-        <v>250</v>
-      </c>
-      <c r="M75" s="163"/>
-      <c r="N75" s="212"/>
-      <c r="O75" s="213"/>
-      <c r="P75" s="214"/>
-      <c r="Q75" s="223" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A76" s="155">
-        <v>73</v>
-      </c>
-      <c r="B76" s="220" t="s">
-        <v>218</v>
-      </c>
-      <c r="C76" s="206" t="s">
-        <v>202</v>
-      </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="221"/>
-      <c r="F76" s="221"/>
-      <c r="G76" s="208"/>
-      <c r="H76" s="209"/>
-      <c r="I76" s="213"/>
-      <c r="J76" s="210"/>
-      <c r="K76" s="211"/>
-      <c r="L76" s="222" t="s">
-        <v>250</v>
-      </c>
-      <c r="M76" s="163"/>
-      <c r="N76" s="212"/>
-      <c r="O76" s="213"/>
-      <c r="P76" s="214"/>
-      <c r="Q76" s="223" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A77" s="155">
-        <v>74</v>
-      </c>
-      <c r="B77" s="220" t="s">
-        <v>220</v>
-      </c>
-      <c r="C77" s="206" t="s">
-        <v>203</v>
-      </c>
-      <c r="D77" s="207"/>
-      <c r="E77" s="221"/>
-      <c r="F77" s="221"/>
-      <c r="G77" s="208"/>
-      <c r="H77" s="209"/>
-      <c r="I77" s="213"/>
-      <c r="J77" s="210"/>
-      <c r="K77" s="211"/>
-      <c r="L77" s="222" t="s">
-        <v>250</v>
-      </c>
-      <c r="M77" s="163"/>
-      <c r="N77" s="212"/>
-      <c r="O77" s="213"/>
-      <c r="P77" s="214"/>
-      <c r="Q77" s="223" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A78" s="155">
-        <v>75</v>
-      </c>
-      <c r="B78" s="220" t="s">
-        <v>218</v>
-      </c>
-      <c r="C78" s="206" t="s">
-        <v>204</v>
-      </c>
-      <c r="D78" s="207"/>
-      <c r="E78" s="221"/>
-      <c r="F78" s="221"/>
-      <c r="G78" s="208"/>
-      <c r="H78" s="209"/>
-      <c r="I78" s="213"/>
-      <c r="J78" s="210"/>
-      <c r="K78" s="211"/>
-      <c r="L78" s="222" t="s">
-        <v>250</v>
-      </c>
-      <c r="M78" s="163"/>
-      <c r="N78" s="212"/>
-      <c r="O78" s="213"/>
-      <c r="P78" s="214"/>
-      <c r="Q78" s="223"/>
-    </row>
-    <row r="79" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A79" s="171">
-        <v>76</v>
-      </c>
-      <c r="B79" s="194" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="195" t="s">
-        <v>205</v>
-      </c>
-      <c r="D79" s="196"/>
-      <c r="E79" s="197"/>
-      <c r="F79" s="197"/>
-      <c r="G79" s="198"/>
-      <c r="H79" s="224"/>
-      <c r="I79" s="203"/>
-      <c r="J79" s="199"/>
-      <c r="K79" s="200"/>
-      <c r="L79" s="201"/>
-      <c r="M79" s="174"/>
-      <c r="N79" s="202"/>
-      <c r="O79" s="203"/>
-      <c r="P79" s="204" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q79" s="225"/>
-    </row>
-    <row r="80" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A80" s="171">
-        <v>77</v>
-      </c>
-      <c r="B80" s="194" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="D80" s="196"/>
-      <c r="E80" s="197"/>
-      <c r="F80" s="197"/>
-      <c r="G80" s="198"/>
-      <c r="H80" s="224"/>
-      <c r="I80" s="203"/>
-      <c r="J80" s="199"/>
-      <c r="K80" s="200"/>
-      <c r="L80" s="201"/>
-      <c r="M80" s="174"/>
-      <c r="N80" s="202"/>
-      <c r="O80" s="203"/>
-      <c r="P80" s="204" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q80" s="225"/>
-    </row>
-    <row r="81" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A81" s="123">
-        <v>78</v>
-      </c>
-      <c r="B81" s="143" t="s">
-        <v>218</v>
-      </c>
-      <c r="C81" s="144" t="s">
-        <v>207</v>
-      </c>
-      <c r="D81" s="145"/>
-      <c r="E81" s="146"/>
-      <c r="F81" s="146"/>
-      <c r="G81" s="147"/>
-      <c r="H81" s="148"/>
-      <c r="I81" s="152"/>
-      <c r="J81" s="149"/>
-      <c r="K81" s="150"/>
-      <c r="L81" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M81" s="131"/>
-      <c r="N81" s="151"/>
-      <c r="O81" s="152"/>
-      <c r="P81" s="153"/>
-      <c r="Q81" s="154"/>
-    </row>
-    <row r="82" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A82" s="175">
-        <v>79</v>
-      </c>
-      <c r="B82" s="226" t="s">
-        <v>218</v>
-      </c>
-      <c r="C82" s="227" t="s">
-        <v>210</v>
-      </c>
-      <c r="D82" s="228"/>
-      <c r="E82" s="229"/>
-      <c r="F82" s="229"/>
-      <c r="G82" s="230"/>
-      <c r="H82" s="231"/>
-      <c r="I82" s="232"/>
-      <c r="J82" s="233"/>
-      <c r="K82" s="234"/>
-      <c r="L82" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="M82" s="183"/>
-      <c r="N82" s="236"/>
-      <c r="O82" s="232"/>
-      <c r="P82" s="237"/>
-      <c r="Q82" s="238" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A83" s="155">
-        <v>80</v>
-      </c>
-      <c r="B83" s="220" t="s">
-        <v>218</v>
-      </c>
-      <c r="C83" s="206" t="s">
-        <v>211</v>
-      </c>
-      <c r="D83" s="207"/>
-      <c r="E83" s="221"/>
-      <c r="F83" s="221"/>
-      <c r="G83" s="208"/>
-      <c r="H83" s="209"/>
-      <c r="I83" s="213"/>
-      <c r="J83" s="210"/>
-      <c r="K83" s="211"/>
-      <c r="L83" s="222" t="s">
-        <v>250</v>
-      </c>
-      <c r="M83" s="163"/>
-      <c r="N83" s="212"/>
-      <c r="O83" s="213"/>
-      <c r="P83" s="214"/>
-      <c r="Q83" s="223"/>
-    </row>
-    <row r="84" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A84" s="155">
-        <v>81</v>
-      </c>
-      <c r="B84" s="220" t="s">
-        <v>218</v>
-      </c>
-      <c r="C84" s="206" t="s">
-        <v>212</v>
-      </c>
-      <c r="D84" s="207"/>
-      <c r="E84" s="221"/>
-      <c r="F84" s="221"/>
-      <c r="G84" s="208"/>
-      <c r="H84" s="209"/>
-      <c r="I84" s="213"/>
-      <c r="J84" s="210"/>
-      <c r="K84" s="211"/>
-      <c r="L84" s="222" t="s">
-        <v>250</v>
-      </c>
-      <c r="M84" s="163"/>
-      <c r="N84" s="212"/>
-      <c r="O84" s="213"/>
-      <c r="P84" s="214"/>
-      <c r="Q84" s="223"/>
-    </row>
-    <row r="85" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A85" s="175">
-        <v>82</v>
-      </c>
-      <c r="B85" s="226" t="s">
-        <v>218</v>
-      </c>
-      <c r="C85" s="227" t="s">
-        <v>213</v>
-      </c>
-      <c r="D85" s="228"/>
-      <c r="E85" s="229"/>
-      <c r="F85" s="229"/>
-      <c r="G85" s="230"/>
-      <c r="H85" s="231"/>
-      <c r="I85" s="232"/>
-      <c r="J85" s="233"/>
-      <c r="K85" s="234"/>
-      <c r="L85" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="M85" s="183"/>
-      <c r="N85" s="236"/>
-      <c r="O85" s="232"/>
-      <c r="P85" s="237"/>
-      <c r="Q85" s="238" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A86" s="155">
-        <v>83</v>
-      </c>
-      <c r="B86" s="220" t="s">
-        <v>218</v>
-      </c>
-      <c r="C86" s="206" t="s">
-        <v>214</v>
-      </c>
-      <c r="D86" s="207"/>
-      <c r="E86" s="221"/>
-      <c r="F86" s="221"/>
-      <c r="G86" s="208"/>
-      <c r="H86" s="209"/>
-      <c r="I86" s="213"/>
-      <c r="J86" s="210"/>
-      <c r="K86" s="211"/>
-      <c r="L86" s="222" t="s">
-        <v>250</v>
-      </c>
-      <c r="M86" s="163"/>
-      <c r="N86" s="212"/>
-      <c r="O86" s="213"/>
-      <c r="P86" s="214"/>
-      <c r="Q86" s="223"/>
-    </row>
-    <row r="87" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A87" s="123">
-        <v>84</v>
-      </c>
-      <c r="B87" s="143" t="s">
-        <v>249</v>
-      </c>
-      <c r="C87" s="144" t="s">
-        <v>215</v>
-      </c>
-      <c r="D87" s="145"/>
-      <c r="E87" s="146"/>
-      <c r="F87" s="146"/>
-      <c r="G87" s="147"/>
-      <c r="H87" s="148"/>
-      <c r="I87" s="152"/>
-      <c r="J87" s="149"/>
-      <c r="K87" s="150"/>
-      <c r="L87" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M87" s="131"/>
-      <c r="N87" s="151"/>
-      <c r="O87" s="152"/>
-      <c r="P87" s="153"/>
-      <c r="Q87" s="154"/>
-    </row>
-    <row r="88" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A88" s="155">
-        <v>85</v>
-      </c>
-      <c r="B88" s="220" t="s">
-        <v>219</v>
-      </c>
-      <c r="C88" s="206" t="s">
-        <v>216</v>
-      </c>
-      <c r="D88" s="207"/>
-      <c r="E88" s="221"/>
-      <c r="F88" s="221"/>
-      <c r="G88" s="208"/>
-      <c r="H88" s="209"/>
-      <c r="I88" s="213"/>
-      <c r="J88" s="210"/>
-      <c r="K88" s="211"/>
-      <c r="L88" s="222" t="s">
-        <v>250</v>
-      </c>
-      <c r="M88" s="163"/>
-      <c r="N88" s="212"/>
-      <c r="O88" s="213"/>
-      <c r="P88" s="214"/>
-      <c r="Q88" s="223" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A89" s="155">
-        <v>86</v>
-      </c>
-      <c r="B89" s="220" t="s">
-        <v>223</v>
-      </c>
-      <c r="C89" s="206" t="s">
-        <v>217</v>
-      </c>
-      <c r="D89" s="207"/>
-      <c r="E89" s="221"/>
-      <c r="F89" s="221"/>
-      <c r="G89" s="208"/>
-      <c r="H89" s="209"/>
-      <c r="I89" s="213"/>
-      <c r="J89" s="210"/>
-      <c r="K89" s="211"/>
-      <c r="L89" s="222" t="s">
-        <v>250</v>
-      </c>
-      <c r="M89" s="163"/>
-      <c r="N89" s="212"/>
-      <c r="O89" s="213"/>
-      <c r="P89" s="214"/>
-      <c r="Q89" s="223"/>
-    </row>
-    <row r="90" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A90" s="123">
-        <v>87</v>
-      </c>
-      <c r="B90" s="143" t="s">
-        <v>245</v>
-      </c>
-      <c r="C90" s="144" t="s">
-        <v>222</v>
-      </c>
-      <c r="D90" s="145"/>
-      <c r="E90" s="146"/>
-      <c r="F90" s="146"/>
-      <c r="G90" s="147"/>
-      <c r="H90" s="148"/>
-      <c r="I90" s="152"/>
-      <c r="J90" s="149"/>
-      <c r="K90" s="150"/>
-      <c r="L90" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M90" s="131"/>
-      <c r="N90" s="151"/>
-      <c r="O90" s="152"/>
-      <c r="P90" s="153"/>
-      <c r="Q90" s="154"/>
-    </row>
-    <row r="91" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A91" s="155">
-        <v>88</v>
-      </c>
-      <c r="B91" s="220" t="s">
-        <v>221</v>
-      </c>
-      <c r="C91" s="206" t="s">
-        <v>224</v>
-      </c>
-      <c r="D91" s="207"/>
-      <c r="E91" s="221"/>
-      <c r="F91" s="221"/>
-      <c r="G91" s="208"/>
-      <c r="H91" s="209"/>
-      <c r="I91" s="213"/>
-      <c r="J91" s="210"/>
-      <c r="K91" s="211"/>
-      <c r="L91" s="222" t="s">
-        <v>256</v>
-      </c>
-      <c r="M91" s="163"/>
-      <c r="N91" s="212"/>
-      <c r="O91" s="213"/>
-      <c r="P91" s="214"/>
-      <c r="Q91" s="223"/>
-    </row>
-    <row r="92" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A92" s="171">
-        <v>89</v>
-      </c>
-      <c r="B92" s="194" t="s">
-        <v>248</v>
-      </c>
-      <c r="C92" s="195" t="s">
-        <v>225</v>
-      </c>
-      <c r="D92" s="196"/>
-      <c r="E92" s="197"/>
-      <c r="F92" s="197"/>
-      <c r="G92" s="198"/>
-      <c r="H92" s="224"/>
-      <c r="I92" s="203"/>
-      <c r="J92" s="199"/>
-      <c r="K92" s="200"/>
-      <c r="L92" s="201"/>
-      <c r="M92" s="174"/>
-      <c r="N92" s="202"/>
-      <c r="O92" s="203"/>
-      <c r="P92" s="204" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q92" s="225"/>
-    </row>
-    <row r="93" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A93" s="175">
-        <v>90</v>
-      </c>
-      <c r="B93" s="226" t="s">
-        <v>245</v>
-      </c>
-      <c r="C93" s="227" t="s">
-        <v>227</v>
-      </c>
-      <c r="D93" s="228"/>
-      <c r="E93" s="229"/>
-      <c r="F93" s="229"/>
-      <c r="G93" s="230"/>
-      <c r="H93" s="231"/>
-      <c r="I93" s="232"/>
-      <c r="J93" s="233"/>
-      <c r="K93" s="234"/>
-      <c r="L93" s="235" t="s">
-        <v>255</v>
-      </c>
-      <c r="M93" s="183"/>
-      <c r="N93" s="236"/>
-      <c r="O93" s="232"/>
-      <c r="P93" s="237" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q93" s="238" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" s="17" customFormat="1" ht="86.4">
-      <c r="A94" s="171">
-        <v>91</v>
-      </c>
-      <c r="B94" s="194" t="s">
-        <v>245</v>
-      </c>
-      <c r="C94" s="195" t="s">
-        <v>229</v>
-      </c>
-      <c r="D94" s="196"/>
-      <c r="E94" s="197"/>
-      <c r="F94" s="197"/>
-      <c r="G94" s="198"/>
-      <c r="H94" s="224"/>
-      <c r="I94" s="203"/>
-      <c r="J94" s="199"/>
-      <c r="K94" s="200"/>
-      <c r="L94" s="201"/>
-      <c r="M94" s="174"/>
-      <c r="N94" s="202"/>
-      <c r="O94" s="203"/>
-      <c r="P94" s="204" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q94" s="225"/>
-    </row>
-    <row r="95" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A95" s="175">
-        <v>92</v>
-      </c>
-      <c r="B95" s="226" t="s">
-        <v>248</v>
-      </c>
-      <c r="C95" s="227" t="s">
-        <v>231</v>
-      </c>
-      <c r="D95" s="228"/>
-      <c r="E95" s="229"/>
-      <c r="F95" s="229"/>
-      <c r="G95" s="230"/>
-      <c r="H95" s="231"/>
-      <c r="I95" s="232"/>
-      <c r="J95" s="233"/>
-      <c r="K95" s="234"/>
-      <c r="L95" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="M95" s="183"/>
-      <c r="N95" s="236"/>
-      <c r="O95" s="232"/>
-      <c r="P95" s="237"/>
-      <c r="Q95" s="238" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A96" s="123">
-        <v>93</v>
-      </c>
-      <c r="B96" s="143" t="s">
-        <v>247</v>
-      </c>
-      <c r="C96" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" s="145"/>
-      <c r="E96" s="146"/>
-      <c r="F96" s="146"/>
-      <c r="G96" s="147"/>
-      <c r="H96" s="148"/>
-      <c r="I96" s="152"/>
-      <c r="J96" s="149"/>
-      <c r="K96" s="150"/>
-      <c r="L96" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M96" s="131"/>
-      <c r="N96" s="151"/>
-      <c r="O96" s="152"/>
-      <c r="P96" s="153"/>
-      <c r="Q96" s="154"/>
-    </row>
-    <row r="97" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A97" s="175">
-        <v>94</v>
-      </c>
-      <c r="B97" s="226" t="s">
-        <v>246</v>
-      </c>
-      <c r="C97" s="227" t="s">
-        <v>233</v>
-      </c>
-      <c r="D97" s="228"/>
-      <c r="E97" s="229"/>
-      <c r="F97" s="229"/>
-      <c r="G97" s="230"/>
-      <c r="H97" s="231"/>
-      <c r="I97" s="232"/>
-      <c r="J97" s="233"/>
-      <c r="K97" s="234"/>
-      <c r="L97" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="M97" s="183"/>
-      <c r="N97" s="236"/>
-      <c r="O97" s="232"/>
-      <c r="P97" s="237"/>
-      <c r="Q97" s="238"/>
-    </row>
-    <row r="98" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A98" s="175">
-        <v>95</v>
-      </c>
-      <c r="B98" s="226" t="s">
-        <v>245</v>
-      </c>
-      <c r="C98" s="227" t="s">
-        <v>234</v>
-      </c>
-      <c r="D98" s="228"/>
-      <c r="E98" s="229"/>
-      <c r="F98" s="229"/>
-      <c r="G98" s="230"/>
-      <c r="H98" s="231"/>
-      <c r="I98" s="232"/>
-      <c r="J98" s="233"/>
-      <c r="K98" s="234"/>
-      <c r="L98" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="M98" s="183"/>
-      <c r="N98" s="236"/>
-      <c r="O98" s="232"/>
-      <c r="P98" s="237"/>
-      <c r="Q98" s="238"/>
-    </row>
-    <row r="99" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A99" s="175">
-        <v>96</v>
-      </c>
-      <c r="B99" s="226" t="s">
-        <v>245</v>
-      </c>
-      <c r="C99" s="227" t="s">
-        <v>235</v>
-      </c>
-      <c r="D99" s="228"/>
-      <c r="E99" s="229"/>
-      <c r="F99" s="229"/>
-      <c r="G99" s="230"/>
-      <c r="H99" s="231"/>
-      <c r="I99" s="232"/>
-      <c r="J99" s="233"/>
-      <c r="K99" s="234"/>
-      <c r="L99" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="M99" s="183"/>
-      <c r="N99" s="236"/>
-      <c r="O99" s="232"/>
-      <c r="P99" s="237"/>
-      <c r="Q99" s="238" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A100" s="175">
-        <v>97</v>
-      </c>
-      <c r="B100" s="226" t="s">
-        <v>245</v>
-      </c>
-      <c r="C100" s="227" t="s">
-        <v>236</v>
-      </c>
-      <c r="D100" s="228"/>
-      <c r="E100" s="229"/>
-      <c r="F100" s="229"/>
-      <c r="G100" s="230"/>
-      <c r="H100" s="231"/>
-      <c r="I100" s="232"/>
-      <c r="J100" s="233"/>
-      <c r="K100" s="234"/>
-      <c r="L100" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="M100" s="183"/>
-      <c r="N100" s="236"/>
-      <c r="O100" s="232"/>
-      <c r="P100" s="237"/>
-      <c r="Q100" s="238" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A101" s="123">
-        <v>98</v>
-      </c>
-      <c r="B101" s="143" t="s">
-        <v>248</v>
-      </c>
-      <c r="C101" s="144" t="s">
-        <v>237</v>
-      </c>
-      <c r="D101" s="145"/>
-      <c r="E101" s="146"/>
-      <c r="F101" s="146"/>
-      <c r="G101" s="147"/>
-      <c r="H101" s="148"/>
-      <c r="I101" s="152"/>
-      <c r="J101" s="149"/>
-      <c r="K101" s="150"/>
-      <c r="L101" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M101" s="131"/>
-      <c r="N101" s="151"/>
-      <c r="O101" s="152"/>
-      <c r="P101" s="153"/>
-      <c r="Q101" s="154"/>
-    </row>
-    <row r="102" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A102" s="123">
-        <v>99</v>
-      </c>
-      <c r="B102" s="143" t="s">
-        <v>245</v>
-      </c>
-      <c r="C102" s="144" t="s">
-        <v>238</v>
-      </c>
-      <c r="D102" s="145"/>
-      <c r="E102" s="146"/>
-      <c r="F102" s="146"/>
-      <c r="G102" s="147"/>
-      <c r="H102" s="148"/>
-      <c r="I102" s="152"/>
-      <c r="J102" s="149"/>
-      <c r="K102" s="150"/>
-      <c r="L102" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M102" s="131"/>
-      <c r="N102" s="151"/>
-      <c r="O102" s="152"/>
-      <c r="P102" s="153"/>
-      <c r="Q102" s="154"/>
-    </row>
-    <row r="103" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A103" s="155">
-        <v>100</v>
-      </c>
-      <c r="B103" s="220" t="s">
-        <v>245</v>
-      </c>
-      <c r="C103" s="206" t="s">
-        <v>243</v>
-      </c>
-      <c r="D103" s="207"/>
-      <c r="E103" s="221"/>
-      <c r="F103" s="221"/>
-      <c r="G103" s="208"/>
-      <c r="H103" s="209"/>
-      <c r="I103" s="213"/>
-      <c r="J103" s="210"/>
-      <c r="K103" s="211"/>
-      <c r="L103" s="222" t="s">
-        <v>253</v>
-      </c>
-      <c r="M103" s="163"/>
-      <c r="N103" s="212"/>
-      <c r="O103" s="213"/>
-      <c r="P103" s="214" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q103" s="223"/>
-    </row>
-    <row r="104" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A104" s="123">
-        <v>101</v>
-      </c>
-      <c r="B104" s="143" t="s">
-        <v>245</v>
-      </c>
-      <c r="C104" s="144" t="s">
-        <v>239</v>
-      </c>
-      <c r="D104" s="145"/>
-      <c r="E104" s="146"/>
-      <c r="F104" s="146"/>
-      <c r="G104" s="147"/>
-      <c r="H104" s="148"/>
-      <c r="I104" s="152"/>
-      <c r="J104" s="149"/>
-      <c r="K104" s="150"/>
-      <c r="L104" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="M104" s="131"/>
-      <c r="N104" s="151"/>
-      <c r="O104" s="152"/>
-      <c r="P104" s="153"/>
-      <c r="Q104" s="154"/>
-    </row>
-    <row r="105" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A105" s="155">
-        <v>102</v>
-      </c>
-      <c r="B105" s="220" t="s">
-        <v>245</v>
-      </c>
-      <c r="C105" s="206" t="s">
-        <v>240</v>
-      </c>
-      <c r="D105" s="207"/>
-      <c r="E105" s="221"/>
-      <c r="F105" s="221"/>
-      <c r="G105" s="208"/>
-      <c r="H105" s="209"/>
-      <c r="I105" s="213"/>
-      <c r="J105" s="210"/>
-      <c r="K105" s="211"/>
-      <c r="L105" s="222" t="s">
-        <v>251</v>
-      </c>
-      <c r="M105" s="163"/>
-      <c r="N105" s="212"/>
-      <c r="O105" s="213"/>
-      <c r="P105" s="214" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q105" s="223" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A106" s="155">
-        <v>103</v>
-      </c>
-      <c r="B106" s="220" t="s">
-        <v>248</v>
-      </c>
-      <c r="C106" s="206" t="s">
-        <v>241</v>
-      </c>
-      <c r="D106" s="207"/>
-      <c r="E106" s="221"/>
-      <c r="F106" s="221"/>
-      <c r="G106" s="208"/>
-      <c r="H106" s="209"/>
-      <c r="I106" s="213"/>
-      <c r="J106" s="210"/>
-      <c r="K106" s="211"/>
-      <c r="L106" s="222" t="s">
-        <v>251</v>
-      </c>
-      <c r="M106" s="163"/>
-      <c r="N106" s="212"/>
-      <c r="O106" s="213"/>
-      <c r="P106" s="214"/>
-      <c r="Q106" s="223"/>
-    </row>
-    <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A107" s="155">
-        <v>104</v>
-      </c>
-      <c r="B107" s="220" t="s">
-        <v>246</v>
-      </c>
-      <c r="C107" s="206" t="s">
-        <v>242</v>
-      </c>
-      <c r="D107" s="207"/>
-      <c r="E107" s="221"/>
-      <c r="F107" s="221"/>
-      <c r="G107" s="208"/>
-      <c r="H107" s="209"/>
-      <c r="I107" s="213"/>
-      <c r="J107" s="210"/>
-      <c r="K107" s="211"/>
-      <c r="L107" s="222" t="s">
-        <v>251</v>
-      </c>
-      <c r="M107" s="163"/>
-      <c r="N107" s="212"/>
-      <c r="O107" s="213"/>
-      <c r="P107" s="214"/>
-      <c r="Q107" s="223"/>
-    </row>
-    <row r="108" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A108" s="112">
-        <v>105</v>
-      </c>
-      <c r="B108" s="39"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="71"/>
-      <c r="E108" s="109"/>
-      <c r="F108" s="109"/>
-      <c r="G108" s="60"/>
-      <c r="H108" s="61"/>
-      <c r="I108" s="62"/>
-      <c r="J108" s="33"/>
-      <c r="K108" s="72"/>
-      <c r="L108" s="73"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="63"/>
-      <c r="O108" s="64"/>
-      <c r="P108" s="34"/>
-      <c r="Q108" s="136"/>
-    </row>
-    <row r="109" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A109" s="112">
-        <v>106</v>
-      </c>
-      <c r="B109" s="39"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="71"/>
-      <c r="E109" s="109"/>
-      <c r="F109" s="109"/>
-      <c r="G109" s="60"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="62"/>
-      <c r="J109" s="33"/>
-      <c r="K109" s="72"/>
-      <c r="L109" s="73"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="63"/>
-      <c r="O109" s="64"/>
-      <c r="P109" s="34"/>
-      <c r="Q109" s="136"/>
-    </row>
-    <row r="110" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A110" s="112">
-        <v>107</v>
-      </c>
-      <c r="B110" s="39"/>
-      <c r="C110" s="46"/>
-      <c r="D110" s="71"/>
-      <c r="E110" s="109"/>
-      <c r="F110" s="109"/>
-      <c r="G110" s="60"/>
-      <c r="H110" s="61"/>
-      <c r="I110" s="62"/>
-      <c r="J110" s="33"/>
-      <c r="K110" s="72"/>
-      <c r="L110" s="73"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="63"/>
-      <c r="O110" s="64"/>
-      <c r="P110" s="34"/>
-      <c r="Q110" s="136"/>
-    </row>
-    <row r="111" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A111" s="112">
-        <v>108</v>
-      </c>
-      <c r="B111" s="39"/>
-      <c r="C111" s="46"/>
-      <c r="D111" s="71"/>
-      <c r="E111" s="109"/>
-      <c r="F111" s="109"/>
-      <c r="G111" s="60"/>
-      <c r="H111" s="61"/>
-      <c r="I111" s="62"/>
-      <c r="J111" s="33"/>
-      <c r="K111" s="72"/>
-      <c r="L111" s="73"/>
-      <c r="M111" s="10"/>
-      <c r="N111" s="63"/>
-      <c r="O111" s="64"/>
-      <c r="P111" s="34"/>
-      <c r="Q111" s="136"/>
-    </row>
-    <row r="112" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A112" s="112">
-        <v>109</v>
-      </c>
-      <c r="B112" s="39"/>
-      <c r="C112" s="46"/>
-      <c r="D112" s="71"/>
-      <c r="E112" s="109"/>
-      <c r="F112" s="109"/>
-      <c r="G112" s="60"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="62"/>
-      <c r="J112" s="33"/>
-      <c r="K112" s="72"/>
-      <c r="L112" s="73"/>
-      <c r="M112" s="10"/>
-      <c r="N112" s="63"/>
-      <c r="O112" s="64"/>
-      <c r="P112" s="34"/>
-      <c r="Q112" s="136"/>
-    </row>
-    <row r="113" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A113" s="112">
-        <v>110</v>
-      </c>
-      <c r="B113" s="39"/>
-      <c r="C113" s="46"/>
-      <c r="D113" s="71"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
-      <c r="G113" s="60"/>
-      <c r="H113" s="61"/>
-      <c r="I113" s="62"/>
-      <c r="J113" s="33"/>
-      <c r="K113" s="72"/>
-      <c r="L113" s="73"/>
-      <c r="M113" s="10"/>
-      <c r="N113" s="63"/>
-      <c r="O113" s="64"/>
-      <c r="P113" s="34"/>
-      <c r="Q113" s="136"/>
-    </row>
-    <row r="114" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A114" s="112">
-        <v>111</v>
-      </c>
-      <c r="B114" s="39"/>
-      <c r="C114" s="46"/>
-      <c r="D114" s="71"/>
-      <c r="E114" s="109"/>
-      <c r="F114" s="109"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="61"/>
-      <c r="I114" s="62"/>
-      <c r="J114" s="33"/>
-      <c r="K114" s="72"/>
-      <c r="L114" s="73"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="63"/>
-      <c r="O114" s="64"/>
-      <c r="P114" s="34"/>
-      <c r="Q114" s="136"/>
-    </row>
-    <row r="115" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A115" s="112">
-        <v>112</v>
-      </c>
-      <c r="B115" s="39"/>
-      <c r="C115" s="46"/>
-      <c r="D115" s="71"/>
-      <c r="E115" s="109"/>
-      <c r="F115" s="109"/>
-      <c r="G115" s="60"/>
-      <c r="H115" s="61"/>
-      <c r="I115" s="62"/>
-      <c r="J115" s="33"/>
-      <c r="K115" s="72"/>
-      <c r="L115" s="73"/>
-      <c r="M115" s="10"/>
-      <c r="N115" s="63"/>
-      <c r="O115" s="64"/>
-      <c r="P115" s="34"/>
-      <c r="Q115" s="136"/>
-    </row>
-    <row r="116" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A116" s="112">
-        <v>113</v>
-      </c>
-      <c r="B116" s="39"/>
-      <c r="C116" s="46"/>
-      <c r="D116" s="71"/>
-      <c r="E116" s="109"/>
-      <c r="F116" s="109"/>
-      <c r="G116" s="60"/>
-      <c r="H116" s="61"/>
-      <c r="I116" s="62"/>
-      <c r="J116" s="33"/>
-      <c r="K116" s="72"/>
-      <c r="L116" s="73"/>
-      <c r="M116" s="10"/>
-      <c r="N116" s="63"/>
-      <c r="O116" s="64"/>
-      <c r="P116" s="34"/>
-      <c r="Q116" s="136"/>
+      <c r="B116" s="223"/>
+      <c r="C116" s="224" t="s">
+        <v>268</v>
+      </c>
+      <c r="D116" s="225"/>
+      <c r="E116" s="226"/>
+      <c r="F116" s="226"/>
+      <c r="G116" s="227"/>
+      <c r="H116" s="228"/>
+      <c r="I116" s="229"/>
+      <c r="J116" s="230"/>
+      <c r="K116" s="231"/>
+      <c r="L116" s="232" t="s">
+        <v>269</v>
+      </c>
+      <c r="M116" s="180"/>
+      <c r="N116" s="233"/>
+      <c r="O116" s="229"/>
+      <c r="P116" s="234" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q116" s="235" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="117" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A117" s="112">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" s="39"/>
       <c r="C117" s="46"/>
@@ -10535,11 +10807,11 @@
       <c r="N117" s="63"/>
       <c r="O117" s="64"/>
       <c r="P117" s="34"/>
-      <c r="Q117" s="136"/>
+      <c r="Q117" s="133"/>
     </row>
     <row r="118" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A118" s="112">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" s="39"/>
       <c r="C118" s="46"/>
@@ -10556,11 +10828,11 @@
       <c r="N118" s="63"/>
       <c r="O118" s="64"/>
       <c r="P118" s="34"/>
-      <c r="Q118" s="136"/>
+      <c r="Q118" s="133"/>
     </row>
     <row r="119" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A119" s="112">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" s="39"/>
       <c r="C119" s="46"/>
@@ -10577,11 +10849,11 @@
       <c r="N119" s="63"/>
       <c r="O119" s="64"/>
       <c r="P119" s="34"/>
-      <c r="Q119" s="136"/>
+      <c r="Q119" s="133"/>
     </row>
     <row r="120" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A120" s="112">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120" s="39"/>
       <c r="C120" s="46"/>
@@ -10598,11 +10870,11 @@
       <c r="N120" s="63"/>
       <c r="O120" s="64"/>
       <c r="P120" s="34"/>
-      <c r="Q120" s="136"/>
+      <c r="Q120" s="133"/>
     </row>
     <row r="121" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A121" s="112">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121" s="39"/>
       <c r="C121" s="46"/>
@@ -10619,11 +10891,11 @@
       <c r="N121" s="63"/>
       <c r="O121" s="64"/>
       <c r="P121" s="34"/>
-      <c r="Q121" s="136"/>
+      <c r="Q121" s="133"/>
     </row>
     <row r="122" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A122" s="112">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122" s="39"/>
       <c r="C122" s="46"/>
@@ -10640,11 +10912,11 @@
       <c r="N122" s="63"/>
       <c r="O122" s="64"/>
       <c r="P122" s="34"/>
-      <c r="Q122" s="136"/>
+      <c r="Q122" s="133"/>
     </row>
     <row r="123" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A123" s="112">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="46"/>
@@ -10661,11 +10933,11 @@
       <c r="N123" s="63"/>
       <c r="O123" s="64"/>
       <c r="P123" s="34"/>
-      <c r="Q123" s="136"/>
+      <c r="Q123" s="133"/>
     </row>
     <row r="124" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A124" s="112">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124" s="39"/>
       <c r="C124" s="46"/>
@@ -10682,11 +10954,11 @@
       <c r="N124" s="63"/>
       <c r="O124" s="64"/>
       <c r="P124" s="34"/>
-      <c r="Q124" s="136"/>
+      <c r="Q124" s="133"/>
     </row>
     <row r="125" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A125" s="112">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" s="39"/>
       <c r="C125" s="46"/>
@@ -10703,11 +10975,11 @@
       <c r="N125" s="63"/>
       <c r="O125" s="64"/>
       <c r="P125" s="34"/>
-      <c r="Q125" s="136"/>
+      <c r="Q125" s="133"/>
     </row>
     <row r="126" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A126" s="112">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="46"/>
@@ -10724,11 +10996,11 @@
       <c r="N126" s="63"/>
       <c r="O126" s="64"/>
       <c r="P126" s="34"/>
-      <c r="Q126" s="136"/>
+      <c r="Q126" s="133"/>
     </row>
     <row r="127" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A127" s="112">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" s="39"/>
       <c r="C127" s="46"/>
@@ -10745,11 +11017,11 @@
       <c r="N127" s="63"/>
       <c r="O127" s="64"/>
       <c r="P127" s="34"/>
-      <c r="Q127" s="136"/>
+      <c r="Q127" s="133"/>
     </row>
     <row r="128" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A128" s="112">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="46"/>
@@ -10766,11 +11038,11 @@
       <c r="N128" s="63"/>
       <c r="O128" s="64"/>
       <c r="P128" s="34"/>
-      <c r="Q128" s="136"/>
+      <c r="Q128" s="133"/>
     </row>
     <row r="129" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A129" s="112">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129" s="39"/>
       <c r="C129" s="46"/>
@@ -10787,11 +11059,11 @@
       <c r="N129" s="63"/>
       <c r="O129" s="64"/>
       <c r="P129" s="34"/>
-      <c r="Q129" s="136"/>
+      <c r="Q129" s="133"/>
     </row>
     <row r="130" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A130" s="112">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130" s="39"/>
       <c r="C130" s="46"/>
@@ -10808,11 +11080,11 @@
       <c r="N130" s="63"/>
       <c r="O130" s="64"/>
       <c r="P130" s="34"/>
-      <c r="Q130" s="136"/>
+      <c r="Q130" s="133"/>
     </row>
     <row r="131" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A131" s="112">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="46"/>
@@ -10829,11 +11101,11 @@
       <c r="N131" s="63"/>
       <c r="O131" s="64"/>
       <c r="P131" s="34"/>
-      <c r="Q131" s="136"/>
+      <c r="Q131" s="133"/>
     </row>
     <row r="132" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A132" s="112">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132" s="39"/>
       <c r="C132" s="46"/>
@@ -10850,11 +11122,11 @@
       <c r="N132" s="63"/>
       <c r="O132" s="64"/>
       <c r="P132" s="34"/>
-      <c r="Q132" s="136"/>
+      <c r="Q132" s="133"/>
     </row>
     <row r="133" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A133" s="112">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" s="39"/>
       <c r="C133" s="46"/>
@@ -10871,11 +11143,11 @@
       <c r="N133" s="63"/>
       <c r="O133" s="64"/>
       <c r="P133" s="34"/>
-      <c r="Q133" s="136"/>
+      <c r="Q133" s="133"/>
     </row>
     <row r="134" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A134" s="112">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134" s="39"/>
       <c r="C134" s="46"/>
@@ -10892,11 +11164,11 @@
       <c r="N134" s="63"/>
       <c r="O134" s="64"/>
       <c r="P134" s="34"/>
-      <c r="Q134" s="136"/>
+      <c r="Q134" s="133"/>
     </row>
     <row r="135" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A135" s="112">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135" s="39"/>
       <c r="C135" s="46"/>
@@ -10913,11 +11185,11 @@
       <c r="N135" s="63"/>
       <c r="O135" s="64"/>
       <c r="P135" s="34"/>
-      <c r="Q135" s="136"/>
+      <c r="Q135" s="133"/>
     </row>
     <row r="136" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A136" s="112">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" s="39"/>
       <c r="C136" s="46"/>
@@ -10934,11 +11206,11 @@
       <c r="N136" s="63"/>
       <c r="O136" s="64"/>
       <c r="P136" s="34"/>
-      <c r="Q136" s="136"/>
+      <c r="Q136" s="133"/>
     </row>
     <row r="137" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A137" s="112">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B137" s="39"/>
       <c r="C137" s="46"/>
@@ -10955,11 +11227,11 @@
       <c r="N137" s="63"/>
       <c r="O137" s="64"/>
       <c r="P137" s="34"/>
-      <c r="Q137" s="136"/>
+      <c r="Q137" s="133"/>
     </row>
     <row r="138" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A138" s="112">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B138" s="39"/>
       <c r="C138" s="46"/>
@@ -10976,11 +11248,11 @@
       <c r="N138" s="63"/>
       <c r="O138" s="64"/>
       <c r="P138" s="34"/>
-      <c r="Q138" s="136"/>
+      <c r="Q138" s="133"/>
     </row>
     <row r="139" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A139" s="112">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" s="39"/>
       <c r="C139" s="46"/>
@@ -10997,11 +11269,11 @@
       <c r="N139" s="63"/>
       <c r="O139" s="64"/>
       <c r="P139" s="34"/>
-      <c r="Q139" s="136"/>
+      <c r="Q139" s="133"/>
     </row>
     <row r="140" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A140" s="112">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="39"/>
       <c r="C140" s="46"/>
@@ -11018,11 +11290,11 @@
       <c r="N140" s="63"/>
       <c r="O140" s="64"/>
       <c r="P140" s="34"/>
-      <c r="Q140" s="136"/>
+      <c r="Q140" s="133"/>
     </row>
     <row r="141" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A141" s="112">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" s="39"/>
       <c r="C141" s="46"/>
@@ -11039,11 +11311,11 @@
       <c r="N141" s="63"/>
       <c r="O141" s="64"/>
       <c r="P141" s="34"/>
-      <c r="Q141" s="136"/>
+      <c r="Q141" s="133"/>
     </row>
     <row r="142" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A142" s="112">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142" s="39"/>
       <c r="C142" s="46"/>
@@ -11060,11 +11332,11 @@
       <c r="N142" s="63"/>
       <c r="O142" s="64"/>
       <c r="P142" s="34"/>
-      <c r="Q142" s="136"/>
+      <c r="Q142" s="133"/>
     </row>
     <row r="143" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A143" s="112">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B143" s="39"/>
       <c r="C143" s="46"/>
@@ -11081,11 +11353,11 @@
       <c r="N143" s="63"/>
       <c r="O143" s="64"/>
       <c r="P143" s="34"/>
-      <c r="Q143" s="136"/>
+      <c r="Q143" s="133"/>
     </row>
     <row r="144" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A144" s="112">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B144" s="39"/>
       <c r="C144" s="46"/>
@@ -11102,11 +11374,11 @@
       <c r="N144" s="63"/>
       <c r="O144" s="64"/>
       <c r="P144" s="34"/>
-      <c r="Q144" s="136"/>
+      <c r="Q144" s="133"/>
     </row>
     <row r="145" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A145" s="112">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B145" s="39"/>
       <c r="C145" s="46"/>
@@ -11123,11 +11395,11 @@
       <c r="N145" s="63"/>
       <c r="O145" s="64"/>
       <c r="P145" s="34"/>
-      <c r="Q145" s="136"/>
+      <c r="Q145" s="133"/>
     </row>
     <row r="146" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A146" s="112">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B146" s="39"/>
       <c r="C146" s="46"/>
@@ -11144,11 +11416,11 @@
       <c r="N146" s="63"/>
       <c r="O146" s="64"/>
       <c r="P146" s="34"/>
-      <c r="Q146" s="136"/>
+      <c r="Q146" s="133"/>
     </row>
     <row r="147" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A147" s="112">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B147" s="39"/>
       <c r="C147" s="46"/>
@@ -11165,11 +11437,11 @@
       <c r="N147" s="63"/>
       <c r="O147" s="64"/>
       <c r="P147" s="34"/>
-      <c r="Q147" s="136"/>
+      <c r="Q147" s="133"/>
     </row>
     <row r="148" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A148" s="112">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B148" s="39"/>
       <c r="C148" s="46"/>
@@ -11186,11 +11458,11 @@
       <c r="N148" s="63"/>
       <c r="O148" s="64"/>
       <c r="P148" s="34"/>
-      <c r="Q148" s="136"/>
+      <c r="Q148" s="133"/>
     </row>
     <row r="149" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A149" s="112">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B149" s="39"/>
       <c r="C149" s="46"/>
@@ -11207,11 +11479,11 @@
       <c r="N149" s="63"/>
       <c r="O149" s="64"/>
       <c r="P149" s="34"/>
-      <c r="Q149" s="136"/>
+      <c r="Q149" s="133"/>
     </row>
     <row r="150" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A150" s="112">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B150" s="39"/>
       <c r="C150" s="46"/>
@@ -11228,11 +11500,11 @@
       <c r="N150" s="63"/>
       <c r="O150" s="64"/>
       <c r="P150" s="34"/>
-      <c r="Q150" s="136"/>
-    </row>
-    <row r="151" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="Q150" s="133"/>
+    </row>
+    <row r="151" spans="1:17" s="17" customFormat="1" ht="78.75" customHeight="1">
       <c r="A151" s="112">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B151" s="39"/>
       <c r="C151" s="46"/>
@@ -11240,7 +11512,7 @@
       <c r="E151" s="109"/>
       <c r="F151" s="109"/>
       <c r="G151" s="60"/>
-      <c r="H151" s="61"/>
+      <c r="H151" s="47"/>
       <c r="I151" s="62"/>
       <c r="J151" s="33"/>
       <c r="K151" s="72"/>
@@ -11249,50 +11521,29 @@
       <c r="N151" s="63"/>
       <c r="O151" s="64"/>
       <c r="P151" s="34"/>
-      <c r="Q151" s="136"/>
-    </row>
-    <row r="152" spans="1:17" s="17" customFormat="1" ht="78.75" customHeight="1">
+      <c r="Q151" s="134"/>
+    </row>
+    <row r="152" spans="1:17" ht="34.5" customHeight="1">
       <c r="A152" s="112">
-        <v>149</v>
-      </c>
-      <c r="B152" s="39"/>
-      <c r="C152" s="46"/>
-      <c r="D152" s="71"/>
-      <c r="E152" s="109"/>
-      <c r="F152" s="109"/>
-      <c r="G152" s="60"/>
-      <c r="H152" s="47"/>
-      <c r="I152" s="62"/>
-      <c r="J152" s="33"/>
-      <c r="K152" s="72"/>
-      <c r="L152" s="73"/>
-      <c r="M152" s="10"/>
-      <c r="N152" s="63"/>
-      <c r="O152" s="64"/>
-      <c r="P152" s="34"/>
-      <c r="Q152" s="137"/>
-    </row>
-    <row r="153" spans="1:17" ht="34.5" customHeight="1">
-      <c r="A153" s="112">
         <v>150</v>
       </c>
-      <c r="Q153" s="138"/>
-    </row>
-    <row r="233" ht="13.8" customHeight="1"/>
+      <c r="Q152" s="135"/>
+    </row>
+    <row r="232" ht="13.8" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A3:Q153"/>
+  <autoFilter ref="A3:Q152"/>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L152 L50:L51 L33:L44 L22:L23 L26:L31 L53:L60 L4:L5 L8:L20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L151 L50:L51 L33:L44 L22:L23 L26:L31 L53:L60 L4:L5 L8:L20">
       <formula1>"已处理,未处理"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I152">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I151">
       <formula1>"优先,高,适中,缓"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O152">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O151">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11307,7 +11558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -11331,24 +11582,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="122"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="238"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="48"/>
@@ -11755,24 +12006,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="122"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="238"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="48"/>

--- a/Docs/06 Testing/测试课题.xlsx
+++ b/Docs/06 Testing/测试课题.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'课题记录 '!$A$3:$Q$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'课题记录  (2)'!$A$3:$H$51</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="289">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1285,11 +1285,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>导入未完成
-按部门区分未完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>菜单名修改为：手顺及指标值组合
 完整显示整表
 选中序号列时可以复制和粘贴整行
@@ -1297,11 +1292,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>复制粘贴未完成
-增加频率栏未完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Master Data-关键词</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1318,12 +1308,6 @@
  添加导入功能
  按部门区分
  增加频率栏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加导入功能未完成
-按部门区分未完成
- 增加频率栏未完成</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1598,11 +1582,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>性别未删除
-导出未完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>系统</t>
   </si>
   <si>
@@ -1778,6 +1757,45 @@
   </si>
   <si>
     <t>需明确如何变更</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何福睿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊驰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗钰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周述文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入未完成
+按部门区分未完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊驰
+周述文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何福睿
+罗钰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制粘贴未完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>按部门区分未完成</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2462,7 +2480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3177,6 +3195,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3215,15 +3236,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1142408</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>688431</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>621712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98B2B81-BA32-4394-B169-793F8C3E02A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C98B2B81-BA32-4394-B169-793F8C3E02A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,15 +3280,15 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3743</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>677224</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA739EC-426E-488C-8EB4-E9BFFCDD8554}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBA739EC-426E-488C-8EB4-E9BFFCDD8554}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,15 +3324,15 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1148857</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>582438</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>462328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E59D5F-3A3D-4CC8-BC62-636223D083FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67E59D5F-3A3D-4CC8-BC62-636223D083FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3381,7 @@
         <xdr:cNvPr id="14" name="组合 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3142A9-7F63-479C-9720-07589AB2CE7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED3142A9-7F63-479C-9720-07589AB2CE7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3368,8 +3389,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4987258" y="28825830"/>
-          <a:ext cx="1090557" cy="505727"/>
+          <a:off x="4987258" y="1839686"/>
+          <a:ext cx="1090557" cy="0"/>
           <a:chOff x="161924" y="422672"/>
           <a:chExt cx="6267451" cy="2786066"/>
         </a:xfrm>
@@ -3379,7 +3400,7 @@
           <xdr:cNvPr id="15" name="图片 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F21A3D8-CA0F-48DB-846B-4577426E88DB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F21A3D8-CA0F-48DB-846B-4577426E88DB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3407,7 +3428,7 @@
           <xdr:cNvPr id="16" name="矩形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A8C184-1A17-4247-BB9C-68650D799358}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8A8C184-1A17-4247-BB9C-68650D799358}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3474,7 +3495,7 @@
         <xdr:cNvPr id="7" name="组合 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C52A969-B543-4095-8357-9B29AA726D2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C52A969-B543-4095-8357-9B29AA726D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3482,8 +3503,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5020682" y="15450830"/>
-          <a:ext cx="1051984" cy="555252"/>
+          <a:off x="5020682" y="1839686"/>
+          <a:ext cx="1051984" cy="0"/>
           <a:chOff x="1979082" y="8911167"/>
           <a:chExt cx="13009526" cy="2694661"/>
         </a:xfrm>
@@ -3493,7 +3514,7 @@
           <xdr:cNvPr id="27" name="图片 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6AEFA32-3788-40F7-BEBA-24C5E9F08CB5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6AEFA32-3788-40F7-BEBA-24C5E9F08CB5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3521,7 +3542,7 @@
           <xdr:cNvPr id="28" name="矩形 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0E3554-6CC3-43CF-A6C2-99B0412D27C6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D0E3554-6CC3-43CF-A6C2-99B0412D27C6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3588,7 +3609,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AF9E09-0798-485C-907F-F44410CAF4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82AF9E09-0798-485C-907F-F44410CAF4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3596,8 +3617,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5043094" y="29426006"/>
-          <a:ext cx="1030940" cy="504265"/>
+          <a:off x="5043094" y="1839686"/>
+          <a:ext cx="1030940" cy="0"/>
           <a:chOff x="4840946" y="15710647"/>
           <a:chExt cx="13058787" cy="5819774"/>
         </a:xfrm>
@@ -3607,7 +3628,7 @@
           <xdr:cNvPr id="36" name="图片 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07457ED1-E75B-4492-AB11-171F75C37693}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07457ED1-E75B-4492-AB11-171F75C37693}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3635,7 +3656,7 @@
           <xdr:cNvPr id="37" name="矩形 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD4A936E-B663-4FEF-9170-AF86328014E3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD4A936E-B663-4FEF-9170-AF86328014E3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3694,15 +3715,15 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1226530</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>556176</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CE1696-FFAC-4D0D-9BC6-623C84080B11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71CE1696-FFAC-4D0D-9BC6-623C84080B11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3737,15 +3758,15 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2243</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>739588</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>694765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5922A382-D927-4B52-BEEB-C2668363FB35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5922A382-D927-4B52-BEEB-C2668363FB35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3788,7 +3809,7 @@
         <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD02A9C6-4197-440B-8FC2-A69BD1CF140A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD02A9C6-4197-440B-8FC2-A69BD1CF140A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3826,7 +3847,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3447B6E4-297B-4626-BEB1-4BD2E742BFB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3447B6E4-297B-4626-BEB1-4BD2E742BFB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3862,7 +3883,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1101588</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>504253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3870,7 +3891,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CD05AE-AB07-4A92-90DD-14CF4D5829B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21CD05AE-AB07-4A92-90DD-14CF4D5829B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3906,15 +3927,15 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3479</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>794624</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>595841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23342E00-592E-4AA7-9123-4D5229A234A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23342E00-592E-4AA7-9123-4D5229A234A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3953,7 +3974,7 @@
         <xdr:cNvPr id="57" name="图片 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D352DE-53BF-42B9-B05C-32668E7F7DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1D352DE-53BF-42B9-B05C-32668E7F7DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3997,7 +4018,7 @@
         <xdr:cNvPr id="21" name="组合 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAA580D-E6A2-4774-A96E-7EBCE998DBC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCAA580D-E6A2-4774-A96E-7EBCE998DBC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4005,8 +4026,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5026893" y="21792668"/>
-          <a:ext cx="1045431" cy="646871"/>
+          <a:off x="5026893" y="1839686"/>
+          <a:ext cx="1045431" cy="0"/>
           <a:chOff x="3205370" y="17608826"/>
           <a:chExt cx="3889719" cy="3214139"/>
         </a:xfrm>
@@ -4016,7 +4037,7 @@
           <xdr:cNvPr id="47" name="图片 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D75A2515-EDE2-40EE-B593-56435BAF7270}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D75A2515-EDE2-40EE-B593-56435BAF7270}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4044,7 +4065,7 @@
           <xdr:cNvPr id="20" name="直接箭头连接符 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F879196-4649-4521-9EDE-9B226B334913}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F879196-4649-4521-9EDE-9B226B334913}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4102,15 +4123,15 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2698</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>647904</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>502227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="49" name="图片 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C498E5-4FAD-466F-A44A-3D204083602A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4C498E5-4FAD-466F-A44A-3D204083602A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4146,15 +4167,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>574264</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>520476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02ACE7F6-6C9F-49AB-B04A-8A2CA1B80091}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02ACE7F6-6C9F-49AB-B04A-8A2CA1B80091}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4193,7 +4214,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B4F15F-D156-49C7-88C9-0C0546D8FF38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5B4F15F-D156-49C7-88C9-0C0546D8FF38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4232,7 +4253,7 @@
         <xdr:cNvPr id="64" name="图片 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B72EDCD-D450-4A03-BD8A-6526BF3EF390}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B72EDCD-D450-4A03-BD8A-6526BF3EF390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4268,15 +4289,15 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>646145</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>588994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265A18AF-7FD9-4852-A807-4A9065120A0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{265A18AF-7FD9-4852-A807-4A9065120A0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4312,15 +4333,15 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1133914</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>817613</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>542268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9C4C4A-8486-4FAD-A7B8-1DC65A159E7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9C4C4A-8486-4FAD-A7B8-1DC65A159E7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4355,15 +4376,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1141239</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>687972</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>621712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A319DFA-C470-418C-AEC3-79A8CCAE0C02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A319DFA-C470-418C-AEC3-79A8CCAE0C02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4399,15 +4420,15 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>916</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>723415</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD369F4-FF89-4A08-B457-FAB4D314ABD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CD369F4-FF89-4A08-B457-FAB4D314ABD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4456,7 +4477,7 @@
         <xdr:cNvPr id="48" name="组合 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{341AE850-04E9-477D-A62F-04CD01B91391}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{341AE850-04E9-477D-A62F-04CD01B91391}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4475,7 +4496,7 @@
           <xdr:cNvPr id="49" name="图片 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2E542D-8C7E-4687-A04E-F6B5557A2B1A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A2E542D-8C7E-4687-A04E-F6B5557A2B1A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4503,7 +4524,7 @@
           <xdr:cNvPr id="50" name="矩形 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49691DBF-D511-43BA-BEBC-B0DE9F1F4916}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49691DBF-D511-43BA-BEBC-B0DE9F1F4916}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4570,7 +4591,7 @@
         <xdr:cNvPr id="51" name="组合 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{290CB9EB-3A3B-42D5-8733-3A633D0F79A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{290CB9EB-3A3B-42D5-8733-3A633D0F79A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4589,7 +4610,7 @@
           <xdr:cNvPr id="52" name="图片 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70569E23-3B69-472A-9545-B41F435C1BFF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70569E23-3B69-472A-9545-B41F435C1BFF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4618,7 +4639,7 @@
           <xdr:cNvPr id="53" name="矩形 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5764DAE7-E5B7-45AE-B17F-30A55A5054E8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5764DAE7-E5B7-45AE-B17F-30A55A5054E8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4685,7 +4706,7 @@
         <xdr:cNvPr id="54" name="组合 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FB6AF2-1632-4DC0-94AC-CD8BD1D6FF85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4FB6AF2-1632-4DC0-94AC-CD8BD1D6FF85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4704,7 +4725,7 @@
           <xdr:cNvPr id="55" name="图片 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424FB97B-35FF-45DD-A58E-97C4AE5986DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{424FB97B-35FF-45DD-A58E-97C4AE5986DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4733,7 +4754,7 @@
           <xdr:cNvPr id="56" name="矩形 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B711DC-CE0D-4A87-8208-531B71A2A00E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34B711DC-CE0D-4A87-8208-531B71A2A00E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4807,7 +4828,7 @@
         <xdr:cNvPr id="57" name="图片 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0E44A3-5FB7-45DC-8076-928A591E1064}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A0E44A3-5FB7-45DC-8076-928A591E1064}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4855,7 +4876,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA40D1F-E98D-4779-B5DE-75CD1D518257}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CA40D1F-E98D-4779-B5DE-75CD1D518257}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4899,7 +4920,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133DA2AF-CF85-4D35-A997-D6C79DC256CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{133DA2AF-CF85-4D35-A997-D6C79DC256CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4943,7 +4964,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5B035E-628C-415E-B319-34B092DDAE08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF5B035E-628C-415E-B319-34B092DDAE08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4992,7 +5013,7 @@
         <xdr:cNvPr id="5" name="组合 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB9EB5F-B847-42D8-BBF5-052ADCAE8843}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FB9EB5F-B847-42D8-BBF5-052ADCAE8843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5011,7 +5032,7 @@
           <xdr:cNvPr id="6" name="图片 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD71EF5F-5D64-41DF-A7F2-141005249294}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD71EF5F-5D64-41DF-A7F2-141005249294}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5039,7 +5060,7 @@
           <xdr:cNvPr id="7" name="矩形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A4392B-E92B-4FC9-AC7D-371C5CB67A68}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75A4392B-E92B-4FC9-AC7D-371C5CB67A68}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5106,7 +5127,7 @@
         <xdr:cNvPr id="8" name="组合 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1510FA4D-5D40-451D-904C-905ED5CBFC47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1510FA4D-5D40-451D-904C-905ED5CBFC47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5125,7 +5146,7 @@
           <xdr:cNvPr id="9" name="图片 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5C40D5-1862-4CBB-B6E6-707F77D56720}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C5C40D5-1862-4CBB-B6E6-707F77D56720}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5153,7 +5174,7 @@
           <xdr:cNvPr id="10" name="矩形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B433086-303A-422F-8D3D-B19E2223A5E1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B433086-303A-422F-8D3D-B19E2223A5E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5220,7 +5241,7 @@
         <xdr:cNvPr id="11" name="组合 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C96F5D-A571-4F92-808B-8054033C1C68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73C96F5D-A571-4F92-808B-8054033C1C68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5239,7 +5260,7 @@
           <xdr:cNvPr id="12" name="图片 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423F377D-F999-4903-8C47-B49A9E1BBB3F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{423F377D-F999-4903-8C47-B49A9E1BBB3F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5268,7 +5289,7 @@
           <xdr:cNvPr id="13" name="矩形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABC0045-0D37-4A0E-B990-65A433DF712A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DABC0045-0D37-4A0E-B990-65A433DF712A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5335,7 +5356,7 @@
         <xdr:cNvPr id="14" name="组合 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695A3A22-8B01-4B94-AF82-D09D9BACA91A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{695A3A22-8B01-4B94-AF82-D09D9BACA91A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5354,7 +5375,7 @@
           <xdr:cNvPr id="15" name="图片 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B969C19A-37AF-4171-B52B-1822D75F97BA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B969C19A-37AF-4171-B52B-1822D75F97BA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5382,7 +5403,7 @@
           <xdr:cNvPr id="16" name="矩形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410C8424-D8D3-4E10-8379-A832596C88C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{410C8424-D8D3-4E10-8379-A832596C88C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5449,7 +5470,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B9C950-5851-4D2A-9571-45E922882540}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98B9C950-5851-4D2A-9571-45E922882540}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5468,7 +5489,7 @@
           <xdr:cNvPr id="18" name="图片 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED41D7D-F68A-4AC2-A1B0-07C11A05D254}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ED41D7D-F68A-4AC2-A1B0-07C11A05D254}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5496,7 +5517,7 @@
           <xdr:cNvPr id="19" name="矩形 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBBD272-C3EA-40B8-A221-2689DD5C211A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DBBD272-C3EA-40B8-A221-2689DD5C211A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5563,7 +5584,7 @@
         <xdr:cNvPr id="20" name="组合 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0263C938-2310-4948-8135-8890B8AFE85C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0263C938-2310-4948-8135-8890B8AFE85C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5582,7 +5603,7 @@
           <xdr:cNvPr id="21" name="图片 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD97B7C-70BD-4117-B3DA-F86F086B4EC3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFD97B7C-70BD-4117-B3DA-F86F086B4EC3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5610,7 +5631,7 @@
           <xdr:cNvPr id="22" name="矩形 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FD535A-41D0-4995-BEF3-47E84293312B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7FD535A-41D0-4995-BEF3-47E84293312B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5677,7 +5698,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D959CF-DCB6-43F2-BD17-E00A70826190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5D959CF-DCB6-43F2-BD17-E00A70826190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5720,7 +5741,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D48FC70-CC73-4FFA-93EF-910DB168505F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D48FC70-CC73-4FFA-93EF-910DB168505F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5763,7 +5784,7 @@
         <xdr:cNvPr id="25" name="组合 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A4520C-878D-41DA-ACC8-C753AB4EEC8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01A4520C-878D-41DA-ACC8-C753AB4EEC8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5782,7 +5803,7 @@
           <xdr:cNvPr id="26" name="图片 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539EBE1B-E593-4CF1-8E00-732DB21C57C7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{539EBE1B-E593-4CF1-8E00-732DB21C57C7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5811,7 +5832,7 @@
           <xdr:cNvPr id="27" name="矩形 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E704DA5-79FB-4DCE-82CD-C7128EF5045D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E704DA5-79FB-4DCE-82CD-C7128EF5045D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5878,7 +5899,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60F9300-474C-4B97-8CFA-FA6A232996BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F60F9300-474C-4B97-8CFA-FA6A232996BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5921,7 +5942,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041F02E7-301A-4535-8E92-FCE7759A0E5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{041F02E7-301A-4535-8E92-FCE7759A0E5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5964,7 +5985,7 @@
         <xdr:cNvPr id="30" name="组合 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4081C441-A16E-47A6-91AB-CE7259525E3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4081C441-A16E-47A6-91AB-CE7259525E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5983,7 +6004,7 @@
           <xdr:cNvPr id="31" name="图片 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50922B92-5CDB-4001-81FE-970A069D1776}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50922B92-5CDB-4001-81FE-970A069D1776}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6012,7 +6033,7 @@
           <xdr:cNvPr id="32" name="矩形 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D45F2F-BE07-4DD2-85CD-D54AAECFCF4A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4D45F2F-BE07-4DD2-85CD-D54AAECFCF4A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6086,7 +6107,7 @@
         <xdr:cNvPr id="33" name="组合 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276B5F4B-7CC1-4301-8950-5FD9EA8CAF37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{276B5F4B-7CC1-4301-8950-5FD9EA8CAF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6105,7 +6126,7 @@
           <xdr:cNvPr id="34" name="图片 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B8C32B-6E2A-4807-A1D7-6F444FC24D6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6B8C32B-6E2A-4807-A1D7-6F444FC24D6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6133,7 +6154,7 @@
           <xdr:cNvPr id="35" name="矩形 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D2AE0D-123E-42DC-ABED-86AA7E367A25}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23D2AE0D-123E-42DC-ABED-86AA7E367A25}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6207,7 +6228,7 @@
         <xdr:cNvPr id="36" name="图片 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD693BB-8FF5-4C75-9399-B6802382149F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAD693BB-8FF5-4C75-9399-B6802382149F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6250,7 +6271,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E1CE8D-148A-4110-B326-60CF5214D964}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3E1CE8D-148A-4110-B326-60CF5214D964}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6293,7 +6314,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD76119-757D-4D4D-9EF0-428B965CA83D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAD76119-757D-4D4D-9EF0-428B965CA83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6331,7 +6352,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F58B90-C3E8-4CBD-923D-36B5F3F410CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45F58B90-C3E8-4CBD-923D-36B5F3F410CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6375,7 +6396,7 @@
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B687413-23BF-4281-9D42-6D9D81EC9986}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B687413-23BF-4281-9D42-6D9D81EC9986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6419,7 +6440,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99954A59-2E00-4CDA-A0DC-610C9B6FF2C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99954A59-2E00-4CDA-A0DC-610C9B6FF2C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6458,7 +6479,7 @@
         <xdr:cNvPr id="42" name="图片 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DD4F50-D468-4FED-989B-6D6A38F1285C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4DD4F50-D468-4FED-989B-6D6A38F1285C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6502,7 +6523,7 @@
         <xdr:cNvPr id="43" name="组合 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D60B776-8290-4A05-8D0B-E49A20D889D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D60B776-8290-4A05-8D0B-E49A20D889D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6521,7 +6542,7 @@
           <xdr:cNvPr id="44" name="图片 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57538BB3-6956-4C33-8DD0-A16EEBE15ECC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57538BB3-6956-4C33-8DD0-A16EEBE15ECC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6549,7 +6570,7 @@
           <xdr:cNvPr id="45" name="直接箭头连接符 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46ADCBE-FF68-4902-9EB2-648E3FE62B5C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B46ADCBE-FF68-4902-9EB2-648E3FE62B5C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6615,7 +6636,7 @@
         <xdr:cNvPr id="46" name="图片 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6366B4A9-4196-44F0-8E96-85299FE69047}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6366B4A9-4196-44F0-8E96-85299FE69047}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6659,7 +6680,7 @@
         <xdr:cNvPr id="47" name="图片 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3029897-09D5-4E82-88FE-30DA2683D8E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3029897-09D5-4E82-88FE-30DA2683D8E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7043,7 +7064,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7051,11 +7072,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7171,7 +7193,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="113" customFormat="1" ht="101.4" customHeight="1">
+    <row r="4" spans="1:17" s="113" customFormat="1" ht="101.4" hidden="1" customHeight="1">
       <c r="A4" s="120">
         <v>1</v>
       </c>
@@ -7208,7 +7230,7 @@
       </c>
       <c r="Q4" s="136"/>
     </row>
-    <row r="5" spans="1:17" s="113" customFormat="1" ht="58.5" customHeight="1">
+    <row r="5" spans="1:17" s="113" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A5" s="120">
         <v>2</v>
       </c>
@@ -7243,11 +7265,11 @@
       <c r="N5" s="129"/>
       <c r="O5" s="120"/>
       <c r="P5" s="130" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="136"/>
     </row>
-    <row r="6" spans="1:17" s="113" customFormat="1" ht="58.5" customHeight="1">
+    <row r="6" spans="1:17" s="113" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A6" s="172">
         <v>3</v>
       </c>
@@ -7274,19 +7296,19 @@
       <c r="J6" s="172"/>
       <c r="K6" s="179"/>
       <c r="L6" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M6" s="180"/>
       <c r="N6" s="181"/>
       <c r="O6" s="172"/>
       <c r="P6" s="182" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q6" s="186" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="113" customFormat="1" ht="73.5" customHeight="1">
+    <row r="7" spans="1:17" s="113" customFormat="1" ht="73.5" hidden="1" customHeight="1">
       <c r="A7" s="172">
         <v>4</v>
       </c>
@@ -7313,19 +7335,19 @@
       <c r="J7" s="172"/>
       <c r="K7" s="179"/>
       <c r="L7" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M7" s="180"/>
       <c r="N7" s="181"/>
       <c r="O7" s="172"/>
       <c r="P7" s="182" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="186" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="113" customFormat="1" ht="58.5" customHeight="1">
+    <row r="8" spans="1:17" s="113" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A8" s="120">
         <v>5</v>
       </c>
@@ -7362,7 +7384,7 @@
       <c r="P8" s="130"/>
       <c r="Q8" s="136"/>
     </row>
-    <row r="9" spans="1:17" s="113" customFormat="1" ht="78.75" customHeight="1">
+    <row r="9" spans="1:17" s="113" customFormat="1" ht="78.75" hidden="1" customHeight="1">
       <c r="A9" s="120">
         <v>6</v>
       </c>
@@ -7399,7 +7421,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="65" customFormat="1" ht="58.5" customHeight="1">
+    <row r="10" spans="1:17" s="65" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A10" s="120">
         <v>7</v>
       </c>
@@ -7434,7 +7456,7 @@
       <c r="P10" s="150"/>
       <c r="Q10" s="136"/>
     </row>
-    <row r="11" spans="1:17" s="65" customFormat="1" ht="58.5" customHeight="1">
+    <row r="11" spans="1:17" s="65" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A11" s="120">
         <v>8</v>
       </c>
@@ -7469,7 +7491,7 @@
       <c r="P11" s="150"/>
       <c r="Q11" s="151"/>
     </row>
-    <row r="12" spans="1:17" s="65" customFormat="1" ht="78.75" customHeight="1">
+    <row r="12" spans="1:17" s="65" customFormat="1" ht="78.75" hidden="1" customHeight="1">
       <c r="A12" s="168">
         <v>9</v>
       </c>
@@ -7504,7 +7526,7 @@
       </c>
       <c r="Q12" s="202"/>
     </row>
-    <row r="13" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="13" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A13" s="152">
         <v>10</v>
       </c>
@@ -7535,19 +7557,19 @@
         <v>43833</v>
       </c>
       <c r="L13" s="159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M13" s="160"/>
       <c r="N13" s="161"/>
       <c r="O13" s="152"/>
       <c r="P13" s="162" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="188" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A14" s="152">
         <v>11</v>
       </c>
@@ -7576,7 +7598,7 @@
         <v>43833</v>
       </c>
       <c r="L14" s="159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M14" s="160"/>
       <c r="N14" s="161"/>
@@ -7584,7 +7606,7 @@
       <c r="P14" s="162"/>
       <c r="Q14" s="188"/>
     </row>
-    <row r="15" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="15" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A15" s="120">
         <v>12</v>
       </c>
@@ -7623,7 +7645,7 @@
       </c>
       <c r="Q15" s="136"/>
     </row>
-    <row r="16" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="16" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A16" s="120">
         <v>13</v>
       </c>
@@ -7662,7 +7684,7 @@
       </c>
       <c r="Q16" s="136"/>
     </row>
-    <row r="17" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="17" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A17" s="120">
         <v>14</v>
       </c>
@@ -7699,7 +7721,7 @@
       </c>
       <c r="Q17" s="136"/>
     </row>
-    <row r="18" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="18" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A18" s="120">
         <v>15</v>
       </c>
@@ -7736,7 +7758,7 @@
       </c>
       <c r="Q18" s="136"/>
     </row>
-    <row r="19" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="19" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A19" s="120">
         <v>16</v>
       </c>
@@ -7773,7 +7795,7 @@
       </c>
       <c r="Q19" s="136"/>
     </row>
-    <row r="20" spans="1:17" s="113" customFormat="1" ht="69" customHeight="1">
+    <row r="20" spans="1:17" s="113" customFormat="1" ht="69" hidden="1" customHeight="1">
       <c r="A20" s="120">
         <v>17</v>
       </c>
@@ -7810,7 +7832,7 @@
       <c r="P20" s="130"/>
       <c r="Q20" s="136"/>
     </row>
-    <row r="21" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="21" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A21" s="172">
         <v>18</v>
       </c>
@@ -7839,19 +7861,19 @@
       <c r="J21" s="172"/>
       <c r="K21" s="179"/>
       <c r="L21" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M21" s="180"/>
       <c r="N21" s="181"/>
       <c r="O21" s="172"/>
       <c r="P21" s="182" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q21" s="183" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="22" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A22" s="120">
         <v>19</v>
       </c>
@@ -7886,7 +7908,7 @@
       <c r="P22" s="130"/>
       <c r="Q22" s="136"/>
     </row>
-    <row r="23" spans="1:17" s="113" customFormat="1" ht="84" customHeight="1">
+    <row r="23" spans="1:17" s="113" customFormat="1" ht="84" hidden="1" customHeight="1">
       <c r="A23" s="120">
         <v>20</v>
       </c>
@@ -7927,7 +7949,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="113" customFormat="1" ht="54" customHeight="1">
+    <row r="24" spans="1:17" s="113" customFormat="1" ht="54" hidden="1" customHeight="1">
       <c r="A24" s="172">
         <v>21</v>
       </c>
@@ -7956,19 +7978,19 @@
       <c r="J24" s="172"/>
       <c r="K24" s="179"/>
       <c r="L24" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M24" s="180"/>
       <c r="N24" s="181"/>
       <c r="O24" s="172"/>
       <c r="P24" s="182" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q24" s="186" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="25" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A25" s="172">
         <v>22</v>
       </c>
@@ -7995,19 +8017,19 @@
       <c r="J25" s="172"/>
       <c r="K25" s="179"/>
       <c r="L25" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M25" s="180"/>
       <c r="N25" s="181"/>
       <c r="O25" s="172"/>
       <c r="P25" s="182" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q25" s="186" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="113" customFormat="1" ht="63" customHeight="1">
+    <row r="26" spans="1:17" s="113" customFormat="1" ht="63" hidden="1" customHeight="1">
       <c r="A26" s="120">
         <v>23</v>
       </c>
@@ -8044,7 +8066,7 @@
       <c r="P26" s="130"/>
       <c r="Q26" s="136"/>
     </row>
-    <row r="27" spans="1:17" s="113" customFormat="1" ht="84.75" customHeight="1">
+    <row r="27" spans="1:17" s="113" customFormat="1" ht="84.75" hidden="1" customHeight="1">
       <c r="A27" s="120">
         <v>24</v>
       </c>
@@ -8081,7 +8103,7 @@
       <c r="P27" s="130"/>
       <c r="Q27" s="136"/>
     </row>
-    <row r="28" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="28" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A28" s="120">
         <v>25</v>
       </c>
@@ -8116,7 +8138,7 @@
       <c r="P28" s="130"/>
       <c r="Q28" s="136"/>
     </row>
-    <row r="29" spans="1:17" s="113" customFormat="1" ht="67.5" customHeight="1">
+    <row r="29" spans="1:17" s="113" customFormat="1" ht="67.5" hidden="1" customHeight="1">
       <c r="A29" s="120">
         <v>26</v>
       </c>
@@ -8153,7 +8175,7 @@
       <c r="P29" s="130"/>
       <c r="Q29" s="136"/>
     </row>
-    <row r="30" spans="1:17" s="113" customFormat="1" ht="71.25" customHeight="1">
+    <row r="30" spans="1:17" s="113" customFormat="1" ht="71.25" hidden="1" customHeight="1">
       <c r="A30" s="120">
         <v>27</v>
       </c>
@@ -8190,7 +8212,7 @@
       <c r="P30" s="130"/>
       <c r="Q30" s="136"/>
     </row>
-    <row r="31" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="31" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A31" s="120">
         <v>28</v>
       </c>
@@ -8229,7 +8251,7 @@
       </c>
       <c r="Q31" s="167"/>
     </row>
-    <row r="32" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="32" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A32" s="172">
         <v>29</v>
       </c>
@@ -8258,19 +8280,19 @@
       <c r="J32" s="172"/>
       <c r="K32" s="179"/>
       <c r="L32" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M32" s="180"/>
       <c r="N32" s="181"/>
       <c r="O32" s="172"/>
       <c r="P32" s="182" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q32" s="183" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="33" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A33" s="120">
         <v>30</v>
       </c>
@@ -8309,7 +8331,7 @@
       </c>
       <c r="Q33" s="136"/>
     </row>
-    <row r="34" spans="1:17" s="113" customFormat="1" ht="61.2" customHeight="1">
+    <row r="34" spans="1:17" s="113" customFormat="1" ht="61.2" hidden="1" customHeight="1">
       <c r="A34" s="120">
         <v>31</v>
       </c>
@@ -8348,7 +8370,7 @@
       </c>
       <c r="Q34" s="136"/>
     </row>
-    <row r="35" spans="1:17" s="65" customFormat="1" ht="78.75" customHeight="1">
+    <row r="35" spans="1:17" s="65" customFormat="1" ht="78.75" hidden="1" customHeight="1">
       <c r="A35" s="120">
         <v>32</v>
       </c>
@@ -8383,7 +8405,7 @@
       <c r="P35" s="150"/>
       <c r="Q35" s="190"/>
     </row>
-    <row r="36" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
+    <row r="36" spans="1:17" s="65" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A36" s="152">
         <v>33</v>
       </c>
@@ -8412,7 +8434,7 @@
         <v>43833</v>
       </c>
       <c r="L36" s="159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M36" s="160"/>
       <c r="N36" s="209"/>
@@ -8420,7 +8442,7 @@
       <c r="P36" s="211"/>
       <c r="Q36" s="212"/>
     </row>
-    <row r="37" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
+    <row r="37" spans="1:17" s="65" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A37" s="120">
         <v>34</v>
       </c>
@@ -8457,7 +8479,7 @@
       </c>
       <c r="Q37" s="190"/>
     </row>
-    <row r="38" spans="1:17" s="65" customFormat="1" ht="62.25" customHeight="1">
+    <row r="38" spans="1:17" s="65" customFormat="1" ht="62.25" hidden="1" customHeight="1">
       <c r="A38" s="120">
         <v>35</v>
       </c>
@@ -8492,7 +8514,7 @@
       <c r="P38" s="150"/>
       <c r="Q38" s="190"/>
     </row>
-    <row r="39" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
+    <row r="39" spans="1:17" s="65" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A39" s="120">
         <v>36</v>
       </c>
@@ -8527,7 +8549,7 @@
       <c r="P39" s="150"/>
       <c r="Q39" s="190"/>
     </row>
-    <row r="40" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="40" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A40" s="120">
         <v>37</v>
       </c>
@@ -8562,7 +8584,7 @@
       <c r="P40" s="130"/>
       <c r="Q40" s="136"/>
     </row>
-    <row r="41" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="41" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A41" s="120">
         <v>38</v>
       </c>
@@ -8597,7 +8619,7 @@
       <c r="P41" s="130"/>
       <c r="Q41" s="136"/>
     </row>
-    <row r="42" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="42" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A42" s="120">
         <v>39</v>
       </c>
@@ -8632,7 +8654,7 @@
       <c r="P42" s="130"/>
       <c r="Q42" s="136"/>
     </row>
-    <row r="43" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="43" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A43" s="120">
         <v>40</v>
       </c>
@@ -8669,7 +8691,7 @@
       <c r="P43" s="130"/>
       <c r="Q43" s="136"/>
     </row>
-    <row r="44" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
+    <row r="44" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A44" s="120">
         <v>41</v>
       </c>
@@ -8706,7 +8728,7 @@
       <c r="P44" s="216"/>
       <c r="Q44" s="167"/>
     </row>
-    <row r="45" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="45" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A45" s="120">
         <v>42</v>
       </c>
@@ -8733,7 +8755,7 @@
       <c r="P45" s="150"/>
       <c r="Q45" s="151"/>
     </row>
-    <row r="46" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="46" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A46" s="120">
         <v>43</v>
       </c>
@@ -8762,7 +8784,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="47" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A47" s="120">
         <v>44</v>
       </c>
@@ -8791,7 +8813,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="48" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A48" s="120">
         <v>45</v>
       </c>
@@ -8820,7 +8842,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="49" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A49" s="120">
         <v>46</v>
       </c>
@@ -8849,73 +8871,73 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A50" s="152">
+    <row r="50" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A50" s="120">
         <v>47</v>
       </c>
-      <c r="B50" s="217" t="s">
+      <c r="B50" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="203" t="s">
+      <c r="C50" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="D50" s="204"/>
-      <c r="E50" s="218"/>
-      <c r="F50" s="218"/>
-      <c r="G50" s="205"/>
-      <c r="H50" s="206"/>
-      <c r="I50" s="210"/>
-      <c r="J50" s="207"/>
-      <c r="K50" s="208">
+      <c r="D50" s="142"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="143"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="149"/>
+      <c r="J50" s="146"/>
+      <c r="K50" s="147">
         <v>43828</v>
       </c>
-      <c r="L50" s="159" t="s">
-        <v>248</v>
-      </c>
-      <c r="M50" s="160"/>
-      <c r="N50" s="209"/>
-      <c r="O50" s="210"/>
-      <c r="P50" s="211" t="s">
+      <c r="L50" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M50" s="128"/>
+      <c r="N50" s="148"/>
+      <c r="O50" s="149"/>
+      <c r="P50" s="150" t="s">
         <v>169</v>
       </c>
-      <c r="Q50" s="220" t="s">
+      <c r="Q50" s="151" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A51" s="152">
+    <row r="51" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A51" s="120">
         <v>48</v>
       </c>
-      <c r="B51" s="217" t="s">
+      <c r="B51" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="203" t="s">
+      <c r="C51" s="141" t="s">
         <v>165</v>
       </c>
-      <c r="D51" s="204"/>
-      <c r="E51" s="218"/>
-      <c r="F51" s="218"/>
-      <c r="G51" s="205"/>
-      <c r="H51" s="206"/>
-      <c r="I51" s="210"/>
-      <c r="J51" s="207"/>
-      <c r="K51" s="208">
+      <c r="D51" s="142"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="143"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="149"/>
+      <c r="J51" s="146"/>
+      <c r="K51" s="147">
         <v>43828</v>
       </c>
-      <c r="L51" s="159" t="s">
-        <v>248</v>
-      </c>
-      <c r="M51" s="160"/>
-      <c r="N51" s="209"/>
-      <c r="O51" s="210"/>
-      <c r="P51" s="211" t="s">
+      <c r="L51" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M51" s="128"/>
+      <c r="N51" s="148"/>
+      <c r="O51" s="149"/>
+      <c r="P51" s="150" t="s">
         <v>169</v>
       </c>
-      <c r="Q51" s="220" t="s">
+      <c r="Q51" s="151" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="52" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A52" s="120">
         <v>49</v>
       </c>
@@ -8949,7 +8971,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="217" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C53" s="203" t="s">
         <v>168</v>
@@ -8960,18 +8982,20 @@
       <c r="G53" s="205"/>
       <c r="H53" s="206"/>
       <c r="I53" s="210"/>
-      <c r="J53" s="207"/>
+      <c r="J53" s="207" t="s">
+        <v>282</v>
+      </c>
       <c r="K53" s="208">
         <v>43828</v>
       </c>
       <c r="L53" s="159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M53" s="160"/>
       <c r="N53" s="209"/>
       <c r="O53" s="210"/>
       <c r="P53" s="211" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="Q53" s="220" t="s">
         <v>151</v>
@@ -8982,10 +9006,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="217" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C54" s="203" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" s="204"/>
       <c r="E54" s="218"/>
@@ -8993,18 +9017,20 @@
       <c r="G54" s="205"/>
       <c r="H54" s="206"/>
       <c r="I54" s="210"/>
-      <c r="J54" s="207"/>
+      <c r="J54" s="239" t="s">
+        <v>280</v>
+      </c>
       <c r="K54" s="208">
         <v>43828</v>
       </c>
       <c r="L54" s="159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M54" s="160"/>
       <c r="N54" s="209"/>
       <c r="O54" s="210"/>
       <c r="P54" s="211" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="Q54" s="220"/>
     </row>
@@ -9013,10 +9039,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="217" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C55" s="203" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D55" s="204"/>
       <c r="E55" s="218"/>
@@ -9024,18 +9050,20 @@
       <c r="G55" s="205"/>
       <c r="H55" s="206"/>
       <c r="I55" s="210"/>
-      <c r="J55" s="207"/>
+      <c r="J55" s="207" t="s">
+        <v>282</v>
+      </c>
       <c r="K55" s="208">
         <v>43828</v>
       </c>
       <c r="L55" s="159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M55" s="160"/>
       <c r="N55" s="209"/>
       <c r="O55" s="210"/>
       <c r="P55" s="211" t="s">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="Q55" s="220" t="s">
         <v>151</v>
@@ -9046,10 +9074,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="217" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C56" s="203" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D56" s="204"/>
       <c r="E56" s="218"/>
@@ -9057,12 +9085,14 @@
       <c r="G56" s="205"/>
       <c r="H56" s="206"/>
       <c r="I56" s="210"/>
-      <c r="J56" s="207"/>
+      <c r="J56" s="207" t="s">
+        <v>280</v>
+      </c>
       <c r="K56" s="208">
         <v>43828</v>
       </c>
       <c r="L56" s="159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M56" s="160"/>
       <c r="N56" s="209"/>
@@ -9075,10 +9105,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="217" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C57" s="203" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D57" s="204"/>
       <c r="E57" s="218"/>
@@ -9086,12 +9116,14 @@
       <c r="G57" s="205"/>
       <c r="H57" s="206"/>
       <c r="I57" s="210"/>
-      <c r="J57" s="207"/>
+      <c r="J57" s="207" t="s">
+        <v>280</v>
+      </c>
       <c r="K57" s="208">
         <v>43828</v>
       </c>
       <c r="L57" s="159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M57" s="160"/>
       <c r="N57" s="209"/>
@@ -9104,10 +9136,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="217" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C58" s="203" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D58" s="204"/>
       <c r="E58" s="218"/>
@@ -9115,12 +9147,14 @@
       <c r="G58" s="205"/>
       <c r="H58" s="206"/>
       <c r="I58" s="210"/>
-      <c r="J58" s="207"/>
+      <c r="J58" s="207" t="s">
+        <v>280</v>
+      </c>
       <c r="K58" s="208">
         <v>43828</v>
       </c>
       <c r="L58" s="159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M58" s="160"/>
       <c r="N58" s="209"/>
@@ -9128,15 +9162,15 @@
       <c r="P58" s="211"/>
       <c r="Q58" s="220"/>
     </row>
-    <row r="59" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="59" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A59" s="152">
         <v>56</v>
       </c>
       <c r="B59" s="217" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C59" s="203" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D59" s="204"/>
       <c r="E59" s="218"/>
@@ -9149,7 +9183,7 @@
         <v>43833</v>
       </c>
       <c r="L59" s="159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M59" s="160"/>
       <c r="N59" s="209"/>
@@ -9162,10 +9196,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="217" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C60" s="203" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D60" s="204"/>
       <c r="E60" s="218"/>
@@ -9173,12 +9207,14 @@
       <c r="G60" s="205"/>
       <c r="H60" s="206"/>
       <c r="I60" s="210"/>
-      <c r="J60" s="207"/>
+      <c r="J60" s="207" t="s">
+        <v>280</v>
+      </c>
       <c r="K60" s="208">
         <v>43828</v>
       </c>
       <c r="L60" s="159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M60" s="160"/>
       <c r="N60" s="209"/>
@@ -9186,15 +9222,15 @@
       <c r="P60" s="211"/>
       <c r="Q60" s="220"/>
     </row>
-    <row r="61" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="61" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A61" s="120">
         <v>58</v>
       </c>
       <c r="B61" s="140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C61" s="141" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D61" s="142"/>
       <c r="E61" s="143"/>
@@ -9213,15 +9249,15 @@
       <c r="P61" s="150"/>
       <c r="Q61" s="151"/>
     </row>
-    <row r="62" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="62" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A62" s="120">
         <v>59</v>
       </c>
       <c r="B62" s="140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C62" s="141" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D62" s="142"/>
       <c r="E62" s="143"/>
@@ -9240,15 +9276,15 @@
       <c r="P62" s="150"/>
       <c r="Q62" s="151"/>
     </row>
-    <row r="63" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="63" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A63" s="168">
         <v>60</v>
       </c>
       <c r="B63" s="191" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C63" s="192" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D63" s="193"/>
       <c r="E63" s="194"/>
@@ -9263,19 +9299,19 @@
       <c r="N63" s="199"/>
       <c r="O63" s="200"/>
       <c r="P63" s="201" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q63" s="222"/>
     </row>
-    <row r="64" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="64" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A64" s="120">
         <v>61</v>
       </c>
       <c r="B64" s="140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C64" s="141" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D64" s="142"/>
       <c r="E64" s="143"/>
@@ -9293,18 +9329,18 @@
       <c r="O64" s="149"/>
       <c r="P64" s="150"/>
       <c r="Q64" s="151" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A65" s="120">
         <v>62</v>
       </c>
       <c r="B65" s="140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C65" s="141" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D65" s="142"/>
       <c r="E65" s="143"/>
@@ -9323,15 +9359,15 @@
       <c r="P65" s="150"/>
       <c r="Q65" s="151"/>
     </row>
-    <row r="66" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="66" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A66" s="120">
         <v>63</v>
       </c>
       <c r="B66" s="140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C66" s="141" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D66" s="142"/>
       <c r="E66" s="143"/>
@@ -9350,15 +9386,15 @@
       <c r="P66" s="150"/>
       <c r="Q66" s="151"/>
     </row>
-    <row r="67" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="67" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A67" s="120">
         <v>64</v>
       </c>
       <c r="B67" s="140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C67" s="141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D67" s="142"/>
       <c r="E67" s="143"/>
@@ -9377,15 +9413,15 @@
       <c r="P67" s="150"/>
       <c r="Q67" s="151"/>
     </row>
-    <row r="68" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="68" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A68" s="168">
         <v>65</v>
       </c>
       <c r="B68" s="191" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C68" s="192" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D68" s="193"/>
       <c r="E68" s="194"/>
@@ -9400,19 +9436,19 @@
       <c r="N68" s="199"/>
       <c r="O68" s="200"/>
       <c r="P68" s="201" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q68" s="222"/>
     </row>
-    <row r="69" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="69" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A69" s="172">
         <v>66</v>
       </c>
       <c r="B69" s="223" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C69" s="224" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D69" s="225"/>
       <c r="E69" s="226"/>
@@ -9423,13 +9459,13 @@
       <c r="J69" s="230"/>
       <c r="K69" s="231"/>
       <c r="L69" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M69" s="180"/>
       <c r="N69" s="233"/>
       <c r="O69" s="229"/>
       <c r="P69" s="234" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q69" s="235" t="s">
         <v>151</v>
@@ -9440,10 +9476,10 @@
         <v>67</v>
       </c>
       <c r="B70" s="217" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C70" s="203" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D70" s="204"/>
       <c r="E70" s="218"/>
@@ -9451,12 +9487,14 @@
       <c r="G70" s="205"/>
       <c r="H70" s="206"/>
       <c r="I70" s="210"/>
-      <c r="J70" s="207"/>
+      <c r="J70" s="207" t="s">
+        <v>280</v>
+      </c>
       <c r="K70" s="208">
         <v>43828</v>
       </c>
       <c r="L70" s="219" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M70" s="160"/>
       <c r="N70" s="209"/>
@@ -9464,15 +9502,15 @@
       <c r="P70" s="211"/>
       <c r="Q70" s="220"/>
     </row>
-    <row r="71" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="71" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A71" s="120">
         <v>68</v>
       </c>
       <c r="B71" s="140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C71" s="141" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D71" s="142"/>
       <c r="E71" s="143"/>
@@ -9491,15 +9529,15 @@
       <c r="P71" s="150"/>
       <c r="Q71" s="151"/>
     </row>
-    <row r="72" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="72" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A72" s="172">
         <v>69</v>
       </c>
       <c r="B72" s="223" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C72" s="224" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D72" s="225"/>
       <c r="E72" s="226"/>
@@ -9510,27 +9548,27 @@
       <c r="J72" s="230"/>
       <c r="K72" s="231"/>
       <c r="L72" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M72" s="180"/>
       <c r="N72" s="233"/>
       <c r="O72" s="229"/>
       <c r="P72" s="234" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q72" s="235" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A73" s="120">
         <v>70</v>
       </c>
       <c r="B73" s="140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C73" s="141" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D73" s="142"/>
       <c r="E73" s="143"/>
@@ -9549,15 +9587,15 @@
       <c r="P73" s="150"/>
       <c r="Q73" s="151"/>
     </row>
-    <row r="74" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="74" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A74" s="120">
         <v>71</v>
       </c>
       <c r="B74" s="140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C74" s="141" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D74" s="142"/>
       <c r="E74" s="143"/>
@@ -9581,10 +9619,10 @@
         <v>72</v>
       </c>
       <c r="B75" s="217" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C75" s="203" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D75" s="204"/>
       <c r="E75" s="218"/>
@@ -9592,18 +9630,20 @@
       <c r="G75" s="205"/>
       <c r="H75" s="206"/>
       <c r="I75" s="210"/>
-      <c r="J75" s="207"/>
+      <c r="J75" s="239" t="s">
+        <v>285</v>
+      </c>
       <c r="K75" s="208">
         <v>43828</v>
       </c>
       <c r="L75" s="219" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M75" s="160"/>
       <c r="N75" s="209"/>
       <c r="O75" s="210"/>
       <c r="P75" s="211" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q75" s="220" t="s">
         <v>151</v>
@@ -9614,10 +9654,10 @@
         <v>73</v>
       </c>
       <c r="B76" s="217" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C76" s="203" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D76" s="204"/>
       <c r="E76" s="218"/>
@@ -9625,12 +9665,14 @@
       <c r="G76" s="205"/>
       <c r="H76" s="206"/>
       <c r="I76" s="210"/>
-      <c r="J76" s="207"/>
+      <c r="J76" s="239" t="s">
+        <v>285</v>
+      </c>
       <c r="K76" s="208">
         <v>43828</v>
       </c>
       <c r="L76" s="219" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M76" s="160"/>
       <c r="N76" s="209"/>
@@ -9645,10 +9687,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="217" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C77" s="203" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D77" s="204"/>
       <c r="E77" s="218"/>
@@ -9656,12 +9698,14 @@
       <c r="G77" s="205"/>
       <c r="H77" s="206"/>
       <c r="I77" s="210"/>
-      <c r="J77" s="207"/>
+      <c r="J77" s="239" t="s">
+        <v>285</v>
+      </c>
       <c r="K77" s="208">
         <v>43828</v>
       </c>
       <c r="L77" s="219" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M77" s="160"/>
       <c r="N77" s="209"/>
@@ -9676,10 +9720,10 @@
         <v>75</v>
       </c>
       <c r="B78" s="217" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C78" s="203" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D78" s="204"/>
       <c r="E78" s="218"/>
@@ -9687,12 +9731,14 @@
       <c r="G78" s="205"/>
       <c r="H78" s="206"/>
       <c r="I78" s="210"/>
-      <c r="J78" s="207"/>
+      <c r="J78" s="207" t="s">
+        <v>283</v>
+      </c>
       <c r="K78" s="208">
         <v>43828</v>
       </c>
       <c r="L78" s="219" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M78" s="160"/>
       <c r="N78" s="209"/>
@@ -9700,15 +9746,15 @@
       <c r="P78" s="211"/>
       <c r="Q78" s="220"/>
     </row>
-    <row r="79" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="79" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A79" s="168">
         <v>76</v>
       </c>
       <c r="B79" s="191" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C79" s="192" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D79" s="193"/>
       <c r="E79" s="194"/>
@@ -9723,19 +9769,19 @@
       <c r="N79" s="199"/>
       <c r="O79" s="200"/>
       <c r="P79" s="201" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q79" s="222"/>
     </row>
-    <row r="80" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="80" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A80" s="168">
         <v>77</v>
       </c>
       <c r="B80" s="191" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C80" s="192" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D80" s="193"/>
       <c r="E80" s="194"/>
@@ -9750,19 +9796,19 @@
       <c r="N80" s="199"/>
       <c r="O80" s="200"/>
       <c r="P80" s="201" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q80" s="222"/>
     </row>
-    <row r="81" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="81" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A81" s="120">
         <v>78</v>
       </c>
       <c r="B81" s="140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C81" s="141" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D81" s="142"/>
       <c r="E81" s="143"/>
@@ -9781,15 +9827,15 @@
       <c r="P81" s="150"/>
       <c r="Q81" s="151"/>
     </row>
-    <row r="82" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="82" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A82" s="172">
         <v>79</v>
       </c>
       <c r="B82" s="223" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C82" s="224" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D82" s="225"/>
       <c r="E82" s="226"/>
@@ -9800,27 +9846,27 @@
       <c r="J82" s="230"/>
       <c r="K82" s="231"/>
       <c r="L82" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M82" s="180"/>
       <c r="N82" s="233"/>
       <c r="O82" s="229"/>
       <c r="P82" s="234" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q82" s="235" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="83" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A83" s="172">
         <v>80</v>
       </c>
       <c r="B83" s="223" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C83" s="224" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D83" s="225"/>
       <c r="E83" s="226"/>
@@ -9831,13 +9877,13 @@
       <c r="J83" s="230"/>
       <c r="K83" s="231"/>
       <c r="L83" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M83" s="180"/>
       <c r="N83" s="233"/>
       <c r="O83" s="229"/>
       <c r="P83" s="234" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q83" s="235"/>
     </row>
@@ -9846,10 +9892,10 @@
         <v>81</v>
       </c>
       <c r="B84" s="217" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C84" s="203" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D84" s="204"/>
       <c r="E84" s="218"/>
@@ -9857,12 +9903,14 @@
       <c r="G84" s="205"/>
       <c r="H84" s="206"/>
       <c r="I84" s="210"/>
-      <c r="J84" s="207"/>
+      <c r="J84" s="207" t="s">
+        <v>280</v>
+      </c>
       <c r="K84" s="208">
         <v>43828</v>
       </c>
       <c r="L84" s="219" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M84" s="160"/>
       <c r="N84" s="209"/>
@@ -9870,15 +9918,15 @@
       <c r="P84" s="211"/>
       <c r="Q84" s="220"/>
     </row>
-    <row r="85" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="85" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A85" s="172">
         <v>82</v>
       </c>
       <c r="B85" s="223" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C85" s="224" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D85" s="225"/>
       <c r="E85" s="226"/>
@@ -9889,27 +9937,27 @@
       <c r="J85" s="230"/>
       <c r="K85" s="231"/>
       <c r="L85" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M85" s="180"/>
       <c r="N85" s="233"/>
       <c r="O85" s="229"/>
       <c r="P85" s="234" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q85" s="235" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="86" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A86" s="152">
         <v>83</v>
       </c>
       <c r="B86" s="217" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C86" s="203" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D86" s="204"/>
       <c r="E86" s="218"/>
@@ -9922,7 +9970,7 @@
         <v>43833</v>
       </c>
       <c r="L86" s="219" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M86" s="160"/>
       <c r="N86" s="209"/>
@@ -9930,15 +9978,15 @@
       <c r="P86" s="211"/>
       <c r="Q86" s="220"/>
     </row>
-    <row r="87" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="87" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A87" s="120">
         <v>84</v>
       </c>
       <c r="B87" s="140" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C87" s="141" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D87" s="142"/>
       <c r="E87" s="143"/>
@@ -9962,10 +10010,10 @@
         <v>85</v>
       </c>
       <c r="B88" s="217" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C88" s="203" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D88" s="204"/>
       <c r="E88" s="218"/>
@@ -9973,12 +10021,14 @@
       <c r="G88" s="205"/>
       <c r="H88" s="206"/>
       <c r="I88" s="210"/>
-      <c r="J88" s="207"/>
+      <c r="J88" s="207" t="s">
+        <v>280</v>
+      </c>
       <c r="K88" s="208">
         <v>43828</v>
       </c>
       <c r="L88" s="219" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M88" s="160"/>
       <c r="N88" s="209"/>
@@ -9993,10 +10043,10 @@
         <v>86</v>
       </c>
       <c r="B89" s="217" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C89" s="203" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="218"/>
@@ -10004,12 +10054,14 @@
       <c r="G89" s="205"/>
       <c r="H89" s="206"/>
       <c r="I89" s="210"/>
-      <c r="J89" s="207"/>
+      <c r="J89" s="207" t="s">
+        <v>281</v>
+      </c>
       <c r="K89" s="208">
         <v>43828</v>
       </c>
       <c r="L89" s="219" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M89" s="160"/>
       <c r="N89" s="209"/>
@@ -10017,15 +10069,15 @@
       <c r="P89" s="211"/>
       <c r="Q89" s="220"/>
     </row>
-    <row r="90" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="90" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A90" s="120">
         <v>87</v>
       </c>
       <c r="B90" s="140" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C90" s="141" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D90" s="142"/>
       <c r="E90" s="143"/>
@@ -10049,10 +10101,10 @@
         <v>88</v>
       </c>
       <c r="B91" s="217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C91" s="203" t="s">
         <v>220</v>
-      </c>
-      <c r="C91" s="203" t="s">
-        <v>223</v>
       </c>
       <c r="D91" s="204"/>
       <c r="E91" s="218"/>
@@ -10060,12 +10112,14 @@
       <c r="G91" s="205"/>
       <c r="H91" s="206"/>
       <c r="I91" s="210"/>
-      <c r="J91" s="207"/>
+      <c r="J91" s="207" t="s">
+        <v>282</v>
+      </c>
       <c r="K91" s="208">
         <v>43828</v>
       </c>
       <c r="L91" s="219" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M91" s="160"/>
       <c r="N91" s="209"/>
@@ -10073,15 +10127,15 @@
       <c r="P91" s="211"/>
       <c r="Q91" s="220"/>
     </row>
-    <row r="92" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="92" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A92" s="168">
         <v>89</v>
       </c>
       <c r="B92" s="191" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C92" s="192" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D92" s="193"/>
       <c r="E92" s="194"/>
@@ -10096,19 +10150,19 @@
       <c r="N92" s="199"/>
       <c r="O92" s="200"/>
       <c r="P92" s="201" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q92" s="222"/>
     </row>
-    <row r="93" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="93" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A93" s="172">
         <v>90</v>
       </c>
       <c r="B93" s="223" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C93" s="224" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D93" s="225"/>
       <c r="E93" s="226"/>
@@ -10119,27 +10173,27 @@
       <c r="J93" s="230"/>
       <c r="K93" s="231"/>
       <c r="L93" s="232" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M93" s="180"/>
       <c r="N93" s="233"/>
       <c r="O93" s="229"/>
       <c r="P93" s="234" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q93" s="235" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="17" customFormat="1" ht="86.4">
+    <row r="94" spans="1:17" s="17" customFormat="1" ht="86.4" hidden="1">
       <c r="A94" s="168">
         <v>91</v>
       </c>
       <c r="B94" s="191" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C94" s="192" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D94" s="193"/>
       <c r="E94" s="194"/>
@@ -10154,19 +10208,19 @@
       <c r="N94" s="199"/>
       <c r="O94" s="200"/>
       <c r="P94" s="201" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q94" s="222"/>
     </row>
-    <row r="95" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="95" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A95" s="172">
         <v>92</v>
       </c>
       <c r="B95" s="223" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C95" s="224" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D95" s="225"/>
       <c r="E95" s="226"/>
@@ -10177,27 +10231,27 @@
       <c r="J95" s="230"/>
       <c r="K95" s="231"/>
       <c r="L95" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M95" s="180"/>
       <c r="N95" s="233"/>
       <c r="O95" s="229"/>
       <c r="P95" s="234" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q95" s="235" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="96" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A96" s="120">
         <v>93</v>
       </c>
       <c r="B96" s="140" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C96" s="141" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D96" s="142"/>
       <c r="E96" s="143"/>
@@ -10216,15 +10270,15 @@
       <c r="P96" s="150"/>
       <c r="Q96" s="151"/>
     </row>
-    <row r="97" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="97" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A97" s="172">
         <v>94</v>
       </c>
       <c r="B97" s="223" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C97" s="224" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D97" s="225"/>
       <c r="E97" s="226"/>
@@ -10235,25 +10289,25 @@
       <c r="J97" s="230"/>
       <c r="K97" s="231"/>
       <c r="L97" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M97" s="180"/>
       <c r="N97" s="233"/>
       <c r="O97" s="229"/>
       <c r="P97" s="234" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q97" s="235"/>
     </row>
-    <row r="98" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="98" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A98" s="172">
         <v>95</v>
       </c>
       <c r="B98" s="223" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C98" s="224" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D98" s="225"/>
       <c r="E98" s="226"/>
@@ -10264,25 +10318,25 @@
       <c r="J98" s="230"/>
       <c r="K98" s="231"/>
       <c r="L98" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M98" s="180"/>
       <c r="N98" s="233"/>
       <c r="O98" s="229"/>
       <c r="P98" s="234" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q98" s="235"/>
     </row>
-    <row r="99" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="99" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A99" s="172">
         <v>96</v>
       </c>
       <c r="B99" s="223" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C99" s="224" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D99" s="225"/>
       <c r="E99" s="226"/>
@@ -10293,27 +10347,27 @@
       <c r="J99" s="230"/>
       <c r="K99" s="231"/>
       <c r="L99" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M99" s="180"/>
       <c r="N99" s="233"/>
       <c r="O99" s="229"/>
       <c r="P99" s="234" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q99" s="235" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="100" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A100" s="172">
         <v>97</v>
       </c>
       <c r="B100" s="223" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C100" s="224" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D100" s="225"/>
       <c r="E100" s="226"/>
@@ -10324,27 +10378,27 @@
       <c r="J100" s="230"/>
       <c r="K100" s="231"/>
       <c r="L100" s="232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M100" s="180"/>
       <c r="N100" s="233"/>
       <c r="O100" s="229"/>
       <c r="P100" s="234" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q100" s="235" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="101" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A101" s="120">
         <v>98</v>
       </c>
       <c r="B101" s="140" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C101" s="141" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D101" s="142"/>
       <c r="E101" s="143"/>
@@ -10363,15 +10417,15 @@
       <c r="P101" s="150"/>
       <c r="Q101" s="151"/>
     </row>
-    <row r="102" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="102" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A102" s="120">
         <v>99</v>
       </c>
       <c r="B102" s="140" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C102" s="141" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D102" s="142"/>
       <c r="E102" s="143"/>
@@ -10395,10 +10449,10 @@
         <v>100</v>
       </c>
       <c r="B103" s="217" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C103" s="203" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D103" s="204"/>
       <c r="E103" s="218"/>
@@ -10406,30 +10460,32 @@
       <c r="G103" s="205"/>
       <c r="H103" s="206"/>
       <c r="I103" s="210"/>
-      <c r="J103" s="207"/>
+      <c r="J103" s="207" t="s">
+        <v>282</v>
+      </c>
       <c r="K103" s="208">
         <v>43828</v>
       </c>
       <c r="L103" s="219" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M103" s="160"/>
       <c r="N103" s="209"/>
       <c r="O103" s="210"/>
       <c r="P103" s="211" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q103" s="220"/>
     </row>
-    <row r="104" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="104" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A104" s="120">
         <v>101</v>
       </c>
       <c r="B104" s="140" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C104" s="141" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D104" s="142"/>
       <c r="E104" s="143"/>
@@ -10453,10 +10509,10 @@
         <v>102</v>
       </c>
       <c r="B105" s="217" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C105" s="203" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D105" s="204"/>
       <c r="E105" s="218"/>
@@ -10464,19 +10520,19 @@
       <c r="G105" s="205"/>
       <c r="H105" s="206"/>
       <c r="I105" s="210"/>
-      <c r="J105" s="207"/>
+      <c r="J105" s="239" t="s">
+        <v>285</v>
+      </c>
       <c r="K105" s="208">
         <v>43828</v>
       </c>
       <c r="L105" s="219" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M105" s="160"/>
       <c r="N105" s="209"/>
       <c r="O105" s="210"/>
-      <c r="P105" s="211" t="s">
-        <v>242</v>
-      </c>
+      <c r="P105" s="211"/>
       <c r="Q105" s="220" t="s">
         <v>151</v>
       </c>
@@ -10486,10 +10542,10 @@
         <v>103</v>
       </c>
       <c r="B106" s="217" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C106" s="203" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D106" s="204"/>
       <c r="E106" s="218"/>
@@ -10497,12 +10553,14 @@
       <c r="G106" s="205"/>
       <c r="H106" s="206"/>
       <c r="I106" s="210"/>
-      <c r="J106" s="207"/>
+      <c r="J106" s="239" t="s">
+        <v>285</v>
+      </c>
       <c r="K106" s="208">
         <v>43828</v>
       </c>
       <c r="L106" s="219" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M106" s="160"/>
       <c r="N106" s="209"/>
@@ -10515,10 +10573,10 @@
         <v>104</v>
       </c>
       <c r="B107" s="217" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C107" s="203" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D107" s="204"/>
       <c r="E107" s="218"/>
@@ -10526,12 +10584,14 @@
       <c r="G107" s="205"/>
       <c r="H107" s="206"/>
       <c r="I107" s="210"/>
-      <c r="J107" s="207"/>
+      <c r="J107" s="207" t="s">
+        <v>282</v>
+      </c>
       <c r="K107" s="208">
         <v>43828</v>
       </c>
       <c r="L107" s="219" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M107" s="160"/>
       <c r="N107" s="209"/>
@@ -10539,42 +10599,42 @@
       <c r="P107" s="211"/>
       <c r="Q107" s="220"/>
     </row>
-    <row r="108" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A108" s="152">
+    <row r="108" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A108" s="120">
         <v>105</v>
       </c>
-      <c r="B108" s="217" t="s">
-        <v>244</v>
-      </c>
-      <c r="C108" s="203" t="s">
-        <v>257</v>
-      </c>
-      <c r="D108" s="204"/>
-      <c r="E108" s="218"/>
-      <c r="F108" s="218"/>
-      <c r="G108" s="205"/>
-      <c r="H108" s="206"/>
-      <c r="I108" s="210"/>
-      <c r="J108" s="207"/>
-      <c r="K108" s="208">
+      <c r="B108" s="140" t="s">
+        <v>240</v>
+      </c>
+      <c r="C108" s="141" t="s">
+        <v>253</v>
+      </c>
+      <c r="D108" s="142"/>
+      <c r="E108" s="143"/>
+      <c r="F108" s="143"/>
+      <c r="G108" s="144"/>
+      <c r="H108" s="145"/>
+      <c r="I108" s="149"/>
+      <c r="J108" s="146"/>
+      <c r="K108" s="147">
         <v>43828</v>
       </c>
-      <c r="L108" s="219" t="s">
-        <v>249</v>
-      </c>
-      <c r="M108" s="160"/>
-      <c r="N108" s="209"/>
-      <c r="O108" s="210"/>
-      <c r="P108" s="211"/>
-      <c r="Q108" s="220"/>
-    </row>
-    <row r="109" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="L108" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="M108" s="128"/>
+      <c r="N108" s="148"/>
+      <c r="O108" s="149"/>
+      <c r="P108" s="150"/>
+      <c r="Q108" s="151"/>
+    </row>
+    <row r="109" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A109" s="172">
         <v>106</v>
       </c>
       <c r="B109" s="223"/>
       <c r="C109" s="224" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D109" s="225"/>
       <c r="E109" s="226"/>
@@ -10585,16 +10645,16 @@
       <c r="J109" s="230"/>
       <c r="K109" s="231"/>
       <c r="L109" s="232" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M109" s="180"/>
       <c r="N109" s="233"/>
       <c r="O109" s="229"/>
       <c r="P109" s="234" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q109" s="235" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
@@ -10603,7 +10663,7 @@
       </c>
       <c r="B110" s="217"/>
       <c r="C110" s="203" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D110" s="204"/>
       <c r="E110" s="218"/>
@@ -10611,12 +10671,14 @@
       <c r="G110" s="205"/>
       <c r="H110" s="206"/>
       <c r="I110" s="210"/>
-      <c r="J110" s="207"/>
+      <c r="J110" s="207" t="s">
+        <v>280</v>
+      </c>
       <c r="K110" s="208">
         <v>43828</v>
       </c>
       <c r="L110" s="219" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M110" s="160"/>
       <c r="N110" s="209"/>
@@ -10630,7 +10692,7 @@
       </c>
       <c r="B111" s="217"/>
       <c r="C111" s="203" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D111" s="204"/>
       <c r="E111" s="218"/>
@@ -10638,12 +10700,14 @@
       <c r="G111" s="205"/>
       <c r="H111" s="206"/>
       <c r="I111" s="210"/>
-      <c r="J111" s="207"/>
+      <c r="J111" s="239" t="s">
+        <v>286</v>
+      </c>
       <c r="K111" s="208">
         <v>43828</v>
       </c>
       <c r="L111" s="219" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M111" s="160"/>
       <c r="N111" s="209"/>
@@ -10657,7 +10721,7 @@
       </c>
       <c r="B112" s="217"/>
       <c r="C112" s="203" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D112" s="204"/>
       <c r="E112" s="218"/>
@@ -10665,28 +10729,30 @@
       <c r="G112" s="205"/>
       <c r="H112" s="206"/>
       <c r="I112" s="210"/>
-      <c r="J112" s="207"/>
+      <c r="J112" s="207" t="s">
+        <v>280</v>
+      </c>
       <c r="K112" s="208">
         <v>43828</v>
       </c>
       <c r="L112" s="219" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M112" s="160"/>
       <c r="N112" s="209"/>
       <c r="O112" s="210"/>
       <c r="P112" s="211"/>
       <c r="Q112" s="220" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A113" s="168">
         <v>111</v>
       </c>
       <c r="B113" s="191"/>
       <c r="C113" s="192" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D113" s="193"/>
       <c r="E113" s="194"/>
@@ -10701,17 +10767,17 @@
       <c r="N113" s="199"/>
       <c r="O113" s="200"/>
       <c r="P113" s="201" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q113" s="222"/>
     </row>
-    <row r="114" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="114" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A114" s="172">
         <v>112</v>
       </c>
       <c r="B114" s="223"/>
       <c r="C114" s="224" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D114" s="225"/>
       <c r="E114" s="226"/>
@@ -10722,23 +10788,23 @@
       <c r="J114" s="230"/>
       <c r="K114" s="231"/>
       <c r="L114" s="232" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M114" s="180"/>
       <c r="N114" s="233"/>
       <c r="O114" s="229"/>
       <c r="P114" s="234" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q114" s="235"/>
     </row>
-    <row r="115" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="115" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A115" s="120">
         <v>113</v>
       </c>
       <c r="B115" s="140"/>
       <c r="C115" s="141" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D115" s="142"/>
       <c r="E115" s="143"/>
@@ -10749,23 +10815,23 @@
       <c r="J115" s="146"/>
       <c r="K115" s="147"/>
       <c r="L115" s="189" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M115" s="128"/>
       <c r="N115" s="148"/>
       <c r="O115" s="149"/>
       <c r="P115" s="150" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q115" s="151"/>
     </row>
-    <row r="116" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="116" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A116" s="172">
         <v>114</v>
       </c>
       <c r="B116" s="223"/>
       <c r="C116" s="224" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D116" s="225"/>
       <c r="E116" s="226"/>
@@ -10776,19 +10842,19 @@
       <c r="J116" s="230"/>
       <c r="K116" s="231"/>
       <c r="L116" s="232" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M116" s="180"/>
       <c r="N116" s="233"/>
       <c r="O116" s="229"/>
       <c r="P116" s="234" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q116" s="235" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A117" s="112">
         <v>115</v>
       </c>
@@ -10809,7 +10875,7 @@
       <c r="P117" s="34"/>
       <c r="Q117" s="133"/>
     </row>
-    <row r="118" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="118" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A118" s="112">
         <v>116</v>
       </c>
@@ -10830,7 +10896,7 @@
       <c r="P118" s="34"/>
       <c r="Q118" s="133"/>
     </row>
-    <row r="119" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="119" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A119" s="112">
         <v>117</v>
       </c>
@@ -10851,7 +10917,7 @@
       <c r="P119" s="34"/>
       <c r="Q119" s="133"/>
     </row>
-    <row r="120" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="120" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A120" s="112">
         <v>118</v>
       </c>
@@ -10872,7 +10938,7 @@
       <c r="P120" s="34"/>
       <c r="Q120" s="133"/>
     </row>
-    <row r="121" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="121" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A121" s="112">
         <v>119</v>
       </c>
@@ -10893,7 +10959,7 @@
       <c r="P121" s="34"/>
       <c r="Q121" s="133"/>
     </row>
-    <row r="122" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="122" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A122" s="112">
         <v>120</v>
       </c>
@@ -10914,7 +10980,7 @@
       <c r="P122" s="34"/>
       <c r="Q122" s="133"/>
     </row>
-    <row r="123" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="123" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A123" s="112">
         <v>121</v>
       </c>
@@ -10935,7 +11001,7 @@
       <c r="P123" s="34"/>
       <c r="Q123" s="133"/>
     </row>
-    <row r="124" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="124" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A124" s="112">
         <v>122</v>
       </c>
@@ -10956,7 +11022,7 @@
       <c r="P124" s="34"/>
       <c r="Q124" s="133"/>
     </row>
-    <row r="125" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="125" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A125" s="112">
         <v>123</v>
       </c>
@@ -10977,7 +11043,7 @@
       <c r="P125" s="34"/>
       <c r="Q125" s="133"/>
     </row>
-    <row r="126" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="126" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A126" s="112">
         <v>124</v>
       </c>
@@ -10998,7 +11064,7 @@
       <c r="P126" s="34"/>
       <c r="Q126" s="133"/>
     </row>
-    <row r="127" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="127" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A127" s="112">
         <v>125</v>
       </c>
@@ -11019,7 +11085,7 @@
       <c r="P127" s="34"/>
       <c r="Q127" s="133"/>
     </row>
-    <row r="128" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="128" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A128" s="112">
         <v>126</v>
       </c>
@@ -11040,7 +11106,7 @@
       <c r="P128" s="34"/>
       <c r="Q128" s="133"/>
     </row>
-    <row r="129" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="129" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A129" s="112">
         <v>127</v>
       </c>
@@ -11061,7 +11127,7 @@
       <c r="P129" s="34"/>
       <c r="Q129" s="133"/>
     </row>
-    <row r="130" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="130" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A130" s="112">
         <v>128</v>
       </c>
@@ -11082,7 +11148,7 @@
       <c r="P130" s="34"/>
       <c r="Q130" s="133"/>
     </row>
-    <row r="131" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="131" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A131" s="112">
         <v>129</v>
       </c>
@@ -11103,7 +11169,7 @@
       <c r="P131" s="34"/>
       <c r="Q131" s="133"/>
     </row>
-    <row r="132" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="132" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A132" s="112">
         <v>130</v>
       </c>
@@ -11124,7 +11190,7 @@
       <c r="P132" s="34"/>
       <c r="Q132" s="133"/>
     </row>
-    <row r="133" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="133" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A133" s="112">
         <v>131</v>
       </c>
@@ -11145,7 +11211,7 @@
       <c r="P133" s="34"/>
       <c r="Q133" s="133"/>
     </row>
-    <row r="134" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="134" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A134" s="112">
         <v>132</v>
       </c>
@@ -11166,7 +11232,7 @@
       <c r="P134" s="34"/>
       <c r="Q134" s="133"/>
     </row>
-    <row r="135" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="135" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A135" s="112">
         <v>133</v>
       </c>
@@ -11187,7 +11253,7 @@
       <c r="P135" s="34"/>
       <c r="Q135" s="133"/>
     </row>
-    <row r="136" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="136" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A136" s="112">
         <v>134</v>
       </c>
@@ -11208,7 +11274,7 @@
       <c r="P136" s="34"/>
       <c r="Q136" s="133"/>
     </row>
-    <row r="137" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="137" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A137" s="112">
         <v>135</v>
       </c>
@@ -11229,7 +11295,7 @@
       <c r="P137" s="34"/>
       <c r="Q137" s="133"/>
     </row>
-    <row r="138" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="138" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A138" s="112">
         <v>136</v>
       </c>
@@ -11250,7 +11316,7 @@
       <c r="P138" s="34"/>
       <c r="Q138" s="133"/>
     </row>
-    <row r="139" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="139" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A139" s="112">
         <v>137</v>
       </c>
@@ -11271,7 +11337,7 @@
       <c r="P139" s="34"/>
       <c r="Q139" s="133"/>
     </row>
-    <row r="140" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="140" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A140" s="112">
         <v>138</v>
       </c>
@@ -11292,7 +11358,7 @@
       <c r="P140" s="34"/>
       <c r="Q140" s="133"/>
     </row>
-    <row r="141" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="141" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A141" s="112">
         <v>139</v>
       </c>
@@ -11313,7 +11379,7 @@
       <c r="P141" s="34"/>
       <c r="Q141" s="133"/>
     </row>
-    <row r="142" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="142" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A142" s="112">
         <v>140</v>
       </c>
@@ -11334,7 +11400,7 @@
       <c r="P142" s="34"/>
       <c r="Q142" s="133"/>
     </row>
-    <row r="143" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="143" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A143" s="112">
         <v>141</v>
       </c>
@@ -11355,7 +11421,7 @@
       <c r="P143" s="34"/>
       <c r="Q143" s="133"/>
     </row>
-    <row r="144" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="144" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A144" s="112">
         <v>142</v>
       </c>
@@ -11376,7 +11442,7 @@
       <c r="P144" s="34"/>
       <c r="Q144" s="133"/>
     </row>
-    <row r="145" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="145" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A145" s="112">
         <v>143</v>
       </c>
@@ -11397,7 +11463,7 @@
       <c r="P145" s="34"/>
       <c r="Q145" s="133"/>
     </row>
-    <row r="146" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="146" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A146" s="112">
         <v>144</v>
       </c>
@@ -11418,7 +11484,7 @@
       <c r="P146" s="34"/>
       <c r="Q146" s="133"/>
     </row>
-    <row r="147" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="147" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A147" s="112">
         <v>145</v>
       </c>
@@ -11439,7 +11505,7 @@
       <c r="P147" s="34"/>
       <c r="Q147" s="133"/>
     </row>
-    <row r="148" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="148" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A148" s="112">
         <v>146</v>
       </c>
@@ -11460,7 +11526,7 @@
       <c r="P148" s="34"/>
       <c r="Q148" s="133"/>
     </row>
-    <row r="149" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="149" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A149" s="112">
         <v>147</v>
       </c>
@@ -11481,7 +11547,7 @@
       <c r="P149" s="34"/>
       <c r="Q149" s="133"/>
     </row>
-    <row r="150" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="150" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A150" s="112">
         <v>148</v>
       </c>
@@ -11502,7 +11568,7 @@
       <c r="P150" s="34"/>
       <c r="Q150" s="133"/>
     </row>
-    <row r="151" spans="1:17" s="17" customFormat="1" ht="78.75" customHeight="1">
+    <row r="151" spans="1:17" s="17" customFormat="1" ht="78.75" hidden="1" customHeight="1">
       <c r="A151" s="112">
         <v>149</v>
       </c>
@@ -11523,7 +11589,7 @@
       <c r="P151" s="34"/>
       <c r="Q151" s="134"/>
     </row>
-    <row r="152" spans="1:17" ht="34.5" customHeight="1">
+    <row r="152" spans="1:17" ht="34.5" hidden="1" customHeight="1">
       <c r="A152" s="112">
         <v>150</v>
       </c>
@@ -11531,13 +11597,24 @@
     </row>
     <row r="232" ht="13.8" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A3:Q152"/>
+  <autoFilter ref="A3:Q152">
+    <filterColumn colId="10">
+      <filters>
+        <dateGroupItem year="2019" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="处理中"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L151 L50:L51 L33:L44 L22:L23 L26:L31 L53:L60 L4:L5 L8:L20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L151 L8:L20 L33:L44 L22:L23 L26:L31 L53:L60 L4:L5">
       <formula1>"已处理,未处理"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I151">

--- a/Docs/06 Testing/测试课题.xlsx
+++ b/Docs/06 Testing/测试课题.xlsx
@@ -3236,7 +3236,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1142408</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>621712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3280,7 +3280,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3743</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3324,7 +3324,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1148857</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>462328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3715,7 +3715,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1226530</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3758,7 +3758,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2243</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>694765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3883,7 +3883,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1101588</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>504253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3927,7 +3927,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3479</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>595841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4123,7 +4123,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2698</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>502227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4167,7 +4167,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>520476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4289,7 +4289,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>588994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4333,7 +4333,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1133914</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>542268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4376,7 +4376,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1141239</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>621712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4420,7 +4420,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>916</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7076,8 +7076,8 @@
   <dimension ref="A1:Q232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M54" sqref="M54"/>
+      <pane ySplit="3" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8966,7 +8966,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A53" s="152">
         <v>50</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="17" customFormat="1" ht="75.599999999999994" customHeight="1">
+    <row r="54" spans="1:17" s="17" customFormat="1" ht="75.599999999999994" hidden="1" customHeight="1">
       <c r="A54" s="152">
         <v>51</v>
       </c>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="Q54" s="220"/>
     </row>
-    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A55" s="152">
         <v>52</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="56" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A56" s="152">
         <v>53</v>
       </c>
@@ -9100,7 +9100,7 @@
       <c r="P56" s="211"/>
       <c r="Q56" s="220"/>
     </row>
-    <row r="57" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="57" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A57" s="152">
         <v>54</v>
       </c>
@@ -9131,7 +9131,7 @@
       <c r="P57" s="211"/>
       <c r="Q57" s="220"/>
     </row>
-    <row r="58" spans="1:17" s="17" customFormat="1" ht="100.8">
+    <row r="58" spans="1:17" s="17" customFormat="1" ht="100.8" hidden="1">
       <c r="A58" s="152">
         <v>55</v>
       </c>
@@ -9191,7 +9191,7 @@
       <c r="P59" s="211"/>
       <c r="Q59" s="220"/>
     </row>
-    <row r="60" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="60" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A60" s="152">
         <v>57</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="70" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A70" s="152">
         <v>67</v>
       </c>
@@ -9887,7 +9887,7 @@
       </c>
       <c r="Q83" s="235"/>
     </row>
-    <row r="84" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="84" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A84" s="152">
         <v>81</v>
       </c>
@@ -10005,7 +10005,7 @@
       <c r="P87" s="150"/>
       <c r="Q87" s="151"/>
     </row>
-    <row r="88" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="88" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A88" s="152">
         <v>85</v>
       </c>
@@ -10096,7 +10096,7 @@
       <c r="P90" s="150"/>
       <c r="Q90" s="151"/>
     </row>
-    <row r="91" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="91" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A91" s="152">
         <v>88</v>
       </c>
@@ -10444,7 +10444,7 @@
       <c r="P102" s="150"/>
       <c r="Q102" s="151"/>
     </row>
-    <row r="103" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="103" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A103" s="152">
         <v>100</v>
       </c>
@@ -10568,7 +10568,7 @@
       <c r="P106" s="211"/>
       <c r="Q106" s="220"/>
     </row>
-    <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A107" s="152">
         <v>104</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="110" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="110" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A110" s="152">
         <v>107</v>
       </c>
@@ -10686,7 +10686,7 @@
       <c r="P110" s="211"/>
       <c r="Q110" s="220"/>
     </row>
-    <row r="111" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="111" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A111" s="152">
         <v>108</v>
       </c>
@@ -10715,7 +10715,7 @@
       <c r="P111" s="211"/>
       <c r="Q111" s="220"/>
     </row>
-    <row r="112" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="112" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A112" s="152">
         <v>110</v>
       </c>
@@ -11598,6 +11598,13 @@
     <row r="232" ht="13.8" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A3:Q152">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="熊驰"/>
+        <filter val="熊驰_x000a_周述文"/>
+        <filter val="周述文"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="10">
       <filters>
         <dateGroupItem year="2019" dateTimeGrouping="year"/>

--- a/Docs/06 Testing/测试课题.xlsx
+++ b/Docs/06 Testing/测试课题.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="292">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1796,6 +1796,18 @@
   </si>
   <si>
     <t>按部门区分未完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该是因为触发了自动补0规则，删除数据后不要切换到当前指标区域外</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该是插入新行导致</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3236,7 +3248,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1142408</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>621712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3280,7 +3292,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3743</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3324,7 +3336,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1148857</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>462328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3715,7 +3727,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1226530</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3758,7 +3770,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2243</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>694765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3883,7 +3895,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1101588</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>504253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3927,7 +3939,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3479</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>595841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4123,7 +4135,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2698</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>502227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4167,7 +4179,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>520476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4289,7 +4301,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>588994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4333,7 +4345,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1133914</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>542268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4376,7 +4388,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1141239</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>621712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4420,7 +4432,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>916</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7076,8 +7088,8 @@
   <dimension ref="A1:Q232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9001,7 +9013,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="17" customFormat="1" ht="75.599999999999994" hidden="1" customHeight="1">
+    <row r="54" spans="1:17" s="17" customFormat="1" ht="75.599999999999994" customHeight="1">
       <c r="A54" s="152">
         <v>51</v>
       </c>
@@ -9070,37 +9082,37 @@
       </c>
     </row>
     <row r="56" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A56" s="152">
+      <c r="A56" s="120">
         <v>53</v>
       </c>
-      <c r="B56" s="217" t="s">
+      <c r="B56" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C56" s="203" t="s">
+      <c r="C56" s="141" t="s">
         <v>255</v>
       </c>
-      <c r="D56" s="204"/>
-      <c r="E56" s="218"/>
-      <c r="F56" s="218"/>
-      <c r="G56" s="205"/>
-      <c r="H56" s="206"/>
-      <c r="I56" s="210"/>
-      <c r="J56" s="207" t="s">
+      <c r="D56" s="142"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="144"/>
+      <c r="H56" s="145"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="146" t="s">
         <v>280</v>
       </c>
-      <c r="K56" s="208">
+      <c r="K56" s="147">
         <v>43828</v>
       </c>
-      <c r="L56" s="159" t="s">
-        <v>244</v>
-      </c>
-      <c r="M56" s="160"/>
-      <c r="N56" s="209"/>
-      <c r="O56" s="210"/>
-      <c r="P56" s="211"/>
-      <c r="Q56" s="220"/>
-    </row>
-    <row r="57" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="L56" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M56" s="128"/>
+      <c r="N56" s="148"/>
+      <c r="O56" s="149"/>
+      <c r="P56" s="150"/>
+      <c r="Q56" s="151"/>
+    </row>
+    <row r="57" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A57" s="152">
         <v>54</v>
       </c>
@@ -9131,7 +9143,7 @@
       <c r="P57" s="211"/>
       <c r="Q57" s="220"/>
     </row>
-    <row r="58" spans="1:17" s="17" customFormat="1" ht="100.8" hidden="1">
+    <row r="58" spans="1:17" s="17" customFormat="1" ht="100.8">
       <c r="A58" s="152">
         <v>55</v>
       </c>
@@ -9192,35 +9204,37 @@
       <c r="Q59" s="220"/>
     </row>
     <row r="60" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A60" s="152">
+      <c r="A60" s="120">
         <v>57</v>
       </c>
-      <c r="B60" s="217" t="s">
+      <c r="B60" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="C60" s="203" t="s">
+      <c r="C60" s="141" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="204"/>
-      <c r="E60" s="218"/>
-      <c r="F60" s="218"/>
-      <c r="G60" s="205"/>
-      <c r="H60" s="206"/>
-      <c r="I60" s="210"/>
-      <c r="J60" s="207" t="s">
+      <c r="D60" s="142"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="143"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="145"/>
+      <c r="I60" s="149"/>
+      <c r="J60" s="146" t="s">
         <v>280</v>
       </c>
-      <c r="K60" s="208">
+      <c r="K60" s="147">
         <v>43828</v>
       </c>
-      <c r="L60" s="159" t="s">
-        <v>244</v>
-      </c>
-      <c r="M60" s="160"/>
-      <c r="N60" s="209"/>
-      <c r="O60" s="210"/>
-      <c r="P60" s="211"/>
-      <c r="Q60" s="220"/>
+      <c r="L60" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M60" s="128"/>
+      <c r="N60" s="148"/>
+      <c r="O60" s="149"/>
+      <c r="P60" s="150" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q60" s="151"/>
     </row>
     <row r="61" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A61" s="120">
@@ -9472,35 +9486,35 @@
       </c>
     </row>
     <row r="70" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A70" s="152">
+      <c r="A70" s="120">
         <v>67</v>
       </c>
-      <c r="B70" s="217" t="s">
+      <c r="B70" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="C70" s="203" t="s">
+      <c r="C70" s="141" t="s">
         <v>191</v>
       </c>
-      <c r="D70" s="204"/>
-      <c r="E70" s="218"/>
-      <c r="F70" s="218"/>
-      <c r="G70" s="205"/>
-      <c r="H70" s="206"/>
-      <c r="I70" s="210"/>
-      <c r="J70" s="207" t="s">
+      <c r="D70" s="142"/>
+      <c r="E70" s="143"/>
+      <c r="F70" s="143"/>
+      <c r="G70" s="144"/>
+      <c r="H70" s="145"/>
+      <c r="I70" s="149"/>
+      <c r="J70" s="146" t="s">
         <v>280</v>
       </c>
-      <c r="K70" s="208">
+      <c r="K70" s="147">
         <v>43828</v>
       </c>
-      <c r="L70" s="219" t="s">
-        <v>245</v>
-      </c>
-      <c r="M70" s="160"/>
-      <c r="N70" s="209"/>
-      <c r="O70" s="210"/>
-      <c r="P70" s="211"/>
-      <c r="Q70" s="220"/>
+      <c r="L70" s="189" t="s">
+        <v>289</v>
+      </c>
+      <c r="M70" s="128"/>
+      <c r="N70" s="148"/>
+      <c r="O70" s="149"/>
+      <c r="P70" s="150"/>
+      <c r="Q70" s="151"/>
     </row>
     <row r="71" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A71" s="120">
@@ -9614,7 +9628,7 @@
       <c r="P74" s="150"/>
       <c r="Q74" s="151"/>
     </row>
-    <row r="75" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="75" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A75" s="152">
         <v>72</v>
       </c>
@@ -9649,7 +9663,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="76" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A76" s="152">
         <v>73</v>
       </c>
@@ -9682,7 +9696,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="77" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A77" s="152">
         <v>74</v>
       </c>
@@ -9715,7 +9729,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="78" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A78" s="152">
         <v>75</v>
       </c>
@@ -9887,7 +9901,7 @@
       </c>
       <c r="Q83" s="235"/>
     </row>
-    <row r="84" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="84" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A84" s="152">
         <v>81</v>
       </c>
@@ -10005,7 +10019,7 @@
       <c r="P87" s="150"/>
       <c r="Q87" s="151"/>
     </row>
-    <row r="88" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="88" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A88" s="152">
         <v>85</v>
       </c>
@@ -10038,7 +10052,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="89" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A89" s="152">
         <v>86</v>
       </c>
@@ -10504,7 +10518,7 @@
       <c r="P104" s="150"/>
       <c r="Q104" s="151"/>
     </row>
-    <row r="105" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="105" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A105" s="152">
         <v>102</v>
       </c>
@@ -10537,7 +10551,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="106" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A106" s="152">
         <v>103</v>
       </c>
@@ -10658,35 +10672,37 @@
       </c>
     </row>
     <row r="110" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A110" s="152">
+      <c r="A110" s="120">
         <v>107</v>
       </c>
-      <c r="B110" s="217"/>
-      <c r="C110" s="203" t="s">
+      <c r="B110" s="140"/>
+      <c r="C110" s="141" t="s">
         <v>257</v>
       </c>
-      <c r="D110" s="204"/>
-      <c r="E110" s="218"/>
-      <c r="F110" s="218"/>
-      <c r="G110" s="205"/>
-      <c r="H110" s="206"/>
-      <c r="I110" s="210"/>
-      <c r="J110" s="207" t="s">
+      <c r="D110" s="142"/>
+      <c r="E110" s="143"/>
+      <c r="F110" s="143"/>
+      <c r="G110" s="144"/>
+      <c r="H110" s="145"/>
+      <c r="I110" s="149"/>
+      <c r="J110" s="146" t="s">
         <v>280</v>
       </c>
-      <c r="K110" s="208">
+      <c r="K110" s="147">
         <v>43828</v>
       </c>
-      <c r="L110" s="219" t="s">
-        <v>245</v>
-      </c>
-      <c r="M110" s="160"/>
-      <c r="N110" s="209"/>
-      <c r="O110" s="210"/>
-      <c r="P110" s="211"/>
-      <c r="Q110" s="220"/>
-    </row>
-    <row r="111" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="L110" s="189" t="s">
+        <v>289</v>
+      </c>
+      <c r="M110" s="128"/>
+      <c r="N110" s="148"/>
+      <c r="O110" s="149"/>
+      <c r="P110" s="150" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q110" s="151"/>
+    </row>
+    <row r="111" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A111" s="152">
         <v>108</v>
       </c>
@@ -10715,7 +10731,7 @@
       <c r="P111" s="211"/>
       <c r="Q111" s="220"/>
     </row>
-    <row r="112" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="112" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A112" s="152">
         <v>110</v>
       </c>
@@ -11600,9 +11616,8 @@
   <autoFilter ref="A3:Q152">
     <filterColumn colId="9">
       <filters>
-        <filter val="熊驰"/>
-        <filter val="熊驰_x000a_周述文"/>
-        <filter val="周述文"/>
+        <filter val="何福睿"/>
+        <filter val="何福睿_x000a_罗钰"/>
       </filters>
     </filterColumn>
     <filterColumn colId="10">

--- a/Docs/06 Testing/测试课题.xlsx
+++ b/Docs/06 Testing/测试课题.xlsx
@@ -2492,7 +2492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3209,6 +3209,9 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3248,7 +3251,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1142408</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>621712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3292,7 +3295,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3743</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3336,7 +3339,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1148857</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>462328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3727,7 +3730,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1226530</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3770,7 +3773,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2243</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>694765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3895,7 +3898,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1101588</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>504253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3939,7 +3942,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3479</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>595841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4135,7 +4138,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2698</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>502227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4179,7 +4182,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>520476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4301,7 +4304,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>588994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4345,7 +4348,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1133914</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>542268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4388,7 +4391,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1141239</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>621712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4432,7 +4435,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>916</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7089,7 +7092,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N58" sqref="N58"/>
+      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8978,7 +8981,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A53" s="152">
         <v>50</v>
       </c>
@@ -9046,7 +9049,7 @@
       </c>
       <c r="Q54" s="220"/>
     </row>
-    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A55" s="152">
         <v>52</v>
       </c>
@@ -9628,7 +9631,7 @@
       <c r="P74" s="150"/>
       <c r="Q74" s="151"/>
     </row>
-    <row r="75" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="75" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A75" s="152">
         <v>72</v>
       </c>
@@ -9663,7 +9666,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="76" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A76" s="152">
         <v>73</v>
       </c>
@@ -9696,7 +9699,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="77" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A77" s="152">
         <v>74</v>
       </c>
@@ -9730,35 +9733,35 @@
       </c>
     </row>
     <row r="78" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A78" s="152">
+      <c r="A78" s="120">
         <v>75</v>
       </c>
-      <c r="B78" s="217" t="s">
+      <c r="B78" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="C78" s="203" t="s">
+      <c r="C78" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="D78" s="204"/>
-      <c r="E78" s="218"/>
-      <c r="F78" s="218"/>
-      <c r="G78" s="205"/>
-      <c r="H78" s="206"/>
-      <c r="I78" s="210"/>
-      <c r="J78" s="207" t="s">
+      <c r="D78" s="142"/>
+      <c r="E78" s="143"/>
+      <c r="F78" s="143"/>
+      <c r="G78" s="144"/>
+      <c r="H78" s="145"/>
+      <c r="I78" s="149"/>
+      <c r="J78" s="146" t="s">
         <v>283</v>
       </c>
-      <c r="K78" s="208">
+      <c r="K78" s="147">
         <v>43828</v>
       </c>
-      <c r="L78" s="219" t="s">
-        <v>244</v>
-      </c>
-      <c r="M78" s="160"/>
-      <c r="N78" s="209"/>
-      <c r="O78" s="210"/>
-      <c r="P78" s="211"/>
-      <c r="Q78" s="220"/>
+      <c r="L78" s="189" t="s">
+        <v>289</v>
+      </c>
+      <c r="M78" s="128"/>
+      <c r="N78" s="148"/>
+      <c r="O78" s="149"/>
+      <c r="P78" s="150"/>
+      <c r="Q78" s="151"/>
     </row>
     <row r="79" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A79" s="168">
@@ -10053,35 +10056,35 @@
       </c>
     </row>
     <row r="89" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A89" s="152">
+      <c r="A89" s="120">
         <v>86</v>
       </c>
-      <c r="B89" s="217" t="s">
+      <c r="B89" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="C89" s="203" t="s">
+      <c r="C89" s="141" t="s">
         <v>213</v>
       </c>
-      <c r="D89" s="204"/>
-      <c r="E89" s="218"/>
-      <c r="F89" s="218"/>
-      <c r="G89" s="205"/>
-      <c r="H89" s="206"/>
-      <c r="I89" s="210"/>
-      <c r="J89" s="207" t="s">
+      <c r="D89" s="142"/>
+      <c r="E89" s="143"/>
+      <c r="F89" s="143"/>
+      <c r="G89" s="144"/>
+      <c r="H89" s="145"/>
+      <c r="I89" s="149"/>
+      <c r="J89" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="K89" s="208">
+      <c r="K89" s="147">
         <v>43828</v>
       </c>
-      <c r="L89" s="219" t="s">
-        <v>244</v>
-      </c>
-      <c r="M89" s="160"/>
-      <c r="N89" s="209"/>
-      <c r="O89" s="210"/>
-      <c r="P89" s="211"/>
-      <c r="Q89" s="220"/>
+      <c r="L89" s="189" t="s">
+        <v>289</v>
+      </c>
+      <c r="M89" s="128"/>
+      <c r="N89" s="148"/>
+      <c r="O89" s="149"/>
+      <c r="P89" s="150"/>
+      <c r="Q89" s="151"/>
     </row>
     <row r="90" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A90" s="120">
@@ -10110,7 +10113,7 @@
       <c r="P90" s="150"/>
       <c r="Q90" s="151"/>
     </row>
-    <row r="91" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="91" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A91" s="152">
         <v>88</v>
       </c>
@@ -10458,7 +10461,7 @@
       <c r="P102" s="150"/>
       <c r="Q102" s="151"/>
     </row>
-    <row r="103" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="103" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A103" s="152">
         <v>100</v>
       </c>
@@ -10519,39 +10522,39 @@
       <c r="Q104" s="151"/>
     </row>
     <row r="105" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A105" s="152">
+      <c r="A105" s="120">
         <v>102</v>
       </c>
-      <c r="B105" s="217" t="s">
+      <c r="B105" s="140" t="s">
         <v>239</v>
       </c>
-      <c r="C105" s="203" t="s">
+      <c r="C105" s="141" t="s">
         <v>235</v>
       </c>
-      <c r="D105" s="204"/>
-      <c r="E105" s="218"/>
-      <c r="F105" s="218"/>
-      <c r="G105" s="205"/>
-      <c r="H105" s="206"/>
-      <c r="I105" s="210"/>
-      <c r="J105" s="239" t="s">
+      <c r="D105" s="142"/>
+      <c r="E105" s="143"/>
+      <c r="F105" s="143"/>
+      <c r="G105" s="144"/>
+      <c r="H105" s="145"/>
+      <c r="I105" s="149"/>
+      <c r="J105" s="240" t="s">
         <v>285</v>
       </c>
-      <c r="K105" s="208">
+      <c r="K105" s="147">
         <v>43828</v>
       </c>
-      <c r="L105" s="219" t="s">
-        <v>245</v>
-      </c>
-      <c r="M105" s="160"/>
-      <c r="N105" s="209"/>
-      <c r="O105" s="210"/>
-      <c r="P105" s="211"/>
-      <c r="Q105" s="220" t="s">
+      <c r="L105" s="189" t="s">
+        <v>289</v>
+      </c>
+      <c r="M105" s="128"/>
+      <c r="N105" s="148"/>
+      <c r="O105" s="149"/>
+      <c r="P105" s="150"/>
+      <c r="Q105" s="151" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="106" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A106" s="152">
         <v>103</v>
       </c>
@@ -10582,7 +10585,7 @@
       <c r="P106" s="211"/>
       <c r="Q106" s="220"/>
     </row>
-    <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A107" s="152">
         <v>104</v>
       </c>
@@ -11614,12 +11617,6 @@
     <row r="232" ht="13.8" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A3:Q152">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="何福睿"/>
-        <filter val="何福睿_x000a_罗钰"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="10">
       <filters>
         <dateGroupItem year="2019" dateTimeGrouping="year"/>

--- a/Docs/06 Testing/测试课题.xlsx
+++ b/Docs/06 Testing/测试课题.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="295">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1315,10 +1315,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>分析表右边的remark分成两个，分别是remark1和remark2，remark1填写为数值，需前端计算，公式为ROUNDUP(remark1/0.36*6,-1)，后端只存值(当 M、X、I 有值的时做此操作)；  remark2存储原来的remark，原有remark不能输入</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>输入0加小数点不变红</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1612,10 +1608,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>处理中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>待确定</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1808,6 +1800,27 @@
   </si>
   <si>
     <t>应该是插入新行导致</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表右边的remark分成两个，分别是remark1和remark2，remark1填写为数值，需前端计算，公式为ROUNDUP(remark1/0.36*6,-1)，后端只存值(当 M、X、I 有值的时做此操作)；  remark2存储原来的remark，原有remark不能输入</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理
+待验证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量复制的话如何处理唯一键问题</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2492,7 +2505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3212,6 +3225,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7092,7 +7108,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomLeft" activeCell="O91" sqref="O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7280,7 +7296,7 @@
       <c r="N5" s="129"/>
       <c r="O5" s="120"/>
       <c r="P5" s="130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="136"/>
     </row>
@@ -7311,13 +7327,13 @@
       <c r="J6" s="172"/>
       <c r="K6" s="179"/>
       <c r="L6" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M6" s="180"/>
       <c r="N6" s="181"/>
       <c r="O6" s="172"/>
       <c r="P6" s="182" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q6" s="186" t="s">
         <v>152</v>
@@ -7350,13 +7366,13 @@
       <c r="J7" s="172"/>
       <c r="K7" s="179"/>
       <c r="L7" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M7" s="180"/>
       <c r="N7" s="181"/>
       <c r="O7" s="172"/>
       <c r="P7" s="182" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="186" t="s">
         <v>151</v>
@@ -7572,16 +7588,16 @@
         <v>43833</v>
       </c>
       <c r="L13" s="159" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M13" s="160"/>
       <c r="N13" s="161"/>
       <c r="O13" s="152"/>
       <c r="P13" s="162" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="188" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
@@ -7613,7 +7629,7 @@
         <v>43833</v>
       </c>
       <c r="L14" s="159" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M14" s="160"/>
       <c r="N14" s="161"/>
@@ -7876,13 +7892,13 @@
       <c r="J21" s="172"/>
       <c r="K21" s="179"/>
       <c r="L21" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M21" s="180"/>
       <c r="N21" s="181"/>
       <c r="O21" s="172"/>
       <c r="P21" s="182" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q21" s="183" t="s">
         <v>150</v>
@@ -7993,13 +8009,13 @@
       <c r="J24" s="172"/>
       <c r="K24" s="179"/>
       <c r="L24" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M24" s="180"/>
       <c r="N24" s="181"/>
       <c r="O24" s="172"/>
       <c r="P24" s="182" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q24" s="186" t="s">
         <v>150</v>
@@ -8032,13 +8048,13 @@
       <c r="J25" s="172"/>
       <c r="K25" s="179"/>
       <c r="L25" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M25" s="180"/>
       <c r="N25" s="181"/>
       <c r="O25" s="172"/>
       <c r="P25" s="182" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q25" s="186" t="s">
         <v>150</v>
@@ -8295,13 +8311,13 @@
       <c r="J32" s="172"/>
       <c r="K32" s="179"/>
       <c r="L32" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M32" s="180"/>
       <c r="N32" s="181"/>
       <c r="O32" s="172"/>
       <c r="P32" s="182" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q32" s="183" t="s">
         <v>150</v>
@@ -8449,7 +8465,7 @@
         <v>43833</v>
       </c>
       <c r="L36" s="159" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M36" s="160"/>
       <c r="N36" s="209"/>
@@ -8998,19 +9014,19 @@
       <c r="H53" s="206"/>
       <c r="I53" s="210"/>
       <c r="J53" s="207" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K53" s="208">
         <v>43828</v>
       </c>
       <c r="L53" s="159" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M53" s="160"/>
       <c r="N53" s="209"/>
       <c r="O53" s="210"/>
       <c r="P53" s="211" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q53" s="220" t="s">
         <v>151</v>
@@ -9033,19 +9049,19 @@
       <c r="H54" s="206"/>
       <c r="I54" s="210"/>
       <c r="J54" s="239" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K54" s="208">
         <v>43828</v>
       </c>
       <c r="L54" s="159" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M54" s="160"/>
       <c r="N54" s="209"/>
       <c r="O54" s="210"/>
       <c r="P54" s="211" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q54" s="220"/>
     </row>
@@ -9066,19 +9082,19 @@
       <c r="H55" s="206"/>
       <c r="I55" s="210"/>
       <c r="J55" s="207" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K55" s="208">
         <v>43828</v>
       </c>
       <c r="L55" s="159" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M55" s="160"/>
       <c r="N55" s="209"/>
       <c r="O55" s="210"/>
       <c r="P55" s="211" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q55" s="220" t="s">
         <v>151</v>
@@ -9089,10 +9105,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" s="141" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D56" s="142"/>
       <c r="E56" s="143"/>
@@ -9101,7 +9117,7 @@
       <c r="H56" s="145"/>
       <c r="I56" s="149"/>
       <c r="J56" s="146" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K56" s="147">
         <v>43828</v>
@@ -9120,7 +9136,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="217" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C57" s="203" t="s">
         <v>175</v>
@@ -9132,13 +9148,13 @@
       <c r="H57" s="206"/>
       <c r="I57" s="210"/>
       <c r="J57" s="207" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K57" s="208">
         <v>43828</v>
       </c>
       <c r="L57" s="159" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M57" s="160"/>
       <c r="N57" s="209"/>
@@ -9151,10 +9167,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="217" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C58" s="203" t="s">
-        <v>176</v>
+        <v>290</v>
       </c>
       <c r="D58" s="204"/>
       <c r="E58" s="218"/>
@@ -9163,13 +9179,13 @@
       <c r="H58" s="206"/>
       <c r="I58" s="210"/>
       <c r="J58" s="207" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K58" s="208">
         <v>43828</v>
       </c>
       <c r="L58" s="159" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M58" s="160"/>
       <c r="N58" s="209"/>
@@ -9182,10 +9198,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="217" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C59" s="203" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="204"/>
       <c r="E59" s="218"/>
@@ -9198,7 +9214,7 @@
         <v>43833</v>
       </c>
       <c r="L59" s="159" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M59" s="160"/>
       <c r="N59" s="209"/>
@@ -9211,10 +9227,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C60" s="141" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="142"/>
       <c r="E60" s="143"/>
@@ -9223,7 +9239,7 @@
       <c r="H60" s="145"/>
       <c r="I60" s="149"/>
       <c r="J60" s="146" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K60" s="147">
         <v>43828</v>
@@ -9235,7 +9251,7 @@
       <c r="N60" s="148"/>
       <c r="O60" s="149"/>
       <c r="P60" s="150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q60" s="151"/>
     </row>
@@ -9244,10 +9260,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C61" s="141" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="142"/>
       <c r="E61" s="143"/>
@@ -9271,10 +9287,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C62" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="142"/>
       <c r="E62" s="143"/>
@@ -9298,10 +9314,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="191" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C63" s="192" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="193"/>
       <c r="E63" s="194"/>
@@ -9316,7 +9332,7 @@
       <c r="N63" s="199"/>
       <c r="O63" s="200"/>
       <c r="P63" s="201" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q63" s="222"/>
     </row>
@@ -9325,10 +9341,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C64" s="141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="142"/>
       <c r="E64" s="143"/>
@@ -9346,7 +9362,7 @@
       <c r="O64" s="149"/>
       <c r="P64" s="150"/>
       <c r="Q64" s="151" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -9354,10 +9370,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" s="141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" s="142"/>
       <c r="E65" s="143"/>
@@ -9381,10 +9397,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C66" s="141" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="142"/>
       <c r="E66" s="143"/>
@@ -9408,10 +9424,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C67" s="141" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D67" s="142"/>
       <c r="E67" s="143"/>
@@ -9435,10 +9451,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="191" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C68" s="192" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D68" s="193"/>
       <c r="E68" s="194"/>
@@ -9453,7 +9469,7 @@
       <c r="N68" s="199"/>
       <c r="O68" s="200"/>
       <c r="P68" s="201" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q68" s="222"/>
     </row>
@@ -9462,10 +9478,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="223" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C69" s="224" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D69" s="225"/>
       <c r="E69" s="226"/>
@@ -9476,13 +9492,13 @@
       <c r="J69" s="230"/>
       <c r="K69" s="231"/>
       <c r="L69" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M69" s="180"/>
       <c r="N69" s="233"/>
       <c r="O69" s="229"/>
       <c r="P69" s="234" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q69" s="235" t="s">
         <v>151</v>
@@ -9493,10 +9509,10 @@
         <v>67</v>
       </c>
       <c r="B70" s="140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C70" s="141" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D70" s="142"/>
       <c r="E70" s="143"/>
@@ -9505,13 +9521,13 @@
       <c r="H70" s="145"/>
       <c r="I70" s="149"/>
       <c r="J70" s="146" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K70" s="147">
         <v>43828</v>
       </c>
       <c r="L70" s="189" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M70" s="128"/>
       <c r="N70" s="148"/>
@@ -9524,10 +9540,10 @@
         <v>68</v>
       </c>
       <c r="B71" s="140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C71" s="141" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D71" s="142"/>
       <c r="E71" s="143"/>
@@ -9551,10 +9567,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="223" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C72" s="224" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D72" s="225"/>
       <c r="E72" s="226"/>
@@ -9565,16 +9581,16 @@
       <c r="J72" s="230"/>
       <c r="K72" s="231"/>
       <c r="L72" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M72" s="180"/>
       <c r="N72" s="233"/>
       <c r="O72" s="229"/>
       <c r="P72" s="234" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q72" s="235" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -9582,10 +9598,10 @@
         <v>70</v>
       </c>
       <c r="B73" s="140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D73" s="142"/>
       <c r="E73" s="143"/>
@@ -9609,10 +9625,10 @@
         <v>71</v>
       </c>
       <c r="B74" s="140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C74" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D74" s="142"/>
       <c r="E74" s="143"/>
@@ -9631,104 +9647,106 @@
       <c r="P74" s="150"/>
       <c r="Q74" s="151"/>
     </row>
-    <row r="75" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A75" s="152">
+    <row r="75" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A75" s="120">
         <v>72</v>
       </c>
-      <c r="B75" s="217" t="s">
-        <v>214</v>
-      </c>
-      <c r="C75" s="203" t="s">
-        <v>196</v>
-      </c>
-      <c r="D75" s="204"/>
-      <c r="E75" s="218"/>
-      <c r="F75" s="218"/>
-      <c r="G75" s="205"/>
-      <c r="H75" s="206"/>
-      <c r="I75" s="210"/>
-      <c r="J75" s="239" t="s">
-        <v>285</v>
-      </c>
-      <c r="K75" s="208">
+      <c r="B75" s="140" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="141" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" s="142"/>
+      <c r="E75" s="143"/>
+      <c r="F75" s="143"/>
+      <c r="G75" s="144"/>
+      <c r="H75" s="145"/>
+      <c r="I75" s="149"/>
+      <c r="J75" s="240" t="s">
+        <v>283</v>
+      </c>
+      <c r="K75" s="147">
         <v>43828</v>
       </c>
-      <c r="L75" s="219" t="s">
-        <v>244</v>
-      </c>
-      <c r="M75" s="160"/>
-      <c r="N75" s="209"/>
-      <c r="O75" s="210"/>
-      <c r="P75" s="211" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q75" s="220" t="s">
+      <c r="L75" s="189" t="s">
+        <v>292</v>
+      </c>
+      <c r="M75" s="128"/>
+      <c r="N75" s="148"/>
+      <c r="O75" s="149"/>
+      <c r="P75" s="150" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q75" s="151" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A76" s="152">
+    <row r="76" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A76" s="120">
         <v>73</v>
       </c>
-      <c r="B76" s="217" t="s">
-        <v>214</v>
-      </c>
-      <c r="C76" s="203" t="s">
+      <c r="B76" s="140" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" s="141" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="142"/>
+      <c r="E76" s="143"/>
+      <c r="F76" s="143"/>
+      <c r="G76" s="144"/>
+      <c r="H76" s="145"/>
+      <c r="I76" s="149"/>
+      <c r="J76" s="240" t="s">
+        <v>283</v>
+      </c>
+      <c r="K76" s="147">
+        <v>43828</v>
+      </c>
+      <c r="L76" s="189" t="s">
+        <v>292</v>
+      </c>
+      <c r="M76" s="128"/>
+      <c r="N76" s="148"/>
+      <c r="O76" s="149"/>
+      <c r="P76" s="150"/>
+      <c r="Q76" s="151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A77" s="172">
+        <v>74</v>
+      </c>
+      <c r="B77" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" s="224" t="s">
         <v>198</v>
       </c>
-      <c r="D76" s="204"/>
-      <c r="E76" s="218"/>
-      <c r="F76" s="218"/>
-      <c r="G76" s="205"/>
-      <c r="H76" s="206"/>
-      <c r="I76" s="210"/>
-      <c r="J76" s="239" t="s">
-        <v>285</v>
-      </c>
-      <c r="K76" s="208">
+      <c r="D77" s="225"/>
+      <c r="E77" s="226"/>
+      <c r="F77" s="226"/>
+      <c r="G77" s="227"/>
+      <c r="H77" s="228"/>
+      <c r="I77" s="229"/>
+      <c r="J77" s="241" t="s">
+        <v>283</v>
+      </c>
+      <c r="K77" s="231">
         <v>43828</v>
       </c>
-      <c r="L76" s="219" t="s">
-        <v>244</v>
-      </c>
-      <c r="M76" s="160"/>
-      <c r="N76" s="209"/>
-      <c r="O76" s="210"/>
-      <c r="P76" s="211"/>
-      <c r="Q76" s="220" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A77" s="152">
-        <v>74</v>
-      </c>
-      <c r="B77" s="217" t="s">
-        <v>216</v>
-      </c>
-      <c r="C77" s="203" t="s">
-        <v>199</v>
-      </c>
-      <c r="D77" s="204"/>
-      <c r="E77" s="218"/>
-      <c r="F77" s="218"/>
-      <c r="G77" s="205"/>
-      <c r="H77" s="206"/>
-      <c r="I77" s="210"/>
-      <c r="J77" s="239" t="s">
-        <v>285</v>
-      </c>
-      <c r="K77" s="208">
-        <v>43828</v>
-      </c>
-      <c r="L77" s="219" t="s">
-        <v>244</v>
-      </c>
-      <c r="M77" s="160"/>
-      <c r="N77" s="209"/>
-      <c r="O77" s="210"/>
-      <c r="P77" s="211"/>
-      <c r="Q77" s="220" t="s">
+      <c r="L77" s="232" t="s">
+        <v>293</v>
+      </c>
+      <c r="M77" s="180"/>
+      <c r="N77" s="233"/>
+      <c r="O77" s="229"/>
+      <c r="P77" s="234" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q77" s="235" t="s">
         <v>151</v>
       </c>
     </row>
@@ -9737,10 +9755,10 @@
         <v>75</v>
       </c>
       <c r="B78" s="140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C78" s="141" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D78" s="142"/>
       <c r="E78" s="143"/>
@@ -9749,13 +9767,13 @@
       <c r="H78" s="145"/>
       <c r="I78" s="149"/>
       <c r="J78" s="146" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K78" s="147">
         <v>43828</v>
       </c>
       <c r="L78" s="189" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M78" s="128"/>
       <c r="N78" s="148"/>
@@ -9768,10 +9786,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="191" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C79" s="192" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D79" s="193"/>
       <c r="E79" s="194"/>
@@ -9786,7 +9804,7 @@
       <c r="N79" s="199"/>
       <c r="O79" s="200"/>
       <c r="P79" s="201" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q79" s="222"/>
     </row>
@@ -9795,10 +9813,10 @@
         <v>77</v>
       </c>
       <c r="B80" s="191" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C80" s="192" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D80" s="193"/>
       <c r="E80" s="194"/>
@@ -9813,7 +9831,7 @@
       <c r="N80" s="199"/>
       <c r="O80" s="200"/>
       <c r="P80" s="201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q80" s="222"/>
     </row>
@@ -9822,10 +9840,10 @@
         <v>78</v>
       </c>
       <c r="B81" s="140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C81" s="141" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D81" s="142"/>
       <c r="E81" s="143"/>
@@ -9849,10 +9867,10 @@
         <v>79</v>
       </c>
       <c r="B82" s="223" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C82" s="224" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D82" s="225"/>
       <c r="E82" s="226"/>
@@ -9863,13 +9881,13 @@
       <c r="J82" s="230"/>
       <c r="K82" s="231"/>
       <c r="L82" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M82" s="180"/>
       <c r="N82" s="233"/>
       <c r="O82" s="229"/>
       <c r="P82" s="234" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q82" s="235" t="s">
         <v>152</v>
@@ -9880,10 +9898,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="223" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C83" s="224" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D83" s="225"/>
       <c r="E83" s="226"/>
@@ -9894,13 +9912,13 @@
       <c r="J83" s="230"/>
       <c r="K83" s="231"/>
       <c r="L83" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M83" s="180"/>
       <c r="N83" s="233"/>
       <c r="O83" s="229"/>
       <c r="P83" s="234" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q83" s="235"/>
     </row>
@@ -9909,10 +9927,10 @@
         <v>81</v>
       </c>
       <c r="B84" s="217" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C84" s="203" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D84" s="204"/>
       <c r="E84" s="218"/>
@@ -9921,13 +9939,13 @@
       <c r="H84" s="206"/>
       <c r="I84" s="210"/>
       <c r="J84" s="207" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K84" s="208">
         <v>43828</v>
       </c>
       <c r="L84" s="219" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M84" s="160"/>
       <c r="N84" s="209"/>
@@ -9940,10 +9958,10 @@
         <v>82</v>
       </c>
       <c r="B85" s="223" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C85" s="224" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D85" s="225"/>
       <c r="E85" s="226"/>
@@ -9954,13 +9972,13 @@
       <c r="J85" s="230"/>
       <c r="K85" s="231"/>
       <c r="L85" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M85" s="180"/>
       <c r="N85" s="233"/>
       <c r="O85" s="229"/>
       <c r="P85" s="234" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q85" s="235" t="s">
         <v>151</v>
@@ -9971,10 +9989,10 @@
         <v>83</v>
       </c>
       <c r="B86" s="217" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C86" s="203" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D86" s="204"/>
       <c r="E86" s="218"/>
@@ -9987,7 +10005,7 @@
         <v>43833</v>
       </c>
       <c r="L86" s="219" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M86" s="160"/>
       <c r="N86" s="209"/>
@@ -10000,10 +10018,10 @@
         <v>84</v>
       </c>
       <c r="B87" s="140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C87" s="141" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D87" s="142"/>
       <c r="E87" s="143"/>
@@ -10027,10 +10045,10 @@
         <v>85</v>
       </c>
       <c r="B88" s="217" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C88" s="203" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D88" s="204"/>
       <c r="E88" s="218"/>
@@ -10039,13 +10057,13 @@
       <c r="H88" s="206"/>
       <c r="I88" s="210"/>
       <c r="J88" s="207" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K88" s="208">
         <v>43828</v>
       </c>
       <c r="L88" s="219" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M88" s="160"/>
       <c r="N88" s="209"/>
@@ -10060,10 +10078,10 @@
         <v>86</v>
       </c>
       <c r="B89" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C89" s="141" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D89" s="142"/>
       <c r="E89" s="143"/>
@@ -10072,13 +10090,13 @@
       <c r="H89" s="145"/>
       <c r="I89" s="149"/>
       <c r="J89" s="146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K89" s="147">
         <v>43828</v>
       </c>
       <c r="L89" s="189" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M89" s="128"/>
       <c r="N89" s="148"/>
@@ -10091,10 +10109,10 @@
         <v>87</v>
       </c>
       <c r="B90" s="140" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C90" s="141" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D90" s="142"/>
       <c r="E90" s="143"/>
@@ -10118,10 +10136,10 @@
         <v>88</v>
       </c>
       <c r="B91" s="217" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C91" s="203" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D91" s="204"/>
       <c r="E91" s="218"/>
@@ -10130,13 +10148,13 @@
       <c r="H91" s="206"/>
       <c r="I91" s="210"/>
       <c r="J91" s="207" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K91" s="208">
         <v>43828</v>
       </c>
       <c r="L91" s="219" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M91" s="160"/>
       <c r="N91" s="209"/>
@@ -10149,10 +10167,10 @@
         <v>89</v>
       </c>
       <c r="B92" s="191" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C92" s="192" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D92" s="193"/>
       <c r="E92" s="194"/>
@@ -10167,7 +10185,7 @@
       <c r="N92" s="199"/>
       <c r="O92" s="200"/>
       <c r="P92" s="201" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q92" s="222"/>
     </row>
@@ -10176,10 +10194,10 @@
         <v>90</v>
       </c>
       <c r="B93" s="223" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C93" s="224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D93" s="225"/>
       <c r="E93" s="226"/>
@@ -10190,13 +10208,13 @@
       <c r="J93" s="230"/>
       <c r="K93" s="231"/>
       <c r="L93" s="232" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M93" s="180"/>
       <c r="N93" s="233"/>
       <c r="O93" s="229"/>
       <c r="P93" s="234" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q93" s="235" t="s">
         <v>151</v>
@@ -10207,10 +10225,10 @@
         <v>91</v>
       </c>
       <c r="B94" s="191" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="192" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D94" s="193"/>
       <c r="E94" s="194"/>
@@ -10225,7 +10243,7 @@
       <c r="N94" s="199"/>
       <c r="O94" s="200"/>
       <c r="P94" s="201" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q94" s="222"/>
     </row>
@@ -10234,10 +10252,10 @@
         <v>92</v>
       </c>
       <c r="B95" s="223" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C95" s="224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D95" s="225"/>
       <c r="E95" s="226"/>
@@ -10248,13 +10266,13 @@
       <c r="J95" s="230"/>
       <c r="K95" s="231"/>
       <c r="L95" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M95" s="180"/>
       <c r="N95" s="233"/>
       <c r="O95" s="229"/>
       <c r="P95" s="234" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q95" s="235" t="s">
         <v>151</v>
@@ -10265,10 +10283,10 @@
         <v>93</v>
       </c>
       <c r="B96" s="140" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C96" s="141" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D96" s="142"/>
       <c r="E96" s="143"/>
@@ -10292,10 +10310,10 @@
         <v>94</v>
       </c>
       <c r="B97" s="223" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C97" s="224" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D97" s="225"/>
       <c r="E97" s="226"/>
@@ -10306,13 +10324,13 @@
       <c r="J97" s="230"/>
       <c r="K97" s="231"/>
       <c r="L97" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M97" s="180"/>
       <c r="N97" s="233"/>
       <c r="O97" s="229"/>
       <c r="P97" s="234" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q97" s="235"/>
     </row>
@@ -10321,10 +10339,10 @@
         <v>95</v>
       </c>
       <c r="B98" s="223" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C98" s="224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D98" s="225"/>
       <c r="E98" s="226"/>
@@ -10335,13 +10353,13 @@
       <c r="J98" s="230"/>
       <c r="K98" s="231"/>
       <c r="L98" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M98" s="180"/>
       <c r="N98" s="233"/>
       <c r="O98" s="229"/>
       <c r="P98" s="234" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q98" s="235"/>
     </row>
@@ -10350,10 +10368,10 @@
         <v>96</v>
       </c>
       <c r="B99" s="223" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C99" s="224" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D99" s="225"/>
       <c r="E99" s="226"/>
@@ -10364,13 +10382,13 @@
       <c r="J99" s="230"/>
       <c r="K99" s="231"/>
       <c r="L99" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M99" s="180"/>
       <c r="N99" s="233"/>
       <c r="O99" s="229"/>
       <c r="P99" s="234" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q99" s="235" t="s">
         <v>150</v>
@@ -10381,10 +10399,10 @@
         <v>97</v>
       </c>
       <c r="B100" s="223" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C100" s="224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D100" s="225"/>
       <c r="E100" s="226"/>
@@ -10395,13 +10413,13 @@
       <c r="J100" s="230"/>
       <c r="K100" s="231"/>
       <c r="L100" s="232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M100" s="180"/>
       <c r="N100" s="233"/>
       <c r="O100" s="229"/>
       <c r="P100" s="234" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q100" s="235" t="s">
         <v>152</v>
@@ -10412,10 +10430,10 @@
         <v>98</v>
       </c>
       <c r="B101" s="140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C101" s="141" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D101" s="142"/>
       <c r="E101" s="143"/>
@@ -10439,10 +10457,10 @@
         <v>99</v>
       </c>
       <c r="B102" s="140" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C102" s="141" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D102" s="142"/>
       <c r="E102" s="143"/>
@@ -10461,48 +10479,48 @@
       <c r="P102" s="150"/>
       <c r="Q102" s="151"/>
     </row>
-    <row r="103" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A103" s="152">
+    <row r="103" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A103" s="120">
         <v>100</v>
       </c>
-      <c r="B103" s="217" t="s">
-        <v>239</v>
-      </c>
-      <c r="C103" s="203" t="s">
+      <c r="B103" s="140" t="s">
         <v>238</v>
       </c>
-      <c r="D103" s="204"/>
-      <c r="E103" s="218"/>
-      <c r="F103" s="218"/>
-      <c r="G103" s="205"/>
-      <c r="H103" s="206"/>
-      <c r="I103" s="210"/>
-      <c r="J103" s="207" t="s">
-        <v>282</v>
-      </c>
-      <c r="K103" s="208">
+      <c r="C103" s="141" t="s">
+        <v>237</v>
+      </c>
+      <c r="D103" s="142"/>
+      <c r="E103" s="143"/>
+      <c r="F103" s="143"/>
+      <c r="G103" s="144"/>
+      <c r="H103" s="145"/>
+      <c r="I103" s="149"/>
+      <c r="J103" s="146" t="s">
+        <v>280</v>
+      </c>
+      <c r="K103" s="147">
         <v>43828</v>
       </c>
-      <c r="L103" s="219" t="s">
-        <v>247</v>
-      </c>
-      <c r="M103" s="160"/>
-      <c r="N103" s="209"/>
-      <c r="O103" s="210"/>
-      <c r="P103" s="211" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q103" s="220"/>
+      <c r="L103" s="189" t="s">
+        <v>287</v>
+      </c>
+      <c r="M103" s="128"/>
+      <c r="N103" s="148"/>
+      <c r="O103" s="149"/>
+      <c r="P103" s="150" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q103" s="151"/>
     </row>
     <row r="104" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A104" s="120">
         <v>101</v>
       </c>
       <c r="B104" s="140" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C104" s="141" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D104" s="142"/>
       <c r="E104" s="143"/>
@@ -10526,10 +10544,10 @@
         <v>102</v>
       </c>
       <c r="B105" s="140" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C105" s="141" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D105" s="142"/>
       <c r="E105" s="143"/>
@@ -10538,13 +10556,13 @@
       <c r="H105" s="145"/>
       <c r="I105" s="149"/>
       <c r="J105" s="240" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K105" s="147">
         <v>43828</v>
       </c>
       <c r="L105" s="189" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M105" s="128"/>
       <c r="N105" s="148"/>
@@ -10554,46 +10572,46 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A106" s="152">
+    <row r="106" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A106" s="120">
         <v>103</v>
       </c>
-      <c r="B106" s="217" t="s">
-        <v>242</v>
-      </c>
-      <c r="C106" s="203" t="s">
-        <v>236</v>
-      </c>
-      <c r="D106" s="204"/>
-      <c r="E106" s="218"/>
-      <c r="F106" s="218"/>
-      <c r="G106" s="205"/>
-      <c r="H106" s="206"/>
-      <c r="I106" s="210"/>
-      <c r="J106" s="239" t="s">
-        <v>285</v>
-      </c>
-      <c r="K106" s="208">
+      <c r="B106" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="D106" s="142"/>
+      <c r="E106" s="143"/>
+      <c r="F106" s="143"/>
+      <c r="G106" s="144"/>
+      <c r="H106" s="145"/>
+      <c r="I106" s="149"/>
+      <c r="J106" s="240" t="s">
+        <v>283</v>
+      </c>
+      <c r="K106" s="147">
         <v>43828</v>
       </c>
-      <c r="L106" s="219" t="s">
-        <v>245</v>
-      </c>
-      <c r="M106" s="160"/>
-      <c r="N106" s="209"/>
-      <c r="O106" s="210"/>
-      <c r="P106" s="211"/>
-      <c r="Q106" s="220"/>
+      <c r="L106" s="189" t="s">
+        <v>291</v>
+      </c>
+      <c r="M106" s="128"/>
+      <c r="N106" s="148"/>
+      <c r="O106" s="149"/>
+      <c r="P106" s="150"/>
+      <c r="Q106" s="151"/>
     </row>
     <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A107" s="152">
         <v>104</v>
       </c>
       <c r="B107" s="217" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C107" s="203" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D107" s="204"/>
       <c r="E107" s="218"/>
@@ -10602,13 +10620,13 @@
       <c r="H107" s="206"/>
       <c r="I107" s="210"/>
       <c r="J107" s="207" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K107" s="208">
         <v>43828</v>
       </c>
       <c r="L107" s="219" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M107" s="160"/>
       <c r="N107" s="209"/>
@@ -10621,10 +10639,10 @@
         <v>105</v>
       </c>
       <c r="B108" s="140" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C108" s="141" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D108" s="142"/>
       <c r="E108" s="143"/>
@@ -10651,7 +10669,7 @@
       </c>
       <c r="B109" s="223"/>
       <c r="C109" s="224" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D109" s="225"/>
       <c r="E109" s="226"/>
@@ -10662,16 +10680,16 @@
       <c r="J109" s="230"/>
       <c r="K109" s="231"/>
       <c r="L109" s="232" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M109" s="180"/>
       <c r="N109" s="233"/>
       <c r="O109" s="229"/>
       <c r="P109" s="234" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q109" s="235" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -10680,7 +10698,7 @@
       </c>
       <c r="B110" s="140"/>
       <c r="C110" s="141" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D110" s="142"/>
       <c r="E110" s="143"/>
@@ -10689,19 +10707,19 @@
       <c r="H110" s="145"/>
       <c r="I110" s="149"/>
       <c r="J110" s="146" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K110" s="147">
         <v>43828</v>
       </c>
       <c r="L110" s="189" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M110" s="128"/>
       <c r="N110" s="148"/>
       <c r="O110" s="149"/>
       <c r="P110" s="150" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q110" s="151"/>
     </row>
@@ -10711,7 +10729,7 @@
       </c>
       <c r="B111" s="217"/>
       <c r="C111" s="203" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D111" s="204"/>
       <c r="E111" s="218"/>
@@ -10720,13 +10738,13 @@
       <c r="H111" s="206"/>
       <c r="I111" s="210"/>
       <c r="J111" s="239" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K111" s="208">
         <v>43828</v>
       </c>
       <c r="L111" s="219" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M111" s="160"/>
       <c r="N111" s="209"/>
@@ -10740,7 +10758,7 @@
       </c>
       <c r="B112" s="217"/>
       <c r="C112" s="203" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D112" s="204"/>
       <c r="E112" s="218"/>
@@ -10749,20 +10767,20 @@
       <c r="H112" s="206"/>
       <c r="I112" s="210"/>
       <c r="J112" s="207" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K112" s="208">
         <v>43828</v>
       </c>
       <c r="L112" s="219" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M112" s="160"/>
       <c r="N112" s="209"/>
       <c r="O112" s="210"/>
       <c r="P112" s="211"/>
       <c r="Q112" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -10771,7 +10789,7 @@
       </c>
       <c r="B113" s="191"/>
       <c r="C113" s="192" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D113" s="193"/>
       <c r="E113" s="194"/>
@@ -10786,7 +10804,7 @@
       <c r="N113" s="199"/>
       <c r="O113" s="200"/>
       <c r="P113" s="201" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q113" s="222"/>
     </row>
@@ -10796,7 +10814,7 @@
       </c>
       <c r="B114" s="223"/>
       <c r="C114" s="224" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D114" s="225"/>
       <c r="E114" s="226"/>
@@ -10807,13 +10825,13 @@
       <c r="J114" s="230"/>
       <c r="K114" s="231"/>
       <c r="L114" s="232" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M114" s="180"/>
       <c r="N114" s="233"/>
       <c r="O114" s="229"/>
       <c r="P114" s="234" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q114" s="235"/>
     </row>
@@ -10823,7 +10841,7 @@
       </c>
       <c r="B115" s="140"/>
       <c r="C115" s="141" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D115" s="142"/>
       <c r="E115" s="143"/>
@@ -10834,13 +10852,13 @@
       <c r="J115" s="146"/>
       <c r="K115" s="147"/>
       <c r="L115" s="189" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M115" s="128"/>
       <c r="N115" s="148"/>
       <c r="O115" s="149"/>
       <c r="P115" s="150" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q115" s="151"/>
     </row>
@@ -10850,7 +10868,7 @@
       </c>
       <c r="B116" s="223"/>
       <c r="C116" s="224" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D116" s="225"/>
       <c r="E116" s="226"/>
@@ -10861,16 +10879,16 @@
       <c r="J116" s="230"/>
       <c r="K116" s="231"/>
       <c r="L116" s="232" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M116" s="180"/>
       <c r="N116" s="233"/>
       <c r="O116" s="229"/>
       <c r="P116" s="234" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q116" s="235" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">

--- a/Docs/06 Testing/测试课题.xlsx
+++ b/Docs/06 Testing/测试课题.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="296">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1821,6 +1821,11 @@
   </si>
   <si>
     <t>批量复制的话如何处理唯一键问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何福睿
+周述文</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3267,7 +3272,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1142408</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>621712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3311,7 +3316,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3743</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3355,7 +3360,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1148857</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>462328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3746,7 +3751,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1226530</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3789,7 +3794,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2243</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>694765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3914,7 +3919,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1101588</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>504253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3958,7 +3963,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3479</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>595841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4154,7 +4159,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2698</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>502227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4198,7 +4203,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>520476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4320,7 +4325,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>588994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4364,7 +4369,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1133914</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>542268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4407,7 +4412,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1141239</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>621712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4451,7 +4456,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>916</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7108,7 +7113,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O91" sqref="O91"/>
+      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8997,7 +9002,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A53" s="152">
         <v>50</v>
       </c>
@@ -9065,7 +9070,7 @@
       </c>
       <c r="Q54" s="220"/>
     </row>
-    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A55" s="152">
         <v>52</v>
       </c>
@@ -9178,8 +9183,8 @@
       <c r="G58" s="205"/>
       <c r="H58" s="206"/>
       <c r="I58" s="210"/>
-      <c r="J58" s="207" t="s">
-        <v>278</v>
+      <c r="J58" s="239" t="s">
+        <v>295</v>
       </c>
       <c r="K58" s="208">
         <v>43828</v>
@@ -10131,7 +10136,7 @@
       <c r="P90" s="150"/>
       <c r="Q90" s="151"/>
     </row>
-    <row r="91" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="91" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A91" s="152">
         <v>88</v>
       </c>
@@ -10603,7 +10608,7 @@
       <c r="P106" s="150"/>
       <c r="Q106" s="151"/>
     </row>
-    <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A107" s="152">
         <v>104</v>
       </c>
@@ -10752,34 +10757,34 @@
       <c r="P111" s="211"/>
       <c r="Q111" s="220"/>
     </row>
-    <row r="112" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A112" s="152">
+    <row r="112" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A112" s="120">
         <v>110</v>
       </c>
-      <c r="B112" s="217"/>
-      <c r="C112" s="203" t="s">
+      <c r="B112" s="140"/>
+      <c r="C112" s="141" t="s">
         <v>257</v>
       </c>
-      <c r="D112" s="204"/>
-      <c r="E112" s="218"/>
-      <c r="F112" s="218"/>
-      <c r="G112" s="205"/>
-      <c r="H112" s="206"/>
-      <c r="I112" s="210"/>
-      <c r="J112" s="207" t="s">
+      <c r="D112" s="142"/>
+      <c r="E112" s="143"/>
+      <c r="F112" s="143"/>
+      <c r="G112" s="144"/>
+      <c r="H112" s="145"/>
+      <c r="I112" s="149"/>
+      <c r="J112" s="146" t="s">
         <v>278</v>
       </c>
-      <c r="K112" s="208">
+      <c r="K112" s="147">
         <v>43828</v>
       </c>
-      <c r="L112" s="219" t="s">
-        <v>244</v>
-      </c>
-      <c r="M112" s="160"/>
-      <c r="N112" s="209"/>
-      <c r="O112" s="210"/>
-      <c r="P112" s="211"/>
-      <c r="Q112" s="220" t="s">
+      <c r="L112" s="189" t="s">
+        <v>287</v>
+      </c>
+      <c r="M112" s="128"/>
+      <c r="N112" s="148"/>
+      <c r="O112" s="149"/>
+      <c r="P112" s="150"/>
+      <c r="Q112" s="151" t="s">
         <v>268</v>
       </c>
     </row>
@@ -11635,9 +11640,10 @@
     <row r="232" ht="13.8" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A3:Q152">
-    <filterColumn colId="10">
+    <filterColumn colId="9">
       <filters>
-        <dateGroupItem year="2019" dateTimeGrouping="year"/>
+        <filter val="何福睿"/>
+        <filter val="何福睿_x000a_罗钰"/>
       </filters>
     </filterColumn>
     <filterColumn colId="11">

--- a/Docs/06 Testing/测试课题.xlsx
+++ b/Docs/06 Testing/测试课题.xlsx
@@ -7113,7 +7113,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
+      <selection pane="bottomLeft" activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9136,67 +9136,67 @@
       <c r="P56" s="150"/>
       <c r="Q56" s="151"/>
     </row>
-    <row r="57" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A57" s="152">
+    <row r="57" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A57" s="120">
         <v>54</v>
       </c>
-      <c r="B57" s="217" t="s">
+      <c r="B57" s="140" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="203" t="s">
+      <c r="C57" s="141" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="204"/>
-      <c r="E57" s="218"/>
-      <c r="F57" s="218"/>
-      <c r="G57" s="205"/>
-      <c r="H57" s="206"/>
-      <c r="I57" s="210"/>
-      <c r="J57" s="207" t="s">
+      <c r="D57" s="142"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="143"/>
+      <c r="G57" s="144"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="149"/>
+      <c r="J57" s="146" t="s">
         <v>278</v>
       </c>
-      <c r="K57" s="208">
+      <c r="K57" s="147">
         <v>43828</v>
       </c>
-      <c r="L57" s="159" t="s">
-        <v>243</v>
-      </c>
-      <c r="M57" s="160"/>
-      <c r="N57" s="209"/>
-      <c r="O57" s="210"/>
-      <c r="P57" s="211"/>
-      <c r="Q57" s="220"/>
-    </row>
-    <row r="58" spans="1:17" s="17" customFormat="1" ht="100.8">
-      <c r="A58" s="152">
+      <c r="L57" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M57" s="128"/>
+      <c r="N57" s="148"/>
+      <c r="O57" s="149"/>
+      <c r="P57" s="150"/>
+      <c r="Q57" s="151"/>
+    </row>
+    <row r="58" spans="1:17" s="17" customFormat="1" ht="100.8" hidden="1">
+      <c r="A58" s="120">
         <v>55</v>
       </c>
-      <c r="B58" s="217" t="s">
+      <c r="B58" s="140" t="s">
         <v>213</v>
       </c>
-      <c r="C58" s="203" t="s">
+      <c r="C58" s="141" t="s">
         <v>290</v>
       </c>
-      <c r="D58" s="204"/>
-      <c r="E58" s="218"/>
-      <c r="F58" s="218"/>
-      <c r="G58" s="205"/>
-      <c r="H58" s="206"/>
-      <c r="I58" s="210"/>
-      <c r="J58" s="239" t="s">
+      <c r="D58" s="142"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
+      <c r="G58" s="144"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="149"/>
+      <c r="J58" s="240" t="s">
         <v>295</v>
       </c>
-      <c r="K58" s="208">
+      <c r="K58" s="147">
         <v>43828</v>
       </c>
-      <c r="L58" s="159" t="s">
-        <v>243</v>
-      </c>
-      <c r="M58" s="160"/>
-      <c r="N58" s="209"/>
-      <c r="O58" s="210"/>
-      <c r="P58" s="211"/>
-      <c r="Q58" s="220"/>
+      <c r="L58" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M58" s="128"/>
+      <c r="N58" s="148"/>
+      <c r="O58" s="149"/>
+      <c r="P58" s="150"/>
+      <c r="Q58" s="151"/>
     </row>
     <row r="59" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A59" s="152">
@@ -9927,36 +9927,36 @@
       </c>
       <c r="Q83" s="235"/>
     </row>
-    <row r="84" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A84" s="152">
+    <row r="84" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A84" s="120">
         <v>81</v>
       </c>
-      <c r="B84" s="217" t="s">
+      <c r="B84" s="140" t="s">
         <v>213</v>
       </c>
-      <c r="C84" s="203" t="s">
+      <c r="C84" s="141" t="s">
         <v>207</v>
       </c>
-      <c r="D84" s="204"/>
-      <c r="E84" s="218"/>
-      <c r="F84" s="218"/>
-      <c r="G84" s="205"/>
-      <c r="H84" s="206"/>
-      <c r="I84" s="210"/>
-      <c r="J84" s="207" t="s">
+      <c r="D84" s="142"/>
+      <c r="E84" s="143"/>
+      <c r="F84" s="143"/>
+      <c r="G84" s="144"/>
+      <c r="H84" s="145"/>
+      <c r="I84" s="149"/>
+      <c r="J84" s="146" t="s">
         <v>278</v>
       </c>
-      <c r="K84" s="208">
+      <c r="K84" s="147">
         <v>43828</v>
       </c>
-      <c r="L84" s="219" t="s">
-        <v>243</v>
-      </c>
-      <c r="M84" s="160"/>
-      <c r="N84" s="209"/>
-      <c r="O84" s="210"/>
-      <c r="P84" s="211"/>
-      <c r="Q84" s="220"/>
+      <c r="L84" s="189" t="s">
+        <v>292</v>
+      </c>
+      <c r="M84" s="128"/>
+      <c r="N84" s="148"/>
+      <c r="O84" s="149"/>
+      <c r="P84" s="150"/>
+      <c r="Q84" s="151"/>
     </row>
     <row r="85" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A85" s="172">

--- a/Docs/06 Testing/测试课题.xlsx
+++ b/Docs/06 Testing/测试课题.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="295">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1768,11 +1768,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>导入未完成
-按部门区分未完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>熊驰
 周述文</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1783,10 +1778,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>复制粘贴未完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>按部门区分未完成</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1826,6 +1817,10 @@
   <si>
     <t>何福睿
 周述文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>按部门区分未完成</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3272,7 +3267,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1142408</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>621712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3316,7 +3311,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3743</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3360,7 +3355,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1148857</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>462328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3751,7 +3746,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1226530</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3794,7 +3789,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2243</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>694765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3919,7 +3914,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1101588</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>504253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3963,7 +3958,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3479</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>595841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4159,7 +4154,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2698</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>502227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4203,7 +4198,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>520476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4325,7 +4320,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>588994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4369,7 +4364,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1133914</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>542268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4412,7 +4407,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1141239</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>621712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4456,7 +4451,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>916</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7113,7 +7108,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N88" sqref="N88"/>
+      <selection pane="bottomLeft" activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9002,7 +8997,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A53" s="152">
         <v>50</v>
       </c>
@@ -9031,46 +9026,44 @@
       <c r="N53" s="209"/>
       <c r="O53" s="210"/>
       <c r="P53" s="211" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="Q53" s="220" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="17" customFormat="1" ht="75.599999999999994" customHeight="1">
-      <c r="A54" s="152">
+    <row r="54" spans="1:17" s="17" customFormat="1" ht="75.599999999999994" hidden="1" customHeight="1">
+      <c r="A54" s="120">
         <v>51</v>
       </c>
-      <c r="B54" s="217" t="s">
+      <c r="B54" s="140" t="s">
         <v>172</v>
       </c>
-      <c r="C54" s="203" t="s">
+      <c r="C54" s="141" t="s">
         <v>170</v>
       </c>
-      <c r="D54" s="204"/>
-      <c r="E54" s="218"/>
-      <c r="F54" s="218"/>
-      <c r="G54" s="205"/>
-      <c r="H54" s="206"/>
-      <c r="I54" s="210"/>
-      <c r="J54" s="239" t="s">
+      <c r="D54" s="142"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="144"/>
+      <c r="H54" s="145"/>
+      <c r="I54" s="149"/>
+      <c r="J54" s="240" t="s">
         <v>278</v>
       </c>
-      <c r="K54" s="208">
+      <c r="K54" s="147">
         <v>43828</v>
       </c>
-      <c r="L54" s="159" t="s">
-        <v>243</v>
-      </c>
-      <c r="M54" s="160"/>
-      <c r="N54" s="209"/>
-      <c r="O54" s="210"/>
-      <c r="P54" s="211" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q54" s="220"/>
-    </row>
-    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="L54" s="127" t="s">
+        <v>290</v>
+      </c>
+      <c r="M54" s="128"/>
+      <c r="N54" s="148"/>
+      <c r="O54" s="149"/>
+      <c r="P54" s="150"/>
+      <c r="Q54" s="151"/>
+    </row>
+    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A55" s="152">
         <v>52</v>
       </c>
@@ -9099,7 +9092,7 @@
       <c r="N55" s="209"/>
       <c r="O55" s="210"/>
       <c r="P55" s="211" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q55" s="220" t="s">
         <v>151</v>
@@ -9175,7 +9168,7 @@
         <v>213</v>
       </c>
       <c r="C58" s="141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D58" s="142"/>
       <c r="E58" s="143"/>
@@ -9184,7 +9177,7 @@
       <c r="H58" s="145"/>
       <c r="I58" s="149"/>
       <c r="J58" s="240" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K58" s="147">
         <v>43828</v>
@@ -9256,7 +9249,7 @@
       <c r="N60" s="148"/>
       <c r="O60" s="149"/>
       <c r="P60" s="150" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q60" s="151"/>
     </row>
@@ -9532,7 +9525,7 @@
         <v>43828</v>
       </c>
       <c r="L70" s="189" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M70" s="128"/>
       <c r="N70" s="148"/>
@@ -9669,13 +9662,13 @@
       <c r="H75" s="145"/>
       <c r="I75" s="149"/>
       <c r="J75" s="240" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K75" s="147">
         <v>43828</v>
       </c>
       <c r="L75" s="189" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M75" s="128"/>
       <c r="N75" s="148"/>
@@ -9704,13 +9697,13 @@
       <c r="H76" s="145"/>
       <c r="I76" s="149"/>
       <c r="J76" s="240" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K76" s="147">
         <v>43828</v>
       </c>
       <c r="L76" s="189" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M76" s="128"/>
       <c r="N76" s="148"/>
@@ -9737,19 +9730,19 @@
       <c r="H77" s="228"/>
       <c r="I77" s="229"/>
       <c r="J77" s="241" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K77" s="231">
         <v>43828</v>
       </c>
       <c r="L77" s="232" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M77" s="180"/>
       <c r="N77" s="233"/>
       <c r="O77" s="229"/>
       <c r="P77" s="234" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q77" s="235" t="s">
         <v>151</v>
@@ -9778,7 +9771,7 @@
         <v>43828</v>
       </c>
       <c r="L78" s="189" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M78" s="128"/>
       <c r="N78" s="148"/>
@@ -9950,7 +9943,7 @@
         <v>43828</v>
       </c>
       <c r="L84" s="189" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M84" s="128"/>
       <c r="N84" s="148"/>
@@ -10101,7 +10094,7 @@
         <v>43828</v>
       </c>
       <c r="L89" s="189" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M89" s="128"/>
       <c r="N89" s="148"/>
@@ -10136,7 +10129,7 @@
       <c r="P90" s="150"/>
       <c r="Q90" s="151"/>
     </row>
-    <row r="91" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="91" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A91" s="152">
         <v>88</v>
       </c>
@@ -10507,7 +10500,7 @@
         <v>43828</v>
       </c>
       <c r="L103" s="189" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M103" s="128"/>
       <c r="N103" s="148"/>
@@ -10561,13 +10554,13 @@
       <c r="H105" s="145"/>
       <c r="I105" s="149"/>
       <c r="J105" s="240" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K105" s="147">
         <v>43828</v>
       </c>
       <c r="L105" s="189" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M105" s="128"/>
       <c r="N105" s="148"/>
@@ -10594,13 +10587,13 @@
       <c r="H106" s="145"/>
       <c r="I106" s="149"/>
       <c r="J106" s="240" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K106" s="147">
         <v>43828</v>
       </c>
       <c r="L106" s="189" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M106" s="128"/>
       <c r="N106" s="148"/>
@@ -10608,7 +10601,7 @@
       <c r="P106" s="150"/>
       <c r="Q106" s="151"/>
     </row>
-    <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A107" s="152">
         <v>104</v>
       </c>
@@ -10718,13 +10711,13 @@
         <v>43828</v>
       </c>
       <c r="L110" s="189" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M110" s="128"/>
       <c r="N110" s="148"/>
       <c r="O110" s="149"/>
       <c r="P110" s="150" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q110" s="151"/>
     </row>
@@ -10743,7 +10736,7 @@
       <c r="H111" s="206"/>
       <c r="I111" s="210"/>
       <c r="J111" s="239" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K111" s="208">
         <v>43828</v>
@@ -10778,7 +10771,7 @@
         <v>43828</v>
       </c>
       <c r="L112" s="189" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M112" s="128"/>
       <c r="N112" s="148"/>
@@ -11640,10 +11633,9 @@
     <row r="232" ht="13.8" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A3:Q152">
-    <filterColumn colId="9">
+    <filterColumn colId="10">
       <filters>
-        <filter val="何福睿"/>
-        <filter val="何福睿_x000a_罗钰"/>
+        <dateGroupItem year="2019" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
     <filterColumn colId="11">

--- a/Docs/06 Testing/测试课题.xlsx
+++ b/Docs/06 Testing/测试课题.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="294">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1249,16 +1249,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Master Data-治工具</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Master Data-工位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加是否通用，备注搜索条件
-导入修改为 治工具-机种 关系表导入，无治工具则插入治工具并新增与机种的关系</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1278,10 +1269,6 @@
     <t>添加备注搜索
 添加导入功能
 按部门区分</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出未完成</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1821,6 +1808,15 @@
   </si>
   <si>
     <t>按部门区分未完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加是否通用，备注搜索条件
+导入修改为 治工具-机种 关系表导入，无治工具则插入治工具并新增与机种的关系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-治工具</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3267,8 +3263,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1142408</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>621712</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22998</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3311,7 +3307,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3743</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3355,7 +3351,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1148857</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>462328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3420,8 +3416,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4987258" y="1839686"/>
-          <a:ext cx="1090557" cy="0"/>
+          <a:off x="4987258" y="21880744"/>
+          <a:ext cx="1090557" cy="505727"/>
           <a:chOff x="161924" y="422672"/>
           <a:chExt cx="6267451" cy="2786066"/>
         </a:xfrm>
@@ -3534,8 +3530,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5020682" y="1839686"/>
-          <a:ext cx="1051984" cy="0"/>
+          <a:off x="5020682" y="10987687"/>
+          <a:ext cx="1051984" cy="555252"/>
           <a:chOff x="1979082" y="8911167"/>
           <a:chExt cx="13009526" cy="2694661"/>
         </a:xfrm>
@@ -3648,8 +3644,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5043094" y="1839686"/>
-          <a:ext cx="1030940" cy="0"/>
+          <a:off x="5043094" y="22480921"/>
+          <a:ext cx="1030940" cy="504265"/>
           <a:chOff x="4840946" y="15710647"/>
           <a:chExt cx="13058787" cy="5819774"/>
         </a:xfrm>
@@ -3746,7 +3742,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1226530</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3789,8 +3785,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2243</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>694765</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>96050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3914,7 +3910,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1101588</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>504253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3958,7 +3954,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3479</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>595841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4057,8 +4053,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5026893" y="1839686"/>
-          <a:ext cx="1045431" cy="0"/>
+          <a:off x="5026893" y="16045011"/>
+          <a:ext cx="1045431" cy="646871"/>
           <a:chOff x="3205370" y="17608826"/>
           <a:chExt cx="3889719" cy="3214139"/>
         </a:xfrm>
@@ -4154,7 +4150,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2698</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>502227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4198,7 +4194,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>520476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4320,7 +4316,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>588994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4364,7 +4360,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1133914</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>542268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4407,8 +4403,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1141239</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>621712</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22998</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4451,7 +4447,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>916</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7108,7 +7104,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P55" sqref="P55"/>
+      <selection pane="bottomLeft" activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7296,7 +7292,7 @@
       <c r="N5" s="129"/>
       <c r="O5" s="120"/>
       <c r="P5" s="130" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="136"/>
     </row>
@@ -7327,13 +7323,13 @@
       <c r="J6" s="172"/>
       <c r="K6" s="179"/>
       <c r="L6" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M6" s="180"/>
       <c r="N6" s="181"/>
       <c r="O6" s="172"/>
       <c r="P6" s="182" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q6" s="186" t="s">
         <v>152</v>
@@ -7366,13 +7362,13 @@
       <c r="J7" s="172"/>
       <c r="K7" s="179"/>
       <c r="L7" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M7" s="180"/>
       <c r="N7" s="181"/>
       <c r="O7" s="172"/>
       <c r="P7" s="182" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q7" s="186" t="s">
         <v>151</v>
@@ -7557,7 +7553,7 @@
       </c>
       <c r="Q12" s="202"/>
     </row>
-    <row r="13" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="13" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A13" s="152">
         <v>10</v>
       </c>
@@ -7588,19 +7584,19 @@
         <v>43833</v>
       </c>
       <c r="L13" s="159" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M13" s="160"/>
       <c r="N13" s="161"/>
       <c r="O13" s="152"/>
       <c r="P13" s="162" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="188" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A14" s="152">
         <v>11</v>
       </c>
@@ -7629,7 +7625,7 @@
         <v>43833</v>
       </c>
       <c r="L14" s="159" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M14" s="160"/>
       <c r="N14" s="161"/>
@@ -7892,13 +7888,13 @@
       <c r="J21" s="172"/>
       <c r="K21" s="179"/>
       <c r="L21" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M21" s="180"/>
       <c r="N21" s="181"/>
       <c r="O21" s="172"/>
       <c r="P21" s="182" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q21" s="183" t="s">
         <v>150</v>
@@ -8009,13 +8005,13 @@
       <c r="J24" s="172"/>
       <c r="K24" s="179"/>
       <c r="L24" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M24" s="180"/>
       <c r="N24" s="181"/>
       <c r="O24" s="172"/>
       <c r="P24" s="182" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q24" s="186" t="s">
         <v>150</v>
@@ -8048,13 +8044,13 @@
       <c r="J25" s="172"/>
       <c r="K25" s="179"/>
       <c r="L25" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M25" s="180"/>
       <c r="N25" s="181"/>
       <c r="O25" s="172"/>
       <c r="P25" s="182" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q25" s="186" t="s">
         <v>150</v>
@@ -8311,13 +8307,13 @@
       <c r="J32" s="172"/>
       <c r="K32" s="179"/>
       <c r="L32" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M32" s="180"/>
       <c r="N32" s="181"/>
       <c r="O32" s="172"/>
       <c r="P32" s="182" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q32" s="183" t="s">
         <v>150</v>
@@ -8436,7 +8432,7 @@
       <c r="P35" s="150"/>
       <c r="Q35" s="190"/>
     </row>
-    <row r="36" spans="1:17" s="65" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="36" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
       <c r="A36" s="152">
         <v>33</v>
       </c>
@@ -8465,7 +8461,7 @@
         <v>43833</v>
       </c>
       <c r="L36" s="159" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M36" s="160"/>
       <c r="N36" s="209"/>
@@ -8907,10 +8903,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="140" t="s">
-        <v>162</v>
+        <v>293</v>
       </c>
       <c r="C50" s="141" t="s">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="D50" s="142"/>
       <c r="E50" s="143"/>
@@ -8928,9 +8924,7 @@
       <c r="M50" s="128"/>
       <c r="N50" s="148"/>
       <c r="O50" s="149"/>
-      <c r="P50" s="150" t="s">
-        <v>169</v>
-      </c>
+      <c r="P50" s="150"/>
       <c r="Q50" s="151" t="s">
         <v>157</v>
       </c>
@@ -8940,10 +8934,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="141" t="s">
         <v>163</v>
-      </c>
-      <c r="C51" s="141" t="s">
-        <v>165</v>
       </c>
       <c r="D51" s="142"/>
       <c r="E51" s="143"/>
@@ -8961,9 +8955,7 @@
       <c r="M51" s="128"/>
       <c r="N51" s="148"/>
       <c r="O51" s="149"/>
-      <c r="P51" s="150" t="s">
-        <v>169</v>
-      </c>
+      <c r="P51" s="150"/>
       <c r="Q51" s="151" t="s">
         <v>157</v>
       </c>
@@ -8973,10 +8965,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="140" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C52" s="141" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D52" s="142"/>
       <c r="E52" s="143"/>
@@ -8997,38 +8989,38 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A53" s="152">
+    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A53" s="120">
         <v>50</v>
       </c>
-      <c r="B53" s="217" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" s="203" t="s">
+      <c r="B53" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="D53" s="204"/>
-      <c r="E53" s="218"/>
-      <c r="F53" s="218"/>
-      <c r="G53" s="205"/>
-      <c r="H53" s="206"/>
-      <c r="I53" s="210"/>
-      <c r="J53" s="207" t="s">
-        <v>280</v>
-      </c>
-      <c r="K53" s="208">
+      <c r="C53" s="141" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="142"/>
+      <c r="E53" s="143"/>
+      <c r="F53" s="143"/>
+      <c r="G53" s="144"/>
+      <c r="H53" s="145"/>
+      <c r="I53" s="149"/>
+      <c r="J53" s="146" t="s">
+        <v>277</v>
+      </c>
+      <c r="K53" s="147">
         <v>43828</v>
       </c>
-      <c r="L53" s="159" t="s">
-        <v>243</v>
-      </c>
-      <c r="M53" s="160"/>
-      <c r="N53" s="209"/>
-      <c r="O53" s="210"/>
-      <c r="P53" s="211" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q53" s="220" t="s">
+      <c r="L53" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M53" s="128"/>
+      <c r="N53" s="148"/>
+      <c r="O53" s="149"/>
+      <c r="P53" s="150" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q53" s="151" t="s">
         <v>151</v>
       </c>
     </row>
@@ -9037,10 +9029,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="140" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C54" s="141" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D54" s="142"/>
       <c r="E54" s="143"/>
@@ -9049,13 +9041,13 @@
       <c r="H54" s="145"/>
       <c r="I54" s="149"/>
       <c r="J54" s="240" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K54" s="147">
         <v>43828</v>
       </c>
       <c r="L54" s="127" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M54" s="128"/>
       <c r="N54" s="148"/>
@@ -9063,38 +9055,38 @@
       <c r="P54" s="150"/>
       <c r="Q54" s="151"/>
     </row>
-    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A55" s="152">
+    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A55" s="120">
         <v>52</v>
       </c>
-      <c r="B55" s="217" t="s">
-        <v>173</v>
-      </c>
-      <c r="C55" s="203" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" s="204"/>
-      <c r="E55" s="218"/>
-      <c r="F55" s="218"/>
-      <c r="G55" s="205"/>
-      <c r="H55" s="206"/>
-      <c r="I55" s="210"/>
-      <c r="J55" s="207" t="s">
-        <v>280</v>
-      </c>
-      <c r="K55" s="208">
+      <c r="B55" s="140" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="141" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="142"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="143"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="145"/>
+      <c r="I55" s="149"/>
+      <c r="J55" s="146" t="s">
+        <v>277</v>
+      </c>
+      <c r="K55" s="147">
         <v>43828</v>
       </c>
-      <c r="L55" s="159" t="s">
-        <v>243</v>
-      </c>
-      <c r="M55" s="160"/>
-      <c r="N55" s="209"/>
-      <c r="O55" s="210"/>
-      <c r="P55" s="211" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q55" s="220" t="s">
+      <c r="L55" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="M55" s="128"/>
+      <c r="N55" s="148"/>
+      <c r="O55" s="149"/>
+      <c r="P55" s="150" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q55" s="151" t="s">
         <v>151</v>
       </c>
     </row>
@@ -9103,10 +9095,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="140" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C56" s="141" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D56" s="142"/>
       <c r="E56" s="143"/>
@@ -9115,7 +9107,7 @@
       <c r="H56" s="145"/>
       <c r="I56" s="149"/>
       <c r="J56" s="146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K56" s="147">
         <v>43828</v>
@@ -9134,10 +9126,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C57" s="141" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D57" s="142"/>
       <c r="E57" s="143"/>
@@ -9146,7 +9138,7 @@
       <c r="H57" s="145"/>
       <c r="I57" s="149"/>
       <c r="J57" s="146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K57" s="147">
         <v>43828</v>
@@ -9165,10 +9157,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C58" s="141" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D58" s="142"/>
       <c r="E58" s="143"/>
@@ -9177,7 +9169,7 @@
       <c r="H58" s="145"/>
       <c r="I58" s="149"/>
       <c r="J58" s="240" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K58" s="147">
         <v>43828</v>
@@ -9191,15 +9183,15 @@
       <c r="P58" s="150"/>
       <c r="Q58" s="151"/>
     </row>
-    <row r="59" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="59" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A59" s="152">
         <v>56</v>
       </c>
       <c r="B59" s="217" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C59" s="203" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" s="204"/>
       <c r="E59" s="218"/>
@@ -9212,7 +9204,7 @@
         <v>43833</v>
       </c>
       <c r="L59" s="159" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M59" s="160"/>
       <c r="N59" s="209"/>
@@ -9225,10 +9217,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C60" s="141" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D60" s="142"/>
       <c r="E60" s="143"/>
@@ -9237,7 +9229,7 @@
       <c r="H60" s="145"/>
       <c r="I60" s="149"/>
       <c r="J60" s="146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K60" s="147">
         <v>43828</v>
@@ -9249,7 +9241,7 @@
       <c r="N60" s="148"/>
       <c r="O60" s="149"/>
       <c r="P60" s="150" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q60" s="151"/>
     </row>
@@ -9258,10 +9250,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C61" s="141" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D61" s="142"/>
       <c r="E61" s="143"/>
@@ -9285,10 +9277,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C62" s="141" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D62" s="142"/>
       <c r="E62" s="143"/>
@@ -9312,10 +9304,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="191" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C63" s="192" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D63" s="193"/>
       <c r="E63" s="194"/>
@@ -9330,7 +9322,7 @@
       <c r="N63" s="199"/>
       <c r="O63" s="200"/>
       <c r="P63" s="201" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q63" s="222"/>
     </row>
@@ -9339,10 +9331,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C64" s="141" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D64" s="142"/>
       <c r="E64" s="143"/>
@@ -9360,7 +9352,7 @@
       <c r="O64" s="149"/>
       <c r="P64" s="150"/>
       <c r="Q64" s="151" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -9368,10 +9360,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C65" s="141" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D65" s="142"/>
       <c r="E65" s="143"/>
@@ -9395,10 +9387,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C66" s="141" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D66" s="142"/>
       <c r="E66" s="143"/>
@@ -9422,10 +9414,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C67" s="141" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D67" s="142"/>
       <c r="E67" s="143"/>
@@ -9449,10 +9441,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="191" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C68" s="192" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D68" s="193"/>
       <c r="E68" s="194"/>
@@ -9467,7 +9459,7 @@
       <c r="N68" s="199"/>
       <c r="O68" s="200"/>
       <c r="P68" s="201" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q68" s="222"/>
     </row>
@@ -9476,10 +9468,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="223" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C69" s="224" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D69" s="225"/>
       <c r="E69" s="226"/>
@@ -9490,13 +9482,13 @@
       <c r="J69" s="230"/>
       <c r="K69" s="231"/>
       <c r="L69" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M69" s="180"/>
       <c r="N69" s="233"/>
       <c r="O69" s="229"/>
       <c r="P69" s="234" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q69" s="235" t="s">
         <v>151</v>
@@ -9507,10 +9499,10 @@
         <v>67</v>
       </c>
       <c r="B70" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C70" s="141" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D70" s="142"/>
       <c r="E70" s="143"/>
@@ -9519,13 +9511,13 @@
       <c r="H70" s="145"/>
       <c r="I70" s="149"/>
       <c r="J70" s="146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K70" s="147">
         <v>43828</v>
       </c>
       <c r="L70" s="189" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M70" s="128"/>
       <c r="N70" s="148"/>
@@ -9538,10 +9530,10 @@
         <v>68</v>
       </c>
       <c r="B71" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C71" s="141" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D71" s="142"/>
       <c r="E71" s="143"/>
@@ -9565,10 +9557,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="223" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C72" s="224" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D72" s="225"/>
       <c r="E72" s="226"/>
@@ -9579,16 +9571,16 @@
       <c r="J72" s="230"/>
       <c r="K72" s="231"/>
       <c r="L72" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M72" s="180"/>
       <c r="N72" s="233"/>
       <c r="O72" s="229"/>
       <c r="P72" s="234" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q72" s="235" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -9596,10 +9588,10 @@
         <v>70</v>
       </c>
       <c r="B73" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C73" s="141" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D73" s="142"/>
       <c r="E73" s="143"/>
@@ -9623,10 +9615,10 @@
         <v>71</v>
       </c>
       <c r="B74" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C74" s="141" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D74" s="142"/>
       <c r="E74" s="143"/>
@@ -9650,10 +9642,10 @@
         <v>72</v>
       </c>
       <c r="B75" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C75" s="141" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143"/>
@@ -9662,19 +9654,19 @@
       <c r="H75" s="145"/>
       <c r="I75" s="149"/>
       <c r="J75" s="240" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K75" s="147">
         <v>43828</v>
       </c>
       <c r="L75" s="189" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M75" s="128"/>
       <c r="N75" s="148"/>
       <c r="O75" s="149"/>
       <c r="P75" s="150" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q75" s="151" t="s">
         <v>151</v>
@@ -9685,10 +9677,10 @@
         <v>73</v>
       </c>
       <c r="B76" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C76" s="141" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D76" s="142"/>
       <c r="E76" s="143"/>
@@ -9697,13 +9689,13 @@
       <c r="H76" s="145"/>
       <c r="I76" s="149"/>
       <c r="J76" s="240" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K76" s="147">
         <v>43828</v>
       </c>
       <c r="L76" s="189" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M76" s="128"/>
       <c r="N76" s="148"/>
@@ -9718,10 +9710,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="223" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C77" s="224" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D77" s="225"/>
       <c r="E77" s="226"/>
@@ -9730,19 +9722,19 @@
       <c r="H77" s="228"/>
       <c r="I77" s="229"/>
       <c r="J77" s="241" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K77" s="231">
         <v>43828</v>
       </c>
       <c r="L77" s="232" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M77" s="180"/>
       <c r="N77" s="233"/>
       <c r="O77" s="229"/>
       <c r="P77" s="234" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q77" s="235" t="s">
         <v>151</v>
@@ -9753,10 +9745,10 @@
         <v>75</v>
       </c>
       <c r="B78" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C78" s="141" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D78" s="142"/>
       <c r="E78" s="143"/>
@@ -9765,13 +9757,13 @@
       <c r="H78" s="145"/>
       <c r="I78" s="149"/>
       <c r="J78" s="146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K78" s="147">
         <v>43828</v>
       </c>
       <c r="L78" s="189" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M78" s="128"/>
       <c r="N78" s="148"/>
@@ -9784,10 +9776,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="191" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C79" s="192" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D79" s="193"/>
       <c r="E79" s="194"/>
@@ -9802,7 +9794,7 @@
       <c r="N79" s="199"/>
       <c r="O79" s="200"/>
       <c r="P79" s="201" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q79" s="222"/>
     </row>
@@ -9811,10 +9803,10 @@
         <v>77</v>
       </c>
       <c r="B80" s="191" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C80" s="192" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D80" s="193"/>
       <c r="E80" s="194"/>
@@ -9829,7 +9821,7 @@
       <c r="N80" s="199"/>
       <c r="O80" s="200"/>
       <c r="P80" s="201" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q80" s="222"/>
     </row>
@@ -9838,10 +9830,10 @@
         <v>78</v>
       </c>
       <c r="B81" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C81" s="141" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D81" s="142"/>
       <c r="E81" s="143"/>
@@ -9865,10 +9857,10 @@
         <v>79</v>
       </c>
       <c r="B82" s="223" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C82" s="224" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D82" s="225"/>
       <c r="E82" s="226"/>
@@ -9879,13 +9871,13 @@
       <c r="J82" s="230"/>
       <c r="K82" s="231"/>
       <c r="L82" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M82" s="180"/>
       <c r="N82" s="233"/>
       <c r="O82" s="229"/>
       <c r="P82" s="234" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q82" s="235" t="s">
         <v>152</v>
@@ -9896,10 +9888,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="223" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C83" s="224" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D83" s="225"/>
       <c r="E83" s="226"/>
@@ -9910,13 +9902,13 @@
       <c r="J83" s="230"/>
       <c r="K83" s="231"/>
       <c r="L83" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M83" s="180"/>
       <c r="N83" s="233"/>
       <c r="O83" s="229"/>
       <c r="P83" s="234" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q83" s="235"/>
     </row>
@@ -9925,10 +9917,10 @@
         <v>81</v>
       </c>
       <c r="B84" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C84" s="141" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D84" s="142"/>
       <c r="E84" s="143"/>
@@ -9937,13 +9929,13 @@
       <c r="H84" s="145"/>
       <c r="I84" s="149"/>
       <c r="J84" s="146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K84" s="147">
         <v>43828</v>
       </c>
       <c r="L84" s="189" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M84" s="128"/>
       <c r="N84" s="148"/>
@@ -9956,10 +9948,10 @@
         <v>82</v>
       </c>
       <c r="B85" s="223" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C85" s="224" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D85" s="225"/>
       <c r="E85" s="226"/>
@@ -9970,27 +9962,27 @@
       <c r="J85" s="230"/>
       <c r="K85" s="231"/>
       <c r="L85" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M85" s="180"/>
       <c r="N85" s="233"/>
       <c r="O85" s="229"/>
       <c r="P85" s="234" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q85" s="235" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="86" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A86" s="152">
         <v>83</v>
       </c>
       <c r="B86" s="217" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C86" s="203" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D86" s="204"/>
       <c r="E86" s="218"/>
@@ -10003,7 +9995,7 @@
         <v>43833</v>
       </c>
       <c r="L86" s="219" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M86" s="160"/>
       <c r="N86" s="209"/>
@@ -10016,10 +10008,10 @@
         <v>84</v>
       </c>
       <c r="B87" s="140" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C87" s="141" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D87" s="142"/>
       <c r="E87" s="143"/>
@@ -10043,10 +10035,10 @@
         <v>85</v>
       </c>
       <c r="B88" s="217" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C88" s="203" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D88" s="204"/>
       <c r="E88" s="218"/>
@@ -10055,13 +10047,13 @@
       <c r="H88" s="206"/>
       <c r="I88" s="210"/>
       <c r="J88" s="207" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K88" s="208">
         <v>43828</v>
       </c>
       <c r="L88" s="219" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M88" s="160"/>
       <c r="N88" s="209"/>
@@ -10076,10 +10068,10 @@
         <v>86</v>
       </c>
       <c r="B89" s="140" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C89" s="141" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D89" s="142"/>
       <c r="E89" s="143"/>
@@ -10088,13 +10080,13 @@
       <c r="H89" s="145"/>
       <c r="I89" s="149"/>
       <c r="J89" s="146" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K89" s="147">
         <v>43828</v>
       </c>
       <c r="L89" s="189" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M89" s="128"/>
       <c r="N89" s="148"/>
@@ -10107,10 +10099,10 @@
         <v>87</v>
       </c>
       <c r="B90" s="140" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C90" s="141" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D90" s="142"/>
       <c r="E90" s="143"/>
@@ -10134,10 +10126,10 @@
         <v>88</v>
       </c>
       <c r="B91" s="217" t="s">
+        <v>213</v>
+      </c>
+      <c r="C91" s="203" t="s">
         <v>216</v>
-      </c>
-      <c r="C91" s="203" t="s">
-        <v>219</v>
       </c>
       <c r="D91" s="204"/>
       <c r="E91" s="218"/>
@@ -10146,13 +10138,13 @@
       <c r="H91" s="206"/>
       <c r="I91" s="210"/>
       <c r="J91" s="207" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K91" s="208">
         <v>43828</v>
       </c>
       <c r="L91" s="219" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M91" s="160"/>
       <c r="N91" s="209"/>
@@ -10165,10 +10157,10 @@
         <v>89</v>
       </c>
       <c r="B92" s="191" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C92" s="192" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D92" s="193"/>
       <c r="E92" s="194"/>
@@ -10183,7 +10175,7 @@
       <c r="N92" s="199"/>
       <c r="O92" s="200"/>
       <c r="P92" s="201" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q92" s="222"/>
     </row>
@@ -10192,10 +10184,10 @@
         <v>90</v>
       </c>
       <c r="B93" s="223" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C93" s="224" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D93" s="225"/>
       <c r="E93" s="226"/>
@@ -10206,13 +10198,13 @@
       <c r="J93" s="230"/>
       <c r="K93" s="231"/>
       <c r="L93" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M93" s="180"/>
       <c r="N93" s="233"/>
       <c r="O93" s="229"/>
       <c r="P93" s="234" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q93" s="235" t="s">
         <v>151</v>
@@ -10223,10 +10215,10 @@
         <v>91</v>
       </c>
       <c r="B94" s="191" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C94" s="192" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D94" s="193"/>
       <c r="E94" s="194"/>
@@ -10241,7 +10233,7 @@
       <c r="N94" s="199"/>
       <c r="O94" s="200"/>
       <c r="P94" s="201" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q94" s="222"/>
     </row>
@@ -10250,10 +10242,10 @@
         <v>92</v>
       </c>
       <c r="B95" s="223" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C95" s="224" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D95" s="225"/>
       <c r="E95" s="226"/>
@@ -10264,13 +10256,13 @@
       <c r="J95" s="230"/>
       <c r="K95" s="231"/>
       <c r="L95" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M95" s="180"/>
       <c r="N95" s="233"/>
       <c r="O95" s="229"/>
       <c r="P95" s="234" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q95" s="235" t="s">
         <v>151</v>
@@ -10281,10 +10273,10 @@
         <v>93</v>
       </c>
       <c r="B96" s="140" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C96" s="141" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D96" s="142"/>
       <c r="E96" s="143"/>
@@ -10308,10 +10300,10 @@
         <v>94</v>
       </c>
       <c r="B97" s="223" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C97" s="224" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D97" s="225"/>
       <c r="E97" s="226"/>
@@ -10322,13 +10314,13 @@
       <c r="J97" s="230"/>
       <c r="K97" s="231"/>
       <c r="L97" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M97" s="180"/>
       <c r="N97" s="233"/>
       <c r="O97" s="229"/>
       <c r="P97" s="234" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q97" s="235"/>
     </row>
@@ -10337,10 +10329,10 @@
         <v>95</v>
       </c>
       <c r="B98" s="223" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C98" s="224" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D98" s="225"/>
       <c r="E98" s="226"/>
@@ -10351,13 +10343,13 @@
       <c r="J98" s="230"/>
       <c r="K98" s="231"/>
       <c r="L98" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M98" s="180"/>
       <c r="N98" s="233"/>
       <c r="O98" s="229"/>
       <c r="P98" s="234" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q98" s="235"/>
     </row>
@@ -10366,10 +10358,10 @@
         <v>96</v>
       </c>
       <c r="B99" s="223" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C99" s="224" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D99" s="225"/>
       <c r="E99" s="226"/>
@@ -10380,13 +10372,13 @@
       <c r="J99" s="230"/>
       <c r="K99" s="231"/>
       <c r="L99" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M99" s="180"/>
       <c r="N99" s="233"/>
       <c r="O99" s="229"/>
       <c r="P99" s="234" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q99" s="235" t="s">
         <v>150</v>
@@ -10397,10 +10389,10 @@
         <v>97</v>
       </c>
       <c r="B100" s="223" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C100" s="224" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D100" s="225"/>
       <c r="E100" s="226"/>
@@ -10411,13 +10403,13 @@
       <c r="J100" s="230"/>
       <c r="K100" s="231"/>
       <c r="L100" s="232" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M100" s="180"/>
       <c r="N100" s="233"/>
       <c r="O100" s="229"/>
       <c r="P100" s="234" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q100" s="235" t="s">
         <v>152</v>
@@ -10428,10 +10420,10 @@
         <v>98</v>
       </c>
       <c r="B101" s="140" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C101" s="141" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D101" s="142"/>
       <c r="E101" s="143"/>
@@ -10455,10 +10447,10 @@
         <v>99</v>
       </c>
       <c r="B102" s="140" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C102" s="141" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D102" s="142"/>
       <c r="E102" s="143"/>
@@ -10482,10 +10474,10 @@
         <v>100</v>
       </c>
       <c r="B103" s="140" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C103" s="141" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D103" s="142"/>
       <c r="E103" s="143"/>
@@ -10494,19 +10486,19 @@
       <c r="H103" s="145"/>
       <c r="I103" s="149"/>
       <c r="J103" s="146" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K103" s="147">
         <v>43828</v>
       </c>
       <c r="L103" s="189" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M103" s="128"/>
       <c r="N103" s="148"/>
       <c r="O103" s="149"/>
       <c r="P103" s="150" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q103" s="151"/>
     </row>
@@ -10515,10 +10507,10 @@
         <v>101</v>
       </c>
       <c r="B104" s="140" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C104" s="141" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D104" s="142"/>
       <c r="E104" s="143"/>
@@ -10542,10 +10534,10 @@
         <v>102</v>
       </c>
       <c r="B105" s="140" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C105" s="141" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D105" s="142"/>
       <c r="E105" s="143"/>
@@ -10554,13 +10546,13 @@
       <c r="H105" s="145"/>
       <c r="I105" s="149"/>
       <c r="J105" s="240" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K105" s="147">
         <v>43828</v>
       </c>
       <c r="L105" s="189" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M105" s="128"/>
       <c r="N105" s="148"/>
@@ -10575,10 +10567,10 @@
         <v>103</v>
       </c>
       <c r="B106" s="140" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C106" s="141" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D106" s="142"/>
       <c r="E106" s="143"/>
@@ -10587,13 +10579,13 @@
       <c r="H106" s="145"/>
       <c r="I106" s="149"/>
       <c r="J106" s="240" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K106" s="147">
         <v>43828</v>
       </c>
       <c r="L106" s="189" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M106" s="128"/>
       <c r="N106" s="148"/>
@@ -10601,46 +10593,46 @@
       <c r="P106" s="150"/>
       <c r="Q106" s="151"/>
     </row>
-    <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A107" s="152">
+    <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A107" s="120">
         <v>104</v>
       </c>
-      <c r="B107" s="217" t="s">
-        <v>239</v>
-      </c>
-      <c r="C107" s="203" t="s">
+      <c r="B107" s="140" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="204"/>
-      <c r="E107" s="218"/>
-      <c r="F107" s="218"/>
-      <c r="G107" s="205"/>
-      <c r="H107" s="206"/>
-      <c r="I107" s="210"/>
-      <c r="J107" s="207" t="s">
-        <v>280</v>
-      </c>
-      <c r="K107" s="208">
+      <c r="C107" s="141" t="s">
+        <v>233</v>
+      </c>
+      <c r="D107" s="142"/>
+      <c r="E107" s="143"/>
+      <c r="F107" s="143"/>
+      <c r="G107" s="144"/>
+      <c r="H107" s="145"/>
+      <c r="I107" s="149"/>
+      <c r="J107" s="146" t="s">
+        <v>277</v>
+      </c>
+      <c r="K107" s="147">
         <v>43828</v>
       </c>
-      <c r="L107" s="219" t="s">
-        <v>244</v>
-      </c>
-      <c r="M107" s="160"/>
-      <c r="N107" s="209"/>
-      <c r="O107" s="210"/>
-      <c r="P107" s="211"/>
-      <c r="Q107" s="220"/>
+      <c r="L107" s="189" t="s">
+        <v>282</v>
+      </c>
+      <c r="M107" s="128"/>
+      <c r="N107" s="148"/>
+      <c r="O107" s="149"/>
+      <c r="P107" s="150"/>
+      <c r="Q107" s="151"/>
     </row>
     <row r="108" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A108" s="120">
         <v>105</v>
       </c>
       <c r="B108" s="140" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C108" s="141" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D108" s="142"/>
       <c r="E108" s="143"/>
@@ -10667,7 +10659,7 @@
       </c>
       <c r="B109" s="223"/>
       <c r="C109" s="224" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D109" s="225"/>
       <c r="E109" s="226"/>
@@ -10678,16 +10670,16 @@
       <c r="J109" s="230"/>
       <c r="K109" s="231"/>
       <c r="L109" s="232" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M109" s="180"/>
       <c r="N109" s="233"/>
       <c r="O109" s="229"/>
       <c r="P109" s="234" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q109" s="235" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -10696,7 +10688,7 @@
       </c>
       <c r="B110" s="140"/>
       <c r="C110" s="141" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D110" s="142"/>
       <c r="E110" s="143"/>
@@ -10705,19 +10697,19 @@
       <c r="H110" s="145"/>
       <c r="I110" s="149"/>
       <c r="J110" s="146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K110" s="147">
         <v>43828</v>
       </c>
       <c r="L110" s="189" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M110" s="128"/>
       <c r="N110" s="148"/>
       <c r="O110" s="149"/>
       <c r="P110" s="150" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q110" s="151"/>
     </row>
@@ -10727,7 +10719,7 @@
       </c>
       <c r="B111" s="217"/>
       <c r="C111" s="203" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D111" s="204"/>
       <c r="E111" s="218"/>
@@ -10736,13 +10728,13 @@
       <c r="H111" s="206"/>
       <c r="I111" s="210"/>
       <c r="J111" s="239" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K111" s="208">
         <v>43828</v>
       </c>
       <c r="L111" s="219" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M111" s="160"/>
       <c r="N111" s="209"/>
@@ -10756,7 +10748,7 @@
       </c>
       <c r="B112" s="140"/>
       <c r="C112" s="141" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D112" s="142"/>
       <c r="E112" s="143"/>
@@ -10765,20 +10757,20 @@
       <c r="H112" s="145"/>
       <c r="I112" s="149"/>
       <c r="J112" s="146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K112" s="147">
         <v>43828</v>
       </c>
       <c r="L112" s="189" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M112" s="128"/>
       <c r="N112" s="148"/>
       <c r="O112" s="149"/>
       <c r="P112" s="150"/>
       <c r="Q112" s="151" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -10787,7 +10779,7 @@
       </c>
       <c r="B113" s="191"/>
       <c r="C113" s="192" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D113" s="193"/>
       <c r="E113" s="194"/>
@@ -10802,7 +10794,7 @@
       <c r="N113" s="199"/>
       <c r="O113" s="200"/>
       <c r="P113" s="201" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q113" s="222"/>
     </row>
@@ -10812,7 +10804,7 @@
       </c>
       <c r="B114" s="223"/>
       <c r="C114" s="224" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D114" s="225"/>
       <c r="E114" s="226"/>
@@ -10823,13 +10815,13 @@
       <c r="J114" s="230"/>
       <c r="K114" s="231"/>
       <c r="L114" s="232" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M114" s="180"/>
       <c r="N114" s="233"/>
       <c r="O114" s="229"/>
       <c r="P114" s="234" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q114" s="235"/>
     </row>
@@ -10839,7 +10831,7 @@
       </c>
       <c r="B115" s="140"/>
       <c r="C115" s="141" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D115" s="142"/>
       <c r="E115" s="143"/>
@@ -10850,13 +10842,13 @@
       <c r="J115" s="146"/>
       <c r="K115" s="147"/>
       <c r="L115" s="189" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M115" s="128"/>
       <c r="N115" s="148"/>
       <c r="O115" s="149"/>
       <c r="P115" s="150" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q115" s="151"/>
     </row>
@@ -10866,7 +10858,7 @@
       </c>
       <c r="B116" s="223"/>
       <c r="C116" s="224" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D116" s="225"/>
       <c r="E116" s="226"/>
@@ -10877,16 +10869,16 @@
       <c r="J116" s="230"/>
       <c r="K116" s="231"/>
       <c r="L116" s="232" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M116" s="180"/>
       <c r="N116" s="233"/>
       <c r="O116" s="229"/>
       <c r="P116" s="234" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q116" s="235" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -11633,11 +11625,6 @@
     <row r="232" ht="13.8" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A3:Q152">
-    <filterColumn colId="10">
-      <filters>
-        <dateGroupItem year="2019" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="11">
       <filters>
         <filter val="处理中"/>

--- a/Docs/06 Testing/测试课题.xlsx
+++ b/Docs/06 Testing/测试课题.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="315">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1587,10 +1587,6 @@
     <t>处理中</t>
   </si>
   <si>
-    <t>处理中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>未执行修改语句</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1785,11 +1781,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>已处理
-待验证</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>已处理</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1817,6 +1808,115 @@
   </si>
   <si>
     <t>Master Data-治工具</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定行或多行需要有颜色标识</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前编辑的每个分析表的名称需要显示：机种、ST\LST、生产阶段</t>
+  </si>
+  <si>
+    <t>分析表导出excel 表功能无</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结到key列及key 列以前的数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有快捷键 大小写都需要支持（例如：ctrl+c\ctrl+C…….)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除手顺时无删除线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加删除整行或多行功能；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表中敲回车键，光标总是跳到首行；
+分析表中进入编辑状态后，上下左右方向键功能失效；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>most系统中无法识别全部频度及部份频度；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表中作业标准书页码及内容不支持填充颜色区分；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Key快捷键时，Tool与最后A 默认*0和0消失了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表编辑页最下方没有总计算（参考分析资料Excel）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用指标组合Tool和最后A未与分析表进行默认设置*0和0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>手顺组合与分析表的功能一样实现</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过对话框显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>更</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表中Remark 2需要插入图片，并导出分析表也要有。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要确认可行性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>见课题18</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳首行已处理。编辑状态不能方向键移动位置</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2501,7 +2601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3216,9 +3316,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3263,8 +3360,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1142408</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>22998</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>688431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3307,8 +3404,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3743</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>590893</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>677224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3351,8 +3448,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1148857</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>462328</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>582438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3416,7 +3513,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4987258" y="21880744"/>
+          <a:off x="4987258" y="28825830"/>
           <a:ext cx="1090557" cy="505727"/>
           <a:chOff x="161924" y="422672"/>
           <a:chExt cx="6267451" cy="2786066"/>
@@ -3530,7 +3627,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5020682" y="10987687"/>
+          <a:off x="5020682" y="15450830"/>
           <a:ext cx="1051984" cy="555252"/>
           <a:chOff x="1979082" y="8911167"/>
           <a:chExt cx="13009526" cy="2694661"/>
@@ -3644,7 +3741,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5043094" y="22480921"/>
+          <a:off x="5043094" y="29426006"/>
           <a:ext cx="1030940" cy="504265"/>
           <a:chOff x="4840946" y="15710647"/>
           <a:chExt cx="13058787" cy="5819774"/>
@@ -3742,8 +3839,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1226530</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>495300</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>556176</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3785,8 +3882,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2243</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>96050</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>739588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3910,7 +4007,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1101588</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>504253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3954,8 +4051,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3479</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>595841</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>794624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4053,7 +4150,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5026893" y="16045011"/>
+          <a:off x="5026893" y="21792668"/>
           <a:ext cx="1045431" cy="646871"/>
           <a:chOff x="3205370" y="17608826"/>
           <a:chExt cx="3889719" cy="3214139"/>
@@ -4150,8 +4247,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2698</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>502227</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>647904</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4194,8 +4291,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>520476</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>574264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4316,8 +4413,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>588994</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>646145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4360,8 +4457,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1133914</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>542268</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>817613</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4403,8 +4500,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1141239</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>22998</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>687972</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4447,8 +4544,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>916</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>590893</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>723415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7099,12 +7196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N59" sqref="N59"/>
+      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7220,7 +7316,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="113" customFormat="1" ht="101.4" hidden="1" customHeight="1">
+    <row r="4" spans="1:17" s="113" customFormat="1" ht="101.4" customHeight="1">
       <c r="A4" s="120">
         <v>1</v>
       </c>
@@ -7257,7 +7353,7 @@
       </c>
       <c r="Q4" s="136"/>
     </row>
-    <row r="5" spans="1:17" s="113" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="5" spans="1:17" s="113" customFormat="1" ht="58.5" customHeight="1">
       <c r="A5" s="120">
         <v>2</v>
       </c>
@@ -7292,11 +7388,11 @@
       <c r="N5" s="129"/>
       <c r="O5" s="120"/>
       <c r="P5" s="130" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="136"/>
     </row>
-    <row r="6" spans="1:17" s="113" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="6" spans="1:17" s="113" customFormat="1" ht="58.5" customHeight="1">
       <c r="A6" s="172">
         <v>3</v>
       </c>
@@ -7323,19 +7419,19 @@
       <c r="J6" s="172"/>
       <c r="K6" s="179"/>
       <c r="L6" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M6" s="180"/>
       <c r="N6" s="181"/>
       <c r="O6" s="172"/>
       <c r="P6" s="182" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="186" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="113" customFormat="1" ht="73.5" hidden="1" customHeight="1">
+    <row r="7" spans="1:17" s="113" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="172">
         <v>4</v>
       </c>
@@ -7362,19 +7458,19 @@
       <c r="J7" s="172"/>
       <c r="K7" s="179"/>
       <c r="L7" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M7" s="180"/>
       <c r="N7" s="181"/>
       <c r="O7" s="172"/>
       <c r="P7" s="182" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="186" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="113" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="8" spans="1:17" s="113" customFormat="1" ht="58.5" customHeight="1">
       <c r="A8" s="120">
         <v>5</v>
       </c>
@@ -7411,7 +7507,7 @@
       <c r="P8" s="130"/>
       <c r="Q8" s="136"/>
     </row>
-    <row r="9" spans="1:17" s="113" customFormat="1" ht="78.75" hidden="1" customHeight="1">
+    <row r="9" spans="1:17" s="113" customFormat="1" ht="78.75" customHeight="1">
       <c r="A9" s="120">
         <v>6</v>
       </c>
@@ -7448,7 +7544,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="65" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="10" spans="1:17" s="65" customFormat="1" ht="58.5" customHeight="1">
       <c r="A10" s="120">
         <v>7</v>
       </c>
@@ -7483,7 +7579,7 @@
       <c r="P10" s="150"/>
       <c r="Q10" s="136"/>
     </row>
-    <row r="11" spans="1:17" s="65" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="11" spans="1:17" s="65" customFormat="1" ht="58.5" customHeight="1">
       <c r="A11" s="120">
         <v>8</v>
       </c>
@@ -7518,7 +7614,7 @@
       <c r="P11" s="150"/>
       <c r="Q11" s="151"/>
     </row>
-    <row r="12" spans="1:17" s="65" customFormat="1" ht="78.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:17" s="65" customFormat="1" ht="78.75" customHeight="1">
       <c r="A12" s="168">
         <v>9</v>
       </c>
@@ -7590,10 +7686,10 @@
       <c r="N13" s="161"/>
       <c r="O13" s="152"/>
       <c r="P13" s="162" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="188" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
@@ -7633,7 +7729,7 @@
       <c r="P14" s="162"/>
       <c r="Q14" s="188"/>
     </row>
-    <row r="15" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="15" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A15" s="120">
         <v>12</v>
       </c>
@@ -7672,7 +7768,7 @@
       </c>
       <c r="Q15" s="136"/>
     </row>
-    <row r="16" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="16" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A16" s="120">
         <v>13</v>
       </c>
@@ -7711,7 +7807,7 @@
       </c>
       <c r="Q16" s="136"/>
     </row>
-    <row r="17" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="17" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A17" s="120">
         <v>14</v>
       </c>
@@ -7748,7 +7844,7 @@
       </c>
       <c r="Q17" s="136"/>
     </row>
-    <row r="18" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="18" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A18" s="120">
         <v>15</v>
       </c>
@@ -7785,7 +7881,7 @@
       </c>
       <c r="Q18" s="136"/>
     </row>
-    <row r="19" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="19" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A19" s="120">
         <v>16</v>
       </c>
@@ -7822,7 +7918,7 @@
       </c>
       <c r="Q19" s="136"/>
     </row>
-    <row r="20" spans="1:17" s="113" customFormat="1" ht="69" hidden="1" customHeight="1">
+    <row r="20" spans="1:17" s="113" customFormat="1" ht="69" customHeight="1">
       <c r="A20" s="120">
         <v>17</v>
       </c>
@@ -7859,7 +7955,7 @@
       <c r="P20" s="130"/>
       <c r="Q20" s="136"/>
     </row>
-    <row r="21" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="21" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A21" s="172">
         <v>18</v>
       </c>
@@ -7888,19 +7984,19 @@
       <c r="J21" s="172"/>
       <c r="K21" s="179"/>
       <c r="L21" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M21" s="180"/>
       <c r="N21" s="181"/>
       <c r="O21" s="172"/>
       <c r="P21" s="182" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q21" s="183" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="22" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A22" s="120">
         <v>19</v>
       </c>
@@ -7935,7 +8031,7 @@
       <c r="P22" s="130"/>
       <c r="Q22" s="136"/>
     </row>
-    <row r="23" spans="1:17" s="113" customFormat="1" ht="84" hidden="1" customHeight="1">
+    <row r="23" spans="1:17" s="113" customFormat="1" ht="84" customHeight="1">
       <c r="A23" s="120">
         <v>20</v>
       </c>
@@ -7976,7 +8072,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="113" customFormat="1" ht="54" hidden="1" customHeight="1">
+    <row r="24" spans="1:17" s="113" customFormat="1" ht="54" customHeight="1">
       <c r="A24" s="172">
         <v>21</v>
       </c>
@@ -8005,19 +8101,19 @@
       <c r="J24" s="172"/>
       <c r="K24" s="179"/>
       <c r="L24" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M24" s="180"/>
       <c r="N24" s="181"/>
       <c r="O24" s="172"/>
       <c r="P24" s="182" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q24" s="186" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="25" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A25" s="172">
         <v>22</v>
       </c>
@@ -8044,19 +8140,19 @@
       <c r="J25" s="172"/>
       <c r="K25" s="179"/>
       <c r="L25" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M25" s="180"/>
       <c r="N25" s="181"/>
       <c r="O25" s="172"/>
       <c r="P25" s="182" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q25" s="186" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="113" customFormat="1" ht="63" hidden="1" customHeight="1">
+    <row r="26" spans="1:17" s="113" customFormat="1" ht="63" customHeight="1">
       <c r="A26" s="120">
         <v>23</v>
       </c>
@@ -8093,7 +8189,7 @@
       <c r="P26" s="130"/>
       <c r="Q26" s="136"/>
     </row>
-    <row r="27" spans="1:17" s="113" customFormat="1" ht="84.75" hidden="1" customHeight="1">
+    <row r="27" spans="1:17" s="113" customFormat="1" ht="84.75" customHeight="1">
       <c r="A27" s="120">
         <v>24</v>
       </c>
@@ -8130,7 +8226,7 @@
       <c r="P27" s="130"/>
       <c r="Q27" s="136"/>
     </row>
-    <row r="28" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="28" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A28" s="120">
         <v>25</v>
       </c>
@@ -8165,7 +8261,7 @@
       <c r="P28" s="130"/>
       <c r="Q28" s="136"/>
     </row>
-    <row r="29" spans="1:17" s="113" customFormat="1" ht="67.5" hidden="1" customHeight="1">
+    <row r="29" spans="1:17" s="113" customFormat="1" ht="67.5" customHeight="1">
       <c r="A29" s="120">
         <v>26</v>
       </c>
@@ -8202,7 +8298,7 @@
       <c r="P29" s="130"/>
       <c r="Q29" s="136"/>
     </row>
-    <row r="30" spans="1:17" s="113" customFormat="1" ht="71.25" hidden="1" customHeight="1">
+    <row r="30" spans="1:17" s="113" customFormat="1" ht="71.25" customHeight="1">
       <c r="A30" s="120">
         <v>27</v>
       </c>
@@ -8239,7 +8335,7 @@
       <c r="P30" s="130"/>
       <c r="Q30" s="136"/>
     </row>
-    <row r="31" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="31" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A31" s="120">
         <v>28</v>
       </c>
@@ -8278,7 +8374,7 @@
       </c>
       <c r="Q31" s="167"/>
     </row>
-    <row r="32" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="32" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A32" s="172">
         <v>29</v>
       </c>
@@ -8307,19 +8403,19 @@
       <c r="J32" s="172"/>
       <c r="K32" s="179"/>
       <c r="L32" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M32" s="180"/>
       <c r="N32" s="181"/>
       <c r="O32" s="172"/>
       <c r="P32" s="182" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q32" s="183" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="33" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A33" s="120">
         <v>30</v>
       </c>
@@ -8358,7 +8454,7 @@
       </c>
       <c r="Q33" s="136"/>
     </row>
-    <row r="34" spans="1:17" s="113" customFormat="1" ht="61.2" hidden="1" customHeight="1">
+    <row r="34" spans="1:17" s="113" customFormat="1" ht="61.2" customHeight="1">
       <c r="A34" s="120">
         <v>31</v>
       </c>
@@ -8397,7 +8493,7 @@
       </c>
       <c r="Q34" s="136"/>
     </row>
-    <row r="35" spans="1:17" s="65" customFormat="1" ht="78.75" hidden="1" customHeight="1">
+    <row r="35" spans="1:17" s="65" customFormat="1" ht="78.75" customHeight="1">
       <c r="A35" s="120">
         <v>32</v>
       </c>
@@ -8469,7 +8565,7 @@
       <c r="P36" s="211"/>
       <c r="Q36" s="212"/>
     </row>
-    <row r="37" spans="1:17" s="65" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="37" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
       <c r="A37" s="120">
         <v>34</v>
       </c>
@@ -8506,7 +8602,7 @@
       </c>
       <c r="Q37" s="190"/>
     </row>
-    <row r="38" spans="1:17" s="65" customFormat="1" ht="62.25" hidden="1" customHeight="1">
+    <row r="38" spans="1:17" s="65" customFormat="1" ht="62.25" customHeight="1">
       <c r="A38" s="120">
         <v>35</v>
       </c>
@@ -8541,7 +8637,7 @@
       <c r="P38" s="150"/>
       <c r="Q38" s="190"/>
     </row>
-    <row r="39" spans="1:17" s="65" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="39" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
       <c r="A39" s="120">
         <v>36</v>
       </c>
@@ -8576,7 +8672,7 @@
       <c r="P39" s="150"/>
       <c r="Q39" s="190"/>
     </row>
-    <row r="40" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="40" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A40" s="120">
         <v>37</v>
       </c>
@@ -8611,7 +8707,7 @@
       <c r="P40" s="130"/>
       <c r="Q40" s="136"/>
     </row>
-    <row r="41" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="41" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A41" s="120">
         <v>38</v>
       </c>
@@ -8646,7 +8742,7 @@
       <c r="P41" s="130"/>
       <c r="Q41" s="136"/>
     </row>
-    <row r="42" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="42" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A42" s="120">
         <v>39</v>
       </c>
@@ -8681,7 +8777,7 @@
       <c r="P42" s="130"/>
       <c r="Q42" s="136"/>
     </row>
-    <row r="43" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="43" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A43" s="120">
         <v>40</v>
       </c>
@@ -8718,7 +8814,7 @@
       <c r="P43" s="130"/>
       <c r="Q43" s="136"/>
     </row>
-    <row r="44" spans="1:17" s="113" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="44" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
       <c r="A44" s="120">
         <v>41</v>
       </c>
@@ -8755,7 +8851,7 @@
       <c r="P44" s="216"/>
       <c r="Q44" s="167"/>
     </row>
-    <row r="45" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="45" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A45" s="120">
         <v>42</v>
       </c>
@@ -8782,7 +8878,7 @@
       <c r="P45" s="150"/>
       <c r="Q45" s="151"/>
     </row>
-    <row r="46" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="46" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A46" s="120">
         <v>43</v>
       </c>
@@ -8811,7 +8907,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="47" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A47" s="120">
         <v>44</v>
       </c>
@@ -8840,7 +8936,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="48" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A48" s="120">
         <v>45</v>
       </c>
@@ -8869,7 +8965,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="49" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A49" s="120">
         <v>46</v>
       </c>
@@ -8898,15 +8994,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="50" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A50" s="120">
         <v>47</v>
       </c>
       <c r="B50" s="140" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C50" s="141" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D50" s="142"/>
       <c r="E50" s="143"/>
@@ -8929,7 +9025,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="51" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A51" s="120">
         <v>48</v>
       </c>
@@ -8960,7 +9056,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="52" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A52" s="120">
         <v>49</v>
       </c>
@@ -8989,7 +9085,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A53" s="120">
         <v>50</v>
       </c>
@@ -9006,7 +9102,7 @@
       <c r="H53" s="145"/>
       <c r="I53" s="149"/>
       <c r="J53" s="146" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K53" s="147">
         <v>43828</v>
@@ -9018,13 +9114,13 @@
       <c r="N53" s="148"/>
       <c r="O53" s="149"/>
       <c r="P53" s="150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q53" s="151" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="17" customFormat="1" ht="75.599999999999994" hidden="1" customHeight="1">
+    <row r="54" spans="1:17" s="17" customFormat="1" ht="75.599999999999994" customHeight="1">
       <c r="A54" s="120">
         <v>51</v>
       </c>
@@ -9040,14 +9136,14 @@
       <c r="G54" s="144"/>
       <c r="H54" s="145"/>
       <c r="I54" s="149"/>
-      <c r="J54" s="240" t="s">
-        <v>275</v>
+      <c r="J54" s="239" t="s">
+        <v>274</v>
       </c>
       <c r="K54" s="147">
         <v>43828</v>
       </c>
       <c r="L54" s="127" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M54" s="128"/>
       <c r="N54" s="148"/>
@@ -9055,7 +9151,7 @@
       <c r="P54" s="150"/>
       <c r="Q54" s="151"/>
     </row>
-    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A55" s="120">
         <v>52</v>
       </c>
@@ -9072,7 +9168,7 @@
       <c r="H55" s="145"/>
       <c r="I55" s="149"/>
       <c r="J55" s="146" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K55" s="147">
         <v>43828</v>
@@ -9084,13 +9180,13 @@
       <c r="N55" s="148"/>
       <c r="O55" s="149"/>
       <c r="P55" s="150" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q55" s="151" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="56" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A56" s="120">
         <v>53</v>
       </c>
@@ -9098,7 +9194,7 @@
         <v>213</v>
       </c>
       <c r="C56" s="141" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D56" s="142"/>
       <c r="E56" s="143"/>
@@ -9107,7 +9203,7 @@
       <c r="H56" s="145"/>
       <c r="I56" s="149"/>
       <c r="J56" s="146" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K56" s="147">
         <v>43828</v>
@@ -9121,7 +9217,7 @@
       <c r="P56" s="150"/>
       <c r="Q56" s="151"/>
     </row>
-    <row r="57" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="57" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A57" s="120">
         <v>54</v>
       </c>
@@ -9138,7 +9234,7 @@
       <c r="H57" s="145"/>
       <c r="I57" s="149"/>
       <c r="J57" s="146" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K57" s="147">
         <v>43828</v>
@@ -9152,7 +9248,7 @@
       <c r="P57" s="150"/>
       <c r="Q57" s="151"/>
     </row>
-    <row r="58" spans="1:17" s="17" customFormat="1" ht="100.8" hidden="1">
+    <row r="58" spans="1:17" s="17" customFormat="1" ht="100.8">
       <c r="A58" s="120">
         <v>55</v>
       </c>
@@ -9160,7 +9256,7 @@
         <v>210</v>
       </c>
       <c r="C58" s="141" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D58" s="142"/>
       <c r="E58" s="143"/>
@@ -9168,8 +9264,8 @@
       <c r="G58" s="144"/>
       <c r="H58" s="145"/>
       <c r="I58" s="149"/>
-      <c r="J58" s="240" t="s">
-        <v>290</v>
+      <c r="J58" s="239" t="s">
+        <v>288</v>
       </c>
       <c r="K58" s="147">
         <v>43828</v>
@@ -9212,7 +9308,7 @@
       <c r="P59" s="211"/>
       <c r="Q59" s="220"/>
     </row>
-    <row r="60" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="60" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A60" s="120">
         <v>57</v>
       </c>
@@ -9229,7 +9325,7 @@
       <c r="H60" s="145"/>
       <c r="I60" s="149"/>
       <c r="J60" s="146" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K60" s="147">
         <v>43828</v>
@@ -9241,11 +9337,11 @@
       <c r="N60" s="148"/>
       <c r="O60" s="149"/>
       <c r="P60" s="150" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q60" s="151"/>
     </row>
-    <row r="61" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="61" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A61" s="120">
         <v>58</v>
       </c>
@@ -9272,7 +9368,7 @@
       <c r="P61" s="150"/>
       <c r="Q61" s="151"/>
     </row>
-    <row r="62" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="62" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A62" s="120">
         <v>59</v>
       </c>
@@ -9299,7 +9395,7 @@
       <c r="P62" s="150"/>
       <c r="Q62" s="151"/>
     </row>
-    <row r="63" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="63" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A63" s="168">
         <v>60</v>
       </c>
@@ -9326,7 +9422,7 @@
       </c>
       <c r="Q63" s="222"/>
     </row>
-    <row r="64" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="64" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A64" s="120">
         <v>61</v>
       </c>
@@ -9355,7 +9451,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="65" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A65" s="120">
         <v>62</v>
       </c>
@@ -9382,7 +9478,7 @@
       <c r="P65" s="150"/>
       <c r="Q65" s="151"/>
     </row>
-    <row r="66" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="66" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A66" s="120">
         <v>63</v>
       </c>
@@ -9409,7 +9505,7 @@
       <c r="P66" s="150"/>
       <c r="Q66" s="151"/>
     </row>
-    <row r="67" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="67" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A67" s="120">
         <v>64</v>
       </c>
@@ -9436,7 +9532,7 @@
       <c r="P67" s="150"/>
       <c r="Q67" s="151"/>
     </row>
-    <row r="68" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="68" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A68" s="168">
         <v>65</v>
       </c>
@@ -9463,7 +9559,7 @@
       </c>
       <c r="Q68" s="222"/>
     </row>
-    <row r="69" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="69" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A69" s="172">
         <v>66</v>
       </c>
@@ -9482,19 +9578,19 @@
       <c r="J69" s="230"/>
       <c r="K69" s="231"/>
       <c r="L69" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M69" s="180"/>
       <c r="N69" s="233"/>
       <c r="O69" s="229"/>
       <c r="P69" s="234" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q69" s="235" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="70" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A70" s="120">
         <v>67</v>
       </c>
@@ -9511,13 +9607,13 @@
       <c r="H70" s="145"/>
       <c r="I70" s="149"/>
       <c r="J70" s="146" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K70" s="147">
         <v>43828</v>
       </c>
       <c r="L70" s="189" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M70" s="128"/>
       <c r="N70" s="148"/>
@@ -9525,7 +9621,7 @@
       <c r="P70" s="150"/>
       <c r="Q70" s="151"/>
     </row>
-    <row r="71" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="71" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A71" s="120">
         <v>68</v>
       </c>
@@ -9552,7 +9648,7 @@
       <c r="P71" s="150"/>
       <c r="Q71" s="151"/>
     </row>
-    <row r="72" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="72" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A72" s="172">
         <v>69</v>
       </c>
@@ -9571,19 +9667,19 @@
       <c r="J72" s="230"/>
       <c r="K72" s="231"/>
       <c r="L72" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M72" s="180"/>
       <c r="N72" s="233"/>
       <c r="O72" s="229"/>
       <c r="P72" s="234" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q72" s="235" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="73" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A73" s="120">
         <v>70</v>
       </c>
@@ -9610,7 +9706,7 @@
       <c r="P73" s="150"/>
       <c r="Q73" s="151"/>
     </row>
-    <row r="74" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="74" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A74" s="120">
         <v>71</v>
       </c>
@@ -9637,7 +9733,7 @@
       <c r="P74" s="150"/>
       <c r="Q74" s="151"/>
     </row>
-    <row r="75" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="75" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A75" s="120">
         <v>72</v>
       </c>
@@ -9653,26 +9749,26 @@
       <c r="G75" s="144"/>
       <c r="H75" s="145"/>
       <c r="I75" s="149"/>
-      <c r="J75" s="240" t="s">
-        <v>279</v>
+      <c r="J75" s="239" t="s">
+        <v>278</v>
       </c>
       <c r="K75" s="147">
         <v>43828</v>
       </c>
       <c r="L75" s="189" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M75" s="128"/>
       <c r="N75" s="148"/>
       <c r="O75" s="149"/>
       <c r="P75" s="150" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q75" s="151" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="76" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A76" s="120">
         <v>73</v>
       </c>
@@ -9688,14 +9784,14 @@
       <c r="G76" s="144"/>
       <c r="H76" s="145"/>
       <c r="I76" s="149"/>
-      <c r="J76" s="240" t="s">
-        <v>279</v>
+      <c r="J76" s="239" t="s">
+        <v>278</v>
       </c>
       <c r="K76" s="147">
         <v>43828</v>
       </c>
       <c r="L76" s="189" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M76" s="128"/>
       <c r="N76" s="148"/>
@@ -9705,7 +9801,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="77" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A77" s="172">
         <v>74</v>
       </c>
@@ -9721,26 +9817,26 @@
       <c r="G77" s="227"/>
       <c r="H77" s="228"/>
       <c r="I77" s="229"/>
-      <c r="J77" s="241" t="s">
-        <v>279</v>
+      <c r="J77" s="240" t="s">
+        <v>278</v>
       </c>
       <c r="K77" s="231">
         <v>43828</v>
       </c>
       <c r="L77" s="232" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M77" s="180"/>
       <c r="N77" s="233"/>
       <c r="O77" s="229"/>
       <c r="P77" s="234" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q77" s="235" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="78" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A78" s="120">
         <v>75</v>
       </c>
@@ -9757,13 +9853,13 @@
       <c r="H78" s="145"/>
       <c r="I78" s="149"/>
       <c r="J78" s="146" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K78" s="147">
         <v>43828</v>
       </c>
       <c r="L78" s="189" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M78" s="128"/>
       <c r="N78" s="148"/>
@@ -9771,7 +9867,7 @@
       <c r="P78" s="150"/>
       <c r="Q78" s="151"/>
     </row>
-    <row r="79" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="79" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A79" s="168">
         <v>76</v>
       </c>
@@ -9798,7 +9894,7 @@
       </c>
       <c r="Q79" s="222"/>
     </row>
-    <row r="80" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="80" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A80" s="168">
         <v>77</v>
       </c>
@@ -9825,7 +9921,7 @@
       </c>
       <c r="Q80" s="222"/>
     </row>
-    <row r="81" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="81" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A81" s="120">
         <v>78</v>
       </c>
@@ -9852,7 +9948,7 @@
       <c r="P81" s="150"/>
       <c r="Q81" s="151"/>
     </row>
-    <row r="82" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="82" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A82" s="172">
         <v>79</v>
       </c>
@@ -9871,19 +9967,19 @@
       <c r="J82" s="230"/>
       <c r="K82" s="231"/>
       <c r="L82" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M82" s="180"/>
       <c r="N82" s="233"/>
       <c r="O82" s="229"/>
       <c r="P82" s="234" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q82" s="235" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="83" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A83" s="172">
         <v>80</v>
       </c>
@@ -9902,17 +9998,17 @@
       <c r="J83" s="230"/>
       <c r="K83" s="231"/>
       <c r="L83" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M83" s="180"/>
       <c r="N83" s="233"/>
       <c r="O83" s="229"/>
       <c r="P83" s="234" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q83" s="235"/>
     </row>
-    <row r="84" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="84" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A84" s="120">
         <v>81</v>
       </c>
@@ -9929,13 +10025,13 @@
       <c r="H84" s="145"/>
       <c r="I84" s="149"/>
       <c r="J84" s="146" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K84" s="147">
         <v>43828</v>
       </c>
       <c r="L84" s="189" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M84" s="128"/>
       <c r="N84" s="148"/>
@@ -9943,7 +10039,7 @@
       <c r="P84" s="150"/>
       <c r="Q84" s="151"/>
     </row>
-    <row r="85" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="85" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A85" s="172">
         <v>82</v>
       </c>
@@ -9962,13 +10058,13 @@
       <c r="J85" s="230"/>
       <c r="K85" s="231"/>
       <c r="L85" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M85" s="180"/>
       <c r="N85" s="233"/>
       <c r="O85" s="229"/>
       <c r="P85" s="234" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q85" s="235" t="s">
         <v>151</v>
@@ -10003,7 +10099,7 @@
       <c r="P86" s="211"/>
       <c r="Q86" s="220"/>
     </row>
-    <row r="87" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="87" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A87" s="120">
         <v>84</v>
       </c>
@@ -10047,7 +10143,7 @@
       <c r="H88" s="206"/>
       <c r="I88" s="210"/>
       <c r="J88" s="207" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K88" s="208">
         <v>43828</v>
@@ -10063,7 +10159,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="89" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A89" s="120">
         <v>86</v>
       </c>
@@ -10080,13 +10176,13 @@
       <c r="H89" s="145"/>
       <c r="I89" s="149"/>
       <c r="J89" s="146" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K89" s="147">
         <v>43828</v>
       </c>
       <c r="L89" s="189" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M89" s="128"/>
       <c r="N89" s="148"/>
@@ -10094,7 +10190,7 @@
       <c r="P89" s="150"/>
       <c r="Q89" s="151"/>
     </row>
-    <row r="90" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="90" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A90" s="120">
         <v>87</v>
       </c>
@@ -10138,13 +10234,13 @@
       <c r="H91" s="206"/>
       <c r="I91" s="210"/>
       <c r="J91" s="207" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K91" s="208">
         <v>43828</v>
       </c>
       <c r="L91" s="219" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M91" s="160"/>
       <c r="N91" s="209"/>
@@ -10152,7 +10248,7 @@
       <c r="P91" s="211"/>
       <c r="Q91" s="220"/>
     </row>
-    <row r="92" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="92" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A92" s="168">
         <v>89</v>
       </c>
@@ -10179,7 +10275,7 @@
       </c>
       <c r="Q92" s="222"/>
     </row>
-    <row r="93" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="93" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A93" s="172">
         <v>90</v>
       </c>
@@ -10198,19 +10294,19 @@
       <c r="J93" s="230"/>
       <c r="K93" s="231"/>
       <c r="L93" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M93" s="180"/>
       <c r="N93" s="233"/>
       <c r="O93" s="229"/>
       <c r="P93" s="234" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q93" s="235" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="17" customFormat="1" ht="86.4" hidden="1">
+    <row r="94" spans="1:17" s="17" customFormat="1" ht="86.4">
       <c r="A94" s="168">
         <v>91</v>
       </c>
@@ -10237,7 +10333,7 @@
       </c>
       <c r="Q94" s="222"/>
     </row>
-    <row r="95" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="95" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A95" s="172">
         <v>92</v>
       </c>
@@ -10256,19 +10352,19 @@
       <c r="J95" s="230"/>
       <c r="K95" s="231"/>
       <c r="L95" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M95" s="180"/>
       <c r="N95" s="233"/>
       <c r="O95" s="229"/>
       <c r="P95" s="234" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q95" s="235" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="96" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A96" s="120">
         <v>93</v>
       </c>
@@ -10295,7 +10391,7 @@
       <c r="P96" s="150"/>
       <c r="Q96" s="151"/>
     </row>
-    <row r="97" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="97" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A97" s="172">
         <v>94</v>
       </c>
@@ -10314,17 +10410,17 @@
       <c r="J97" s="230"/>
       <c r="K97" s="231"/>
       <c r="L97" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M97" s="180"/>
       <c r="N97" s="233"/>
       <c r="O97" s="229"/>
       <c r="P97" s="234" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q97" s="235"/>
     </row>
-    <row r="98" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="98" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A98" s="172">
         <v>95</v>
       </c>
@@ -10343,17 +10439,17 @@
       <c r="J98" s="230"/>
       <c r="K98" s="231"/>
       <c r="L98" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M98" s="180"/>
       <c r="N98" s="233"/>
       <c r="O98" s="229"/>
       <c r="P98" s="234" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q98" s="235"/>
     </row>
-    <row r="99" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="99" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A99" s="172">
         <v>96</v>
       </c>
@@ -10372,19 +10468,19 @@
       <c r="J99" s="230"/>
       <c r="K99" s="231"/>
       <c r="L99" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M99" s="180"/>
       <c r="N99" s="233"/>
       <c r="O99" s="229"/>
       <c r="P99" s="234" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q99" s="235" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="100" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A100" s="172">
         <v>97</v>
       </c>
@@ -10403,19 +10499,19 @@
       <c r="J100" s="230"/>
       <c r="K100" s="231"/>
       <c r="L100" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M100" s="180"/>
       <c r="N100" s="233"/>
       <c r="O100" s="229"/>
       <c r="P100" s="234" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q100" s="235" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="101" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A101" s="120">
         <v>98</v>
       </c>
@@ -10442,7 +10538,7 @@
       <c r="P101" s="150"/>
       <c r="Q101" s="151"/>
     </row>
-    <row r="102" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="102" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A102" s="120">
         <v>99</v>
       </c>
@@ -10469,7 +10565,7 @@
       <c r="P102" s="150"/>
       <c r="Q102" s="151"/>
     </row>
-    <row r="103" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="103" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A103" s="120">
         <v>100</v>
       </c>
@@ -10486,23 +10582,23 @@
       <c r="H103" s="145"/>
       <c r="I103" s="149"/>
       <c r="J103" s="146" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K103" s="147">
         <v>43828</v>
       </c>
       <c r="L103" s="189" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M103" s="128"/>
       <c r="N103" s="148"/>
       <c r="O103" s="149"/>
       <c r="P103" s="150" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q103" s="151"/>
     </row>
-    <row r="104" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="104" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A104" s="120">
         <v>101</v>
       </c>
@@ -10529,7 +10625,7 @@
       <c r="P104" s="150"/>
       <c r="Q104" s="151"/>
     </row>
-    <row r="105" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="105" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A105" s="120">
         <v>102</v>
       </c>
@@ -10545,14 +10641,14 @@
       <c r="G105" s="144"/>
       <c r="H105" s="145"/>
       <c r="I105" s="149"/>
-      <c r="J105" s="240" t="s">
-        <v>279</v>
+      <c r="J105" s="239" t="s">
+        <v>278</v>
       </c>
       <c r="K105" s="147">
         <v>43828</v>
       </c>
       <c r="L105" s="189" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M105" s="128"/>
       <c r="N105" s="148"/>
@@ -10562,7 +10658,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="106" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A106" s="120">
         <v>103</v>
       </c>
@@ -10578,14 +10674,14 @@
       <c r="G106" s="144"/>
       <c r="H106" s="145"/>
       <c r="I106" s="149"/>
-      <c r="J106" s="240" t="s">
-        <v>279</v>
+      <c r="J106" s="239" t="s">
+        <v>278</v>
       </c>
       <c r="K106" s="147">
         <v>43828</v>
       </c>
       <c r="L106" s="189" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="M106" s="128"/>
       <c r="N106" s="148"/>
@@ -10593,7 +10689,7 @@
       <c r="P106" s="150"/>
       <c r="Q106" s="151"/>
     </row>
-    <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="107" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A107" s="120">
         <v>104</v>
       </c>
@@ -10610,13 +10706,13 @@
       <c r="H107" s="145"/>
       <c r="I107" s="149"/>
       <c r="J107" s="146" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K107" s="147">
         <v>43828</v>
       </c>
       <c r="L107" s="189" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M107" s="128"/>
       <c r="N107" s="148"/>
@@ -10624,7 +10720,7 @@
       <c r="P107" s="150"/>
       <c r="Q107" s="151"/>
     </row>
-    <row r="108" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="108" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A108" s="120">
         <v>105</v>
       </c>
@@ -10632,7 +10728,7 @@
         <v>236</v>
       </c>
       <c r="C108" s="141" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D108" s="142"/>
       <c r="E108" s="143"/>
@@ -10653,13 +10749,13 @@
       <c r="P108" s="150"/>
       <c r="Q108" s="151"/>
     </row>
-    <row r="109" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="109" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A109" s="172">
         <v>106</v>
       </c>
       <c r="B109" s="223"/>
       <c r="C109" s="224" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D109" s="225"/>
       <c r="E109" s="226"/>
@@ -10670,25 +10766,25 @@
       <c r="J109" s="230"/>
       <c r="K109" s="231"/>
       <c r="L109" s="232" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M109" s="180"/>
       <c r="N109" s="233"/>
       <c r="O109" s="229"/>
       <c r="P109" s="234" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q109" s="235" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A110" s="120">
         <v>107</v>
       </c>
       <c r="B110" s="140"/>
       <c r="C110" s="141" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D110" s="142"/>
       <c r="E110" s="143"/>
@@ -10697,58 +10793,58 @@
       <c r="H110" s="145"/>
       <c r="I110" s="149"/>
       <c r="J110" s="146" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K110" s="147">
         <v>43828</v>
       </c>
       <c r="L110" s="189" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M110" s="128"/>
       <c r="N110" s="148"/>
       <c r="O110" s="149"/>
       <c r="P110" s="150" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q110" s="151"/>
     </row>
     <row r="111" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A111" s="152">
+      <c r="A111" s="120">
         <v>108</v>
       </c>
-      <c r="B111" s="217"/>
-      <c r="C111" s="203" t="s">
-        <v>253</v>
-      </c>
-      <c r="D111" s="204"/>
-      <c r="E111" s="218"/>
-      <c r="F111" s="218"/>
-      <c r="G111" s="205"/>
-      <c r="H111" s="206"/>
-      <c r="I111" s="210"/>
+      <c r="B111" s="140"/>
+      <c r="C111" s="141" t="s">
+        <v>252</v>
+      </c>
+      <c r="D111" s="142"/>
+      <c r="E111" s="143"/>
+      <c r="F111" s="143"/>
+      <c r="G111" s="144"/>
+      <c r="H111" s="145"/>
+      <c r="I111" s="149"/>
       <c r="J111" s="239" t="s">
-        <v>280</v>
-      </c>
-      <c r="K111" s="208">
+        <v>279</v>
+      </c>
+      <c r="K111" s="147">
         <v>43828</v>
       </c>
-      <c r="L111" s="219" t="s">
-        <v>241</v>
-      </c>
-      <c r="M111" s="160"/>
-      <c r="N111" s="209"/>
-      <c r="O111" s="210"/>
-      <c r="P111" s="211"/>
-      <c r="Q111" s="220"/>
-    </row>
-    <row r="112" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="L111" s="189" t="s">
+        <v>281</v>
+      </c>
+      <c r="M111" s="128"/>
+      <c r="N111" s="148"/>
+      <c r="O111" s="149"/>
+      <c r="P111" s="150"/>
+      <c r="Q111" s="151"/>
+    </row>
+    <row r="112" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A112" s="120">
         <v>110</v>
       </c>
       <c r="B112" s="140"/>
       <c r="C112" s="141" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D112" s="142"/>
       <c r="E112" s="143"/>
@@ -10757,29 +10853,29 @@
       <c r="H112" s="145"/>
       <c r="I112" s="149"/>
       <c r="J112" s="146" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K112" s="147">
         <v>43828</v>
       </c>
       <c r="L112" s="189" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M112" s="128"/>
       <c r="N112" s="148"/>
       <c r="O112" s="149"/>
       <c r="P112" s="150"/>
       <c r="Q112" s="151" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A113" s="168">
         <v>111</v>
       </c>
       <c r="B113" s="191"/>
       <c r="C113" s="192" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D113" s="193"/>
       <c r="E113" s="194"/>
@@ -10794,17 +10890,17 @@
       <c r="N113" s="199"/>
       <c r="O113" s="200"/>
       <c r="P113" s="201" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q113" s="222"/>
     </row>
-    <row r="114" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="114" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A114" s="172">
         <v>112</v>
       </c>
       <c r="B114" s="223"/>
       <c r="C114" s="224" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D114" s="225"/>
       <c r="E114" s="226"/>
@@ -10815,23 +10911,23 @@
       <c r="J114" s="230"/>
       <c r="K114" s="231"/>
       <c r="L114" s="232" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M114" s="180"/>
       <c r="N114" s="233"/>
       <c r="O114" s="229"/>
       <c r="P114" s="234" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q114" s="235"/>
     </row>
-    <row r="115" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="115" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A115" s="120">
         <v>113</v>
       </c>
       <c r="B115" s="140"/>
       <c r="C115" s="141" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D115" s="142"/>
       <c r="E115" s="143"/>
@@ -10842,23 +10938,23 @@
       <c r="J115" s="146"/>
       <c r="K115" s="147"/>
       <c r="L115" s="189" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M115" s="128"/>
       <c r="N115" s="148"/>
       <c r="O115" s="149"/>
       <c r="P115" s="150" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q115" s="151"/>
     </row>
-    <row r="116" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="116" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A116" s="172">
         <v>114</v>
       </c>
       <c r="B116" s="223"/>
       <c r="C116" s="224" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D116" s="225"/>
       <c r="E116" s="226"/>
@@ -10869,213 +10965,273 @@
       <c r="J116" s="230"/>
       <c r="K116" s="231"/>
       <c r="L116" s="232" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M116" s="180"/>
       <c r="N116" s="233"/>
       <c r="O116" s="229"/>
       <c r="P116" s="234" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q116" s="235" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A117" s="112">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A117" s="152">
         <v>115</v>
       </c>
-      <c r="B117" s="39"/>
-      <c r="C117" s="46"/>
-      <c r="D117" s="71"/>
-      <c r="E117" s="109"/>
-      <c r="F117" s="109"/>
-      <c r="G117" s="60"/>
-      <c r="H117" s="61"/>
-      <c r="I117" s="62"/>
-      <c r="J117" s="33"/>
-      <c r="K117" s="72"/>
-      <c r="L117" s="73"/>
-      <c r="M117" s="10"/>
-      <c r="N117" s="63"/>
-      <c r="O117" s="64"/>
-      <c r="P117" s="34"/>
-      <c r="Q117" s="133"/>
-    </row>
-    <row r="118" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A118" s="112">
+      <c r="B117" s="217"/>
+      <c r="C117" s="203" t="s">
+        <v>292</v>
+      </c>
+      <c r="D117" s="204"/>
+      <c r="E117" s="218"/>
+      <c r="F117" s="218"/>
+      <c r="G117" s="205"/>
+      <c r="H117" s="206"/>
+      <c r="I117" s="210"/>
+      <c r="J117" s="207" t="s">
+        <v>274</v>
+      </c>
+      <c r="K117" s="208"/>
+      <c r="L117" s="219" t="s">
+        <v>306</v>
+      </c>
+      <c r="M117" s="160"/>
+      <c r="N117" s="209"/>
+      <c r="O117" s="210"/>
+      <c r="P117" s="211"/>
+      <c r="Q117" s="220" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A118" s="120">
         <v>116</v>
       </c>
-      <c r="B118" s="39"/>
-      <c r="C118" s="46"/>
-      <c r="D118" s="71"/>
-      <c r="E118" s="109"/>
-      <c r="F118" s="109"/>
-      <c r="G118" s="60"/>
-      <c r="H118" s="61"/>
-      <c r="I118" s="62"/>
-      <c r="J118" s="33"/>
-      <c r="K118" s="72"/>
-      <c r="L118" s="73"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="63"/>
-      <c r="O118" s="64"/>
-      <c r="P118" s="34"/>
-      <c r="Q118" s="133"/>
-    </row>
-    <row r="119" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A119" s="112">
+      <c r="B118" s="140"/>
+      <c r="C118" s="141" t="s">
+        <v>293</v>
+      </c>
+      <c r="D118" s="142"/>
+      <c r="E118" s="143"/>
+      <c r="F118" s="143"/>
+      <c r="G118" s="144"/>
+      <c r="H118" s="145"/>
+      <c r="I118" s="149"/>
+      <c r="J118" s="146"/>
+      <c r="K118" s="147"/>
+      <c r="L118" s="189" t="s">
+        <v>285</v>
+      </c>
+      <c r="M118" s="128"/>
+      <c r="N118" s="148"/>
+      <c r="O118" s="149"/>
+      <c r="P118" s="150" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q118" s="151"/>
+    </row>
+    <row r="119" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A119" s="152">
         <v>117</v>
       </c>
-      <c r="B119" s="39"/>
-      <c r="C119" s="46"/>
-      <c r="D119" s="71"/>
-      <c r="E119" s="109"/>
-      <c r="F119" s="109"/>
-      <c r="G119" s="60"/>
-      <c r="H119" s="61"/>
-      <c r="I119" s="62"/>
-      <c r="J119" s="33"/>
-      <c r="K119" s="72"/>
-      <c r="L119" s="73"/>
-      <c r="M119" s="10"/>
-      <c r="N119" s="63"/>
-      <c r="O119" s="64"/>
-      <c r="P119" s="34"/>
-      <c r="Q119" s="133"/>
-    </row>
-    <row r="120" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A120" s="112">
+      <c r="B119" s="217"/>
+      <c r="C119" s="203" t="s">
+        <v>294</v>
+      </c>
+      <c r="D119" s="204"/>
+      <c r="E119" s="218"/>
+      <c r="F119" s="218"/>
+      <c r="G119" s="205"/>
+      <c r="H119" s="206"/>
+      <c r="I119" s="210"/>
+      <c r="J119" s="207" t="s">
+        <v>277</v>
+      </c>
+      <c r="K119" s="208"/>
+      <c r="L119" s="219" t="s">
+        <v>306</v>
+      </c>
+      <c r="M119" s="160"/>
+      <c r="N119" s="209"/>
+      <c r="O119" s="210"/>
+      <c r="P119" s="211"/>
+      <c r="Q119" s="220"/>
+    </row>
+    <row r="120" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A120" s="152">
         <v>118</v>
       </c>
-      <c r="B120" s="39"/>
-      <c r="C120" s="46"/>
-      <c r="D120" s="71"/>
-      <c r="E120" s="109"/>
-      <c r="F120" s="109"/>
-      <c r="G120" s="60"/>
-      <c r="H120" s="61"/>
-      <c r="I120" s="62"/>
-      <c r="J120" s="33"/>
-      <c r="K120" s="72"/>
-      <c r="L120" s="73"/>
-      <c r="M120" s="10"/>
-      <c r="N120" s="63"/>
-      <c r="O120" s="64"/>
-      <c r="P120" s="34"/>
-      <c r="Q120" s="133"/>
-    </row>
-    <row r="121" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A121" s="112">
+      <c r="B120" s="217"/>
+      <c r="C120" s="203" t="s">
+        <v>295</v>
+      </c>
+      <c r="D120" s="204"/>
+      <c r="E120" s="218"/>
+      <c r="F120" s="218"/>
+      <c r="G120" s="205"/>
+      <c r="H120" s="206"/>
+      <c r="I120" s="210"/>
+      <c r="J120" s="207" t="s">
+        <v>274</v>
+      </c>
+      <c r="K120" s="208"/>
+      <c r="L120" s="219" t="s">
+        <v>306</v>
+      </c>
+      <c r="M120" s="160"/>
+      <c r="N120" s="209"/>
+      <c r="O120" s="210"/>
+      <c r="P120" s="211"/>
+      <c r="Q120" s="220" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A121" s="172">
         <v>119</v>
       </c>
-      <c r="B121" s="39"/>
-      <c r="C121" s="46"/>
-      <c r="D121" s="71"/>
-      <c r="E121" s="109"/>
-      <c r="F121" s="109"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="61"/>
-      <c r="I121" s="62"/>
-      <c r="J121" s="33"/>
-      <c r="K121" s="72"/>
-      <c r="L121" s="73"/>
-      <c r="M121" s="10"/>
-      <c r="N121" s="63"/>
-      <c r="O121" s="64"/>
-      <c r="P121" s="34"/>
-      <c r="Q121" s="133"/>
-    </row>
-    <row r="122" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A122" s="112">
+      <c r="B121" s="223"/>
+      <c r="C121" s="224" t="s">
+        <v>309</v>
+      </c>
+      <c r="D121" s="225"/>
+      <c r="E121" s="226"/>
+      <c r="F121" s="226"/>
+      <c r="G121" s="227"/>
+      <c r="H121" s="228"/>
+      <c r="I121" s="229"/>
+      <c r="J121" s="230"/>
+      <c r="K121" s="231"/>
+      <c r="L121" s="232" t="s">
+        <v>312</v>
+      </c>
+      <c r="M121" s="180"/>
+      <c r="N121" s="233"/>
+      <c r="O121" s="229"/>
+      <c r="P121" s="234" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q121" s="235" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A122" s="152">
         <v>120</v>
       </c>
-      <c r="B122" s="39"/>
-      <c r="C122" s="46"/>
-      <c r="D122" s="71"/>
-      <c r="E122" s="109"/>
-      <c r="F122" s="109"/>
-      <c r="G122" s="60"/>
-      <c r="H122" s="61"/>
-      <c r="I122" s="62"/>
-      <c r="J122" s="33"/>
-      <c r="K122" s="72"/>
-      <c r="L122" s="73"/>
-      <c r="M122" s="10"/>
-      <c r="N122" s="63"/>
-      <c r="O122" s="64"/>
-      <c r="P122" s="34"/>
-      <c r="Q122" s="133"/>
-    </row>
-    <row r="123" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A123" s="112">
+      <c r="B122" s="217"/>
+      <c r="C122" s="203" t="s">
+        <v>296</v>
+      </c>
+      <c r="D122" s="204"/>
+      <c r="E122" s="218"/>
+      <c r="F122" s="218"/>
+      <c r="G122" s="205"/>
+      <c r="H122" s="206"/>
+      <c r="I122" s="210"/>
+      <c r="J122" s="207" t="s">
+        <v>274</v>
+      </c>
+      <c r="K122" s="208"/>
+      <c r="L122" s="219" t="s">
+        <v>306</v>
+      </c>
+      <c r="M122" s="160"/>
+      <c r="N122" s="209"/>
+      <c r="O122" s="210"/>
+      <c r="P122" s="211"/>
+      <c r="Q122" s="220"/>
+    </row>
+    <row r="123" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A123" s="152">
         <v>121</v>
       </c>
-      <c r="B123" s="39"/>
-      <c r="C123" s="46"/>
-      <c r="D123" s="71"/>
-      <c r="E123" s="109"/>
-      <c r="F123" s="109"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="61"/>
-      <c r="I123" s="62"/>
-      <c r="J123" s="33"/>
-      <c r="K123" s="72"/>
-      <c r="L123" s="73"/>
-      <c r="M123" s="10"/>
-      <c r="N123" s="63"/>
-      <c r="O123" s="64"/>
-      <c r="P123" s="34"/>
-      <c r="Q123" s="133"/>
-    </row>
-    <row r="124" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A124" s="112">
+      <c r="B123" s="217"/>
+      <c r="C123" s="203" t="s">
+        <v>297</v>
+      </c>
+      <c r="D123" s="204"/>
+      <c r="E123" s="218"/>
+      <c r="F123" s="218"/>
+      <c r="G123" s="205"/>
+      <c r="H123" s="206"/>
+      <c r="I123" s="210"/>
+      <c r="J123" s="207" t="s">
+        <v>274</v>
+      </c>
+      <c r="K123" s="208"/>
+      <c r="L123" s="219" t="s">
+        <v>306</v>
+      </c>
+      <c r="M123" s="160"/>
+      <c r="N123" s="209"/>
+      <c r="O123" s="210"/>
+      <c r="P123" s="211"/>
+      <c r="Q123" s="220"/>
+    </row>
+    <row r="124" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A124" s="168">
         <v>122</v>
       </c>
-      <c r="B124" s="39"/>
-      <c r="C124" s="46"/>
-      <c r="D124" s="71"/>
-      <c r="E124" s="109"/>
-      <c r="F124" s="109"/>
-      <c r="G124" s="60"/>
-      <c r="H124" s="61"/>
-      <c r="I124" s="62"/>
-      <c r="J124" s="33"/>
-      <c r="K124" s="72"/>
-      <c r="L124" s="73"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="63"/>
-      <c r="O124" s="64"/>
-      <c r="P124" s="34"/>
-      <c r="Q124" s="133"/>
-    </row>
-    <row r="125" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A125" s="112">
+      <c r="B124" s="191"/>
+      <c r="C124" s="192" t="s">
+        <v>298</v>
+      </c>
+      <c r="D124" s="193"/>
+      <c r="E124" s="194"/>
+      <c r="F124" s="194"/>
+      <c r="G124" s="195"/>
+      <c r="H124" s="221"/>
+      <c r="I124" s="200"/>
+      <c r="J124" s="196"/>
+      <c r="K124" s="197"/>
+      <c r="L124" s="198"/>
+      <c r="M124" s="171"/>
+      <c r="N124" s="199"/>
+      <c r="O124" s="200"/>
+      <c r="P124" s="201" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q124" s="222"/>
+    </row>
+    <row r="125" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A125" s="120">
         <v>123</v>
       </c>
-      <c r="B125" s="39"/>
-      <c r="C125" s="46"/>
-      <c r="D125" s="71"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="61"/>
-      <c r="I125" s="62"/>
-      <c r="J125" s="33"/>
-      <c r="K125" s="72"/>
-      <c r="L125" s="73"/>
-      <c r="M125" s="10"/>
-      <c r="N125" s="63"/>
-      <c r="O125" s="64"/>
-      <c r="P125" s="34"/>
-      <c r="Q125" s="133"/>
-    </row>
-    <row r="126" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="B125" s="140"/>
+      <c r="C125" s="141" t="s">
+        <v>299</v>
+      </c>
+      <c r="D125" s="142"/>
+      <c r="E125" s="143"/>
+      <c r="F125" s="143"/>
+      <c r="G125" s="144"/>
+      <c r="H125" s="145"/>
+      <c r="I125" s="149"/>
+      <c r="J125" s="146"/>
+      <c r="K125" s="147"/>
+      <c r="L125" s="189" t="s">
+        <v>285</v>
+      </c>
+      <c r="M125" s="128"/>
+      <c r="N125" s="148"/>
+      <c r="O125" s="149"/>
+      <c r="P125" s="150" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q125" s="151"/>
+    </row>
+    <row r="126" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A126" s="112">
         <v>124</v>
       </c>
       <c r="B126" s="39"/>
-      <c r="C126" s="46"/>
+      <c r="C126" s="46" t="s">
+        <v>300</v>
+      </c>
       <c r="D126" s="71"/>
       <c r="E126" s="109"/>
       <c r="F126" s="109"/>
@@ -11091,12 +11247,14 @@
       <c r="P126" s="34"/>
       <c r="Q126" s="133"/>
     </row>
-    <row r="127" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="127" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A127" s="112">
         <v>125</v>
       </c>
       <c r="B127" s="39"/>
-      <c r="C127" s="46"/>
+      <c r="C127" s="46" t="s">
+        <v>301</v>
+      </c>
       <c r="D127" s="71"/>
       <c r="E127" s="109"/>
       <c r="F127" s="109"/>
@@ -11112,12 +11270,14 @@
       <c r="P127" s="34"/>
       <c r="Q127" s="133"/>
     </row>
-    <row r="128" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="128" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A128" s="112">
         <v>126</v>
       </c>
       <c r="B128" s="39"/>
-      <c r="C128" s="46"/>
+      <c r="C128" s="46" t="s">
+        <v>302</v>
+      </c>
       <c r="D128" s="71"/>
       <c r="E128" s="109"/>
       <c r="F128" s="109"/>
@@ -11133,33 +11293,39 @@
       <c r="P128" s="34"/>
       <c r="Q128" s="133"/>
     </row>
-    <row r="129" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A129" s="112">
+    <row r="129" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A129" s="152">
         <v>127</v>
       </c>
-      <c r="B129" s="39"/>
-      <c r="C129" s="46"/>
-      <c r="D129" s="71"/>
-      <c r="E129" s="109"/>
-      <c r="F129" s="109"/>
-      <c r="G129" s="60"/>
-      <c r="H129" s="61"/>
-      <c r="I129" s="62"/>
-      <c r="J129" s="33"/>
-      <c r="K129" s="72"/>
-      <c r="L129" s="73"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="63"/>
-      <c r="O129" s="64"/>
-      <c r="P129" s="34"/>
-      <c r="Q129" s="133"/>
-    </row>
-    <row r="130" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="B129" s="217"/>
+      <c r="C129" s="203" t="s">
+        <v>303</v>
+      </c>
+      <c r="D129" s="204"/>
+      <c r="E129" s="218"/>
+      <c r="F129" s="218"/>
+      <c r="G129" s="205"/>
+      <c r="H129" s="206"/>
+      <c r="I129" s="210"/>
+      <c r="J129" s="207"/>
+      <c r="K129" s="208"/>
+      <c r="L129" s="219" t="s">
+        <v>306</v>
+      </c>
+      <c r="M129" s="160"/>
+      <c r="N129" s="209"/>
+      <c r="O129" s="210"/>
+      <c r="P129" s="211"/>
+      <c r="Q129" s="220"/>
+    </row>
+    <row r="130" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A130" s="112">
         <v>128</v>
       </c>
       <c r="B130" s="39"/>
-      <c r="C130" s="46"/>
+      <c r="C130" s="46" t="s">
+        <v>304</v>
+      </c>
       <c r="D130" s="71"/>
       <c r="E130" s="109"/>
       <c r="F130" s="109"/>
@@ -11175,12 +11341,14 @@
       <c r="P130" s="34"/>
       <c r="Q130" s="133"/>
     </row>
-    <row r="131" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="131" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A131" s="112">
         <v>129</v>
       </c>
       <c r="B131" s="39"/>
-      <c r="C131" s="46"/>
+      <c r="C131" s="46" t="s">
+        <v>305</v>
+      </c>
       <c r="D131" s="71"/>
       <c r="E131" s="109"/>
       <c r="F131" s="109"/>
@@ -11196,7 +11364,7 @@
       <c r="P131" s="34"/>
       <c r="Q131" s="133"/>
     </row>
-    <row r="132" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="132" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A132" s="112">
         <v>130</v>
       </c>
@@ -11217,7 +11385,7 @@
       <c r="P132" s="34"/>
       <c r="Q132" s="133"/>
     </row>
-    <row r="133" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="133" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A133" s="112">
         <v>131</v>
       </c>
@@ -11238,7 +11406,7 @@
       <c r="P133" s="34"/>
       <c r="Q133" s="133"/>
     </row>
-    <row r="134" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="134" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A134" s="112">
         <v>132</v>
       </c>
@@ -11259,7 +11427,7 @@
       <c r="P134" s="34"/>
       <c r="Q134" s="133"/>
     </row>
-    <row r="135" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="135" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A135" s="112">
         <v>133</v>
       </c>
@@ -11280,7 +11448,7 @@
       <c r="P135" s="34"/>
       <c r="Q135" s="133"/>
     </row>
-    <row r="136" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="136" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A136" s="112">
         <v>134</v>
       </c>
@@ -11301,7 +11469,7 @@
       <c r="P136" s="34"/>
       <c r="Q136" s="133"/>
     </row>
-    <row r="137" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="137" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A137" s="112">
         <v>135</v>
       </c>
@@ -11322,7 +11490,7 @@
       <c r="P137" s="34"/>
       <c r="Q137" s="133"/>
     </row>
-    <row r="138" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="138" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A138" s="112">
         <v>136</v>
       </c>
@@ -11343,7 +11511,7 @@
       <c r="P138" s="34"/>
       <c r="Q138" s="133"/>
     </row>
-    <row r="139" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="139" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A139" s="112">
         <v>137</v>
       </c>
@@ -11364,7 +11532,7 @@
       <c r="P139" s="34"/>
       <c r="Q139" s="133"/>
     </row>
-    <row r="140" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="140" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A140" s="112">
         <v>138</v>
       </c>
@@ -11385,7 +11553,7 @@
       <c r="P140" s="34"/>
       <c r="Q140" s="133"/>
     </row>
-    <row r="141" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="141" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A141" s="112">
         <v>139</v>
       </c>
@@ -11406,7 +11574,7 @@
       <c r="P141" s="34"/>
       <c r="Q141" s="133"/>
     </row>
-    <row r="142" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="142" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A142" s="112">
         <v>140</v>
       </c>
@@ -11427,7 +11595,7 @@
       <c r="P142" s="34"/>
       <c r="Q142" s="133"/>
     </row>
-    <row r="143" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="143" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A143" s="112">
         <v>141</v>
       </c>
@@ -11448,7 +11616,7 @@
       <c r="P143" s="34"/>
       <c r="Q143" s="133"/>
     </row>
-    <row r="144" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="144" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A144" s="112">
         <v>142</v>
       </c>
@@ -11469,7 +11637,7 @@
       <c r="P144" s="34"/>
       <c r="Q144" s="133"/>
     </row>
-    <row r="145" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="145" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A145" s="112">
         <v>143</v>
       </c>
@@ -11490,7 +11658,7 @@
       <c r="P145" s="34"/>
       <c r="Q145" s="133"/>
     </row>
-    <row r="146" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="146" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A146" s="112">
         <v>144</v>
       </c>
@@ -11511,7 +11679,7 @@
       <c r="P146" s="34"/>
       <c r="Q146" s="133"/>
     </row>
-    <row r="147" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="147" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A147" s="112">
         <v>145</v>
       </c>
@@ -11532,7 +11700,7 @@
       <c r="P147" s="34"/>
       <c r="Q147" s="133"/>
     </row>
-    <row r="148" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="148" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A148" s="112">
         <v>146</v>
       </c>
@@ -11553,7 +11721,7 @@
       <c r="P148" s="34"/>
       <c r="Q148" s="133"/>
     </row>
-    <row r="149" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="149" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A149" s="112">
         <v>147</v>
       </c>
@@ -11574,7 +11742,7 @@
       <c r="P149" s="34"/>
       <c r="Q149" s="133"/>
     </row>
-    <row r="150" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="150" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A150" s="112">
         <v>148</v>
       </c>
@@ -11595,7 +11763,7 @@
       <c r="P150" s="34"/>
       <c r="Q150" s="133"/>
     </row>
-    <row r="151" spans="1:17" s="17" customFormat="1" ht="78.75" hidden="1" customHeight="1">
+    <row r="151" spans="1:17" s="17" customFormat="1" ht="78.75" customHeight="1">
       <c r="A151" s="112">
         <v>149</v>
       </c>
@@ -11616,7 +11784,7 @@
       <c r="P151" s="34"/>
       <c r="Q151" s="134"/>
     </row>
-    <row r="152" spans="1:17" ht="34.5" hidden="1" customHeight="1">
+    <row r="152" spans="1:17" ht="34.5" customHeight="1">
       <c r="A152" s="112">
         <v>150</v>
       </c>
@@ -11624,13 +11792,7 @@
     </row>
     <row r="232" ht="13.8" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A3:Q152">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="处理中"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:Q152"/>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>

--- a/Docs/06 Testing/测试课题.xlsx
+++ b/Docs/06 Testing/测试课题.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="331">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -243,7 +243,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>IT</t>
     </r>
@@ -1789,10 +1788,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>批量复制的话如何处理唯一键问题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>何福睿
 周述文</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1871,7 +1866,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>通过对话框显示</t>
+    <t>新增</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1917,6 +1912,92 @@
   </si>
   <si>
     <t>跳首行已处理。编辑状态不能方向键移动位置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>见课题126</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增功能处理确定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>见课题22</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何福睿</t>
+  </si>
+  <si>
+    <t>熊驰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊驰
+周述文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>更</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何福睿
+罗钰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量复制的话如何处理唯一键问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过对话框显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有功能待完善</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何福睿</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1980,12 +2061,10 @@
     <font>
       <sz val="11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2131,7 +2210,6 @@
       <strike/>
       <sz val="11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <strike/>
@@ -2250,7 +2328,6 @@
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2370,7 +2447,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2422,6 +2499,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2601,7 +2684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3308,6 +3391,93 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="25" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3317,10 +3487,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3513,7 +3680,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4987258" y="28825830"/>
+          <a:off x="4986617" y="28672149"/>
           <a:ext cx="1090557" cy="505727"/>
           <a:chOff x="161924" y="422672"/>
           <a:chExt cx="6267451" cy="2786066"/>
@@ -3627,7 +3794,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5020682" y="15450830"/>
+          <a:off x="5020041" y="15364385"/>
           <a:ext cx="1051984" cy="555252"/>
           <a:chOff x="1979082" y="8911167"/>
           <a:chExt cx="13009526" cy="2694661"/>
@@ -3741,7 +3908,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5043094" y="29426006"/>
+          <a:off x="5042453" y="29265282"/>
           <a:ext cx="1030940" cy="504265"/>
           <a:chOff x="4840946" y="15710647"/>
           <a:chExt cx="13058787" cy="5819774"/>
@@ -3883,7 +4050,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>2243</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>739588</xdr:rowOff>
+      <xdr:rowOff>732544</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4052,7 +4219,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>3479</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>794624</xdr:rowOff>
+      <xdr:rowOff>790453</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4150,7 +4317,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5026893" y="21792668"/>
+          <a:off x="5026252" y="21682530"/>
           <a:ext cx="1045431" cy="646871"/>
           <a:chOff x="3205370" y="17608826"/>
           <a:chExt cx="3889719" cy="3214139"/>
@@ -4501,7 +4668,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1141239</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>687972</xdr:rowOff>
+      <xdr:rowOff>680927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7198,9 +7365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K125" sqref="K125"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7224,24 +7391,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="265" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="238"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
+      <c r="N1" s="266"/>
+      <c r="O1" s="266"/>
+      <c r="P1" s="267"/>
       <c r="Q1" s="131"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="28.2" thickBot="1">
@@ -7393,41 +7560,45 @@
       <c r="Q5" s="136"/>
     </row>
     <row r="6" spans="1:17" s="113" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A6" s="172">
+      <c r="A6" s="238">
         <v>3</v>
       </c>
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="174" t="s">
+      <c r="C6" s="253" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="175"/>
-      <c r="E6" s="176" t="s">
+      <c r="D6" s="254"/>
+      <c r="E6" s="255" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="176" t="s">
+      <c r="F6" s="255" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="177">
+      <c r="G6" s="256">
         <v>43801</v>
       </c>
-      <c r="H6" s="178"/>
-      <c r="I6" s="172" t="s">
+      <c r="H6" s="257"/>
+      <c r="I6" s="238" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="172"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="232" t="s">
-        <v>242</v>
-      </c>
-      <c r="M6" s="180"/>
-      <c r="N6" s="181"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="182" t="s">
+      <c r="J6" s="238" t="s">
+        <v>321</v>
+      </c>
+      <c r="K6" s="258">
+        <v>43838</v>
+      </c>
+      <c r="L6" s="248" t="s">
+        <v>318</v>
+      </c>
+      <c r="M6" s="249"/>
+      <c r="N6" s="259"/>
+      <c r="O6" s="238"/>
+      <c r="P6" s="260" t="s">
         <v>269</v>
       </c>
-      <c r="Q6" s="186" t="s">
+      <c r="Q6" s="261" t="s">
         <v>152</v>
       </c>
     </row>
@@ -7675,9 +7846,11 @@
       <c r="I13" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="152"/>
-      <c r="K13" s="158">
-        <v>43833</v>
+      <c r="J13" s="207" t="s">
+        <v>330</v>
+      </c>
+      <c r="K13" s="208">
+        <v>43837</v>
       </c>
       <c r="L13" s="159" t="s">
         <v>240</v>
@@ -7716,9 +7889,11 @@
       <c r="I14" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="152"/>
+      <c r="J14" s="207" t="s">
+        <v>274</v>
+      </c>
       <c r="K14" s="158">
-        <v>43833</v>
+        <v>43839</v>
       </c>
       <c r="L14" s="159" t="s">
         <v>240</v>
@@ -8375,43 +8550,47 @@
       <c r="Q31" s="167"/>
     </row>
     <row r="32" spans="1:17" s="113" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A32" s="172">
+      <c r="A32" s="238">
         <v>29</v>
       </c>
-      <c r="B32" s="173" t="s">
+      <c r="B32" s="262" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="174" t="s">
+      <c r="C32" s="253" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="175"/>
-      <c r="E32" s="176" t="s">
+      <c r="D32" s="254"/>
+      <c r="E32" s="255" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="176" t="s">
+      <c r="F32" s="255" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="177">
+      <c r="G32" s="256">
         <v>43802</v>
       </c>
-      <c r="H32" s="178" t="s">
+      <c r="H32" s="257" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="172" t="s">
+      <c r="I32" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="172"/>
-      <c r="K32" s="179"/>
-      <c r="L32" s="232" t="s">
-        <v>242</v>
-      </c>
-      <c r="M32" s="180"/>
-      <c r="N32" s="181"/>
-      <c r="O32" s="172"/>
-      <c r="P32" s="182" t="s">
+      <c r="J32" s="238" t="s">
+        <v>321</v>
+      </c>
+      <c r="K32" s="258">
+        <v>43837</v>
+      </c>
+      <c r="L32" s="248" t="s">
+        <v>318</v>
+      </c>
+      <c r="M32" s="249"/>
+      <c r="N32" s="259"/>
+      <c r="O32" s="238"/>
+      <c r="P32" s="260" t="s">
         <v>269</v>
       </c>
-      <c r="Q32" s="183" t="s">
+      <c r="Q32" s="263" t="s">
         <v>150</v>
       </c>
     </row>
@@ -8552,9 +8731,11 @@
       <c r="I36" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="207"/>
+      <c r="J36" s="207" t="s">
+        <v>274</v>
+      </c>
       <c r="K36" s="208">
-        <v>43833</v>
+        <v>43837</v>
       </c>
       <c r="L36" s="159" t="s">
         <v>240</v>
@@ -8999,10 +9180,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="140" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C50" s="141" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D50" s="142"/>
       <c r="E50" s="143"/>
@@ -9114,7 +9295,7 @@
       <c r="N53" s="148"/>
       <c r="O53" s="149"/>
       <c r="P53" s="150" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q53" s="151" t="s">
         <v>151</v>
@@ -9136,7 +9317,7 @@
       <c r="G54" s="144"/>
       <c r="H54" s="145"/>
       <c r="I54" s="149"/>
-      <c r="J54" s="239" t="s">
+      <c r="J54" s="236" t="s">
         <v>274</v>
       </c>
       <c r="K54" s="147">
@@ -9264,8 +9445,8 @@
       <c r="G58" s="144"/>
       <c r="H58" s="145"/>
       <c r="I58" s="149"/>
-      <c r="J58" s="239" t="s">
-        <v>288</v>
+      <c r="J58" s="236" t="s">
+        <v>287</v>
       </c>
       <c r="K58" s="147">
         <v>43828</v>
@@ -9295,9 +9476,11 @@
       <c r="G59" s="205"/>
       <c r="H59" s="206"/>
       <c r="I59" s="210"/>
-      <c r="J59" s="207"/>
+      <c r="J59" s="268" t="s">
+        <v>326</v>
+      </c>
       <c r="K59" s="208">
-        <v>43833</v>
+        <v>43837</v>
       </c>
       <c r="L59" s="159" t="s">
         <v>240</v>
@@ -9560,33 +9743,31 @@
       <c r="Q68" s="222"/>
     </row>
     <row r="69" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A69" s="172">
+      <c r="A69" s="168">
         <v>66</v>
       </c>
-      <c r="B69" s="223" t="s">
+      <c r="B69" s="191" t="s">
         <v>210</v>
       </c>
-      <c r="C69" s="224" t="s">
+      <c r="C69" s="192" t="s">
         <v>186</v>
       </c>
-      <c r="D69" s="225"/>
-      <c r="E69" s="226"/>
-      <c r="F69" s="226"/>
-      <c r="G69" s="227"/>
-      <c r="H69" s="228"/>
-      <c r="I69" s="229"/>
-      <c r="J69" s="230"/>
-      <c r="K69" s="231"/>
-      <c r="L69" s="232" t="s">
-        <v>242</v>
-      </c>
-      <c r="M69" s="180"/>
-      <c r="N69" s="233"/>
-      <c r="O69" s="229"/>
-      <c r="P69" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q69" s="235" t="s">
+      <c r="D69" s="193"/>
+      <c r="E69" s="194"/>
+      <c r="F69" s="194"/>
+      <c r="G69" s="195"/>
+      <c r="H69" s="221"/>
+      <c r="I69" s="200"/>
+      <c r="J69" s="196"/>
+      <c r="K69" s="197"/>
+      <c r="L69" s="198"/>
+      <c r="M69" s="171"/>
+      <c r="N69" s="199"/>
+      <c r="O69" s="200"/>
+      <c r="P69" s="201" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q69" s="222" t="s">
         <v>151</v>
       </c>
     </row>
@@ -9649,33 +9830,31 @@
       <c r="Q71" s="151"/>
     </row>
     <row r="72" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A72" s="172">
+      <c r="A72" s="120">
         <v>69</v>
       </c>
-      <c r="B72" s="223" t="s">
+      <c r="B72" s="140" t="s">
         <v>210</v>
       </c>
-      <c r="C72" s="224" t="s">
+      <c r="C72" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="D72" s="225"/>
-      <c r="E72" s="226"/>
-      <c r="F72" s="226"/>
-      <c r="G72" s="227"/>
-      <c r="H72" s="228"/>
-      <c r="I72" s="229"/>
-      <c r="J72" s="230"/>
-      <c r="K72" s="231"/>
-      <c r="L72" s="232" t="s">
-        <v>242</v>
-      </c>
-      <c r="M72" s="180"/>
-      <c r="N72" s="233"/>
-      <c r="O72" s="229"/>
-      <c r="P72" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q72" s="235" t="s">
+      <c r="D72" s="142"/>
+      <c r="E72" s="143"/>
+      <c r="F72" s="143"/>
+      <c r="G72" s="144"/>
+      <c r="H72" s="145"/>
+      <c r="I72" s="149"/>
+      <c r="J72" s="146"/>
+      <c r="K72" s="147"/>
+      <c r="L72" s="189" t="s">
+        <v>320</v>
+      </c>
+      <c r="M72" s="128"/>
+      <c r="N72" s="148"/>
+      <c r="O72" s="149"/>
+      <c r="P72" s="150"/>
+      <c r="Q72" s="151" t="s">
         <v>193</v>
       </c>
     </row>
@@ -9749,7 +9928,7 @@
       <c r="G75" s="144"/>
       <c r="H75" s="145"/>
       <c r="I75" s="149"/>
-      <c r="J75" s="239" t="s">
+      <c r="J75" s="236" t="s">
         <v>278</v>
       </c>
       <c r="K75" s="147">
@@ -9784,7 +9963,7 @@
       <c r="G76" s="144"/>
       <c r="H76" s="145"/>
       <c r="I76" s="149"/>
-      <c r="J76" s="239" t="s">
+      <c r="J76" s="236" t="s">
         <v>278</v>
       </c>
       <c r="K76" s="147">
@@ -9817,7 +9996,7 @@
       <c r="G77" s="227"/>
       <c r="H77" s="228"/>
       <c r="I77" s="229"/>
-      <c r="J77" s="240" t="s">
+      <c r="J77" s="237" t="s">
         <v>278</v>
       </c>
       <c r="K77" s="231">
@@ -9830,7 +10009,7 @@
       <c r="N77" s="233"/>
       <c r="O77" s="229"/>
       <c r="P77" s="234" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="Q77" s="235" t="s">
         <v>151</v>
@@ -10006,7 +10185,9 @@
       <c r="P83" s="234" t="s">
         <v>271</v>
       </c>
-      <c r="Q83" s="235"/>
+      <c r="Q83" s="235" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="84" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A84" s="120">
@@ -10040,33 +10221,37 @@
       <c r="Q84" s="151"/>
     </row>
     <row r="85" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A85" s="172">
+      <c r="A85" s="238">
         <v>82</v>
       </c>
-      <c r="B85" s="223" t="s">
+      <c r="B85" s="239" t="s">
         <v>210</v>
       </c>
-      <c r="C85" s="224" t="s">
+      <c r="C85" s="240" t="s">
         <v>205</v>
       </c>
-      <c r="D85" s="225"/>
-      <c r="E85" s="226"/>
-      <c r="F85" s="226"/>
-      <c r="G85" s="227"/>
-      <c r="H85" s="228"/>
-      <c r="I85" s="229"/>
-      <c r="J85" s="230"/>
-      <c r="K85" s="231"/>
-      <c r="L85" s="232" t="s">
-        <v>242</v>
-      </c>
-      <c r="M85" s="180"/>
-      <c r="N85" s="233"/>
-      <c r="O85" s="229"/>
-      <c r="P85" s="234" t="s">
+      <c r="D85" s="241"/>
+      <c r="E85" s="242"/>
+      <c r="F85" s="242"/>
+      <c r="G85" s="243"/>
+      <c r="H85" s="244"/>
+      <c r="I85" s="245"/>
+      <c r="J85" s="246" t="s">
+        <v>321</v>
+      </c>
+      <c r="K85" s="247">
+        <v>43837</v>
+      </c>
+      <c r="L85" s="248" t="s">
+        <v>318</v>
+      </c>
+      <c r="M85" s="249"/>
+      <c r="N85" s="250"/>
+      <c r="O85" s="245"/>
+      <c r="P85" s="251" t="s">
         <v>269</v>
       </c>
-      <c r="Q85" s="235" t="s">
+      <c r="Q85" s="252" t="s">
         <v>151</v>
       </c>
     </row>
@@ -10086,9 +10271,11 @@
       <c r="G86" s="205"/>
       <c r="H86" s="206"/>
       <c r="I86" s="210"/>
-      <c r="J86" s="207"/>
-      <c r="K86" s="208">
-        <v>43833</v>
+      <c r="J86" s="207" t="s">
+        <v>274</v>
+      </c>
+      <c r="K86" s="158">
+        <v>43838</v>
       </c>
       <c r="L86" s="219" t="s">
         <v>240</v>
@@ -10146,7 +10333,7 @@
         <v>274</v>
       </c>
       <c r="K88" s="208">
-        <v>43828</v>
+        <v>43836</v>
       </c>
       <c r="L88" s="219" t="s">
         <v>240</v>
@@ -10237,7 +10424,7 @@
         <v>276</v>
       </c>
       <c r="K91" s="208">
-        <v>43828</v>
+        <v>43837</v>
       </c>
       <c r="L91" s="219" t="s">
         <v>244</v>
@@ -10392,91 +10579,105 @@
       <c r="Q96" s="151"/>
     </row>
     <row r="97" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A97" s="172">
+      <c r="A97" s="238">
         <v>94</v>
       </c>
-      <c r="B97" s="223" t="s">
+      <c r="B97" s="239" t="s">
         <v>236</v>
       </c>
-      <c r="C97" s="224" t="s">
+      <c r="C97" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="D97" s="225"/>
-      <c r="E97" s="226"/>
-      <c r="F97" s="226"/>
-      <c r="G97" s="227"/>
-      <c r="H97" s="228"/>
-      <c r="I97" s="229"/>
-      <c r="J97" s="230"/>
-      <c r="K97" s="231"/>
-      <c r="L97" s="232" t="s">
-        <v>242</v>
-      </c>
-      <c r="M97" s="180"/>
-      <c r="N97" s="233"/>
-      <c r="O97" s="229"/>
-      <c r="P97" s="234" t="s">
+      <c r="D97" s="241"/>
+      <c r="E97" s="242"/>
+      <c r="F97" s="242"/>
+      <c r="G97" s="243"/>
+      <c r="H97" s="244"/>
+      <c r="I97" s="245"/>
+      <c r="J97" s="246" t="s">
+        <v>322</v>
+      </c>
+      <c r="K97" s="247">
+        <v>43836</v>
+      </c>
+      <c r="L97" s="248" t="s">
+        <v>318</v>
+      </c>
+      <c r="M97" s="249"/>
+      <c r="N97" s="250"/>
+      <c r="O97" s="245"/>
+      <c r="P97" s="251" t="s">
         <v>273</v>
       </c>
-      <c r="Q97" s="235"/>
+      <c r="Q97" s="252" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="98" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A98" s="172">
+      <c r="A98" s="152">
         <v>95</v>
       </c>
-      <c r="B98" s="223" t="s">
+      <c r="B98" s="217" t="s">
         <v>235</v>
       </c>
-      <c r="C98" s="224" t="s">
+      <c r="C98" s="203" t="s">
         <v>225</v>
       </c>
-      <c r="D98" s="225"/>
-      <c r="E98" s="226"/>
-      <c r="F98" s="226"/>
-      <c r="G98" s="227"/>
-      <c r="H98" s="228"/>
-      <c r="I98" s="229"/>
-      <c r="J98" s="230"/>
-      <c r="K98" s="231"/>
-      <c r="L98" s="232" t="s">
-        <v>242</v>
-      </c>
-      <c r="M98" s="180"/>
-      <c r="N98" s="233"/>
-      <c r="O98" s="229"/>
-      <c r="P98" s="234" t="s">
+      <c r="D98" s="204"/>
+      <c r="E98" s="218"/>
+      <c r="F98" s="218"/>
+      <c r="G98" s="205"/>
+      <c r="H98" s="206"/>
+      <c r="I98" s="210"/>
+      <c r="J98" s="207" t="s">
+        <v>322</v>
+      </c>
+      <c r="K98" s="208">
+        <v>43836</v>
+      </c>
+      <c r="L98" s="219" t="s">
+        <v>325</v>
+      </c>
+      <c r="M98" s="160"/>
+      <c r="N98" s="209"/>
+      <c r="O98" s="210"/>
+      <c r="P98" s="211" t="s">
         <v>273</v>
       </c>
-      <c r="Q98" s="235"/>
+      <c r="Q98" s="220"/>
     </row>
     <row r="99" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A99" s="172">
+      <c r="A99" s="238">
         <v>96</v>
       </c>
-      <c r="B99" s="223" t="s">
+      <c r="B99" s="239" t="s">
         <v>235</v>
       </c>
-      <c r="C99" s="224" t="s">
+      <c r="C99" s="240" t="s">
         <v>226</v>
       </c>
-      <c r="D99" s="225"/>
-      <c r="E99" s="226"/>
-      <c r="F99" s="226"/>
-      <c r="G99" s="227"/>
-      <c r="H99" s="228"/>
-      <c r="I99" s="229"/>
-      <c r="J99" s="230"/>
-      <c r="K99" s="231"/>
-      <c r="L99" s="232" t="s">
-        <v>242</v>
-      </c>
-      <c r="M99" s="180"/>
-      <c r="N99" s="233"/>
-      <c r="O99" s="229"/>
-      <c r="P99" s="234" t="s">
+      <c r="D99" s="241"/>
+      <c r="E99" s="242"/>
+      <c r="F99" s="242"/>
+      <c r="G99" s="243"/>
+      <c r="H99" s="244"/>
+      <c r="I99" s="245"/>
+      <c r="J99" s="246" t="s">
+        <v>322</v>
+      </c>
+      <c r="K99" s="247">
+        <v>43837</v>
+      </c>
+      <c r="L99" s="248" t="s">
+        <v>318</v>
+      </c>
+      <c r="M99" s="249"/>
+      <c r="N99" s="250"/>
+      <c r="O99" s="245"/>
+      <c r="P99" s="251" t="s">
         <v>268</v>
       </c>
-      <c r="Q99" s="235" t="s">
+      <c r="Q99" s="252" t="s">
         <v>150</v>
       </c>
     </row>
@@ -10641,7 +10842,7 @@
       <c r="G105" s="144"/>
       <c r="H105" s="145"/>
       <c r="I105" s="149"/>
-      <c r="J105" s="239" t="s">
+      <c r="J105" s="236" t="s">
         <v>278</v>
       </c>
       <c r="K105" s="147">
@@ -10674,7 +10875,7 @@
       <c r="G106" s="144"/>
       <c r="H106" s="145"/>
       <c r="I106" s="149"/>
-      <c r="J106" s="239" t="s">
+      <c r="J106" s="236" t="s">
         <v>278</v>
       </c>
       <c r="K106" s="147">
@@ -10823,7 +11024,7 @@
       <c r="G111" s="144"/>
       <c r="H111" s="145"/>
       <c r="I111" s="149"/>
-      <c r="J111" s="239" t="s">
+      <c r="J111" s="236" t="s">
         <v>279</v>
       </c>
       <c r="K111" s="147">
@@ -10949,31 +11150,35 @@
       <c r="Q115" s="151"/>
     </row>
     <row r="116" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A116" s="172">
+      <c r="A116" s="238">
         <v>114</v>
       </c>
-      <c r="B116" s="223"/>
-      <c r="C116" s="224" t="s">
+      <c r="B116" s="239"/>
+      <c r="C116" s="240" t="s">
         <v>258</v>
       </c>
-      <c r="D116" s="225"/>
-      <c r="E116" s="226"/>
-      <c r="F116" s="226"/>
-      <c r="G116" s="227"/>
-      <c r="H116" s="228"/>
-      <c r="I116" s="229"/>
-      <c r="J116" s="230"/>
-      <c r="K116" s="231"/>
-      <c r="L116" s="232" t="s">
-        <v>259</v>
-      </c>
-      <c r="M116" s="180"/>
-      <c r="N116" s="233"/>
-      <c r="O116" s="229"/>
-      <c r="P116" s="234" t="s">
+      <c r="D116" s="241"/>
+      <c r="E116" s="242"/>
+      <c r="F116" s="242"/>
+      <c r="G116" s="243"/>
+      <c r="H116" s="244"/>
+      <c r="I116" s="245"/>
+      <c r="J116" s="264" t="s">
+        <v>323</v>
+      </c>
+      <c r="K116" s="247">
+        <v>43836</v>
+      </c>
+      <c r="L116" s="248" t="s">
+        <v>318</v>
+      </c>
+      <c r="M116" s="249"/>
+      <c r="N116" s="250"/>
+      <c r="O116" s="245"/>
+      <c r="P116" s="251" t="s">
         <v>262</v>
       </c>
-      <c r="Q116" s="235" t="s">
+      <c r="Q116" s="252" t="s">
         <v>261</v>
       </c>
     </row>
@@ -10983,7 +11188,7 @@
       </c>
       <c r="B117" s="217"/>
       <c r="C117" s="203" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D117" s="204"/>
       <c r="E117" s="218"/>
@@ -10994,16 +11199,18 @@
       <c r="J117" s="207" t="s">
         <v>274</v>
       </c>
-      <c r="K117" s="208"/>
+      <c r="K117" s="208">
+        <v>43836</v>
+      </c>
       <c r="L117" s="219" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M117" s="160"/>
       <c r="N117" s="209"/>
       <c r="O117" s="210"/>
       <c r="P117" s="211"/>
       <c r="Q117" s="220" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
@@ -11012,7 +11219,7 @@
       </c>
       <c r="B118" s="140"/>
       <c r="C118" s="141" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D118" s="142"/>
       <c r="E118" s="143"/>
@@ -11029,7 +11236,7 @@
       <c r="N118" s="148"/>
       <c r="O118" s="149"/>
       <c r="P118" s="150" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="Q118" s="151"/>
     </row>
@@ -11039,7 +11246,7 @@
       </c>
       <c r="B119" s="217"/>
       <c r="C119" s="203" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D119" s="204"/>
       <c r="E119" s="218"/>
@@ -11050,14 +11257,18 @@
       <c r="J119" s="207" t="s">
         <v>277</v>
       </c>
-      <c r="K119" s="208"/>
+      <c r="K119" s="208">
+        <v>43836</v>
+      </c>
       <c r="L119" s="219" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M119" s="160"/>
       <c r="N119" s="209"/>
       <c r="O119" s="210"/>
-      <c r="P119" s="211"/>
+      <c r="P119" s="211" t="s">
+        <v>329</v>
+      </c>
       <c r="Q119" s="220"/>
     </row>
     <row r="120" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
@@ -11066,7 +11277,7 @@
       </c>
       <c r="B120" s="217"/>
       <c r="C120" s="203" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D120" s="204"/>
       <c r="E120" s="218"/>
@@ -11077,16 +11288,18 @@
       <c r="J120" s="207" t="s">
         <v>274</v>
       </c>
-      <c r="K120" s="208"/>
+      <c r="K120" s="208">
+        <v>43836</v>
+      </c>
       <c r="L120" s="219" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M120" s="160"/>
       <c r="N120" s="209"/>
       <c r="O120" s="210"/>
       <c r="P120" s="211"/>
       <c r="Q120" s="220" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
@@ -11095,7 +11308,7 @@
       </c>
       <c r="B121" s="223"/>
       <c r="C121" s="224" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D121" s="225"/>
       <c r="E121" s="226"/>
@@ -11106,16 +11319,16 @@
       <c r="J121" s="230"/>
       <c r="K121" s="231"/>
       <c r="L121" s="232" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M121" s="180"/>
       <c r="N121" s="233"/>
       <c r="O121" s="229"/>
       <c r="P121" s="234" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q121" s="235" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
@@ -11124,7 +11337,7 @@
       </c>
       <c r="B122" s="217"/>
       <c r="C122" s="203" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D122" s="204"/>
       <c r="E122" s="218"/>
@@ -11135,9 +11348,11 @@
       <c r="J122" s="207" t="s">
         <v>274</v>
       </c>
-      <c r="K122" s="208"/>
+      <c r="K122" s="208">
+        <v>43836</v>
+      </c>
       <c r="L122" s="219" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M122" s="160"/>
       <c r="N122" s="209"/>
@@ -11151,7 +11366,7 @@
       </c>
       <c r="B123" s="217"/>
       <c r="C123" s="203" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D123" s="204"/>
       <c r="E123" s="218"/>
@@ -11162,9 +11377,11 @@
       <c r="J123" s="207" t="s">
         <v>274</v>
       </c>
-      <c r="K123" s="208"/>
+      <c r="K123" s="208">
+        <v>43836</v>
+      </c>
       <c r="L123" s="219" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M123" s="160"/>
       <c r="N123" s="209"/>
@@ -11178,7 +11395,7 @@
       </c>
       <c r="B124" s="191"/>
       <c r="C124" s="192" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D124" s="193"/>
       <c r="E124" s="194"/>
@@ -11193,7 +11410,7 @@
       <c r="N124" s="199"/>
       <c r="O124" s="200"/>
       <c r="P124" s="201" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q124" s="222"/>
     </row>
@@ -11203,7 +11420,7 @@
       </c>
       <c r="B125" s="140"/>
       <c r="C125" s="141" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D125" s="142"/>
       <c r="E125" s="143"/>
@@ -11220,7 +11437,7 @@
       <c r="N125" s="148"/>
       <c r="O125" s="149"/>
       <c r="P125" s="150" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q125" s="151"/>
     </row>
@@ -11230,7 +11447,7 @@
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D126" s="71"/>
       <c r="E126" s="109"/>
@@ -11240,7 +11457,9 @@
       <c r="I126" s="62"/>
       <c r="J126" s="33"/>
       <c r="K126" s="72"/>
-      <c r="L126" s="73"/>
+      <c r="L126" s="73" t="s">
+        <v>317</v>
+      </c>
       <c r="M126" s="10"/>
       <c r="N126" s="63"/>
       <c r="O126" s="64"/>
@@ -11248,50 +11467,62 @@
       <c r="Q126" s="133"/>
     </row>
     <row r="127" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A127" s="112">
+      <c r="A127" s="172">
         <v>125</v>
       </c>
-      <c r="B127" s="39"/>
-      <c r="C127" s="46" t="s">
+      <c r="B127" s="223"/>
+      <c r="C127" s="224" t="s">
+        <v>300</v>
+      </c>
+      <c r="D127" s="225"/>
+      <c r="E127" s="226"/>
+      <c r="F127" s="226"/>
+      <c r="G127" s="227"/>
+      <c r="H127" s="228"/>
+      <c r="I127" s="229"/>
+      <c r="J127" s="230"/>
+      <c r="K127" s="231"/>
+      <c r="L127" s="232" t="s">
+        <v>316</v>
+      </c>
+      <c r="M127" s="180"/>
+      <c r="N127" s="233"/>
+      <c r="O127" s="229"/>
+      <c r="P127" s="234" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q127" s="235" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A128" s="152">
+        <v>126</v>
+      </c>
+      <c r="B128" s="217"/>
+      <c r="C128" s="203" t="s">
         <v>301</v>
       </c>
-      <c r="D127" s="71"/>
-      <c r="E127" s="109"/>
-      <c r="F127" s="109"/>
-      <c r="G127" s="60"/>
-      <c r="H127" s="61"/>
-      <c r="I127" s="62"/>
-      <c r="J127" s="33"/>
-      <c r="K127" s="72"/>
-      <c r="L127" s="73"/>
-      <c r="M127" s="10"/>
-      <c r="N127" s="63"/>
-      <c r="O127" s="64"/>
-      <c r="P127" s="34"/>
-      <c r="Q127" s="133"/>
-    </row>
-    <row r="128" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A128" s="112">
-        <v>126</v>
-      </c>
-      <c r="B128" s="39"/>
-      <c r="C128" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="D128" s="71"/>
-      <c r="E128" s="109"/>
-      <c r="F128" s="109"/>
-      <c r="G128" s="60"/>
-      <c r="H128" s="61"/>
-      <c r="I128" s="62"/>
-      <c r="J128" s="33"/>
-      <c r="K128" s="72"/>
-      <c r="L128" s="73"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="63"/>
-      <c r="O128" s="64"/>
-      <c r="P128" s="34"/>
-      <c r="Q128" s="133"/>
+      <c r="D128" s="204"/>
+      <c r="E128" s="218"/>
+      <c r="F128" s="218"/>
+      <c r="G128" s="205"/>
+      <c r="H128" s="206"/>
+      <c r="I128" s="210"/>
+      <c r="J128" s="207" t="s">
+        <v>274</v>
+      </c>
+      <c r="K128" s="208">
+        <v>43836</v>
+      </c>
+      <c r="L128" s="219" t="s">
+        <v>244</v>
+      </c>
+      <c r="M128" s="160"/>
+      <c r="N128" s="209"/>
+      <c r="O128" s="210"/>
+      <c r="P128" s="211"/>
+      <c r="Q128" s="220"/>
     </row>
     <row r="129" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A129" s="152">
@@ -11299,7 +11530,7 @@
       </c>
       <c r="B129" s="217"/>
       <c r="C129" s="203" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D129" s="204"/>
       <c r="E129" s="218"/>
@@ -11307,10 +11538,14 @@
       <c r="G129" s="205"/>
       <c r="H129" s="206"/>
       <c r="I129" s="210"/>
-      <c r="J129" s="207"/>
-      <c r="K129" s="208"/>
+      <c r="J129" s="207" t="s">
+        <v>274</v>
+      </c>
+      <c r="K129" s="208">
+        <v>43836</v>
+      </c>
       <c r="L129" s="219" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M129" s="160"/>
       <c r="N129" s="209"/>
@@ -11319,50 +11554,54 @@
       <c r="Q129" s="220"/>
     </row>
     <row r="130" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A130" s="112">
+      <c r="A130" s="168">
         <v>128</v>
       </c>
-      <c r="B130" s="39"/>
-      <c r="C130" s="46" t="s">
+      <c r="B130" s="191"/>
+      <c r="C130" s="192" t="s">
+        <v>303</v>
+      </c>
+      <c r="D130" s="193"/>
+      <c r="E130" s="194"/>
+      <c r="F130" s="194"/>
+      <c r="G130" s="195"/>
+      <c r="H130" s="221"/>
+      <c r="I130" s="200"/>
+      <c r="J130" s="196"/>
+      <c r="K130" s="197"/>
+      <c r="L130" s="198"/>
+      <c r="M130" s="171"/>
+      <c r="N130" s="199"/>
+      <c r="O130" s="200"/>
+      <c r="P130" s="201" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q130" s="222"/>
+    </row>
+    <row r="131" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A131" s="120">
+        <v>129</v>
+      </c>
+      <c r="B131" s="140"/>
+      <c r="C131" s="141" t="s">
         <v>304</v>
       </c>
-      <c r="D130" s="71"/>
-      <c r="E130" s="109"/>
-      <c r="F130" s="109"/>
-      <c r="G130" s="60"/>
-      <c r="H130" s="61"/>
-      <c r="I130" s="62"/>
-      <c r="J130" s="33"/>
-      <c r="K130" s="72"/>
-      <c r="L130" s="73"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="63"/>
-      <c r="O130" s="64"/>
-      <c r="P130" s="34"/>
-      <c r="Q130" s="133"/>
-    </row>
-    <row r="131" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A131" s="112">
-        <v>129</v>
-      </c>
-      <c r="B131" s="39"/>
-      <c r="C131" s="46" t="s">
-        <v>305</v>
-      </c>
-      <c r="D131" s="71"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
-      <c r="G131" s="60"/>
-      <c r="H131" s="61"/>
-      <c r="I131" s="62"/>
-      <c r="J131" s="33"/>
-      <c r="K131" s="72"/>
-      <c r="L131" s="73"/>
-      <c r="M131" s="10"/>
-      <c r="N131" s="63"/>
-      <c r="O131" s="64"/>
-      <c r="P131" s="34"/>
-      <c r="Q131" s="133"/>
+      <c r="D131" s="142"/>
+      <c r="E131" s="143"/>
+      <c r="F131" s="143"/>
+      <c r="G131" s="144"/>
+      <c r="H131" s="145"/>
+      <c r="I131" s="149"/>
+      <c r="J131" s="146"/>
+      <c r="K131" s="147"/>
+      <c r="L131" s="189" t="s">
+        <v>285</v>
+      </c>
+      <c r="M131" s="128"/>
+      <c r="N131" s="148"/>
+      <c r="O131" s="149"/>
+      <c r="P131" s="150"/>
+      <c r="Q131" s="151"/>
     </row>
     <row r="132" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A132" s="112">
@@ -11843,24 +12082,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="238"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
+      <c r="N1" s="266"/>
+      <c r="O1" s="266"/>
+      <c r="P1" s="267"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="48"/>
@@ -12267,24 +12506,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="238"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
+      <c r="N1" s="266"/>
+      <c r="O1" s="266"/>
+      <c r="P1" s="267"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="48"/>
